--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Optics\Olaf\Software\Olaf-Optical-Testing-Software\Matlab\Support Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Optics\Olaf\Software\BigAssTableOfLenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="481">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1464,10 +1464,10 @@
     <t>100-400mm f/5-6.3 DG OS HSM Contemporary</t>
   </si>
   <si>
-    <t>100-100</t>
-  </si>
-  <si>
     <t>Added Fuji 18-55 &amp; 55-140 cine lenses and sigma 14mm f/1.8, 135mm f/1.8, 24-70 Art, and 100-400 contemporary, standardized zoom format</t>
+  </si>
+  <si>
+    <t>Correct typo on sigma 100-400mm efl</t>
   </si>
 </sst>
 </file>
@@ -1877,8 +1877,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15498,7 +15498,7 @@
         <v>6.3</v>
       </c>
       <c r="I324" s="4" t="s">
-        <v>479</v>
+        <v>407</v>
       </c>
       <c r="J324" s="4" t="s">
         <v>182</v>
@@ -15524,10 +15524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15804,6 +15804,14 @@
         <v>42788</v>
       </c>
       <c r="B35" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>42831</v>
+      </c>
+      <c r="B36" t="s">
         <v>480</v>
       </c>
     </row>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="491">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1492,6 +1492,12 @@
   </si>
   <si>
     <t>28mm Summaron and tokina firin prices, 70-200 G2 and 135mm batis added, delete samyang (duplicate rokinon), new variety column</t>
+  </si>
+  <si>
+    <t>Add unique ID/index</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -1577,12 +1583,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N322" totalsRowShown="0">
-  <autoFilter ref="A1:N322"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O322" totalsRowShown="0">
+  <autoFilter ref="A1:O322"/>
   <sortState ref="A2:M318">
     <sortCondition ref="A1:A318"/>
   </sortState>
-  <tableColumns count="14">
+  <tableColumns count="15">
     <tableColumn id="1" name="Manufacture"/>
     <tableColumn id="2" name="Model"/>
     <tableColumn id="3" name="Release Year"/>
@@ -1597,6 +1603,7 @@
     <tableColumn id="9" name="Cinema"/>
     <tableColumn id="13" name="Format"/>
     <tableColumn id="14" name="Variety"/>
+    <tableColumn id="15" name="Index"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1900,10 +1907,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N322"/>
+  <dimension ref="A1:O322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="O316" sqref="O316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1922,7 +1929,7 @@
     <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1965,8 +1972,11 @@
       <c r="N1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2011,8 +2021,11 @@
       <c r="N2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2057,8 +2070,11 @@
       <c r="N3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2103,8 +2119,11 @@
       <c r="N4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2149,8 +2168,11 @@
       <c r="N5" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2195,8 +2217,11 @@
       <c r="N6" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2241,8 +2266,11 @@
       <c r="N7" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2287,8 +2315,11 @@
       <c r="N8" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2333,8 +2364,11 @@
       <c r="N9" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2379,8 +2413,11 @@
       <c r="N10" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2425,8 +2462,11 @@
       <c r="N11" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2471,8 +2511,11 @@
       <c r="N12" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2517,8 +2560,11 @@
       <c r="N13" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2563,8 +2609,11 @@
       <c r="N14" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2609,8 +2658,11 @@
       <c r="N15" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2655,8 +2707,11 @@
       <c r="N16" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2701,8 +2756,11 @@
       <c r="N17" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2747,8 +2805,11 @@
       <c r="N18" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2793,8 +2854,11 @@
       <c r="N19" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -2839,8 +2903,11 @@
       <c r="N20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -2885,8 +2952,11 @@
       <c r="N21" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2931,8 +3001,11 @@
       <c r="N22" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2977,8 +3050,11 @@
       <c r="N23" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3023,8 +3099,11 @@
       <c r="N24" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3069,8 +3148,11 @@
       <c r="N25" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3115,8 +3197,11 @@
       <c r="N26" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3161,8 +3246,11 @@
       <c r="N27" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3207,8 +3295,11 @@
       <c r="N28" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3253,8 +3344,11 @@
       <c r="N29" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -3299,8 +3393,11 @@
       <c r="N30" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -3345,8 +3442,11 @@
       <c r="N31" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -3391,8 +3491,11 @@
       <c r="N32" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -3437,8 +3540,11 @@
       <c r="N33" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -3483,8 +3589,11 @@
       <c r="N34" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -3529,8 +3638,11 @@
       <c r="N35" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -3575,8 +3687,11 @@
       <c r="N36" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -3621,8 +3736,11 @@
       <c r="N37" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3667,8 +3785,11 @@
       <c r="N38" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -3713,8 +3834,11 @@
       <c r="N39" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -3759,8 +3883,11 @@
       <c r="N40" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -3805,8 +3932,11 @@
       <c r="N41" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -3851,8 +3981,11 @@
       <c r="N42" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -3897,8 +4030,11 @@
       <c r="N43" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -3941,8 +4077,11 @@
       <c r="N44" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -3987,8 +4126,11 @@
       <c r="N45" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4033,8 +4175,11 @@
       <c r="N46" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4079,8 +4224,11 @@
       <c r="N47" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4125,8 +4273,11 @@
       <c r="N48" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4171,8 +4322,11 @@
       <c r="N49" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4217,8 +4371,11 @@
       <c r="N50" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4263,8 +4420,11 @@
       <c r="N51" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4309,8 +4469,11 @@
       <c r="N52" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4355,8 +4518,11 @@
       <c r="N53" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4401,8 +4567,11 @@
       <c r="N54" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -4447,8 +4616,11 @@
       <c r="N55" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -4493,8 +4665,11 @@
       <c r="N56" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -4539,8 +4714,11 @@
       <c r="N57" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -4585,8 +4763,11 @@
       <c r="N58" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -4631,8 +4812,11 @@
       <c r="N59" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -4677,8 +4861,11 @@
       <c r="N60" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -4721,8 +4908,11 @@
       <c r="N61" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -4767,8 +4957,11 @@
       <c r="N62" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -4811,8 +5004,11 @@
       <c r="N63" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -4855,8 +5051,11 @@
       <c r="N64" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -4899,8 +5098,11 @@
       <c r="N65" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="N66" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -4987,8 +5192,11 @@
       <c r="N67" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>379</v>
       </c>
@@ -5031,8 +5239,11 @@
       <c r="N68" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>379</v>
       </c>
@@ -5075,8 +5286,11 @@
       <c r="N69" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>379</v>
       </c>
@@ -5119,8 +5333,11 @@
       <c r="N70" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>379</v>
       </c>
@@ -5163,8 +5380,11 @@
       <c r="N71" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>379</v>
       </c>
@@ -5207,8 +5427,11 @@
       <c r="N72" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>379</v>
       </c>
@@ -5251,8 +5474,11 @@
       <c r="N73" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O73" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>379</v>
       </c>
@@ -5295,8 +5521,11 @@
       <c r="N74" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>379</v>
       </c>
@@ -5339,8 +5568,11 @@
       <c r="N75" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>379</v>
       </c>
@@ -5383,8 +5615,11 @@
       <c r="N76" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>379</v>
       </c>
@@ -5427,8 +5662,11 @@
       <c r="N77" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>379</v>
       </c>
@@ -5471,8 +5709,11 @@
       <c r="N78" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>379</v>
       </c>
@@ -5515,8 +5756,11 @@
       <c r="N79" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>379</v>
       </c>
@@ -5559,8 +5803,11 @@
       <c r="N80" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>379</v>
       </c>
@@ -5603,8 +5850,11 @@
       <c r="N81" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>379</v>
       </c>
@@ -5647,8 +5897,11 @@
       <c r="N82" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>379</v>
       </c>
@@ -5691,8 +5944,11 @@
       <c r="N83" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>379</v>
       </c>
@@ -5735,8 +5991,11 @@
       <c r="N84" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>379</v>
       </c>
@@ -5779,8 +6038,11 @@
       <c r="N85" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>379</v>
       </c>
@@ -5823,8 +6085,11 @@
       <c r="N86" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O86" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>379</v>
       </c>
@@ -5867,8 +6132,11 @@
       <c r="N87" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O87" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>379</v>
       </c>
@@ -5908,8 +6176,11 @@
       <c r="N88" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>295</v>
       </c>
@@ -5954,8 +6225,11 @@
       <c r="N89" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O89" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>430</v>
       </c>
@@ -5998,8 +6272,11 @@
       <c r="N90" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>430</v>
       </c>
@@ -6042,8 +6319,11 @@
       <c r="N91" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O91" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>234</v>
       </c>
@@ -6086,8 +6366,11 @@
       <c r="N92" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O92" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>234</v>
       </c>
@@ -6130,8 +6413,11 @@
       <c r="N93" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O93" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>234</v>
       </c>
@@ -6174,8 +6460,11 @@
       <c r="N94" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O94" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>234</v>
       </c>
@@ -6218,8 +6507,11 @@
       <c r="N95" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O95" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>234</v>
       </c>
@@ -6262,8 +6554,11 @@
       <c r="N96" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O96" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>234</v>
       </c>
@@ -6306,8 +6601,11 @@
       <c r="N97" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O97" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>234</v>
       </c>
@@ -6352,8 +6650,11 @@
       <c r="N98" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O98" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>234</v>
       </c>
@@ -6399,8 +6700,11 @@
       <c r="N99" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O99" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>234</v>
       </c>
@@ -6445,8 +6749,11 @@
       <c r="N100" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O100" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>234</v>
       </c>
@@ -6489,8 +6796,11 @@
       <c r="N101" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>234</v>
       </c>
@@ -6533,8 +6843,11 @@
       <c r="N102" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O102" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -6577,8 +6890,11 @@
       <c r="N103" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O103" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -6621,8 +6937,11 @@
       <c r="N104" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O104" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>234</v>
       </c>
@@ -6665,8 +6984,11 @@
       <c r="N105" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O105" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>234</v>
       </c>
@@ -6709,8 +7031,11 @@
       <c r="N106" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O106" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>234</v>
       </c>
@@ -6756,8 +7081,11 @@
       <c r="N107" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O107" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>234</v>
       </c>
@@ -6800,8 +7128,11 @@
       <c r="N108" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O108" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -6844,8 +7175,11 @@
       <c r="N109" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O109" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>234</v>
       </c>
@@ -6888,8 +7222,11 @@
       <c r="N110" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O110" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -6932,8 +7269,11 @@
       <c r="N111" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O111" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>234</v>
       </c>
@@ -6976,8 +7316,11 @@
       <c r="N112" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O112" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>234</v>
       </c>
@@ -7020,8 +7363,11 @@
       <c r="N113" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O113" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>234</v>
       </c>
@@ -7064,8 +7410,11 @@
       <c r="N114" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O114" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>234</v>
       </c>
@@ -7108,8 +7457,11 @@
       <c r="N115" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O115" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>234</v>
       </c>
@@ -7155,8 +7507,11 @@
       <c r="N116" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O116" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>234</v>
       </c>
@@ -7202,8 +7557,11 @@
       <c r="N117" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O117" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -7246,8 +7604,11 @@
       <c r="N118" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O118" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -7290,8 +7651,11 @@
       <c r="N119" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O119" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>234</v>
       </c>
@@ -7334,8 +7698,11 @@
       <c r="N120" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O120" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>297</v>
       </c>
@@ -7380,8 +7747,11 @@
       <c r="N121" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O121" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>297</v>
       </c>
@@ -7426,8 +7796,11 @@
       <c r="N122" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O122" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>297</v>
       </c>
@@ -7472,8 +7845,11 @@
       <c r="N123" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O123" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -7518,8 +7894,11 @@
       <c r="N124" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O124" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -7564,8 +7943,11 @@
       <c r="N125" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O125" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -7610,8 +7992,11 @@
       <c r="N126" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O126" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -7656,8 +8041,11 @@
       <c r="N127" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O127" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -7702,8 +8090,11 @@
       <c r="N128" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O128" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -7748,8 +8139,11 @@
       <c r="N129" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O129" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -7794,8 +8188,11 @@
       <c r="N130" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O130" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -7840,8 +8237,11 @@
       <c r="N131" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O131" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -7886,8 +8286,11 @@
       <c r="N132" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O132" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -7932,8 +8335,11 @@
       <c r="N133" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O133" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -7978,8 +8384,11 @@
       <c r="N134" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O134" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -8024,8 +8433,11 @@
       <c r="N135" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O135" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -8070,8 +8482,11 @@
       <c r="N136" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O136" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -8116,8 +8531,11 @@
       <c r="N137" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O137" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -8162,8 +8580,11 @@
       <c r="N138" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O138" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -8209,8 +8630,11 @@
       <c r="N139" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O139" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -8255,8 +8679,11 @@
       <c r="N140" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O140" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -8301,8 +8728,11 @@
       <c r="N141" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O141" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -8347,8 +8777,11 @@
       <c r="N142" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O142" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -8393,8 +8826,11 @@
       <c r="N143" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O143" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -8439,8 +8875,11 @@
       <c r="N144" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O144" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -8485,8 +8924,11 @@
       <c r="N145" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O145" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -8531,8 +8973,11 @@
       <c r="N146" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O146" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -8577,8 +9022,11 @@
       <c r="N147" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O147" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -8623,8 +9071,11 @@
       <c r="N148" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O148" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -8669,8 +9120,11 @@
       <c r="N149" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O149" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -8715,8 +9169,11 @@
       <c r="N150" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O150" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -8761,8 +9218,11 @@
       <c r="N151" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O151" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -8807,8 +9267,11 @@
       <c r="N152" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O152" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -8853,8 +9316,11 @@
       <c r="N153" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O153" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -8899,8 +9365,11 @@
       <c r="N154" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O154" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -8945,8 +9414,11 @@
       <c r="N155" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O155" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -8989,8 +9461,11 @@
       <c r="N156" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O156" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -9033,8 +9508,11 @@
       <c r="N157" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O157" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -9077,8 +9555,11 @@
       <c r="N158" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O158" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -9121,8 +9602,11 @@
       <c r="N159" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O159" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -9165,8 +9649,11 @@
       <c r="N160" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O160" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>372</v>
       </c>
@@ -9209,8 +9696,11 @@
       <c r="N161" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O161" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>372</v>
       </c>
@@ -9253,8 +9743,11 @@
       <c r="N162" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O162" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>372</v>
       </c>
@@ -9297,8 +9790,11 @@
       <c r="N163" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O163" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>433</v>
       </c>
@@ -9341,8 +9837,11 @@
       <c r="N164" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O164" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>433</v>
       </c>
@@ -9385,8 +9884,11 @@
       <c r="N165" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O165" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>433</v>
       </c>
@@ -9429,8 +9931,11 @@
       <c r="N166" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O166" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>100</v>
       </c>
@@ -9475,8 +9980,11 @@
       <c r="N167" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O167" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>100</v>
       </c>
@@ -9519,8 +10027,11 @@
       <c r="N168" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O168" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>100</v>
       </c>
@@ -9566,8 +10077,11 @@
       <c r="N169" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O169" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>100</v>
       </c>
@@ -9610,8 +10124,11 @@
       <c r="N170" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O170" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>100</v>
       </c>
@@ -9656,8 +10173,11 @@
       <c r="N171" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O171" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>100</v>
       </c>
@@ -9700,8 +10220,11 @@
       <c r="N172" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O172" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>100</v>
       </c>
@@ -9746,8 +10269,11 @@
       <c r="N173" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O173" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>100</v>
       </c>
@@ -9790,8 +10316,11 @@
       <c r="N174" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O174" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>100</v>
       </c>
@@ -9836,8 +10365,11 @@
       <c r="N175" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O175" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>100</v>
       </c>
@@ -9880,8 +10412,11 @@
       <c r="N176" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O176" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>100</v>
       </c>
@@ -9924,8 +10459,11 @@
       <c r="N177" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O177" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>100</v>
       </c>
@@ -9968,8 +10506,11 @@
       <c r="N178" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O178" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>220</v>
       </c>
@@ -10014,8 +10555,11 @@
       <c r="N179" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O179" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>220</v>
       </c>
@@ -10060,8 +10604,11 @@
       <c r="N180" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O180" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>220</v>
       </c>
@@ -10106,8 +10653,11 @@
       <c r="N181" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O181" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>101</v>
       </c>
@@ -10152,8 +10702,11 @@
       <c r="N182" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O182" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>101</v>
       </c>
@@ -10198,8 +10751,11 @@
       <c r="N183" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O183" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>101</v>
       </c>
@@ -10244,8 +10800,11 @@
       <c r="N184" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O184" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>101</v>
       </c>
@@ -10290,8 +10849,11 @@
       <c r="N185" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O185" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>101</v>
       </c>
@@ -10336,8 +10898,11 @@
       <c r="N186" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O186" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>101</v>
       </c>
@@ -10382,8 +10947,11 @@
       <c r="N187" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O187" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>101</v>
       </c>
@@ -10428,8 +10996,11 @@
       <c r="N188" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O188" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -10474,8 +11045,11 @@
       <c r="N189" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O189" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>101</v>
       </c>
@@ -10520,8 +11094,11 @@
       <c r="N190" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O190" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>101</v>
       </c>
@@ -10566,8 +11143,11 @@
       <c r="N191" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O191" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>101</v>
       </c>
@@ -10612,8 +11192,11 @@
       <c r="N192" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O192" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>101</v>
       </c>
@@ -10656,8 +11239,11 @@
       <c r="N193" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O193" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>101</v>
       </c>
@@ -10700,8 +11286,11 @@
       <c r="N194" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O194" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -10741,8 +11330,11 @@
       <c r="N195" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O195" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>101</v>
       </c>
@@ -10785,8 +11377,11 @@
       <c r="N196" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O196" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -10829,8 +11424,11 @@
       <c r="N197" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O197" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -10873,8 +11471,11 @@
       <c r="N198" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O198" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>168</v>
       </c>
@@ -10919,8 +11520,11 @@
       <c r="N199" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O199" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>168</v>
       </c>
@@ -10965,8 +11569,11 @@
       <c r="N200" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O200" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>168</v>
       </c>
@@ -11011,8 +11618,11 @@
       <c r="N201" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O201" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>168</v>
       </c>
@@ -11057,8 +11667,11 @@
       <c r="N202" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O202" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>168</v>
       </c>
@@ -11103,8 +11716,11 @@
       <c r="N203" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O203" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>168</v>
       </c>
@@ -11149,8 +11765,11 @@
       <c r="N204" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O204" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>168</v>
       </c>
@@ -11196,8 +11815,11 @@
       <c r="N205" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O205" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>168</v>
       </c>
@@ -11242,8 +11864,11 @@
       <c r="N206" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O206" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>168</v>
       </c>
@@ -11288,8 +11913,11 @@
       <c r="N207" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O207" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>168</v>
       </c>
@@ -11334,8 +11962,11 @@
       <c r="N208" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O208" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>168</v>
       </c>
@@ -11380,8 +12011,11 @@
       <c r="N209" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O209" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>168</v>
       </c>
@@ -11426,8 +12060,11 @@
       <c r="N210" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O210" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>168</v>
       </c>
@@ -11472,8 +12109,11 @@
       <c r="N211" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O211" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>168</v>
       </c>
@@ -11518,8 +12158,11 @@
       <c r="N212" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O212" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>168</v>
       </c>
@@ -11564,8 +12207,11 @@
       <c r="N213" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O213" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>168</v>
       </c>
@@ -11608,8 +12254,11 @@
       <c r="N214" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O214" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>184</v>
       </c>
@@ -11654,8 +12303,11 @@
       <c r="N215" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O215" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>184</v>
       </c>
@@ -11700,8 +12352,11 @@
       <c r="N216" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O216" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -11746,8 +12401,11 @@
       <c r="N217" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O217" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>184</v>
       </c>
@@ -11792,8 +12450,11 @@
       <c r="N218" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O218" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>184</v>
       </c>
@@ -11838,8 +12499,11 @@
       <c r="N219" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O219" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>184</v>
       </c>
@@ -11884,8 +12548,11 @@
       <c r="N220" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O220" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>184</v>
       </c>
@@ -11930,8 +12597,11 @@
       <c r="N221" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O221" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>184</v>
       </c>
@@ -11976,8 +12646,11 @@
       <c r="N222" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O222" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>184</v>
       </c>
@@ -12022,8 +12695,11 @@
       <c r="N223" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O223" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>184</v>
       </c>
@@ -12066,8 +12742,11 @@
       <c r="N224" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O224" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>184</v>
       </c>
@@ -12110,8 +12789,11 @@
       <c r="N225" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O225" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>184</v>
       </c>
@@ -12154,8 +12836,11 @@
       <c r="N226" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O226" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>193</v>
       </c>
@@ -12200,8 +12885,11 @@
       <c r="N227" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O227" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>193</v>
       </c>
@@ -12246,8 +12934,11 @@
       <c r="N228" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O228" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>193</v>
       </c>
@@ -12292,8 +12983,11 @@
       <c r="N229" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O229" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>193</v>
       </c>
@@ -12338,8 +13032,11 @@
       <c r="N230" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O230" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>193</v>
       </c>
@@ -12384,8 +13081,11 @@
       <c r="N231" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O231" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>193</v>
       </c>
@@ -12428,8 +13128,11 @@
       <c r="N232" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O232" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>265</v>
       </c>
@@ -12472,8 +13175,11 @@
       <c r="N233" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O233" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>265</v>
       </c>
@@ -12516,8 +13222,11 @@
       <c r="N234" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O234" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>265</v>
       </c>
@@ -12560,8 +13269,11 @@
       <c r="N235" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O235" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>265</v>
       </c>
@@ -12604,8 +13316,11 @@
       <c r="N236" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O236" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>222</v>
       </c>
@@ -12650,8 +13365,11 @@
       <c r="N237" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O237" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>222</v>
       </c>
@@ -12694,8 +13412,11 @@
       <c r="N238" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O238" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>222</v>
       </c>
@@ -12738,8 +13459,11 @@
       <c r="N239" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O239" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>222</v>
       </c>
@@ -12784,8 +13508,11 @@
       <c r="N240" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O240" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>222</v>
       </c>
@@ -12828,8 +13555,11 @@
       <c r="N241" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O241" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>222</v>
       </c>
@@ -12872,8 +13602,11 @@
       <c r="N242" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O242" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>222</v>
       </c>
@@ -12916,8 +13649,11 @@
       <c r="N243" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O243" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>222</v>
       </c>
@@ -12962,8 +13698,11 @@
       <c r="N244" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O244" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>222</v>
       </c>
@@ -13006,8 +13745,11 @@
       <c r="N245" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O245" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>222</v>
       </c>
@@ -13050,8 +13792,11 @@
       <c r="N246" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O246" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>222</v>
       </c>
@@ -13094,8 +13839,11 @@
       <c r="N247" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O247" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>222</v>
       </c>
@@ -13138,8 +13886,11 @@
       <c r="N248" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O248" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>222</v>
       </c>
@@ -13182,8 +13933,11 @@
       <c r="N249" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O249" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>222</v>
       </c>
@@ -13228,8 +13982,11 @@
       <c r="N250" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O250" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>222</v>
       </c>
@@ -13272,8 +14029,11 @@
       <c r="N251" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O251" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>222</v>
       </c>
@@ -13316,8 +14076,11 @@
       <c r="N252" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O252" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>222</v>
       </c>
@@ -13360,8 +14123,11 @@
       <c r="N253" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O253" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>134</v>
       </c>
@@ -13406,8 +14172,11 @@
       <c r="N254" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O254" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>134</v>
       </c>
@@ -13450,8 +14219,11 @@
       <c r="N255" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O255" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>134</v>
       </c>
@@ -13494,8 +14266,11 @@
       <c r="N256" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O256" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>134</v>
       </c>
@@ -13540,8 +14315,11 @@
       <c r="N257" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O257" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>134</v>
       </c>
@@ -13584,8 +14362,11 @@
       <c r="N258" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O258" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>134</v>
       </c>
@@ -13628,8 +14409,11 @@
       <c r="N259" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O259" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>134</v>
       </c>
@@ -13674,8 +14458,11 @@
       <c r="N260" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O260" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>134</v>
       </c>
@@ -13720,8 +14507,11 @@
       <c r="N261" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O261" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>134</v>
       </c>
@@ -13766,8 +14556,11 @@
       <c r="N262" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O262" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>134</v>
       </c>
@@ -13810,8 +14603,11 @@
       <c r="N263" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O263" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>134</v>
       </c>
@@ -13854,8 +14650,11 @@
       <c r="N264" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O264" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>134</v>
       </c>
@@ -13898,8 +14697,11 @@
       <c r="N265" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O265" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>134</v>
       </c>
@@ -13944,8 +14746,11 @@
       <c r="N266" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O266" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>134</v>
       </c>
@@ -13990,8 +14795,11 @@
       <c r="N267" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O267" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>134</v>
       </c>
@@ -14036,8 +14844,11 @@
       <c r="N268" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O268" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>134</v>
       </c>
@@ -14080,8 +14891,11 @@
       <c r="N269" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O269" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>134</v>
       </c>
@@ -14124,8 +14938,11 @@
       <c r="N270" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O270" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>134</v>
       </c>
@@ -14170,8 +14987,11 @@
       <c r="N271" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O271" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>134</v>
       </c>
@@ -14216,8 +15036,11 @@
       <c r="N272" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O272" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>134</v>
       </c>
@@ -14260,8 +15083,11 @@
       <c r="N273" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O273" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>134</v>
       </c>
@@ -14304,8 +15130,11 @@
       <c r="N274" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O274" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>134</v>
       </c>
@@ -14350,8 +15179,11 @@
       <c r="N275" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O275" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>134</v>
       </c>
@@ -14396,8 +15228,11 @@
       <c r="N276" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O276" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>134</v>
       </c>
@@ -14442,8 +15277,11 @@
       <c r="N277" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O277" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>134</v>
       </c>
@@ -14488,8 +15326,11 @@
       <c r="N278" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O278" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>134</v>
       </c>
@@ -14532,8 +15373,11 @@
       <c r="N279" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O279" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>134</v>
       </c>
@@ -14576,8 +15420,11 @@
       <c r="N280" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O280" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>134</v>
       </c>
@@ -14620,8 +15467,11 @@
       <c r="N281" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O281" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>134</v>
       </c>
@@ -14664,8 +15514,11 @@
       <c r="N282" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O282" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>134</v>
       </c>
@@ -14708,8 +15561,11 @@
       <c r="N283" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O283" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>134</v>
       </c>
@@ -14754,8 +15610,11 @@
       <c r="N284" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O284" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>134</v>
       </c>
@@ -14800,8 +15659,11 @@
       <c r="N285" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O285" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>134</v>
       </c>
@@ -14846,8 +15708,11 @@
       <c r="N286" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O286" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>134</v>
       </c>
@@ -14892,8 +15757,11 @@
       <c r="N287" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O287" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>134</v>
       </c>
@@ -14938,8 +15806,11 @@
       <c r="N288" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O288" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>134</v>
       </c>
@@ -14982,8 +15853,11 @@
       <c r="N289" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O289" s="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>134</v>
       </c>
@@ -15026,8 +15900,11 @@
       <c r="N290" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O290" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>134</v>
       </c>
@@ -15070,8 +15947,11 @@
       <c r="N291" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O291" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>134</v>
       </c>
@@ -15114,8 +15994,11 @@
       <c r="N292" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O292" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>134</v>
       </c>
@@ -15158,8 +16041,11 @@
       <c r="N293" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O293" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>134</v>
       </c>
@@ -15204,8 +16090,11 @@
       <c r="N294" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O294" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>134</v>
       </c>
@@ -15250,8 +16139,11 @@
       <c r="N295" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O295" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>134</v>
       </c>
@@ -15296,8 +16188,11 @@
       <c r="N296" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O296" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>134</v>
       </c>
@@ -15342,8 +16237,11 @@
       <c r="N297" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O297" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>134</v>
       </c>
@@ -15388,8 +16286,11 @@
       <c r="N298" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O298" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>134</v>
       </c>
@@ -15432,8 +16333,11 @@
       <c r="N299" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O299" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>134</v>
       </c>
@@ -15476,8 +16380,11 @@
       <c r="N300" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O300" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>134</v>
       </c>
@@ -15520,8 +16427,11 @@
       <c r="N301" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O301" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>134</v>
       </c>
@@ -15566,8 +16476,11 @@
       <c r="N302" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O302" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>134</v>
       </c>
@@ -15612,8 +16525,11 @@
       <c r="N303" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O303" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>134</v>
       </c>
@@ -15656,8 +16572,11 @@
       <c r="N304" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O304" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>134</v>
       </c>
@@ -15702,8 +16621,11 @@
       <c r="N305" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O305" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>134</v>
       </c>
@@ -15746,8 +16668,11 @@
       <c r="N306" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O306" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>134</v>
       </c>
@@ -15790,8 +16715,11 @@
       <c r="N307" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O307" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>134</v>
       </c>
@@ -15834,8 +16762,11 @@
       <c r="N308" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O308" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>134</v>
       </c>
@@ -15878,8 +16809,11 @@
       <c r="N309" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O309" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>134</v>
       </c>
@@ -15922,8 +16856,11 @@
       <c r="N310" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O310" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>134</v>
       </c>
@@ -15966,8 +16903,11 @@
       <c r="N311" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O311" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>134</v>
       </c>
@@ -16010,8 +16950,11 @@
       <c r="N312" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O312" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>134</v>
       </c>
@@ -16054,8 +16997,11 @@
       <c r="N313" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O313" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>134</v>
       </c>
@@ -16098,8 +17044,11 @@
       <c r="N314" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O314" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>379</v>
       </c>
@@ -16142,8 +17091,11 @@
       <c r="N315" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O315" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>379</v>
       </c>
@@ -16186,8 +17138,11 @@
       <c r="N316" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O316" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>101</v>
       </c>
@@ -16228,8 +17183,11 @@
       <c r="N317" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O317" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>101</v>
       </c>
@@ -16270,8 +17228,11 @@
       <c r="N318" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O318" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>101</v>
       </c>
@@ -16310,8 +17271,11 @@
       <c r="N319" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O319" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>101</v>
       </c>
@@ -16352,8 +17316,11 @@
       <c r="N320" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O320" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>184</v>
       </c>
@@ -16396,8 +17363,11 @@
       <c r="N321" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O321" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>134</v>
       </c>
@@ -16439,6 +17409,9 @@
       </c>
       <c r="N322" s="1" t="s">
         <v>483</v>
+      </c>
+      <c r="O322" s="1">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -16452,10 +17425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16751,6 +17724,14 @@
         <v>488</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>42833</v>
+      </c>
+      <c r="B38" t="s">
+        <v>489</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="509">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1498,6 +1498,60 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>FE 12-24mm f/4 G</t>
+  </si>
+  <si>
+    <t>FE 16-35mm f/2.8 GM</t>
+  </si>
+  <si>
+    <t>FE 100-400mm f/4.5-5.6 GM OSS</t>
+  </si>
+  <si>
+    <t>Laowa 15mm f/2 FE Zero-D</t>
+  </si>
+  <si>
+    <t>Laowa 7.5mm f/2 MFT Zero-D</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Add Sony FE 16-35, 12-24, 100-400, Laowa 15mm f/2, Laowa 7.5mm f/2, Fuji GFX, Hasselblad XD</t>
+  </si>
+  <si>
+    <t>GF 63mm f/2.8 R WR</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Crop Medium Format Digital</t>
+  </si>
+  <si>
+    <t>GF 120mm f/4 R LM OIS WR</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>GF 32-64mm f/4 R LM WR</t>
+  </si>
+  <si>
+    <t>32-64</t>
+  </si>
+  <si>
+    <t>GF 45mm f/2.8 R WR</t>
+  </si>
+  <si>
+    <t>Hasselblad</t>
+  </si>
+  <si>
+    <t>XCD 45mm f/3.5</t>
+  </si>
+  <si>
+    <t>XCD 90mm f/3.2</t>
   </si>
 </sst>
 </file>
@@ -1583,10 +1637,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O322" totalsRowShown="0">
-  <autoFilter ref="A1:O322"/>
-  <sortState ref="A2:M318">
-    <sortCondition ref="A1:A318"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O333" totalsRowShown="0">
+  <autoFilter ref="A1:O333"/>
+  <sortState ref="A2:O327">
+    <sortCondition ref="O1:O327"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Manufacture"/>
@@ -1907,10 +1961,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O322"/>
+  <dimension ref="A1:O333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="O316" sqref="O316"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14518,7 +14572,7 @@
       <c r="B262" t="s">
         <v>165</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>2015</v>
       </c>
       <c r="D262">
@@ -14527,7 +14581,7 @@
       <c r="E262">
         <v>394</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="1">
         <f>2.83*25.4</f>
         <v>71.881999999999991</v>
       </c>
@@ -14806,7 +14860,7 @@
       <c r="B268" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>2015</v>
       </c>
       <c r="D268">
@@ -14949,7 +15003,7 @@
       <c r="B271" t="s">
         <v>144</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>2009</v>
       </c>
       <c r="D271">
@@ -14998,7 +15052,7 @@
       <c r="B272" t="s">
         <v>153</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>2015</v>
       </c>
       <c r="D272">
@@ -15141,7 +15195,7 @@
       <c r="B275" t="s">
         <v>143</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>2006</v>
       </c>
       <c r="D275">
@@ -15190,7 +15244,7 @@
       <c r="B276" t="s">
         <v>145</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="1">
         <v>2010</v>
       </c>
       <c r="D276">
@@ -15239,7 +15293,7 @@
       <c r="B277" t="s">
         <v>156</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>2015</v>
       </c>
       <c r="D277">
@@ -15288,7 +15342,7 @@
       <c r="B278" t="s">
         <v>164</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>2014</v>
       </c>
       <c r="D278">
@@ -15337,7 +15391,7 @@
       <c r="B279" t="s">
         <v>214</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>2014</v>
       </c>
       <c r="D279">
@@ -15431,7 +15485,7 @@
       <c r="B281" t="s">
         <v>215</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>2005</v>
       </c>
       <c r="D281">
@@ -15670,7 +15724,7 @@
       <c r="B286" t="s">
         <v>157</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>2015</v>
       </c>
       <c r="D286">
@@ -17412,6 +17466,513 @@
       </c>
       <c r="O322" s="1">
         <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>168</v>
+      </c>
+      <c r="B323" t="s">
+        <v>491</v>
+      </c>
+      <c r="C323">
+        <v>2017</v>
+      </c>
+      <c r="D323">
+        <v>1698</v>
+      </c>
+      <c r="E323">
+        <v>565</v>
+      </c>
+      <c r="F323">
+        <v>116.84</v>
+      </c>
+      <c r="G323" s="2">
+        <v>88.9</v>
+      </c>
+      <c r="H323" s="1">
+        <v>4</v>
+      </c>
+      <c r="I323" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323" t="s">
+        <v>286</v>
+      </c>
+      <c r="N323" t="s">
+        <v>477</v>
+      </c>
+      <c r="O323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>168</v>
+      </c>
+      <c r="B324" t="s">
+        <v>492</v>
+      </c>
+      <c r="C324">
+        <v>2017</v>
+      </c>
+      <c r="D324">
+        <v>2198</v>
+      </c>
+      <c r="E324">
+        <v>680</v>
+      </c>
+      <c r="F324">
+        <v>121.6</v>
+      </c>
+      <c r="G324" s="2">
+        <v>88.5</v>
+      </c>
+      <c r="H324" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I324" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+      <c r="M324" t="s">
+        <v>286</v>
+      </c>
+      <c r="N324" t="s">
+        <v>477</v>
+      </c>
+      <c r="O324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>168</v>
+      </c>
+      <c r="B325" t="s">
+        <v>493</v>
+      </c>
+      <c r="C325">
+        <v>2017</v>
+      </c>
+      <c r="D325">
+        <v>2498</v>
+      </c>
+      <c r="E325">
+        <v>1395</v>
+      </c>
+      <c r="F325">
+        <v>205</v>
+      </c>
+      <c r="G325" s="2">
+        <v>93.9</v>
+      </c>
+      <c r="H325" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="I325" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J325" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K325">
+        <v>1</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+      <c r="M325" t="s">
+        <v>286</v>
+      </c>
+      <c r="N325" t="s">
+        <v>484</v>
+      </c>
+      <c r="O325">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>265</v>
+      </c>
+      <c r="B326" t="s">
+        <v>494</v>
+      </c>
+      <c r="C326">
+        <v>2017</v>
+      </c>
+      <c r="D326" s="5"/>
+      <c r="E326">
+        <v>500</v>
+      </c>
+      <c r="F326">
+        <v>82</v>
+      </c>
+      <c r="G326" s="2">
+        <v>66</v>
+      </c>
+      <c r="H326" s="1">
+        <v>2</v>
+      </c>
+      <c r="I326" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+      <c r="M326" t="s">
+        <v>286</v>
+      </c>
+      <c r="N326" t="s">
+        <v>477</v>
+      </c>
+      <c r="O326">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>265</v>
+      </c>
+      <c r="B327" t="s">
+        <v>495</v>
+      </c>
+      <c r="C327">
+        <v>2017</v>
+      </c>
+      <c r="D327">
+        <v>499</v>
+      </c>
+      <c r="E327">
+        <v>170</v>
+      </c>
+      <c r="F327">
+        <v>55</v>
+      </c>
+      <c r="G327" s="2">
+        <v>50</v>
+      </c>
+      <c r="H327" s="1">
+        <v>2</v>
+      </c>
+      <c r="I327" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J327" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="M327" t="s">
+        <v>294</v>
+      </c>
+      <c r="N327" t="s">
+        <v>477</v>
+      </c>
+      <c r="O327">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>379</v>
+      </c>
+      <c r="B328" t="s">
+        <v>498</v>
+      </c>
+      <c r="C328">
+        <v>2017</v>
+      </c>
+      <c r="D328">
+        <v>1499</v>
+      </c>
+      <c r="E328">
+        <v>405</v>
+      </c>
+      <c r="F328">
+        <v>71</v>
+      </c>
+      <c r="G328" s="2">
+        <v>84</v>
+      </c>
+      <c r="H328" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I328" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J328" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+      <c r="M328" t="s">
+        <v>500</v>
+      </c>
+      <c r="N328" t="s">
+        <v>480</v>
+      </c>
+      <c r="O328">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>379</v>
+      </c>
+      <c r="B329" t="s">
+        <v>501</v>
+      </c>
+      <c r="C329">
+        <v>2017</v>
+      </c>
+      <c r="D329">
+        <v>2699</v>
+      </c>
+      <c r="E329">
+        <v>980</v>
+      </c>
+      <c r="F329">
+        <v>152.5</v>
+      </c>
+      <c r="G329" s="2">
+        <v>89.2</v>
+      </c>
+      <c r="H329" s="1">
+        <v>4</v>
+      </c>
+      <c r="I329" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K329">
+        <v>1</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+      <c r="M329" t="s">
+        <v>500</v>
+      </c>
+      <c r="N329" t="s">
+        <v>482</v>
+      </c>
+      <c r="O329">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>379</v>
+      </c>
+      <c r="B330" t="s">
+        <v>503</v>
+      </c>
+      <c r="C330">
+        <v>2017</v>
+      </c>
+      <c r="D330">
+        <v>229</v>
+      </c>
+      <c r="E330">
+        <v>875</v>
+      </c>
+      <c r="F330">
+        <v>116</v>
+      </c>
+      <c r="G330" s="2">
+        <v>92.6</v>
+      </c>
+      <c r="H330" s="1">
+        <v>4</v>
+      </c>
+      <c r="I330" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J330" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+      <c r="M330" t="s">
+        <v>500</v>
+      </c>
+      <c r="N330" t="s">
+        <v>479</v>
+      </c>
+      <c r="O330">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>379</v>
+      </c>
+      <c r="B331" t="s">
+        <v>505</v>
+      </c>
+      <c r="C331">
+        <v>2017</v>
+      </c>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="6"/>
+      <c r="H331" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I331" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
+      <c r="M331" t="s">
+        <v>500</v>
+      </c>
+      <c r="N331" t="s">
+        <v>480</v>
+      </c>
+      <c r="O331">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>506</v>
+      </c>
+      <c r="B332" t="s">
+        <v>507</v>
+      </c>
+      <c r="C332">
+        <v>2016</v>
+      </c>
+      <c r="D332">
+        <v>2695</v>
+      </c>
+      <c r="E332">
+        <v>417</v>
+      </c>
+      <c r="F332">
+        <v>75</v>
+      </c>
+      <c r="G332" s="2">
+        <v>77</v>
+      </c>
+      <c r="H332" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I332" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+      <c r="M332" t="s">
+        <v>500</v>
+      </c>
+      <c r="N332" t="s">
+        <v>480</v>
+      </c>
+      <c r="O332">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>506</v>
+      </c>
+      <c r="B333" t="s">
+        <v>508</v>
+      </c>
+      <c r="C333">
+        <v>2016</v>
+      </c>
+      <c r="D333">
+        <v>3195</v>
+      </c>
+      <c r="E333">
+        <v>619</v>
+      </c>
+      <c r="F333">
+        <v>100</v>
+      </c>
+      <c r="G333" s="2">
+        <v>77</v>
+      </c>
+      <c r="H333" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="I333" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+      <c r="M333" t="s">
+        <v>500</v>
+      </c>
+      <c r="N333" t="s">
+        <v>482</v>
+      </c>
+      <c r="O333">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -17425,10 +17986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17732,6 +18293,14 @@
         <v>489</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>42874</v>
+      </c>
+      <c r="B39" t="s">
+        <v>497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\olaff\Olaf-Optical-Testing-Software\Matlab\Support Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Optics\Olaf\Software\BigAssTableOfLenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="612">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1849,6 +1849,18 @@
   </si>
   <si>
     <t>XCD 90mm f/3.2</t>
+  </si>
+  <si>
+    <t>28mm Summaron and tokina firin prices, 70-200 G2 and 135mm batis added, delete samyang (duplicate rokinon), new variety column</t>
+  </si>
+  <si>
+    <t>Add unique ID/index</t>
+  </si>
+  <si>
+    <t>Add Sony FE 16-35, 12-24, 100-400, Laowa 15mm f/2, Laowa 7.5mm f/2, Fuji GFX, Hasselblad XD</t>
+  </si>
+  <si>
+    <t>Correct metadata on CN-E 18-80, 70-200, 14.5-60, and 30-300</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1911,6 +1923,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1940,8 +1954,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O397" totalsRowShown="0">
-  <autoFilter ref="A1:O397"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O398" totalsRowShown="0">
+  <autoFilter ref="A1:O398"/>
   <sortState ref="A2:M314">
     <sortCondition ref="A1:A314"/>
   </sortState>
@@ -2264,29 +2278,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O397"/>
+  <dimension ref="A1:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="G227" sqref="G227"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.15625" customWidth="1"/>
-    <col min="2" max="2" width="37.83984375" customWidth="1"/>
-    <col min="3" max="3" width="5.41796875" customWidth="1"/>
-    <col min="4" max="4" width="6.41796875" customWidth="1"/>
-    <col min="5" max="5" width="8.26171875" customWidth="1"/>
-    <col min="7" max="7" width="8.68359375" customWidth="1"/>
-    <col min="8" max="8" width="12.41796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.15625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.83984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.26171875" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.68359375" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2347,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2382,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2431,7 +2445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2529,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2676,7 +2690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2725,7 +2739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2774,7 +2788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2823,7 +2837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2872,7 +2886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2921,7 +2935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2970,7 +2984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +3033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3068,7 +3082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3117,7 +3131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3215,7 +3229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3264,7 +3278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3313,7 +3327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3362,7 +3376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3411,7 +3425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3460,7 +3474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3509,7 +3523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3558,7 +3572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3607,7 +3621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3656,7 +3670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3705,7 +3719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -3754,7 +3768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -3803,7 +3817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -3852,7 +3866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -3901,7 +3915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -3950,7 +3964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -3999,7 +4013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4048,7 +4062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4097,7 +4111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4146,7 +4160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4195,7 +4209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4244,7 +4258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4293,7 +4307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4342,7 +4356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4391,7 +4405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4438,7 +4452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4487,7 +4501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4536,7 +4550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4585,7 +4599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4634,7 +4648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4683,7 +4697,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4732,7 +4746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4830,7 +4844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4879,7 +4893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4928,7 +4942,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -4977,7 +4991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -5026,7 +5040,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5075,7 +5089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5124,7 +5138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5173,7 +5187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5222,7 +5236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5269,7 +5283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5318,7 +5332,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5365,7 +5379,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5412,7 +5426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -5459,7 +5473,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -5506,7 +5520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -5553,7 +5567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>378</v>
       </c>
@@ -5600,7 +5614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>378</v>
       </c>
@@ -5647,7 +5661,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>378</v>
       </c>
@@ -5694,7 +5708,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>378</v>
       </c>
@@ -5741,7 +5755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>378</v>
       </c>
@@ -5788,7 +5802,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>378</v>
       </c>
@@ -5835,7 +5849,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>378</v>
       </c>
@@ -5882,7 +5896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>378</v>
       </c>
@@ -5929,7 +5943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>378</v>
       </c>
@@ -5976,7 +5990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>378</v>
       </c>
@@ -6023,7 +6037,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>378</v>
       </c>
@@ -6070,7 +6084,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>378</v>
       </c>
@@ -6117,7 +6131,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>378</v>
       </c>
@@ -6164,7 +6178,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>378</v>
       </c>
@@ -6211,7 +6225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>378</v>
       </c>
@@ -6258,7 +6272,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>378</v>
       </c>
@@ -6305,7 +6319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>378</v>
       </c>
@@ -6352,7 +6366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>378</v>
       </c>
@@ -6399,7 +6413,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>378</v>
       </c>
@@ -6446,7 +6460,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>378</v>
       </c>
@@ -6493,7 +6507,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>378</v>
       </c>
@@ -6537,7 +6551,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>294</v>
       </c>
@@ -6586,7 +6600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>429</v>
       </c>
@@ -6633,7 +6647,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>429</v>
       </c>
@@ -6680,7 +6694,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>233</v>
       </c>
@@ -6727,7 +6741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>233</v>
       </c>
@@ -6774,7 +6788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>233</v>
       </c>
@@ -6821,7 +6835,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>233</v>
       </c>
@@ -6868,7 +6882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>233</v>
       </c>
@@ -6915,7 +6929,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>233</v>
       </c>
@@ -6962,7 +6976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>233</v>
       </c>
@@ -7011,7 +7025,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>233</v>
       </c>
@@ -7061,7 +7075,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>233</v>
       </c>
@@ -7110,7 +7124,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>233</v>
       </c>
@@ -7157,7 +7171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>233</v>
       </c>
@@ -7204,7 +7218,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -7251,7 +7265,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>233</v>
       </c>
@@ -7298,7 +7312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -7345,7 +7359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -7392,7 +7406,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>233</v>
       </c>
@@ -7442,7 +7456,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -7489,7 +7503,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>233</v>
       </c>
@@ -7536,7 +7550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -7583,7 +7597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>233</v>
       </c>
@@ -7630,7 +7644,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>233</v>
       </c>
@@ -7677,7 +7691,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -7724,7 +7738,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -7771,7 +7785,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -7818,7 +7832,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -7868,7 +7882,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -7918,7 +7932,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -7965,7 +7979,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -8012,7 +8026,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>233</v>
       </c>
@@ -8059,7 +8073,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>296</v>
       </c>
@@ -8108,7 +8122,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -8157,7 +8171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>296</v>
       </c>
@@ -8206,7 +8220,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -8255,7 +8269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -8304,7 +8318,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -8353,7 +8367,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -8402,7 +8416,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -8451,7 +8465,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -8500,7 +8514,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -8549,7 +8563,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -8598,7 +8612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -8647,7 +8661,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -8696,7 +8710,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -8745,7 +8759,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -8794,7 +8808,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -8843,7 +8857,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -8892,7 +8906,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -8941,7 +8955,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -8991,7 +9005,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -9040,7 +9054,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -9089,7 +9103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -9138,7 +9152,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -9187,7 +9201,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -9236,7 +9250,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -9285,7 +9299,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -9334,7 +9348,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -9383,7 +9397,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -9432,7 +9446,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -9481,7 +9495,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -9530,7 +9544,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -9579,7 +9593,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -9628,7 +9642,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -9677,7 +9691,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -9726,7 +9740,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -9775,7 +9789,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -9822,7 +9836,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -9869,7 +9883,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -9916,7 +9930,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -9963,7 +9977,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -10010,7 +10024,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>371</v>
       </c>
@@ -10057,7 +10071,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>371</v>
       </c>
@@ -10104,7 +10118,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>371</v>
       </c>
@@ -10151,7 +10165,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -10198,7 +10212,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>438</v>
       </c>
@@ -10245,7 +10259,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>438</v>
       </c>
@@ -10292,7 +10306,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>100</v>
       </c>
@@ -10341,7 +10355,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>100</v>
       </c>
@@ -10388,7 +10402,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>100</v>
       </c>
@@ -10438,7 +10452,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>100</v>
       </c>
@@ -10485,7 +10499,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>100</v>
       </c>
@@ -10534,7 +10548,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>100</v>
       </c>
@@ -10581,7 +10595,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>100</v>
       </c>
@@ -10630,7 +10644,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>100</v>
       </c>
@@ -10677,7 +10691,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>100</v>
       </c>
@@ -10726,7 +10740,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>100</v>
       </c>
@@ -10773,7 +10787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>100</v>
       </c>
@@ -10820,7 +10834,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>100</v>
       </c>
@@ -10867,7 +10881,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>219</v>
       </c>
@@ -10916,7 +10930,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -10965,7 +10979,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>219</v>
       </c>
@@ -11014,7 +11028,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>101</v>
       </c>
@@ -11063,7 +11077,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>101</v>
       </c>
@@ -11112,7 +11126,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>101</v>
       </c>
@@ -11161,7 +11175,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>101</v>
       </c>
@@ -11210,7 +11224,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>101</v>
       </c>
@@ -11259,7 +11273,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>101</v>
       </c>
@@ -11308,7 +11322,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>101</v>
       </c>
@@ -11357,7 +11371,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -11406,7 +11420,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>101</v>
       </c>
@@ -11455,7 +11469,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>101</v>
       </c>
@@ -11504,7 +11518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>101</v>
       </c>
@@ -11553,7 +11567,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>101</v>
       </c>
@@ -11600,7 +11614,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>101</v>
       </c>
@@ -11647,7 +11661,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -11691,7 +11705,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>101</v>
       </c>
@@ -11738,7 +11752,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -11785,7 +11799,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -11832,7 +11846,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>167</v>
       </c>
@@ -11881,7 +11895,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -11930,7 +11944,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -11979,7 +11993,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>167</v>
       </c>
@@ -12028,7 +12042,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>167</v>
       </c>
@@ -12077,7 +12091,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>167</v>
       </c>
@@ -12126,7 +12140,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>167</v>
       </c>
@@ -12176,7 +12190,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>167</v>
       </c>
@@ -12225,7 +12239,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>167</v>
       </c>
@@ -12274,7 +12288,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>167</v>
       </c>
@@ -12323,7 +12337,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>167</v>
       </c>
@@ -12372,7 +12386,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>167</v>
       </c>
@@ -12421,7 +12435,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>167</v>
       </c>
@@ -12470,7 +12484,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>167</v>
       </c>
@@ -12519,7 +12533,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>167</v>
       </c>
@@ -12568,7 +12582,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>167</v>
       </c>
@@ -12615,7 +12629,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>183</v>
       </c>
@@ -12664,7 +12678,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -12713,7 +12727,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>183</v>
       </c>
@@ -12762,7 +12776,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>183</v>
       </c>
@@ -12811,7 +12825,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>183</v>
       </c>
@@ -12860,7 +12874,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>183</v>
       </c>
@@ -12909,7 +12923,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -12958,7 +12972,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>183</v>
       </c>
@@ -13007,7 +13021,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>183</v>
       </c>
@@ -13056,7 +13070,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>183</v>
       </c>
@@ -13103,7 +13117,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>183</v>
       </c>
@@ -13150,7 +13164,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>183</v>
       </c>
@@ -13197,7 +13211,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -13246,7 +13260,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>192</v>
       </c>
@@ -13295,7 +13309,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>192</v>
       </c>
@@ -13344,7 +13358,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>192</v>
       </c>
@@ -13393,7 +13407,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>192</v>
       </c>
@@ -13442,7 +13456,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>192</v>
       </c>
@@ -13489,7 +13503,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -13536,7 +13550,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>264</v>
       </c>
@@ -13583,7 +13597,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>264</v>
       </c>
@@ -13593,7 +13607,7 @@
       <c r="C235" s="1">
         <v>2016</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D235" s="13">
         <v>699</v>
       </c>
       <c r="E235">
@@ -13630,7 +13644,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>264</v>
       </c>
@@ -13677,7 +13691,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>221</v>
       </c>
@@ -13726,7 +13740,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>221</v>
       </c>
@@ -13773,7 +13787,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>221</v>
       </c>
@@ -13820,7 +13834,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>221</v>
       </c>
@@ -13869,7 +13883,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>221</v>
       </c>
@@ -13916,7 +13930,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>221</v>
       </c>
@@ -13963,7 +13977,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>221</v>
       </c>
@@ -14010,7 +14024,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>221</v>
       </c>
@@ -14059,7 +14073,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>221</v>
       </c>
@@ -14106,7 +14120,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>221</v>
       </c>
@@ -14153,7 +14167,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>221</v>
       </c>
@@ -14200,7 +14214,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>221</v>
       </c>
@@ -14247,7 +14261,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>221</v>
       </c>
@@ -14294,7 +14308,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>221</v>
       </c>
@@ -14343,7 +14357,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>221</v>
       </c>
@@ -14390,7 +14404,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>221</v>
       </c>
@@ -14437,7 +14451,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>221</v>
       </c>
@@ -14484,7 +14498,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>133</v>
       </c>
@@ -14533,7 +14547,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>133</v>
       </c>
@@ -14580,7 +14594,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>133</v>
       </c>
@@ -14627,7 +14641,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>133</v>
       </c>
@@ -14676,7 +14690,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>133</v>
       </c>
@@ -14723,7 +14737,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>133</v>
       </c>
@@ -14770,7 +14784,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>133</v>
       </c>
@@ -14819,7 +14833,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>133</v>
       </c>
@@ -14868,7 +14882,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>133</v>
       </c>
@@ -14917,7 +14931,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>133</v>
       </c>
@@ -14964,7 +14978,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -15011,7 +15025,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>133</v>
       </c>
@@ -15058,7 +15072,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>133</v>
       </c>
@@ -15107,7 +15121,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>133</v>
       </c>
@@ -15156,7 +15170,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>133</v>
       </c>
@@ -15205,7 +15219,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>133</v>
       </c>
@@ -15252,7 +15266,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>133</v>
       </c>
@@ -15299,7 +15313,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>133</v>
       </c>
@@ -15348,7 +15362,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>133</v>
       </c>
@@ -15397,7 +15411,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>133</v>
       </c>
@@ -15444,7 +15458,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>133</v>
       </c>
@@ -15491,7 +15505,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>133</v>
       </c>
@@ -15540,7 +15554,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>133</v>
       </c>
@@ -15589,7 +15603,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>133</v>
       </c>
@@ -15638,7 +15652,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>133</v>
       </c>
@@ -15687,7 +15701,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>133</v>
       </c>
@@ -15734,7 +15748,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>133</v>
       </c>
@@ -15781,7 +15795,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>133</v>
       </c>
@@ -15828,7 +15842,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>133</v>
       </c>
@@ -15875,7 +15889,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>133</v>
       </c>
@@ -15922,7 +15936,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>133</v>
       </c>
@@ -15971,7 +15985,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -16020,7 +16034,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>133</v>
       </c>
@@ -16069,7 +16083,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>133</v>
       </c>
@@ -16118,7 +16132,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>133</v>
       </c>
@@ -16167,7 +16181,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>133</v>
       </c>
@@ -16214,7 +16228,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>133</v>
       </c>
@@ -16261,7 +16275,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>133</v>
       </c>
@@ -16308,7 +16322,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>133</v>
       </c>
@@ -16355,7 +16369,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>133</v>
       </c>
@@ -16402,7 +16416,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>133</v>
       </c>
@@ -16451,7 +16465,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>133</v>
       </c>
@@ -16500,7 +16514,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>133</v>
       </c>
@@ -16549,7 +16563,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>133</v>
       </c>
@@ -16598,7 +16612,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>133</v>
       </c>
@@ -16647,7 +16661,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>133</v>
       </c>
@@ -16694,7 +16708,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>133</v>
       </c>
@@ -16741,7 +16755,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>133</v>
       </c>
@@ -16788,7 +16802,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>133</v>
       </c>
@@ -16837,7 +16851,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>133</v>
       </c>
@@ -16886,7 +16900,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>133</v>
       </c>
@@ -16933,7 +16947,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -16982,7 +16996,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>133</v>
       </c>
@@ -17029,7 +17043,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>133</v>
       </c>
@@ -17076,7 +17090,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -17123,7 +17137,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>133</v>
       </c>
@@ -17170,7 +17184,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>133</v>
       </c>
@@ -17217,7 +17231,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>133</v>
       </c>
@@ -17264,7 +17278,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>133</v>
       </c>
@@ -17311,7 +17325,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>133</v>
       </c>
@@ -17358,7 +17372,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>133</v>
       </c>
@@ -17405,7 +17419,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>378</v>
       </c>
@@ -17452,7 +17466,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>378</v>
       </c>
@@ -17499,7 +17513,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>101</v>
       </c>
@@ -17544,7 +17558,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>101</v>
       </c>
@@ -17589,7 +17603,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>101</v>
       </c>
@@ -17632,7 +17646,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>101</v>
       </c>
@@ -17677,7 +17691,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -17724,7 +17738,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>219</v>
       </c>
@@ -17767,7 +17781,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>219</v>
       </c>
@@ -17810,7 +17824,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>219</v>
       </c>
@@ -17853,7 +17867,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>101</v>
       </c>
@@ -17896,7 +17910,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>192</v>
       </c>
@@ -17939,7 +17953,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -17975,19 +17989,23 @@
       <c r="M327" t="s">
         <v>285</v>
       </c>
-      <c r="N327" s="11"/>
+      <c r="N327" s="8" t="s">
+        <v>588</v>
+      </c>
       <c r="O327" s="8">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>7</v>
       </c>
       <c r="B328" t="s">
         <v>492</v>
       </c>
-      <c r="C328" s="11"/>
+      <c r="C328" s="8">
+        <v>2016</v>
+      </c>
       <c r="D328">
         <v>5225</v>
       </c>
@@ -18016,21 +18034,25 @@
         <v>1</v>
       </c>
       <c r="M328" t="s">
-        <v>285</v>
-      </c>
-      <c r="N328" s="11"/>
+        <v>447</v>
+      </c>
+      <c r="N328" s="8" t="s">
+        <v>587</v>
+      </c>
       <c r="O328" s="8">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
       <c r="B329" t="s">
         <v>489</v>
       </c>
-      <c r="C329" s="11"/>
+      <c r="C329" s="8">
+        <v>2014</v>
+      </c>
       <c r="D329">
         <v>26350</v>
       </c>
@@ -18059,21 +18081,25 @@
         <v>1</v>
       </c>
       <c r="M329" t="s">
-        <v>285</v>
-      </c>
-      <c r="N329" s="11"/>
+        <v>447</v>
+      </c>
+      <c r="N329" s="8" t="s">
+        <v>587</v>
+      </c>
       <c r="O329" s="8">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>7</v>
       </c>
       <c r="B330" t="s">
         <v>493</v>
       </c>
-      <c r="C330" s="11"/>
+      <c r="C330" s="8">
+        <v>2011</v>
+      </c>
       <c r="D330">
         <v>44650</v>
       </c>
@@ -18102,21 +18128,25 @@
         <v>1</v>
       </c>
       <c r="M330" t="s">
-        <v>285</v>
-      </c>
-      <c r="N330" s="11"/>
+        <v>447</v>
+      </c>
+      <c r="N330" s="8" t="s">
+        <v>587</v>
+      </c>
       <c r="O330" s="8">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>7</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C331" s="11"/>
+      <c r="C331" s="8">
+        <v>2011</v>
+      </c>
       <c r="D331">
         <v>42750</v>
       </c>
@@ -18145,14 +18175,14 @@
         <v>1</v>
       </c>
       <c r="M331" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N331" s="11"/>
       <c r="O331" s="8">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>219</v>
       </c>
@@ -18195,7 +18225,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>219</v>
       </c>
@@ -18238,7 +18268,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>219</v>
       </c>
@@ -18281,7 +18311,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>219</v>
       </c>
@@ -18324,7 +18354,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>219</v>
       </c>
@@ -18367,7 +18397,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>219</v>
       </c>
@@ -18410,7 +18440,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>505</v>
       </c>
@@ -18455,7 +18485,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>505</v>
       </c>
@@ -18498,7 +18528,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>505</v>
       </c>
@@ -18541,7 +18571,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>505</v>
       </c>
@@ -18584,7 +18614,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>505</v>
       </c>
@@ -18627,7 +18657,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>505</v>
       </c>
@@ -18670,7 +18700,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>505</v>
       </c>
@@ -18713,7 +18743,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>505</v>
       </c>
@@ -18756,7 +18786,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>505</v>
       </c>
@@ -18799,7 +18829,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>505</v>
       </c>
@@ -18842,7 +18872,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>505</v>
       </c>
@@ -18885,7 +18915,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>505</v>
       </c>
@@ -18928,7 +18958,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>505</v>
       </c>
@@ -18971,7 +19001,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>505</v>
       </c>
@@ -19014,7 +19044,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>505</v>
       </c>
@@ -19057,7 +19087,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>505</v>
       </c>
@@ -19100,7 +19130,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>505</v>
       </c>
@@ -19143,7 +19173,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>378</v>
       </c>
@@ -19188,7 +19218,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>378</v>
       </c>
@@ -19233,7 +19263,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>378</v>
       </c>
@@ -19278,7 +19308,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>378</v>
       </c>
@@ -19323,7 +19353,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>378</v>
       </c>
@@ -19368,7 +19398,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -19413,7 +19443,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>378</v>
       </c>
@@ -19458,7 +19488,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -19503,7 +19533,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>378</v>
       </c>
@@ -19548,7 +19578,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>101</v>
       </c>
@@ -19591,7 +19621,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>101</v>
       </c>
@@ -19636,7 +19666,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>101</v>
       </c>
@@ -19681,7 +19711,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>101</v>
       </c>
@@ -19726,7 +19756,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>101</v>
       </c>
@@ -19771,7 +19801,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>101</v>
       </c>
@@ -19816,7 +19846,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>101</v>
       </c>
@@ -19861,7 +19891,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>101</v>
       </c>
@@ -19906,7 +19936,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>192</v>
       </c>
@@ -19951,7 +19981,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>192</v>
       </c>
@@ -19996,7 +20026,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>192</v>
       </c>
@@ -20041,7 +20071,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>192</v>
       </c>
@@ -20086,7 +20116,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>192</v>
       </c>
@@ -20129,7 +20159,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>192</v>
       </c>
@@ -20174,7 +20204,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>192</v>
       </c>
@@ -20219,7 +20249,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>133</v>
       </c>
@@ -20264,7 +20294,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -20309,7 +20339,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>432</v>
       </c>
@@ -20354,7 +20384,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>432</v>
       </c>
@@ -20399,7 +20429,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>432</v>
       </c>
@@ -20444,7 +20474,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>432</v>
       </c>
@@ -20489,7 +20519,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
         <v>183</v>
       </c>
@@ -20536,7 +20566,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
         <v>133</v>
       </c>
@@ -20583,7 +20613,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
         <v>167</v>
       </c>
@@ -20630,7 +20660,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
         <v>167</v>
       </c>
@@ -20677,7 +20707,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
         <v>167</v>
       </c>
@@ -20724,7 +20754,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
         <v>264</v>
       </c>
@@ -20769,7 +20799,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
         <v>264</v>
       </c>
@@ -20816,7 +20846,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
         <v>378</v>
       </c>
@@ -20863,7 +20893,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="8" t="s">
         <v>378</v>
       </c>
@@ -20910,7 +20940,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
         <v>378</v>
       </c>
@@ -20957,7 +20987,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
         <v>378</v>
       </c>
@@ -20996,7 +21026,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
         <v>605</v>
       </c>
@@ -21043,7 +21073,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
         <v>605</v>
       </c>
@@ -21089,6 +21119,17 @@
       <c r="O397" s="8">
         <v>396</v>
       </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>7</v>
+      </c>
+      <c r="B398" t="s">
+        <v>492</v>
+      </c>
+      <c r="G398" s="9"/>
+      <c r="I398" s="10"/>
+      <c r="J398" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21101,23 +21142,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>42361</v>
       </c>
@@ -21125,7 +21166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>42369</v>
       </c>
@@ -21133,7 +21174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>42371</v>
       </c>
@@ -21141,7 +21182,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>42372</v>
       </c>
@@ -21149,7 +21190,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>42373</v>
       </c>
@@ -21157,7 +21198,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>42382</v>
       </c>
@@ -21165,7 +21206,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42385</v>
       </c>
@@ -21173,7 +21214,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42387</v>
       </c>
@@ -21181,7 +21222,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>42388</v>
       </c>
@@ -21189,7 +21230,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>42390</v>
       </c>
@@ -21197,7 +21238,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>42391</v>
       </c>
@@ -21205,7 +21246,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>42400</v>
       </c>
@@ -21213,7 +21254,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>42414</v>
       </c>
@@ -21221,7 +21262,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>42432</v>
       </c>
@@ -21232,7 +21273,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>42435</v>
       </c>
@@ -21240,7 +21281,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>42436</v>
       </c>
@@ -21248,7 +21289,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>42441</v>
       </c>
@@ -21256,7 +21297,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>42445</v>
       </c>
@@ -21264,7 +21305,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>42453</v>
       </c>
@@ -21272,7 +21313,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>42456</v>
       </c>
@@ -21280,7 +21321,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>42457</v>
       </c>
@@ -21288,7 +21329,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>42458</v>
       </c>
@@ -21296,7 +21337,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>42464</v>
       </c>
@@ -21304,7 +21345,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>42510</v>
       </c>
@@ -21312,7 +21353,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>42515</v>
       </c>
@@ -21320,7 +21361,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>42560</v>
       </c>
@@ -21328,7 +21369,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>42565</v>
       </c>
@@ -21336,7 +21377,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>42576</v>
       </c>
@@ -21344,7 +21385,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>42590</v>
       </c>
@@ -21352,7 +21393,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>42593</v>
       </c>
@@ -21360,7 +21401,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>42598</v>
       </c>
@@ -21368,7 +21409,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>42665</v>
       </c>
@@ -21376,7 +21417,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>42788</v>
       </c>
@@ -21384,12 +21425,44 @@
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>42831</v>
       </c>
       <c r="B36" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>42833</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>42833</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>42874</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>42878</v>
+      </c>
+      <c r="B40" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Optics\Olaf\Software\BigAssTableOfLenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\BATOL\BigAssTableOfLenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="614">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1861,6 +1861,12 @@
   </si>
   <si>
     <t>Correct metadata on CN-E 18-80, 70-200, 14.5-60, and 30-300</t>
+  </si>
+  <si>
+    <t>Added Angenieux Cine, Schneider Xenon and Cine-Xenar III, Sigma Cine Primes, Fujifilm Cabrio Premier, Tokina Vista Cines. Rows 322-380</t>
+  </si>
+  <si>
+    <t>Removed duplicate CN-E 18-80</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1960,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O398" totalsRowShown="0">
-  <autoFilter ref="A1:O398"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O397" totalsRowShown="0">
+  <autoFilter ref="A1:O397"/>
   <sortState ref="A2:M314">
     <sortCondition ref="A1:A314"/>
   </sortState>
@@ -2278,29 +2284,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O398"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="D235" sqref="D235"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="D400" sqref="D400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.1015625" customWidth="1"/>
+    <col min="2" max="2" width="37.89453125" customWidth="1"/>
+    <col min="3" max="3" width="5.41796875" customWidth="1"/>
+    <col min="4" max="4" width="6.41796875" customWidth="1"/>
+    <col min="5" max="5" width="8.20703125" customWidth="1"/>
+    <col min="7" max="7" width="8.68359375" customWidth="1"/>
+    <col min="8" max="8" width="12.41796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1015625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.89453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.20703125" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2739,7 +2745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2788,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2837,7 +2843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3082,7 +3088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3278,7 +3284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3474,7 +3480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3572,7 +3578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4307,7 +4313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4452,7 +4458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4501,7 +4507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4550,7 +4556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4605,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4648,7 +4654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4795,7 +4801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4844,7 +4850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4942,7 +4948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5138,7 +5144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5236,7 +5242,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5283,7 +5289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5332,7 +5338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5379,7 +5385,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -5567,7 +5573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>378</v>
       </c>
@@ -5614,7 +5620,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>378</v>
       </c>
@@ -5661,7 +5667,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>378</v>
       </c>
@@ -5708,7 +5714,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>378</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>378</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>378</v>
       </c>
@@ -5849,7 +5855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>378</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>378</v>
       </c>
@@ -5943,7 +5949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>378</v>
       </c>
@@ -5990,7 +5996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>378</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>378</v>
       </c>
@@ -6084,7 +6090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>378</v>
       </c>
@@ -6131,7 +6137,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>378</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>378</v>
       </c>
@@ -6225,7 +6231,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>378</v>
       </c>
@@ -6272,7 +6278,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>378</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>378</v>
       </c>
@@ -6366,7 +6372,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>378</v>
       </c>
@@ -6413,7 +6419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>378</v>
       </c>
@@ -6460,7 +6466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>378</v>
       </c>
@@ -6507,7 +6513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>378</v>
       </c>
@@ -6551,7 +6557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>294</v>
       </c>
@@ -6600,7 +6606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>429</v>
       </c>
@@ -6647,7 +6653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>429</v>
       </c>
@@ -6694,7 +6700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>233</v>
       </c>
@@ -6741,7 +6747,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>233</v>
       </c>
@@ -6788,7 +6794,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>233</v>
       </c>
@@ -6835,7 +6841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>233</v>
       </c>
@@ -6882,7 +6888,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>233</v>
       </c>
@@ -6929,7 +6935,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>233</v>
       </c>
@@ -6976,7 +6982,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>233</v>
       </c>
@@ -7025,7 +7031,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>233</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>233</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>233</v>
       </c>
@@ -7171,7 +7177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>233</v>
       </c>
@@ -7218,7 +7224,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -7265,7 +7271,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>233</v>
       </c>
@@ -7312,7 +7318,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -7359,7 +7365,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -7406,7 +7412,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>233</v>
       </c>
@@ -7456,7 +7462,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>233</v>
       </c>
@@ -7550,7 +7556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -7597,7 +7603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>233</v>
       </c>
@@ -7644,7 +7650,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>233</v>
       </c>
@@ -7691,7 +7697,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -7738,7 +7744,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -7785,7 +7791,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -7832,7 +7838,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -7882,7 +7888,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -7932,7 +7938,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -7979,7 +7985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -8026,7 +8032,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>233</v>
       </c>
@@ -8073,7 +8079,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>296</v>
       </c>
@@ -8122,7 +8128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -8171,7 +8177,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>296</v>
       </c>
@@ -8220,7 +8226,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -8269,7 +8275,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -8318,7 +8324,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -8367,7 +8373,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -8416,7 +8422,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -8465,7 +8471,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -8514,7 +8520,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -8563,7 +8569,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -8612,7 +8618,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -8661,7 +8667,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -8710,7 +8716,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -8759,7 +8765,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -8808,7 +8814,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -8857,7 +8863,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -8906,7 +8912,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -8955,7 +8961,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -9005,7 +9011,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -9054,7 +9060,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -9103,7 +9109,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -9152,7 +9158,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -9201,7 +9207,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -9250,7 +9256,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -9299,7 +9305,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -9348,7 +9354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -9397,7 +9403,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -9446,7 +9452,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -9495,7 +9501,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -9544,7 +9550,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -9593,7 +9599,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -9642,7 +9648,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -9691,7 +9697,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -9740,7 +9746,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -9789,7 +9795,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -9836,7 +9842,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -9883,7 +9889,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -9930,7 +9936,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -9977,7 +9983,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -10024,7 +10030,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>371</v>
       </c>
@@ -10071,7 +10077,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>371</v>
       </c>
@@ -10118,7 +10124,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>371</v>
       </c>
@@ -10165,7 +10171,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -10212,7 +10218,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>438</v>
       </c>
@@ -10259,7 +10265,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>438</v>
       </c>
@@ -10306,7 +10312,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>100</v>
       </c>
@@ -10355,7 +10361,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>100</v>
       </c>
@@ -10402,7 +10408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>100</v>
       </c>
@@ -10452,7 +10458,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>100</v>
       </c>
@@ -10499,7 +10505,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>100</v>
       </c>
@@ -10548,7 +10554,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>100</v>
       </c>
@@ -10595,7 +10601,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>100</v>
       </c>
@@ -10644,7 +10650,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>100</v>
       </c>
@@ -10691,7 +10697,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>100</v>
       </c>
@@ -10740,7 +10746,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>100</v>
       </c>
@@ -10787,7 +10793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>100</v>
       </c>
@@ -10834,7 +10840,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>100</v>
       </c>
@@ -10881,7 +10887,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>219</v>
       </c>
@@ -10930,7 +10936,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -10979,7 +10985,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>219</v>
       </c>
@@ -11028,7 +11034,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>101</v>
       </c>
@@ -11077,7 +11083,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>101</v>
       </c>
@@ -11126,7 +11132,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>101</v>
       </c>
@@ -11175,7 +11181,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>101</v>
       </c>
@@ -11224,7 +11230,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>101</v>
       </c>
@@ -11273,7 +11279,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>101</v>
       </c>
@@ -11322,7 +11328,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>101</v>
       </c>
@@ -11371,7 +11377,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -11420,7 +11426,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>101</v>
       </c>
@@ -11469,7 +11475,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>101</v>
       </c>
@@ -11518,7 +11524,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>101</v>
       </c>
@@ -11567,7 +11573,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>101</v>
       </c>
@@ -11614,7 +11620,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>101</v>
       </c>
@@ -11661,7 +11667,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -11705,7 +11711,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>101</v>
       </c>
@@ -11752,7 +11758,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -11799,7 +11805,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -11846,7 +11852,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>167</v>
       </c>
@@ -11895,7 +11901,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -11944,7 +11950,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -11993,7 +11999,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>167</v>
       </c>
@@ -12042,7 +12048,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>167</v>
       </c>
@@ -12091,7 +12097,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>167</v>
       </c>
@@ -12140,7 +12146,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>167</v>
       </c>
@@ -12190,7 +12196,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>167</v>
       </c>
@@ -12239,7 +12245,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>167</v>
       </c>
@@ -12288,7 +12294,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>167</v>
       </c>
@@ -12337,7 +12343,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>167</v>
       </c>
@@ -12386,7 +12392,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>167</v>
       </c>
@@ -12435,7 +12441,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>167</v>
       </c>
@@ -12484,7 +12490,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>167</v>
       </c>
@@ -12533,7 +12539,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>167</v>
       </c>
@@ -12582,7 +12588,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>167</v>
       </c>
@@ -12629,7 +12635,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>183</v>
       </c>
@@ -12678,7 +12684,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -12727,7 +12733,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>183</v>
       </c>
@@ -12776,7 +12782,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>183</v>
       </c>
@@ -12825,7 +12831,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>183</v>
       </c>
@@ -12874,7 +12880,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>183</v>
       </c>
@@ -12923,7 +12929,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -12972,7 +12978,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>183</v>
       </c>
@@ -13021,7 +13027,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>183</v>
       </c>
@@ -13070,7 +13076,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>183</v>
       </c>
@@ -13117,7 +13123,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
         <v>183</v>
       </c>
@@ -13164,7 +13170,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
         <v>183</v>
       </c>
@@ -13211,7 +13217,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -13260,7 +13266,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>192</v>
       </c>
@@ -13309,7 +13315,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>192</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>192</v>
       </c>
@@ -13407,7 +13413,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>192</v>
       </c>
@@ -13456,7 +13462,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>192</v>
       </c>
@@ -13503,7 +13509,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -13550,7 +13556,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
         <v>264</v>
       </c>
@@ -13597,7 +13603,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1" t="s">
         <v>264</v>
       </c>
@@ -13644,7 +13650,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
         <v>264</v>
       </c>
@@ -13691,7 +13697,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
         <v>221</v>
       </c>
@@ -13740,7 +13746,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
         <v>221</v>
       </c>
@@ -13787,7 +13793,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
         <v>221</v>
       </c>
@@ -13834,7 +13840,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
         <v>221</v>
       </c>
@@ -13883,7 +13889,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1" t="s">
         <v>221</v>
       </c>
@@ -13930,7 +13936,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1" t="s">
         <v>221</v>
       </c>
@@ -13977,7 +13983,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1" t="s">
         <v>221</v>
       </c>
@@ -14024,7 +14030,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1" t="s">
         <v>221</v>
       </c>
@@ -14073,7 +14079,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1" t="s">
         <v>221</v>
       </c>
@@ -14120,7 +14126,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1" t="s">
         <v>221</v>
       </c>
@@ -14167,7 +14173,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>221</v>
       </c>
@@ -14214,7 +14220,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>221</v>
       </c>
@@ -14261,7 +14267,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>221</v>
       </c>
@@ -14308,7 +14314,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>221</v>
       </c>
@@ -14357,7 +14363,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>221</v>
       </c>
@@ -14404,7 +14410,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1" t="s">
         <v>221</v>
       </c>
@@ -14451,7 +14457,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1" t="s">
         <v>221</v>
       </c>
@@ -14498,7 +14504,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>133</v>
       </c>
@@ -14547,7 +14553,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>133</v>
       </c>
@@ -14594,7 +14600,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>133</v>
       </c>
@@ -14641,7 +14647,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>133</v>
       </c>
@@ -14690,7 +14696,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>133</v>
       </c>
@@ -14737,7 +14743,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>133</v>
       </c>
@@ -14784,7 +14790,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>133</v>
       </c>
@@ -14833,7 +14839,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>133</v>
       </c>
@@ -14882,7 +14888,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>133</v>
       </c>
@@ -14931,7 +14937,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>133</v>
       </c>
@@ -14978,7 +14984,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -15025,7 +15031,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>133</v>
       </c>
@@ -15072,7 +15078,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>133</v>
       </c>
@@ -15121,7 +15127,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>133</v>
       </c>
@@ -15170,7 +15176,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1" t="s">
         <v>133</v>
       </c>
@@ -15219,7 +15225,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1" t="s">
         <v>133</v>
       </c>
@@ -15266,7 +15272,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>133</v>
       </c>
@@ -15313,7 +15319,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>133</v>
       </c>
@@ -15362,7 +15368,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>133</v>
       </c>
@@ -15411,7 +15417,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>133</v>
       </c>
@@ -15458,7 +15464,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>133</v>
       </c>
@@ -15505,7 +15511,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>133</v>
       </c>
@@ -15554,7 +15560,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>133</v>
       </c>
@@ -15603,7 +15609,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>133</v>
       </c>
@@ -15652,7 +15658,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>133</v>
       </c>
@@ -15701,7 +15707,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>133</v>
       </c>
@@ -15748,7 +15754,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>133</v>
       </c>
@@ -15795,7 +15801,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>133</v>
       </c>
@@ -15842,7 +15848,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>133</v>
       </c>
@@ -15889,7 +15895,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>133</v>
       </c>
@@ -15936,7 +15942,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>133</v>
       </c>
@@ -15985,7 +15991,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -16034,7 +16040,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>133</v>
       </c>
@@ -16083,7 +16089,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>133</v>
       </c>
@@ -16132,7 +16138,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>133</v>
       </c>
@@ -16181,7 +16187,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>133</v>
       </c>
@@ -16228,7 +16234,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>133</v>
       </c>
@@ -16275,7 +16281,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>133</v>
       </c>
@@ -16322,7 +16328,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>133</v>
       </c>
@@ -16369,7 +16375,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>133</v>
       </c>
@@ -16416,7 +16422,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>133</v>
       </c>
@@ -16465,7 +16471,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>133</v>
       </c>
@@ -16514,7 +16520,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>133</v>
       </c>
@@ -16563,7 +16569,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>133</v>
       </c>
@@ -16612,7 +16618,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>133</v>
       </c>
@@ -16661,7 +16667,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>133</v>
       </c>
@@ -16708,7 +16714,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>133</v>
       </c>
@@ -16755,7 +16761,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>133</v>
       </c>
@@ -16802,7 +16808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>133</v>
       </c>
@@ -16851,7 +16857,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>133</v>
       </c>
@@ -16900,7 +16906,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>133</v>
       </c>
@@ -16947,7 +16953,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -16996,7 +17002,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>133</v>
       </c>
@@ -17043,7 +17049,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>133</v>
       </c>
@@ -17090,7 +17096,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -17137,7 +17143,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>133</v>
       </c>
@@ -17184,7 +17190,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>133</v>
       </c>
@@ -17231,7 +17237,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>133</v>
       </c>
@@ -17278,7 +17284,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>133</v>
       </c>
@@ -17325,7 +17331,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>133</v>
       </c>
@@ -17372,7 +17378,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>133</v>
       </c>
@@ -17419,7 +17425,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>378</v>
       </c>
@@ -17466,7 +17472,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>378</v>
       </c>
@@ -17513,7 +17519,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>101</v>
       </c>
@@ -17558,7 +17564,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>101</v>
       </c>
@@ -17603,7 +17609,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>101</v>
       </c>
@@ -17646,7 +17652,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>101</v>
       </c>
@@ -17691,7 +17697,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -17738,7 +17744,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>219</v>
       </c>
@@ -17781,7 +17787,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>219</v>
       </c>
@@ -17824,7 +17830,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>219</v>
       </c>
@@ -17867,7 +17873,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>101</v>
       </c>
@@ -17910,7 +17916,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>192</v>
       </c>
@@ -17953,7 +17959,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -17996,7 +18002,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -18043,7 +18049,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -18090,7 +18096,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -18137,7 +18143,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -18182,7 +18188,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>219</v>
       </c>
@@ -18225,7 +18231,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>219</v>
       </c>
@@ -18268,7 +18274,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>219</v>
       </c>
@@ -18311,7 +18317,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>219</v>
       </c>
@@ -18354,7 +18360,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>219</v>
       </c>
@@ -18397,7 +18403,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>219</v>
       </c>
@@ -18440,7 +18446,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>505</v>
       </c>
@@ -18485,7 +18491,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>505</v>
       </c>
@@ -18528,7 +18534,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>505</v>
       </c>
@@ -18571,7 +18577,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>505</v>
       </c>
@@ -18614,7 +18620,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>505</v>
       </c>
@@ -18657,7 +18663,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>505</v>
       </c>
@@ -18700,7 +18706,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>505</v>
       </c>
@@ -18743,7 +18749,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>505</v>
       </c>
@@ -18786,7 +18792,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>505</v>
       </c>
@@ -18829,7 +18835,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>505</v>
       </c>
@@ -18872,7 +18878,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>505</v>
       </c>
@@ -18915,7 +18921,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>505</v>
       </c>
@@ -18958,7 +18964,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>505</v>
       </c>
@@ -19001,7 +19007,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>505</v>
       </c>
@@ -19044,7 +19050,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>505</v>
       </c>
@@ -19087,7 +19093,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>505</v>
       </c>
@@ -19130,7 +19136,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>505</v>
       </c>
@@ -19173,7 +19179,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>378</v>
       </c>
@@ -19218,7 +19224,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>378</v>
       </c>
@@ -19263,7 +19269,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>378</v>
       </c>
@@ -19308,7 +19314,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>378</v>
       </c>
@@ -19353,7 +19359,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>378</v>
       </c>
@@ -19398,7 +19404,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -19443,7 +19449,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>378</v>
       </c>
@@ -19488,7 +19494,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -19533,7 +19539,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>378</v>
       </c>
@@ -19578,7 +19584,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>101</v>
       </c>
@@ -19621,7 +19627,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>101</v>
       </c>
@@ -19666,7 +19672,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>101</v>
       </c>
@@ -19711,7 +19717,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>101</v>
       </c>
@@ -19756,7 +19762,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>101</v>
       </c>
@@ -19801,7 +19807,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>101</v>
       </c>
@@ -19846,7 +19852,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>101</v>
       </c>
@@ -19891,7 +19897,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>101</v>
       </c>
@@ -19936,7 +19942,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>192</v>
       </c>
@@ -19981,7 +19987,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>192</v>
       </c>
@@ -20026,7 +20032,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>192</v>
       </c>
@@ -20071,7 +20077,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>192</v>
       </c>
@@ -20116,7 +20122,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>192</v>
       </c>
@@ -20159,7 +20165,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>192</v>
       </c>
@@ -20204,7 +20210,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>192</v>
       </c>
@@ -20249,7 +20255,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>133</v>
       </c>
@@ -20294,7 +20300,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -20339,7 +20345,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>432</v>
       </c>
@@ -20384,7 +20390,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>432</v>
       </c>
@@ -20429,7 +20435,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>432</v>
       </c>
@@ -20474,7 +20480,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>432</v>
       </c>
@@ -20519,7 +20525,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="8" t="s">
         <v>183</v>
       </c>
@@ -20566,7 +20572,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="8" t="s">
         <v>133</v>
       </c>
@@ -20613,7 +20619,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="8" t="s">
         <v>167</v>
       </c>
@@ -20660,7 +20666,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="8" t="s">
         <v>167</v>
       </c>
@@ -20707,7 +20713,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="8" t="s">
         <v>167</v>
       </c>
@@ -20754,7 +20760,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="8" t="s">
         <v>264</v>
       </c>
@@ -20799,7 +20805,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="8" t="s">
         <v>264</v>
       </c>
@@ -20846,7 +20852,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="8" t="s">
         <v>378</v>
       </c>
@@ -20893,7 +20899,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="8" t="s">
         <v>378</v>
       </c>
@@ -20940,7 +20946,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="8" t="s">
         <v>378</v>
       </c>
@@ -20987,7 +20993,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="8" t="s">
         <v>378</v>
       </c>
@@ -21026,7 +21032,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="8" t="s">
         <v>605</v>
       </c>
@@ -21073,7 +21079,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="8" t="s">
         <v>605</v>
       </c>
@@ -21119,17 +21125,6 @@
       <c r="O397" s="8">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
-        <v>7</v>
-      </c>
-      <c r="B398" t="s">
-        <v>492</v>
-      </c>
-      <c r="G398" s="9"/>
-      <c r="I398" s="10"/>
-      <c r="J398" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21142,23 +21137,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>42361</v>
       </c>
@@ -21166,7 +21161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>42369</v>
       </c>
@@ -21174,7 +21169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>42371</v>
       </c>
@@ -21182,7 +21177,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>42372</v>
       </c>
@@ -21190,7 +21185,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>42373</v>
       </c>
@@ -21198,7 +21193,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>42382</v>
       </c>
@@ -21206,7 +21201,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>42385</v>
       </c>
@@ -21214,7 +21209,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>42387</v>
       </c>
@@ -21222,7 +21217,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>42388</v>
       </c>
@@ -21230,7 +21225,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>42390</v>
       </c>
@@ -21238,7 +21233,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>42391</v>
       </c>
@@ -21246,7 +21241,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>42400</v>
       </c>
@@ -21254,7 +21249,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>42414</v>
       </c>
@@ -21262,7 +21257,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>42432</v>
       </c>
@@ -21273,7 +21268,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>42435</v>
       </c>
@@ -21281,7 +21276,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>42436</v>
       </c>
@@ -21289,7 +21284,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>42441</v>
       </c>
@@ -21297,7 +21292,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>42445</v>
       </c>
@@ -21305,7 +21300,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>42453</v>
       </c>
@@ -21313,7 +21308,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>42456</v>
       </c>
@@ -21321,7 +21316,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>42457</v>
       </c>
@@ -21329,7 +21324,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <v>42458</v>
       </c>
@@ -21337,7 +21332,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>42464</v>
       </c>
@@ -21345,7 +21340,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>42510</v>
       </c>
@@ -21353,7 +21348,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>42515</v>
       </c>
@@ -21361,7 +21356,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <v>42560</v>
       </c>
@@ -21369,7 +21364,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <v>42565</v>
       </c>
@@ -21377,7 +21372,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>42576</v>
       </c>
@@ -21385,7 +21380,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <v>42590</v>
       </c>
@@ -21393,7 +21388,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <v>42593</v>
       </c>
@@ -21401,7 +21396,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <v>42598</v>
       </c>
@@ -21409,7 +21404,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <v>42665</v>
       </c>
@@ -21417,7 +21412,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <v>42788</v>
       </c>
@@ -21425,7 +21420,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <v>42831</v>
       </c>
@@ -21433,7 +21428,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="14">
         <v>42833</v>
       </c>
@@ -21441,7 +21436,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="14">
         <v>42833</v>
       </c>
@@ -21449,7 +21444,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="14">
         <v>42874</v>
       </c>
@@ -21457,12 +21452,28 @@
         <v>610</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="14">
+        <v>42876</v>
+      </c>
+      <c r="B40" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="14">
         <v>42878</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="14">
+        <v>42878</v>
+      </c>
+      <c r="B42" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\BATOL\BigAssTableOfLenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Optics\Olaf\Software\BigAssTableOfLenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="616">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1867,6 +1867,12 @@
   </si>
   <si>
     <t>Removed duplicate CN-E 18-80</t>
+  </si>
+  <si>
+    <t>Fisheye</t>
+  </si>
+  <si>
+    <t>Correct metadata in entries 354-383</t>
   </si>
 </sst>
 </file>
@@ -2286,27 +2292,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O397"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="D400" sqref="D400"/>
+    <sheetView topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="O355" sqref="O355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1015625" customWidth="1"/>
-    <col min="2" max="2" width="37.89453125" customWidth="1"/>
-    <col min="3" max="3" width="5.41796875" customWidth="1"/>
-    <col min="4" max="4" width="6.41796875" customWidth="1"/>
-    <col min="5" max="5" width="8.20703125" customWidth="1"/>
-    <col min="7" max="7" width="8.68359375" customWidth="1"/>
-    <col min="8" max="8" width="12.41796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1015625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.89453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.20703125" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.68359375" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2745,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2794,7 +2800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2892,7 +2898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3627,7 +3633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3725,7 +3731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -3774,7 +3780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -3823,7 +3829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -3921,7 +3927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -3970,7 +3976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4068,7 +4074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4117,7 +4123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4166,7 +4172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4362,7 +4368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4458,7 +4464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4507,7 +4513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4556,7 +4562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4654,7 +4660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4703,7 +4709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4801,7 +4807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4850,7 +4856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4899,7 +4905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4948,7 +4954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -4997,7 +5003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -5046,7 +5052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5144,7 +5150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5242,7 +5248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5338,7 +5344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -5479,7 +5485,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -5526,7 +5532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -5573,7 +5579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>378</v>
       </c>
@@ -5620,7 +5626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>378</v>
       </c>
@@ -5667,7 +5673,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>378</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>378</v>
       </c>
@@ -5761,7 +5767,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>378</v>
       </c>
@@ -5808,7 +5814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>378</v>
       </c>
@@ -5855,7 +5861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>378</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>378</v>
       </c>
@@ -5949,7 +5955,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>378</v>
       </c>
@@ -5996,7 +6002,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>378</v>
       </c>
@@ -6043,7 +6049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>378</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>378</v>
       </c>
@@ -6137,7 +6143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>378</v>
       </c>
@@ -6184,7 +6190,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>378</v>
       </c>
@@ -6231,7 +6237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>378</v>
       </c>
@@ -6278,7 +6284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>378</v>
       </c>
@@ -6325,7 +6331,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>378</v>
       </c>
@@ -6372,7 +6378,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>378</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>378</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>378</v>
       </c>
@@ -6513,7 +6519,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>378</v>
       </c>
@@ -6557,7 +6563,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>294</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>429</v>
       </c>
@@ -6653,7 +6659,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>429</v>
       </c>
@@ -6700,7 +6706,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>233</v>
       </c>
@@ -6747,7 +6753,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>233</v>
       </c>
@@ -6794,7 +6800,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>233</v>
       </c>
@@ -6841,7 +6847,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>233</v>
       </c>
@@ -6888,7 +6894,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>233</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>233</v>
       </c>
@@ -6982,7 +6988,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>233</v>
       </c>
@@ -7031,7 +7037,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>233</v>
       </c>
@@ -7081,7 +7087,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>233</v>
       </c>
@@ -7130,7 +7136,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>233</v>
       </c>
@@ -7177,7 +7183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>233</v>
       </c>
@@ -7224,7 +7230,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>233</v>
       </c>
@@ -7318,7 +7324,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -7412,7 +7418,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>233</v>
       </c>
@@ -7462,7 +7468,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -7509,7 +7515,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>233</v>
       </c>
@@ -7556,7 +7562,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -7603,7 +7609,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>233</v>
       </c>
@@ -7650,7 +7656,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>233</v>
       </c>
@@ -7697,7 +7703,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -7744,7 +7750,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -7838,7 +7844,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -7888,7 +7894,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -7938,7 +7944,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -7985,7 +7991,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -8032,7 +8038,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>233</v>
       </c>
@@ -8079,7 +8085,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>296</v>
       </c>
@@ -8128,7 +8134,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -8177,7 +8183,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>296</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -8275,7 +8281,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -8324,7 +8330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -8373,7 +8379,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -8471,7 +8477,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -8569,7 +8575,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -8618,7 +8624,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -8667,7 +8673,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -8716,7 +8722,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -8765,7 +8771,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -8814,7 +8820,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -8863,7 +8869,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -8912,7 +8918,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -8961,7 +8967,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -9011,7 +9017,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -9060,7 +9066,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -9109,7 +9115,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -9158,7 +9164,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -9207,7 +9213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -9256,7 +9262,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -9305,7 +9311,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -9354,7 +9360,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -9403,7 +9409,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -9452,7 +9458,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -9501,7 +9507,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -9550,7 +9556,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -9697,7 +9703,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -9746,7 +9752,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -9795,7 +9801,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -9842,7 +9848,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -9889,7 +9895,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -9983,7 +9989,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -10030,7 +10036,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>371</v>
       </c>
@@ -10077,7 +10083,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>371</v>
       </c>
@@ -10124,7 +10130,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>371</v>
       </c>
@@ -10171,7 +10177,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>438</v>
       </c>
@@ -10265,7 +10271,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>438</v>
       </c>
@@ -10312,7 +10318,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>100</v>
       </c>
@@ -10361,7 +10367,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>100</v>
       </c>
@@ -10408,7 +10414,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>100</v>
       </c>
@@ -10458,7 +10464,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>100</v>
       </c>
@@ -10505,7 +10511,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>100</v>
       </c>
@@ -10554,7 +10560,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>100</v>
       </c>
@@ -10601,7 +10607,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>100</v>
       </c>
@@ -10650,7 +10656,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>100</v>
       </c>
@@ -10697,7 +10703,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>100</v>
       </c>
@@ -10746,7 +10752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>100</v>
       </c>
@@ -10793,7 +10799,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>100</v>
       </c>
@@ -10840,7 +10846,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>100</v>
       </c>
@@ -10887,7 +10893,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>219</v>
       </c>
@@ -10936,7 +10942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -10985,7 +10991,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>219</v>
       </c>
@@ -11034,7 +11040,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>101</v>
       </c>
@@ -11083,7 +11089,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>101</v>
       </c>
@@ -11132,7 +11138,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>101</v>
       </c>
@@ -11181,7 +11187,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>101</v>
       </c>
@@ -11230,7 +11236,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>101</v>
       </c>
@@ -11279,7 +11285,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>101</v>
       </c>
@@ -11328,7 +11334,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>101</v>
       </c>
@@ -11377,7 +11383,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -11426,7 +11432,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>101</v>
       </c>
@@ -11475,7 +11481,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>101</v>
       </c>
@@ -11524,7 +11530,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>101</v>
       </c>
@@ -11573,7 +11579,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>101</v>
       </c>
@@ -11620,7 +11626,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>101</v>
       </c>
@@ -11667,7 +11673,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -11711,7 +11717,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>101</v>
       </c>
@@ -11758,7 +11764,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -11805,7 +11811,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -11852,7 +11858,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>167</v>
       </c>
@@ -11901,7 +11907,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -11950,7 +11956,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -11999,7 +12005,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>167</v>
       </c>
@@ -12048,7 +12054,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>167</v>
       </c>
@@ -12097,7 +12103,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>167</v>
       </c>
@@ -12146,7 +12152,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>167</v>
       </c>
@@ -12196,7 +12202,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>167</v>
       </c>
@@ -12245,7 +12251,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>167</v>
       </c>
@@ -12294,7 +12300,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>167</v>
       </c>
@@ -12343,7 +12349,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>167</v>
       </c>
@@ -12392,7 +12398,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>167</v>
       </c>
@@ -12441,7 +12447,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>167</v>
       </c>
@@ -12490,7 +12496,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>167</v>
       </c>
@@ -12539,7 +12545,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>167</v>
       </c>
@@ -12588,7 +12594,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>167</v>
       </c>
@@ -12635,7 +12641,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>183</v>
       </c>
@@ -12684,7 +12690,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -12733,7 +12739,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>183</v>
       </c>
@@ -12782,7 +12788,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>183</v>
       </c>
@@ -12831,7 +12837,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>183</v>
       </c>
@@ -12880,7 +12886,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>183</v>
       </c>
@@ -12929,7 +12935,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -12978,7 +12984,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>183</v>
       </c>
@@ -13027,7 +13033,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>183</v>
       </c>
@@ -13076,7 +13082,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>183</v>
       </c>
@@ -13123,7 +13129,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>183</v>
       </c>
@@ -13170,7 +13176,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>183</v>
       </c>
@@ -13217,7 +13223,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -13266,7 +13272,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>192</v>
       </c>
@@ -13315,7 +13321,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>192</v>
       </c>
@@ -13364,7 +13370,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>192</v>
       </c>
@@ -13413,7 +13419,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>192</v>
       </c>
@@ -13462,7 +13468,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>192</v>
       </c>
@@ -13509,7 +13515,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -13556,7 +13562,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>264</v>
       </c>
@@ -13603,7 +13609,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>264</v>
       </c>
@@ -13650,7 +13656,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>264</v>
       </c>
@@ -13697,7 +13703,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>221</v>
       </c>
@@ -13746,7 +13752,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>221</v>
       </c>
@@ -13793,7 +13799,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>221</v>
       </c>
@@ -13840,7 +13846,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>221</v>
       </c>
@@ -13889,7 +13895,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>221</v>
       </c>
@@ -13936,7 +13942,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>221</v>
       </c>
@@ -13983,7 +13989,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>221</v>
       </c>
@@ -14030,7 +14036,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>221</v>
       </c>
@@ -14079,7 +14085,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>221</v>
       </c>
@@ -14126,7 +14132,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>221</v>
       </c>
@@ -14173,7 +14179,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>221</v>
       </c>
@@ -14220,7 +14226,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>221</v>
       </c>
@@ -14267,7 +14273,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>221</v>
       </c>
@@ -14314,7 +14320,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>221</v>
       </c>
@@ -14363,7 +14369,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>221</v>
       </c>
@@ -14410,7 +14416,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>221</v>
       </c>
@@ -14457,7 +14463,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>221</v>
       </c>
@@ -14504,7 +14510,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>133</v>
       </c>
@@ -14553,7 +14559,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>133</v>
       </c>
@@ -14600,7 +14606,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>133</v>
       </c>
@@ -14647,7 +14653,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>133</v>
       </c>
@@ -14696,7 +14702,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>133</v>
       </c>
@@ -14743,7 +14749,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>133</v>
       </c>
@@ -14790,7 +14796,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>133</v>
       </c>
@@ -14839,7 +14845,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>133</v>
       </c>
@@ -14888,7 +14894,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>133</v>
       </c>
@@ -14937,7 +14943,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>133</v>
       </c>
@@ -14984,7 +14990,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -15031,7 +15037,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>133</v>
       </c>
@@ -15078,7 +15084,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>133</v>
       </c>
@@ -15127,7 +15133,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>133</v>
       </c>
@@ -15176,7 +15182,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>133</v>
       </c>
@@ -15225,7 +15231,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>133</v>
       </c>
@@ -15272,7 +15278,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>133</v>
       </c>
@@ -15319,7 +15325,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>133</v>
       </c>
@@ -15368,7 +15374,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>133</v>
       </c>
@@ -15417,7 +15423,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>133</v>
       </c>
@@ -15464,7 +15470,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>133</v>
       </c>
@@ -15511,7 +15517,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>133</v>
       </c>
@@ -15560,7 +15566,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>133</v>
       </c>
@@ -15609,7 +15615,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>133</v>
       </c>
@@ -15658,7 +15664,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>133</v>
       </c>
@@ -15707,7 +15713,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>133</v>
       </c>
@@ -15754,7 +15760,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>133</v>
       </c>
@@ -15801,7 +15807,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>133</v>
       </c>
@@ -15848,7 +15854,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>133</v>
       </c>
@@ -15895,7 +15901,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>133</v>
       </c>
@@ -15942,7 +15948,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>133</v>
       </c>
@@ -15991,7 +15997,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -16040,7 +16046,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>133</v>
       </c>
@@ -16089,7 +16095,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>133</v>
       </c>
@@ -16138,7 +16144,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>133</v>
       </c>
@@ -16187,7 +16193,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>133</v>
       </c>
@@ -16234,7 +16240,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>133</v>
       </c>
@@ -16281,7 +16287,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>133</v>
       </c>
@@ -16328,7 +16334,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>133</v>
       </c>
@@ -16375,7 +16381,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>133</v>
       </c>
@@ -16422,7 +16428,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>133</v>
       </c>
@@ -16471,7 +16477,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>133</v>
       </c>
@@ -16520,7 +16526,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>133</v>
       </c>
@@ -16569,7 +16575,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>133</v>
       </c>
@@ -16618,7 +16624,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>133</v>
       </c>
@@ -16667,7 +16673,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>133</v>
       </c>
@@ -16714,7 +16720,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>133</v>
       </c>
@@ -16761,7 +16767,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>133</v>
       </c>
@@ -16808,7 +16814,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>133</v>
       </c>
@@ -16857,7 +16863,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>133</v>
       </c>
@@ -16906,7 +16912,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>133</v>
       </c>
@@ -16953,7 +16959,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -17002,7 +17008,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>133</v>
       </c>
@@ -17049,7 +17055,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>133</v>
       </c>
@@ -17096,7 +17102,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -17143,7 +17149,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>133</v>
       </c>
@@ -17190,7 +17196,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>133</v>
       </c>
@@ -17237,7 +17243,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>133</v>
       </c>
@@ -17284,7 +17290,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>133</v>
       </c>
@@ -17331,7 +17337,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>133</v>
       </c>
@@ -17378,7 +17384,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>133</v>
       </c>
@@ -17425,7 +17431,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>378</v>
       </c>
@@ -17472,7 +17478,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>378</v>
       </c>
@@ -17519,7 +17525,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>101</v>
       </c>
@@ -17564,7 +17570,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>101</v>
       </c>
@@ -17609,7 +17615,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>101</v>
       </c>
@@ -17652,7 +17658,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>101</v>
       </c>
@@ -17697,7 +17703,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -17744,7 +17750,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>219</v>
       </c>
@@ -17787,7 +17793,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>219</v>
       </c>
@@ -17830,7 +17836,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>219</v>
       </c>
@@ -17873,7 +17879,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>101</v>
       </c>
@@ -17916,7 +17922,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>192</v>
       </c>
@@ -17959,7 +17965,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -18002,7 +18008,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -18049,7 +18055,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -18096,7 +18102,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -18143,7 +18149,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -18188,7 +18194,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>219</v>
       </c>
@@ -18231,7 +18237,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>219</v>
       </c>
@@ -18274,7 +18280,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>219</v>
       </c>
@@ -18317,7 +18323,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>219</v>
       </c>
@@ -18360,7 +18366,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>219</v>
       </c>
@@ -18403,7 +18409,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>219</v>
       </c>
@@ -18446,7 +18452,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>505</v>
       </c>
@@ -18491,7 +18497,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>505</v>
       </c>
@@ -18534,7 +18540,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>505</v>
       </c>
@@ -18577,7 +18583,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>505</v>
       </c>
@@ -18620,7 +18626,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>505</v>
       </c>
@@ -18663,7 +18669,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>505</v>
       </c>
@@ -18706,7 +18712,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>505</v>
       </c>
@@ -18749,7 +18755,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>505</v>
       </c>
@@ -18792,7 +18798,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>505</v>
       </c>
@@ -18835,7 +18841,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>505</v>
       </c>
@@ -18878,7 +18884,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>505</v>
       </c>
@@ -18921,7 +18927,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>505</v>
       </c>
@@ -18964,7 +18970,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>505</v>
       </c>
@@ -19007,7 +19013,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>505</v>
       </c>
@@ -19050,7 +19056,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>505</v>
       </c>
@@ -19093,7 +19099,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>505</v>
       </c>
@@ -19136,7 +19142,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>505</v>
       </c>
@@ -19179,15 +19185,15 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>378</v>
       </c>
       <c r="B355" t="s">
         <v>539</v>
       </c>
-      <c r="C355">
-        <v>2017</v>
+      <c r="C355" s="13">
+        <v>2013</v>
       </c>
       <c r="D355">
         <v>32000</v>
@@ -19219,20 +19225,22 @@
       <c r="M355" t="s">
         <v>447</v>
       </c>
-      <c r="N355" s="11"/>
+      <c r="N355" s="13" t="s">
+        <v>589</v>
+      </c>
       <c r="O355" s="8">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>378</v>
       </c>
       <c r="B356" t="s">
         <v>541</v>
       </c>
-      <c r="C356">
-        <v>2017</v>
+      <c r="C356" s="13">
+        <v>2016</v>
       </c>
       <c r="D356">
         <v>11499</v>
@@ -19264,20 +19272,22 @@
       <c r="M356" t="s">
         <v>447</v>
       </c>
-      <c r="N356" s="11"/>
+      <c r="N356" s="13" t="s">
+        <v>587</v>
+      </c>
       <c r="O356" s="8">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>378</v>
       </c>
       <c r="B357" t="s">
         <v>543</v>
       </c>
-      <c r="C357">
-        <v>2017</v>
+      <c r="C357" s="13">
+        <v>2012</v>
       </c>
       <c r="D357">
         <v>29800</v>
@@ -19309,19 +19319,21 @@
       <c r="M357" t="s">
         <v>447</v>
       </c>
-      <c r="N357" s="11"/>
+      <c r="N357" s="13" t="s">
+        <v>582</v>
+      </c>
       <c r="O357" s="8">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>378</v>
       </c>
       <c r="B358" t="s">
         <v>545</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="11">
         <v>2017</v>
       </c>
       <c r="D358">
@@ -19354,20 +19366,22 @@
       <c r="M358" t="s">
         <v>447</v>
       </c>
-      <c r="N358" s="11"/>
+      <c r="N358" s="13" t="s">
+        <v>582</v>
+      </c>
       <c r="O358" s="8">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>378</v>
       </c>
       <c r="B359" t="s">
         <v>547</v>
       </c>
-      <c r="C359">
-        <v>2017</v>
+      <c r="C359" s="13">
+        <v>2014</v>
       </c>
       <c r="D359">
         <v>44000</v>
@@ -19399,19 +19413,21 @@
       <c r="M359" t="s">
         <v>447</v>
       </c>
-      <c r="N359" s="11"/>
+      <c r="N359" s="13" t="s">
+        <v>587</v>
+      </c>
       <c r="O359" s="8">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>378</v>
       </c>
       <c r="B360" t="s">
         <v>549</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="11">
         <v>2017</v>
       </c>
       <c r="D360">
@@ -19444,20 +19460,22 @@
       <c r="M360" t="s">
         <v>447</v>
       </c>
-      <c r="N360" s="11"/>
+      <c r="N360" s="13" t="s">
+        <v>586</v>
+      </c>
       <c r="O360" s="8">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>378</v>
       </c>
       <c r="B361" t="s">
         <v>551</v>
       </c>
-      <c r="C361">
-        <v>2017</v>
+      <c r="C361" s="11">
+        <v>2013</v>
       </c>
       <c r="D361">
         <v>99800</v>
@@ -19489,19 +19507,21 @@
       <c r="M361" t="s">
         <v>447</v>
       </c>
-      <c r="N361" s="11"/>
+      <c r="N361" s="13" t="s">
+        <v>582</v>
+      </c>
       <c r="O361" s="8">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>378</v>
       </c>
       <c r="B362" t="s">
         <v>553</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="11">
         <v>2017</v>
       </c>
       <c r="D362">
@@ -19534,20 +19554,22 @@
       <c r="M362" t="s">
         <v>447</v>
       </c>
-      <c r="N362" s="11"/>
+      <c r="N362" s="13" t="s">
+        <v>587</v>
+      </c>
       <c r="O362" s="8">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>378</v>
       </c>
       <c r="B363" t="s">
         <v>555</v>
       </c>
-      <c r="C363">
-        <v>2017</v>
+      <c r="C363" s="13">
+        <v>2012</v>
       </c>
       <c r="D363">
         <v>32000</v>
@@ -19579,19 +19601,23 @@
       <c r="M363" t="s">
         <v>447</v>
       </c>
-      <c r="N363" s="11"/>
+      <c r="N363" s="13" t="s">
+        <v>586</v>
+      </c>
       <c r="O363" s="8">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>101</v>
       </c>
       <c r="B364" t="s">
         <v>557</v>
       </c>
-      <c r="C364" s="11"/>
+      <c r="C364" s="13">
+        <v>2016</v>
+      </c>
       <c r="D364">
         <v>3999</v>
       </c>
@@ -19620,14 +19646,16 @@
         <v>1</v>
       </c>
       <c r="M364" t="s">
-        <v>285</v>
-      </c>
-      <c r="N364" s="11"/>
+        <v>447</v>
+      </c>
+      <c r="N364" s="13" t="s">
+        <v>588</v>
+      </c>
       <c r="O364" s="8">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>101</v>
       </c>
@@ -19667,12 +19695,14 @@
       <c r="M365" t="s">
         <v>285</v>
       </c>
-      <c r="N365" s="11"/>
+      <c r="N365" s="13" t="s">
+        <v>584</v>
+      </c>
       <c r="O365" s="8">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>101</v>
       </c>
@@ -19712,12 +19742,14 @@
       <c r="M366" t="s">
         <v>285</v>
       </c>
-      <c r="N366" s="11"/>
+      <c r="N366" s="13" t="s">
+        <v>579</v>
+      </c>
       <c r="O366" s="8">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>101</v>
       </c>
@@ -19757,12 +19789,14 @@
       <c r="M367" t="s">
         <v>285</v>
       </c>
-      <c r="N367" s="11"/>
+      <c r="N367" s="13" t="s">
+        <v>579</v>
+      </c>
       <c r="O367" s="8">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>101</v>
       </c>
@@ -19802,12 +19836,14 @@
       <c r="M368" t="s">
         <v>285</v>
       </c>
-      <c r="N368" s="11"/>
+      <c r="N368" s="13" t="s">
+        <v>589</v>
+      </c>
       <c r="O368" s="8">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>101</v>
       </c>
@@ -19847,12 +19883,14 @@
       <c r="M369" t="s">
         <v>285</v>
       </c>
-      <c r="N369" s="11"/>
+      <c r="N369" s="13" t="s">
+        <v>582</v>
+      </c>
       <c r="O369" s="8">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>101</v>
       </c>
@@ -19892,12 +19930,14 @@
       <c r="M370" t="s">
         <v>285</v>
       </c>
-      <c r="N370" s="11"/>
+      <c r="N370" s="13" t="s">
+        <v>582</v>
+      </c>
       <c r="O370" s="8">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>101</v>
       </c>
@@ -19937,12 +19977,14 @@
       <c r="M371" t="s">
         <v>285</v>
       </c>
-      <c r="N371" s="11"/>
+      <c r="N371" s="13" t="s">
+        <v>588</v>
+      </c>
       <c r="O371" s="8">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>192</v>
       </c>
@@ -19982,12 +20024,14 @@
       <c r="M372" t="s">
         <v>285</v>
       </c>
-      <c r="N372" s="11"/>
+      <c r="N372" s="13" t="s">
+        <v>579</v>
+      </c>
       <c r="O372" s="8">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>192</v>
       </c>
@@ -20027,12 +20071,14 @@
       <c r="M373" t="s">
         <v>285</v>
       </c>
-      <c r="N373" s="11"/>
+      <c r="N373" s="13" t="s">
+        <v>579</v>
+      </c>
       <c r="O373" s="8">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>192</v>
       </c>
@@ -20072,12 +20118,14 @@
       <c r="M374" t="s">
         <v>285</v>
       </c>
-      <c r="N374" s="11"/>
+      <c r="N374" s="13" t="s">
+        <v>582</v>
+      </c>
       <c r="O374" s="8">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>192</v>
       </c>
@@ -20117,12 +20165,14 @@
       <c r="M375" t="s">
         <v>285</v>
       </c>
-      <c r="N375" s="11"/>
+      <c r="N375" s="13" t="s">
+        <v>582</v>
+      </c>
       <c r="O375" s="8">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>192</v>
       </c>
@@ -20158,14 +20208,16 @@
         <v>1</v>
       </c>
       <c r="M376" t="s">
-        <v>285</v>
-      </c>
-      <c r="N376" s="11"/>
+        <v>300</v>
+      </c>
+      <c r="N376" s="13" t="s">
+        <v>579</v>
+      </c>
       <c r="O376" s="8">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>192</v>
       </c>
@@ -20205,12 +20257,14 @@
       <c r="M377" t="s">
         <v>285</v>
       </c>
-      <c r="N377" s="11"/>
+      <c r="N377" s="13" t="s">
+        <v>583</v>
+      </c>
       <c r="O377" s="8">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>192</v>
       </c>
@@ -20250,12 +20304,14 @@
       <c r="M378" t="s">
         <v>285</v>
       </c>
-      <c r="N378" s="11"/>
+      <c r="N378" s="13" t="s">
+        <v>584</v>
+      </c>
       <c r="O378" s="8">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>133</v>
       </c>
@@ -20293,14 +20349,16 @@
         <v>1</v>
       </c>
       <c r="M379" t="s">
-        <v>285</v>
-      </c>
-      <c r="N379" s="11"/>
+        <v>447</v>
+      </c>
+      <c r="N379" s="13" t="s">
+        <v>587</v>
+      </c>
       <c r="O379" s="8">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -20338,14 +20396,16 @@
         <v>0</v>
       </c>
       <c r="M380" t="s">
-        <v>285</v>
-      </c>
-      <c r="N380" s="11"/>
+        <v>300</v>
+      </c>
+      <c r="N380" s="13" t="s">
+        <v>583</v>
+      </c>
       <c r="O380" s="8">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>432</v>
       </c>
@@ -20383,14 +20443,16 @@
         <v>0</v>
       </c>
       <c r="M381" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N381" s="11"/>
+        <v>285</v>
+      </c>
+      <c r="N381" s="13" t="s">
+        <v>579</v>
+      </c>
       <c r="O381" s="8">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>432</v>
       </c>
@@ -20430,12 +20492,14 @@
       <c r="M382" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N382" s="11"/>
+      <c r="N382" s="13" t="s">
+        <v>614</v>
+      </c>
       <c r="O382" s="8">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>432</v>
       </c>
@@ -20475,12 +20539,14 @@
       <c r="M383" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N383" s="11"/>
+      <c r="N383" s="13" t="s">
+        <v>588</v>
+      </c>
       <c r="O383" s="8">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>432</v>
       </c>
@@ -20520,12 +20586,14 @@
       <c r="M384" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N384" s="11"/>
+      <c r="N384" s="13" t="s">
+        <v>584</v>
+      </c>
       <c r="O384" s="8">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
         <v>183</v>
       </c>
@@ -20572,7 +20640,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
         <v>133</v>
       </c>
@@ -20619,7 +20687,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
         <v>167</v>
       </c>
@@ -20666,7 +20734,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
         <v>167</v>
       </c>
@@ -20713,7 +20781,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
         <v>167</v>
       </c>
@@ -20760,7 +20828,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
         <v>264</v>
       </c>
@@ -20805,7 +20873,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
         <v>264</v>
       </c>
@@ -20852,7 +20920,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
         <v>378</v>
       </c>
@@ -20899,7 +20967,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="8" t="s">
         <v>378</v>
       </c>
@@ -20946,7 +21014,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
         <v>378</v>
       </c>
@@ -20993,7 +21061,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
         <v>378</v>
       </c>
@@ -21032,7 +21100,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
         <v>605</v>
       </c>
@@ -21079,7 +21147,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
         <v>605</v>
       </c>
@@ -21137,23 +21205,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>42361</v>
       </c>
@@ -21161,7 +21229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>42369</v>
       </c>
@@ -21169,7 +21237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>42371</v>
       </c>
@@ -21177,7 +21245,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>42372</v>
       </c>
@@ -21185,7 +21253,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>42373</v>
       </c>
@@ -21193,7 +21261,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>42382</v>
       </c>
@@ -21201,7 +21269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42385</v>
       </c>
@@ -21209,7 +21277,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42387</v>
       </c>
@@ -21217,7 +21285,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>42388</v>
       </c>
@@ -21225,7 +21293,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>42390</v>
       </c>
@@ -21233,7 +21301,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>42391</v>
       </c>
@@ -21241,7 +21309,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>42400</v>
       </c>
@@ -21249,7 +21317,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>42414</v>
       </c>
@@ -21257,7 +21325,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>42432</v>
       </c>
@@ -21268,7 +21336,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>42435</v>
       </c>
@@ -21276,7 +21344,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>42436</v>
       </c>
@@ -21284,7 +21352,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>42441</v>
       </c>
@@ -21292,7 +21360,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>42445</v>
       </c>
@@ -21300,7 +21368,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>42453</v>
       </c>
@@ -21308,7 +21376,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>42456</v>
       </c>
@@ -21316,7 +21384,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>42457</v>
       </c>
@@ -21324,7 +21392,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>42458</v>
       </c>
@@ -21332,7 +21400,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>42464</v>
       </c>
@@ -21340,7 +21408,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>42510</v>
       </c>
@@ -21348,7 +21416,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>42515</v>
       </c>
@@ -21356,7 +21424,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>42560</v>
       </c>
@@ -21364,7 +21432,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>42565</v>
       </c>
@@ -21372,7 +21440,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>42576</v>
       </c>
@@ -21380,7 +21448,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>42590</v>
       </c>
@@ -21388,7 +21456,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>42593</v>
       </c>
@@ -21396,7 +21464,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>42598</v>
       </c>
@@ -21404,7 +21472,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>42665</v>
       </c>
@@ -21412,7 +21480,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>42788</v>
       </c>
@@ -21420,7 +21488,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>42831</v>
       </c>
@@ -21428,7 +21496,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>42833</v>
       </c>
@@ -21436,7 +21504,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>42833</v>
       </c>
@@ -21444,7 +21512,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>42874</v>
       </c>
@@ -21452,7 +21520,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>42876</v>
       </c>
@@ -21460,7 +21528,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>42878</v>
       </c>
@@ -21468,12 +21536,20 @@
         <v>611</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>42878</v>
       </c>
       <c r="B42" t="s">
         <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>42879</v>
+      </c>
+      <c r="B43" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="619">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1794,9 +1794,6 @@
     <t>Telephoto</t>
   </si>
   <si>
-    <t>Wide</t>
-  </si>
-  <si>
     <t>Batis 135mm f/2.8</t>
   </si>
   <si>
@@ -1873,6 +1870,18 @@
   </si>
   <si>
     <t>Correct metadata in entries 354-383</t>
+  </si>
+  <si>
+    <t>Coastal Optics</t>
+  </si>
+  <si>
+    <t>Added Coastal Optics 60mm &amp; 105mm lenses</t>
+  </si>
+  <si>
+    <t>UV-VIS-IR 60mm 1:4 APO Macro</t>
+  </si>
+  <si>
+    <t>105mm f/4.5 250-650nm</t>
   </si>
 </sst>
 </file>
@@ -1966,8 +1975,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O397" totalsRowShown="0">
-  <autoFilter ref="A1:O397"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O399" totalsRowShown="0">
+  <autoFilter ref="A1:O399"/>
   <sortState ref="A2:M314">
     <sortCondition ref="A1:A314"/>
   </sortState>
@@ -2290,10 +2299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O397"/>
+  <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="O355" sqref="O355"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="O400" sqref="O400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11083,7 +11092,7 @@
         <v>293</v>
       </c>
       <c r="N182" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="O182" s="7">
         <v>181</v>
@@ -19226,7 +19235,7 @@
         <v>447</v>
       </c>
       <c r="N355" s="13" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="O355" s="8">
         <v>354</v>
@@ -19837,7 +19846,7 @@
         <v>285</v>
       </c>
       <c r="N368" s="13" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="O368" s="8">
         <v>367</v>
@@ -20493,7 +20502,7 @@
         <v>300</v>
       </c>
       <c r="N382" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O382" s="8">
         <v>381</v>
@@ -20645,7 +20654,7 @@
         <v>133</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C386" s="8">
         <v>2017</v>
@@ -20692,7 +20701,7 @@
         <v>167</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C387" s="8">
         <v>2017</v>
@@ -20739,7 +20748,7 @@
         <v>167</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C388" s="8">
         <v>2017</v>
@@ -20786,7 +20795,7 @@
         <v>167</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C389" s="8">
         <v>2017</v>
@@ -20833,7 +20842,7 @@
         <v>264</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C390" s="8">
         <v>2017</v>
@@ -20878,7 +20887,7 @@
         <v>264</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C391" s="8">
         <v>2017</v>
@@ -20899,7 +20908,7 @@
         <v>2</v>
       </c>
       <c r="I391" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J391" s="10" t="s">
         <v>180</v>
@@ -20925,7 +20934,7 @@
         <v>378</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C392" s="8">
         <v>2017</v>
@@ -20946,19 +20955,19 @@
         <v>2.8</v>
       </c>
       <c r="I392" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="J392" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K392" s="8">
+        <v>0</v>
+      </c>
+      <c r="L392" s="8">
+        <v>0</v>
+      </c>
+      <c r="M392" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="J392" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K392" s="8">
-        <v>0</v>
-      </c>
-      <c r="L392" s="8">
-        <v>0</v>
-      </c>
-      <c r="M392" s="8" t="s">
-        <v>599</v>
       </c>
       <c r="N392" s="7" t="s">
         <v>582</v>
@@ -20972,7 +20981,7 @@
         <v>378</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C393" s="8">
         <v>2017</v>
@@ -20993,7 +21002,7 @@
         <v>4</v>
       </c>
       <c r="I393" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J393" s="10" t="s">
         <v>180</v>
@@ -21005,7 +21014,7 @@
         <v>0</v>
       </c>
       <c r="M393" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N393" s="7" t="s">
         <v>584</v>
@@ -21019,7 +21028,7 @@
         <v>378</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C394" s="8">
         <v>2017</v>
@@ -21040,7 +21049,7 @@
         <v>4</v>
       </c>
       <c r="I394" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J394" s="10" t="s">
         <v>181</v>
@@ -21052,7 +21061,7 @@
         <v>0</v>
       </c>
       <c r="M394" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N394" s="7" t="s">
         <v>581</v>
@@ -21066,7 +21075,7 @@
         <v>378</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C395" s="8">
         <v>2017</v>
@@ -21091,7 +21100,7 @@
         <v>0</v>
       </c>
       <c r="M395" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N395" s="7" t="s">
         <v>582</v>
@@ -21102,10 +21111,10 @@
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B396" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="B396" s="8" t="s">
-        <v>606</v>
       </c>
       <c r="C396" s="8">
         <v>2016</v>
@@ -21138,7 +21147,7 @@
         <v>0</v>
       </c>
       <c r="M396" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N396" s="7" t="s">
         <v>582</v>
@@ -21149,10 +21158,10 @@
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C397" s="8">
         <v>2016</v>
@@ -21185,13 +21194,103 @@
         <v>0</v>
       </c>
       <c r="M397" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N397" s="7" t="s">
         <v>584</v>
       </c>
       <c r="O397" s="8">
         <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>615</v>
+      </c>
+      <c r="B398" t="s">
+        <v>618</v>
+      </c>
+      <c r="C398" s="11"/>
+      <c r="D398">
+        <v>5350</v>
+      </c>
+      <c r="E398">
+        <v>535</v>
+      </c>
+      <c r="F398">
+        <f>5.26*25.4</f>
+        <v>133.60399999999998</v>
+      </c>
+      <c r="G398" s="9">
+        <f>2.7*25.4</f>
+        <v>68.58</v>
+      </c>
+      <c r="H398" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="I398" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J398" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398">
+        <v>0</v>
+      </c>
+      <c r="M398" t="s">
+        <v>285</v>
+      </c>
+      <c r="N398" t="s">
+        <v>584</v>
+      </c>
+      <c r="O398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>615</v>
+      </c>
+      <c r="B399" t="s">
+        <v>617</v>
+      </c>
+      <c r="C399" s="11"/>
+      <c r="D399">
+        <v>5750</v>
+      </c>
+      <c r="E399">
+        <v>620</v>
+      </c>
+      <c r="F399">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="G399" s="12"/>
+      <c r="H399" s="1">
+        <v>4</v>
+      </c>
+      <c r="I399" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J399" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+      <c r="L399">
+        <v>0</v>
+      </c>
+      <c r="M399" t="s">
+        <v>285</v>
+      </c>
+      <c r="N399" t="s">
+        <v>582</v>
+      </c>
+      <c r="O399">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -21205,10 +21304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21501,7 +21600,7 @@
         <v>42833</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -21509,7 +21608,7 @@
         <v>42833</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -21517,7 +21616,7 @@
         <v>42874</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -21525,7 +21624,7 @@
         <v>42876</v>
       </c>
       <c r="B40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -21533,7 +21632,7 @@
         <v>42878</v>
       </c>
       <c r="B41" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -21541,7 +21640,7 @@
         <v>42878</v>
       </c>
       <c r="B42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -21549,7 +21648,15 @@
         <v>42879</v>
       </c>
       <c r="B43" t="s">
-        <v>615</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>42884</v>
+      </c>
+      <c r="B44" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="625">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1882,6 +1882,24 @@
   </si>
   <si>
     <t>105mm f/4.5 250-650nm</t>
+  </si>
+  <si>
+    <t>AF-S Nikkor 28mm f/1.4E ED</t>
+  </si>
+  <si>
+    <t>AF-S Fisheye Nikkor 8-15mm f/3.5-4.5E ED</t>
+  </si>
+  <si>
+    <t>8-15</t>
+  </si>
+  <si>
+    <t>AF-P DX Nikkor 10-20mm f/4.5-5.6G VR</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>Add Nikon 28mm f/1.4, 10-20mm AF-P, and 8-15mm fisheye</t>
   </si>
 </sst>
 </file>
@@ -1930,14 +1948,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1975,10 +1992,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O399" totalsRowShown="0">
-  <autoFilter ref="A1:O399"/>
-  <sortState ref="A2:M314">
-    <sortCondition ref="A1:A314"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O402" totalsRowShown="0">
+  <autoFilter ref="A1:O402"/>
+  <sortState ref="A2:O400">
+    <sortCondition ref="O1:O400"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Manufacture"/>
@@ -2299,10 +2316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O399"/>
+  <dimension ref="A1:O402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="O400" sqref="O400"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,10 +2378,10 @@
       <c r="M1" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>578</v>
       </c>
     </row>
@@ -2375,7 +2392,7 @@
       <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>2007</v>
       </c>
       <c r="D2">
@@ -2388,7 +2405,7 @@
         <f>3.7*25.4</f>
         <v>93.98</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <f>3.1*25.4</f>
         <v>78.739999999999995</v>
       </c>
@@ -2410,10 +2427,10 @@
       <c r="M2" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2424,7 +2441,7 @@
       <c r="B3" t="s">
         <v>124</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="12">
         <v>2013</v>
       </c>
       <c r="D3">
@@ -2459,10 +2476,10 @@
       <c r="M3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2473,7 +2490,7 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>2009</v>
       </c>
       <c r="D4">
@@ -2486,7 +2503,7 @@
         <f>4.2*25.4</f>
         <v>106.67999999999999</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <f>3.5*25.4</f>
         <v>88.899999999999991</v>
       </c>
@@ -2508,10 +2525,10 @@
       <c r="M4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2522,7 +2539,7 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <v>1992</v>
       </c>
       <c r="D5">
@@ -2535,7 +2552,7 @@
         <f>2.78*25.4</f>
         <v>70.611999999999995</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="12">
         <f>3.05*25.4</f>
         <v>77.469999999999985</v>
       </c>
@@ -2557,10 +2574,10 @@
       <c r="M5" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2584,7 +2601,7 @@
         <f>2.19*25.4</f>
         <v>55.625999999999998</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="12">
         <f>2.69*25.4</f>
         <v>68.325999999999993</v>
       </c>
@@ -2606,10 +2623,10 @@
       <c r="M6" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>5</v>
       </c>
     </row>
@@ -2633,7 +2650,7 @@
         <f>3.42*25.4</f>
         <v>86.867999999999995</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <f>3.29*25.4</f>
         <v>83.566000000000003</v>
       </c>
@@ -2655,10 +2672,10 @@
       <c r="M7" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>6</v>
       </c>
     </row>
@@ -2682,7 +2699,7 @@
         <f>4.21*25.4</f>
         <v>106.934</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <f>3.48*25.4</f>
         <v>88.391999999999996</v>
       </c>
@@ -2704,10 +2721,10 @@
       <c r="M8" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>7</v>
       </c>
     </row>
@@ -2753,10 +2770,10 @@
       <c r="M9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>8</v>
       </c>
     </row>
@@ -2780,7 +2797,7 @@
         <f>2.02*25.4</f>
         <v>51.308</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="12">
         <f>2.69*25.4</f>
         <v>68.325999999999993</v>
       </c>
@@ -2802,10 +2819,10 @@
       <c r="M10" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2829,7 +2846,7 @@
         <f>2.2*25.4</f>
         <v>55.88</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
         <f>2.69*25.4</f>
         <v>68.325999999999993</v>
       </c>
@@ -2851,10 +2868,10 @@
       <c r="M11" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2878,7 +2895,7 @@
         <f>3.4*25.4</f>
         <v>86.36</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="12">
         <f>3.1*25.4</f>
         <v>78.739999999999995</v>
       </c>
@@ -2900,10 +2917,10 @@
       <c r="M12" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2927,7 +2944,7 @@
         <f>4.15*25.4</f>
         <v>105.41</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="12">
         <f>3.17*25.4</f>
         <v>80.518000000000001</v>
       </c>
@@ -2949,10 +2966,10 @@
       <c r="M13" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>12</v>
       </c>
     </row>
@@ -2976,7 +2993,7 @@
         <f>2.46*25.4</f>
         <v>62.483999999999995</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="12">
         <f>3.07*25.4</f>
         <v>77.977999999999994</v>
       </c>
@@ -2998,10 +3015,10 @@
       <c r="M14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>13</v>
       </c>
     </row>
@@ -3047,10 +3064,10 @@
       <c r="M15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>14</v>
       </c>
     </row>
@@ -3074,7 +3091,7 @@
         <f>0.9*25.4</f>
         <v>22.86</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
         <f>2.7*25.4</f>
         <v>68.58</v>
       </c>
@@ -3096,10 +3113,10 @@
       <c r="M16" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>15</v>
       </c>
     </row>
@@ -3123,7 +3140,7 @@
         <f>3.54*25.4</f>
         <v>89.915999999999997</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <f>3.19*25.4</f>
         <v>81.025999999999996</v>
       </c>
@@ -3145,10 +3162,10 @@
       <c r="M17" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3159,7 +3176,7 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="12">
         <v>2015</v>
       </c>
       <c r="D18">
@@ -3172,7 +3189,7 @@
         <f>1.6*25.4</f>
         <v>40.64</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <f>2.7*25.4</f>
         <v>68.58</v>
       </c>
@@ -3194,10 +3211,10 @@
       <c r="M18" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <v>17</v>
       </c>
     </row>
@@ -3221,7 +3238,7 @@
         <f>2*25.4</f>
         <v>50.8</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
         <f>2.9*25.4</f>
         <v>73.66</v>
       </c>
@@ -3243,10 +3260,10 @@
       <c r="M19" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <v>18</v>
       </c>
     </row>
@@ -3270,7 +3287,7 @@
         <f>2.58*25.4</f>
         <v>65.531999999999996</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="12">
         <f>3.38*25.4</f>
         <v>85.85199999999999</v>
       </c>
@@ -3292,10 +3309,10 @@
       <c r="M20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <v>19</v>
       </c>
     </row>
@@ -3341,10 +3358,10 @@
       <c r="M21" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <v>20</v>
       </c>
     </row>
@@ -3368,7 +3385,7 @@
         <f>2.75*25.4</f>
         <v>69.849999999999994</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="12">
         <f>2.87*25.4</f>
         <v>72.897999999999996</v>
       </c>
@@ -3390,10 +3407,10 @@
       <c r="M22" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <v>21</v>
       </c>
     </row>
@@ -3417,7 +3434,7 @@
         <f>2.81*25.4</f>
         <v>71.373999999999995</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="12">
         <f>2.95*25.4</f>
         <v>74.930000000000007</v>
       </c>
@@ -3439,10 +3456,10 @@
       <c r="M23" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="6">
         <v>22</v>
       </c>
     </row>
@@ -3466,7 +3483,7 @@
         <f>3.3*25.4</f>
         <v>83.82</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="12">
         <f>3.6*25.4</f>
         <v>91.44</v>
       </c>
@@ -3488,10 +3505,10 @@
       <c r="M24" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="6">
         <v>23</v>
       </c>
     </row>
@@ -3537,10 +3554,10 @@
       <c r="M25" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="6">
         <v>24</v>
       </c>
     </row>
@@ -3564,7 +3581,7 @@
         <f>3.5*25.4</f>
         <v>88.899999999999991</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="12">
         <f>2.9*25.4</f>
         <v>73.66</v>
       </c>
@@ -3586,10 +3603,10 @@
       <c r="M26" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="6">
         <v>25</v>
       </c>
     </row>
@@ -3600,7 +3617,7 @@
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="12">
         <v>1991</v>
       </c>
       <c r="D27">
@@ -3613,7 +3630,7 @@
         <f>2.89*25.4</f>
         <v>73.406000000000006</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="12">
         <f>2.95*25.4</f>
         <v>74.930000000000007</v>
       </c>
@@ -3635,10 +3652,10 @@
       <c r="M27" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="6">
         <v>26</v>
       </c>
     </row>
@@ -3662,7 +3679,7 @@
         <f>4.7*25.4</f>
         <v>119.38</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="12">
         <f>3.1*25.4</f>
         <v>78.739999999999995</v>
       </c>
@@ -3684,10 +3701,10 @@
       <c r="M28" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="6">
         <v>27</v>
       </c>
     </row>
@@ -3711,7 +3728,7 @@
         <f>4.84*25.4</f>
         <v>122.93599999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12">
         <f>3.06*25.4</f>
         <v>77.724000000000004</v>
       </c>
@@ -3733,10 +3750,10 @@
       <c r="M29" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="6">
         <v>28</v>
       </c>
     </row>
@@ -3747,7 +3764,7 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="12">
         <v>1996</v>
       </c>
       <c r="D30">
@@ -3760,7 +3777,7 @@
         <f>4.4*25.4</f>
         <v>111.76</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="12">
         <f>3.2*25.4</f>
         <v>81.28</v>
       </c>
@@ -3782,10 +3799,10 @@
       <c r="M30" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="6">
         <v>29</v>
       </c>
     </row>
@@ -3796,7 +3813,7 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="12">
         <v>2013</v>
       </c>
       <c r="D31">
@@ -3831,10 +3848,10 @@
       <c r="M31" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <v>30</v>
       </c>
     </row>
@@ -3845,7 +3862,7 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="12">
         <v>1996</v>
       </c>
       <c r="D32">
@@ -3858,7 +3875,7 @@
         <f>7.35*25.4</f>
         <v>186.68999999999997</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="12">
         <f>3.25*25.4</f>
         <v>82.55</v>
       </c>
@@ -3880,10 +3897,10 @@
       <c r="M32" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="6">
         <v>31</v>
       </c>
     </row>
@@ -3894,7 +3911,7 @@
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="12">
         <v>1996</v>
       </c>
       <c r="D33">
@@ -3907,7 +3924,7 @@
         <f>5.4*25.4</f>
         <v>137.16</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="12">
         <f>3.3*25.4</f>
         <v>83.82</v>
       </c>
@@ -3929,10 +3946,10 @@
       <c r="M33" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="6">
         <v>32</v>
       </c>
     </row>
@@ -3943,7 +3960,7 @@
       <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="12">
         <v>2008</v>
       </c>
       <c r="D34">
@@ -3978,10 +3995,10 @@
       <c r="M34" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="6">
         <v>33</v>
       </c>
     </row>
@@ -4005,7 +4022,7 @@
         <f>8.7*25.4</f>
         <v>220.97999999999996</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="12">
         <f>3.5*25.4</f>
         <v>88.899999999999991</v>
       </c>
@@ -4027,10 +4044,10 @@
       <c r="M35" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="6">
         <v>34</v>
       </c>
     </row>
@@ -4076,10 +4093,10 @@
       <c r="M36" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="6">
         <v>35</v>
       </c>
     </row>
@@ -4103,7 +4120,7 @@
         <f>10.1*25.4</f>
         <v>256.53999999999996</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="12">
         <f>3.5*25.4</f>
         <v>88.899999999999991</v>
       </c>
@@ -4125,10 +4142,10 @@
       <c r="M37" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N37" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="6">
         <v>36</v>
       </c>
     </row>
@@ -4174,10 +4191,10 @@
       <c r="M38" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="6">
         <v>37</v>
       </c>
     </row>
@@ -4223,10 +4240,10 @@
       <c r="M39" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="6">
         <v>38</v>
       </c>
     </row>
@@ -4272,10 +4289,10 @@
       <c r="M40" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="6">
         <v>39</v>
       </c>
     </row>
@@ -4321,10 +4338,10 @@
       <c r="M41" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="6">
         <v>40</v>
       </c>
     </row>
@@ -4335,7 +4352,7 @@
       <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="12">
         <v>2008</v>
       </c>
       <c r="D42">
@@ -4370,10 +4387,10 @@
       <c r="M42" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="6">
         <v>41</v>
       </c>
     </row>
@@ -4384,7 +4401,7 @@
       <c r="B43" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="12">
         <v>2015</v>
       </c>
       <c r="D43">
@@ -4397,7 +4414,7 @@
         <f>5.2*25.4</f>
         <v>132.07999999999998</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="8">
         <f>4.3*25.4</f>
         <v>109.21999999999998</v>
       </c>
@@ -4419,10 +4436,10 @@
       <c r="M43" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="N43" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="6">
         <v>42</v>
       </c>
     </row>
@@ -4466,10 +4483,10 @@
       <c r="M44" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="N44" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="6">
         <v>43</v>
       </c>
     </row>
@@ -4515,10 +4532,10 @@
       <c r="M45" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="N45" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="6">
         <v>44</v>
       </c>
     </row>
@@ -4564,10 +4581,10 @@
       <c r="M46" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N46" s="7" t="s">
+      <c r="N46" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="6">
         <v>45</v>
       </c>
     </row>
@@ -4591,7 +4608,7 @@
         <f>4.39*25.4</f>
         <v>111.50599999999999</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="12">
         <f>3.48*25.4</f>
         <v>88.391999999999996</v>
       </c>
@@ -4613,10 +4630,10 @@
       <c r="M47" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N47" s="7" t="s">
+      <c r="N47" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="6">
         <v>46</v>
       </c>
     </row>
@@ -4662,10 +4679,10 @@
       <c r="M48" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N48" s="7" t="s">
+      <c r="N48" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="6">
         <v>47</v>
       </c>
     </row>
@@ -4689,7 +4706,7 @@
         <f>3.81*25.4</f>
         <v>96.774000000000001</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="12">
         <f>3.29*25.4</f>
         <v>83.566000000000003</v>
       </c>
@@ -4711,10 +4728,10 @@
       <c r="M49" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="7" t="s">
+      <c r="N49" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="6">
         <v>48</v>
       </c>
     </row>
@@ -4725,7 +4742,7 @@
       <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="12">
         <v>2013</v>
       </c>
       <c r="D50">
@@ -4760,10 +4777,10 @@
       <c r="M50" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N50" s="7" t="s">
+      <c r="N50" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="6">
         <v>49</v>
       </c>
     </row>
@@ -4787,7 +4804,7 @@
         <f>4.2*25.4</f>
         <v>106.67999999999999</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="12">
         <f>3.3*25.4</f>
         <v>83.82</v>
       </c>
@@ -4809,10 +4826,10 @@
       <c r="M51" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N51" s="7" t="s">
+      <c r="N51" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="6">
         <v>50</v>
       </c>
     </row>
@@ -4858,10 +4875,10 @@
       <c r="M52" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="N52" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="6">
         <v>51</v>
       </c>
     </row>
@@ -4907,10 +4924,10 @@
       <c r="M53" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="N53" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="6">
         <v>52</v>
       </c>
     </row>
@@ -4934,7 +4951,7 @@
         <f>7.2*25.4</f>
         <v>182.88</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="12">
         <f>3.6*25.4</f>
         <v>91.44</v>
       </c>
@@ -4956,10 +4973,10 @@
       <c r="M54" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N54" s="7" t="s">
+      <c r="N54" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="6">
         <v>53</v>
       </c>
     </row>
@@ -5005,10 +5022,10 @@
       <c r="M55" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N55" s="7" t="s">
+      <c r="N55" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="6">
         <v>54</v>
       </c>
     </row>
@@ -5032,7 +5049,7 @@
         <f>6.8*25.4</f>
         <v>172.72</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="12">
         <f>3*25.4</f>
         <v>76.199999999999989</v>
       </c>
@@ -5054,10 +5071,10 @@
       <c r="M56" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="N56" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="6">
         <v>55</v>
       </c>
     </row>
@@ -5081,7 +5098,7 @@
         <f>6.8*25.4</f>
         <v>172.72</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="12">
         <f>3*25.4</f>
         <v>76.199999999999989</v>
       </c>
@@ -5103,10 +5120,10 @@
       <c r="M57" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N57" s="7" t="s">
+      <c r="N57" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O57" s="6">
         <v>56</v>
       </c>
     </row>
@@ -5152,10 +5169,10 @@
       <c r="M58" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N58" s="7" t="s">
+      <c r="N58" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O58" s="6">
         <v>57</v>
       </c>
     </row>
@@ -5179,7 +5196,7 @@
         <f>5.6*25.4</f>
         <v>142.23999999999998</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="12">
         <f>3*25.4</f>
         <v>76.199999999999989</v>
       </c>
@@ -5201,10 +5218,10 @@
       <c r="M59" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N59" s="7" t="s">
+      <c r="N59" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="6">
         <v>58</v>
       </c>
     </row>
@@ -5250,10 +5267,10 @@
       <c r="M60" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N60" s="7" t="s">
+      <c r="N60" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O60" s="6">
         <v>59</v>
       </c>
     </row>
@@ -5297,10 +5314,10 @@
       <c r="M61" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N61" s="7" t="s">
+      <c r="N61" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O61" s="7">
+      <c r="O61" s="6">
         <v>60</v>
       </c>
     </row>
@@ -5346,10 +5363,10 @@
       <c r="M62" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N62" s="7" t="s">
+      <c r="N62" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O62" s="7">
+      <c r="O62" s="6">
         <v>61</v>
       </c>
     </row>
@@ -5360,7 +5377,7 @@
       <c r="B63" t="s">
         <v>359</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="12">
         <v>2016</v>
       </c>
       <c r="D63">
@@ -5393,10 +5410,10 @@
       <c r="M63" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N63" s="7" t="s">
+      <c r="N63" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O63" s="7">
+      <c r="O63" s="6">
         <v>62</v>
       </c>
     </row>
@@ -5407,7 +5424,7 @@
       <c r="B64" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="12">
         <v>2016</v>
       </c>
       <c r="D64">
@@ -5440,10 +5457,10 @@
       <c r="M64" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N64" s="7" t="s">
+      <c r="N64" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O64" s="7">
+      <c r="O64" s="6">
         <v>63</v>
       </c>
     </row>
@@ -5454,7 +5471,7 @@
       <c r="B65" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="12">
         <v>2016</v>
       </c>
       <c r="D65">
@@ -5487,10 +5504,10 @@
       <c r="M65" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N65" s="7" t="s">
+      <c r="N65" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O65" s="7">
+      <c r="O65" s="6">
         <v>64</v>
       </c>
     </row>
@@ -5501,7 +5518,7 @@
       <c r="B66" t="s">
         <v>367</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="12">
         <v>2014</v>
       </c>
       <c r="D66">
@@ -5534,10 +5551,10 @@
       <c r="M66" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N66" s="7" t="s">
+      <c r="N66" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O66" s="7">
+      <c r="O66" s="6">
         <v>65</v>
       </c>
     </row>
@@ -5563,7 +5580,7 @@
       <c r="G67" s="2">
         <v>83.5</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="12">
         <v>4</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -5581,10 +5598,10 @@
       <c r="M67" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N67" s="7" t="s">
+      <c r="N67" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O67" s="7">
+      <c r="O67" s="6">
         <v>66</v>
       </c>
     </row>
@@ -5628,10 +5645,10 @@
       <c r="M68" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N68" s="7" t="s">
+      <c r="N68" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O68" s="6">
         <v>67</v>
       </c>
     </row>
@@ -5642,7 +5659,7 @@
       <c r="B69" t="s">
         <v>380</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="12">
         <v>2015</v>
       </c>
       <c r="D69">
@@ -5675,10 +5692,10 @@
       <c r="M69" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N69" s="7" t="s">
+      <c r="N69" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O69" s="7">
+      <c r="O69" s="6">
         <v>68</v>
       </c>
     </row>
@@ -5722,10 +5739,10 @@
       <c r="M70" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N70" s="7" t="s">
+      <c r="N70" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O70" s="6">
         <v>69</v>
       </c>
     </row>
@@ -5736,7 +5753,7 @@
       <c r="B71" t="s">
         <v>383</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="12">
         <v>2014</v>
       </c>
       <c r="D71">
@@ -5769,10 +5786,10 @@
       <c r="M71" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N71" s="7" t="s">
+      <c r="N71" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O71" s="7">
+      <c r="O71" s="6">
         <v>70</v>
       </c>
     </row>
@@ -5816,10 +5833,10 @@
       <c r="M72" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N72" s="7" t="s">
+      <c r="N72" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O72" s="7">
+      <c r="O72" s="6">
         <v>71</v>
       </c>
     </row>
@@ -5863,10 +5880,10 @@
       <c r="M73" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N73" s="7" t="s">
+      <c r="N73" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O73" s="7">
+      <c r="O73" s="6">
         <v>72</v>
       </c>
     </row>
@@ -5877,7 +5894,7 @@
       <c r="B74" t="s">
         <v>388</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="12">
         <v>2013</v>
       </c>
       <c r="D74">
@@ -5910,10 +5927,10 @@
       <c r="M74" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N74" s="7" t="s">
+      <c r="N74" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O74" s="6">
         <v>73</v>
       </c>
     </row>
@@ -5957,10 +5974,10 @@
       <c r="M75" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N75" s="7" t="s">
+      <c r="N75" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O75" s="7">
+      <c r="O75" s="6">
         <v>74</v>
       </c>
     </row>
@@ -6004,10 +6021,10 @@
       <c r="M76" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N76" s="7" t="s">
+      <c r="N76" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O76" s="7">
+      <c r="O76" s="6">
         <v>75</v>
       </c>
     </row>
@@ -6051,10 +6068,10 @@
       <c r="M77" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N77" s="7" t="s">
+      <c r="N77" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O77" s="7">
+      <c r="O77" s="6">
         <v>76</v>
       </c>
     </row>
@@ -6065,7 +6082,7 @@
       <c r="B78" t="s">
         <v>393</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="12">
         <v>2012</v>
       </c>
       <c r="D78">
@@ -6098,10 +6115,10 @@
       <c r="M78" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N78" s="7" t="s">
+      <c r="N78" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O78" s="7">
+      <c r="O78" s="6">
         <v>77</v>
       </c>
     </row>
@@ -6112,7 +6129,7 @@
       <c r="B79" t="s">
         <v>394</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="12">
         <v>2015</v>
       </c>
       <c r="D79">
@@ -6145,10 +6162,10 @@
       <c r="M79" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N79" s="7" t="s">
+      <c r="N79" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O79" s="7">
+      <c r="O79" s="6">
         <v>78</v>
       </c>
     </row>
@@ -6159,7 +6176,7 @@
       <c r="B80" t="s">
         <v>395</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="12">
         <v>2014</v>
       </c>
       <c r="D80">
@@ -6192,10 +6209,10 @@
       <c r="M80" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N80" s="7" t="s">
+      <c r="N80" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O80" s="7">
+      <c r="O80" s="6">
         <v>79</v>
       </c>
     </row>
@@ -6206,7 +6223,7 @@
       <c r="B81" t="s">
         <v>397</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="12">
         <v>2015</v>
       </c>
       <c r="D81">
@@ -6239,10 +6256,10 @@
       <c r="M81" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N81" s="7" t="s">
+      <c r="N81" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O81" s="7">
+      <c r="O81" s="6">
         <v>80</v>
       </c>
     </row>
@@ -6253,7 +6270,7 @@
       <c r="B82" t="s">
         <v>399</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="12">
         <v>2012</v>
       </c>
       <c r="D82">
@@ -6286,10 +6303,10 @@
       <c r="M82" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N82" s="7" t="s">
+      <c r="N82" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O82" s="7">
+      <c r="O82" s="6">
         <v>81</v>
       </c>
     </row>
@@ -6333,10 +6350,10 @@
       <c r="M83" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N83" s="7" t="s">
+      <c r="N83" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O83" s="7">
+      <c r="O83" s="6">
         <v>82</v>
       </c>
     </row>
@@ -6347,7 +6364,7 @@
       <c r="B84" t="s">
         <v>401</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="12">
         <v>2015</v>
       </c>
       <c r="D84">
@@ -6380,10 +6397,10 @@
       <c r="M84" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N84" s="7" t="s">
+      <c r="N84" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O84" s="7">
+      <c r="O84" s="6">
         <v>83</v>
       </c>
     </row>
@@ -6427,10 +6444,10 @@
       <c r="M85" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N85" s="7" t="s">
+      <c r="N85" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O85" s="7">
+      <c r="O85" s="6">
         <v>84</v>
       </c>
     </row>
@@ -6474,10 +6491,10 @@
       <c r="M86" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N86" s="7" t="s">
+      <c r="N86" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O86" s="7">
+      <c r="O86" s="6">
         <v>85</v>
       </c>
     </row>
@@ -6521,10 +6538,10 @@
       <c r="M87" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N87" s="7" t="s">
+      <c r="N87" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O87" s="7">
+      <c r="O87" s="6">
         <v>86</v>
       </c>
     </row>
@@ -6565,10 +6582,10 @@
       <c r="M88" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N88" s="7" t="s">
+      <c r="N88" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O88" s="7">
+      <c r="O88" s="6">
         <v>87</v>
       </c>
     </row>
@@ -6614,10 +6631,10 @@
       <c r="M89" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N89" s="7" t="s">
+      <c r="N89" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O89" s="7">
+      <c r="O89" s="6">
         <v>88</v>
       </c>
     </row>
@@ -6661,10 +6678,10 @@
       <c r="M90" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N90" s="7" t="s">
+      <c r="N90" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O90" s="7">
+      <c r="O90" s="6">
         <v>89</v>
       </c>
     </row>
@@ -6708,10 +6725,10 @@
       <c r="M91" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N91" s="7" t="s">
+      <c r="N91" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O91" s="7">
+      <c r="O91" s="6">
         <v>90</v>
       </c>
     </row>
@@ -6755,10 +6772,10 @@
       <c r="M92" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N92" s="7" t="s">
+      <c r="N92" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O92" s="7">
+      <c r="O92" s="6">
         <v>91</v>
       </c>
     </row>
@@ -6802,10 +6819,10 @@
       <c r="M93" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N93" s="7" t="s">
+      <c r="N93" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O93" s="7">
+      <c r="O93" s="6">
         <v>92</v>
       </c>
     </row>
@@ -6849,10 +6866,10 @@
       <c r="M94" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N94" s="7" t="s">
+      <c r="N94" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O94" s="7">
+      <c r="O94" s="6">
         <v>93</v>
       </c>
     </row>
@@ -6896,10 +6913,10 @@
       <c r="M95" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N95" s="7" t="s">
+      <c r="N95" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O95" s="7">
+      <c r="O95" s="6">
         <v>94</v>
       </c>
     </row>
@@ -6943,10 +6960,10 @@
       <c r="M96" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N96" s="7" t="s">
+      <c r="N96" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O96" s="7">
+      <c r="O96" s="6">
         <v>95</v>
       </c>
     </row>
@@ -6990,10 +7007,10 @@
       <c r="M97" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N97" s="7" t="s">
+      <c r="N97" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O97" s="7">
+      <c r="O97" s="6">
         <v>96</v>
       </c>
     </row>
@@ -7039,10 +7056,10 @@
       <c r="M98" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N98" s="7" t="s">
+      <c r="N98" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O98" s="7">
+      <c r="O98" s="6">
         <v>97</v>
       </c>
     </row>
@@ -7089,10 +7106,10 @@
       <c r="M99" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N99" s="7" t="s">
+      <c r="N99" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O99" s="7">
+      <c r="O99" s="6">
         <v>98</v>
       </c>
     </row>
@@ -7103,7 +7120,7 @@
       <c r="B100" t="s">
         <v>242</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="10">
         <v>2014</v>
       </c>
       <c r="D100">
@@ -7138,10 +7155,10 @@
       <c r="M100" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N100" s="7" t="s">
+      <c r="N100" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O100" s="7">
+      <c r="O100" s="6">
         <v>99</v>
       </c>
     </row>
@@ -7152,7 +7169,7 @@
       <c r="B101" t="s">
         <v>243</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="12">
         <v>2007</v>
       </c>
       <c r="D101">
@@ -7167,7 +7184,7 @@
       <c r="G101" s="2">
         <v>51</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" s="9" t="s">
         <v>247</v>
       </c>
       <c r="I101" s="4" t="s">
@@ -7185,10 +7202,10 @@
       <c r="M101" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N101" s="7" t="s">
+      <c r="N101" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O101" s="7">
+      <c r="O101" s="6">
         <v>100</v>
       </c>
     </row>
@@ -7214,7 +7231,7 @@
       <c r="G102" s="2">
         <v>52</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" s="9" t="s">
         <v>248</v>
       </c>
       <c r="I102" s="4" t="s">
@@ -7232,10 +7249,10 @@
       <c r="M102" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N102" s="7" t="s">
+      <c r="N102" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O102" s="7">
+      <c r="O102" s="6">
         <v>101</v>
       </c>
     </row>
@@ -7246,7 +7263,7 @@
       <c r="B103" t="s">
         <v>246</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="12">
         <v>1996</v>
       </c>
       <c r="D103">
@@ -7261,7 +7278,7 @@
       <c r="G103" s="2">
         <v>53</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="H103" s="9" t="s">
         <v>249</v>
       </c>
       <c r="I103" s="4" t="s">
@@ -7279,10 +7296,10 @@
       <c r="M103" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N103" s="7" t="s">
+      <c r="N103" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O103" s="7">
+      <c r="O103" s="6">
         <v>102</v>
       </c>
     </row>
@@ -7308,7 +7325,7 @@
       <c r="G104" s="2">
         <v>56</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H104" s="9" t="s">
         <v>250</v>
       </c>
       <c r="I104" s="4" t="s">
@@ -7326,10 +7343,10 @@
       <c r="M104" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N104" s="7" t="s">
+      <c r="N104" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O104" s="7">
+      <c r="O104" s="6">
         <v>103</v>
       </c>
     </row>
@@ -7340,7 +7357,7 @@
       <c r="B105" t="s">
         <v>273</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="12">
         <v>2007</v>
       </c>
       <c r="D105">
@@ -7373,10 +7390,10 @@
       <c r="M105" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N105" s="7" t="s">
+      <c r="N105" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O105" s="7">
+      <c r="O105" s="6">
         <v>104</v>
       </c>
     </row>
@@ -7387,7 +7404,7 @@
       <c r="B106" t="s">
         <v>274</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="10">
         <v>2014</v>
       </c>
       <c r="D106">
@@ -7420,10 +7437,10 @@
       <c r="M106" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N106" s="7" t="s">
+      <c r="N106" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O106" s="7">
+      <c r="O106" s="6">
         <v>105</v>
       </c>
     </row>
@@ -7434,7 +7451,7 @@
       <c r="B107" t="s">
         <v>251</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="10">
         <v>1994</v>
       </c>
       <c r="D107">
@@ -7470,10 +7487,10 @@
       <c r="M107" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N107" s="7" t="s">
+      <c r="N107" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O107" s="7">
+      <c r="O107" s="6">
         <v>106</v>
       </c>
     </row>
@@ -7517,10 +7534,10 @@
       <c r="M108" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N108" s="7" t="s">
+      <c r="N108" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O108" s="7">
+      <c r="O108" s="6">
         <v>107</v>
       </c>
     </row>
@@ -7564,10 +7581,10 @@
       <c r="M109" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N109" s="7" t="s">
+      <c r="N109" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O109" s="7">
+      <c r="O109" s="6">
         <v>108</v>
       </c>
     </row>
@@ -7611,10 +7628,10 @@
       <c r="M110" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N110" s="7" t="s">
+      <c r="N110" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O110" s="7">
+      <c r="O110" s="6">
         <v>109</v>
       </c>
     </row>
@@ -7658,10 +7675,10 @@
       <c r="M111" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N111" s="7" t="s">
+      <c r="N111" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O111" s="7">
+      <c r="O111" s="6">
         <v>110</v>
       </c>
     </row>
@@ -7672,7 +7689,7 @@
       <c r="B112" t="s">
         <v>257</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="10">
         <v>1996</v>
       </c>
       <c r="D112">
@@ -7705,10 +7722,10 @@
       <c r="M112" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N112" s="7" t="s">
+      <c r="N112" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O112" s="7">
+      <c r="O112" s="6">
         <v>111</v>
       </c>
     </row>
@@ -7734,7 +7751,7 @@
       <c r="G113" s="2">
         <v>58</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="12">
         <v>2</v>
       </c>
       <c r="I113" s="4" t="s">
@@ -7752,10 +7769,10 @@
       <c r="M113" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N113" s="7" t="s">
+      <c r="N113" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O113" s="7">
+      <c r="O113" s="6">
         <v>112</v>
       </c>
     </row>
@@ -7766,7 +7783,7 @@
       <c r="B114" t="s">
         <v>259</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="10">
         <v>1996</v>
       </c>
       <c r="D114">
@@ -7799,10 +7816,10 @@
       <c r="M114" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N114" s="7" t="s">
+      <c r="N114" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O114" s="7">
+      <c r="O114" s="6">
         <v>113</v>
       </c>
     </row>
@@ -7846,10 +7863,10 @@
       <c r="M115" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N115" s="7" t="s">
+      <c r="N115" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O115" s="7">
+      <c r="O115" s="6">
         <v>114</v>
       </c>
     </row>
@@ -7896,10 +7913,10 @@
       <c r="M116" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N116" s="7" t="s">
+      <c r="N116" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O116" s="7">
+      <c r="O116" s="6">
         <v>115</v>
       </c>
     </row>
@@ -7946,10 +7963,10 @@
       <c r="M117" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N117" s="7" t="s">
+      <c r="N117" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O117" s="7">
+      <c r="O117" s="6">
         <v>116</v>
       </c>
     </row>
@@ -7993,10 +8010,10 @@
       <c r="M118" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N118" s="7" t="s">
+      <c r="N118" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O118" s="7">
+      <c r="O118" s="6">
         <v>117</v>
       </c>
     </row>
@@ -8040,10 +8057,10 @@
       <c r="M119" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N119" s="7" t="s">
+      <c r="N119" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O119" s="7">
+      <c r="O119" s="6">
         <v>118</v>
       </c>
     </row>
@@ -8087,10 +8104,10 @@
       <c r="M120" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N120" s="7" t="s">
+      <c r="N120" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O120" s="7">
+      <c r="O120" s="6">
         <v>119</v>
       </c>
     </row>
@@ -8136,10 +8153,10 @@
       <c r="M121" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N121" s="7" t="s">
+      <c r="N121" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O121" s="7">
+      <c r="O121" s="6">
         <v>120</v>
       </c>
     </row>
@@ -8163,7 +8180,7 @@
         <f>1.77*25.4</f>
         <v>44.957999999999998</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="8">
         <f>2.36*25.4</f>
         <v>59.943999999999996</v>
       </c>
@@ -8185,10 +8202,10 @@
       <c r="M122" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N122" s="7" t="s">
+      <c r="N122" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O122" s="7">
+      <c r="O122" s="6">
         <v>121</v>
       </c>
     </row>
@@ -8234,10 +8251,10 @@
       <c r="M123" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N123" s="7" t="s">
+      <c r="N123" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O123" s="7">
+      <c r="O123" s="6">
         <v>122</v>
       </c>
     </row>
@@ -8283,10 +8300,10 @@
       <c r="M124" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N124" s="7" t="s">
+      <c r="N124" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O124" s="7">
+      <c r="O124" s="6">
         <v>123</v>
       </c>
     </row>
@@ -8332,10 +8349,10 @@
       <c r="M125" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N125" s="7" t="s">
+      <c r="N125" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O125" s="7">
+      <c r="O125" s="6">
         <v>124</v>
       </c>
     </row>
@@ -8381,10 +8398,10 @@
       <c r="M126" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N126" s="7" t="s">
+      <c r="N126" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O126" s="7">
+      <c r="O126" s="6">
         <v>125</v>
       </c>
     </row>
@@ -8430,10 +8447,10 @@
       <c r="M127" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N127" s="7" t="s">
+      <c r="N127" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O127" s="7">
+      <c r="O127" s="6">
         <v>126</v>
       </c>
     </row>
@@ -8479,10 +8496,10 @@
       <c r="M128" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N128" s="7" t="s">
+      <c r="N128" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O128" s="7">
+      <c r="O128" s="6">
         <v>127</v>
       </c>
     </row>
@@ -8528,10 +8545,10 @@
       <c r="M129" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N129" s="7" t="s">
+      <c r="N129" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O129" s="7">
+      <c r="O129" s="6">
         <v>128</v>
       </c>
     </row>
@@ -8577,10 +8594,10 @@
       <c r="M130" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N130" s="7" t="s">
+      <c r="N130" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O130" s="7">
+      <c r="O130" s="6">
         <v>129</v>
       </c>
     </row>
@@ -8626,10 +8643,10 @@
       <c r="M131" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N131" s="7" t="s">
+      <c r="N131" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O131" s="7">
+      <c r="O131" s="6">
         <v>130</v>
       </c>
     </row>
@@ -8675,10 +8692,10 @@
       <c r="M132" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N132" s="7" t="s">
+      <c r="N132" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O132" s="7">
+      <c r="O132" s="6">
         <v>131</v>
       </c>
     </row>
@@ -8724,10 +8741,10 @@
       <c r="M133" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N133" s="7" t="s">
+      <c r="N133" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O133" s="7">
+      <c r="O133" s="6">
         <v>132</v>
       </c>
     </row>
@@ -8773,10 +8790,10 @@
       <c r="M134" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N134" s="7" t="s">
+      <c r="N134" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O134" s="7">
+      <c r="O134" s="6">
         <v>133</v>
       </c>
     </row>
@@ -8822,10 +8839,10 @@
       <c r="M135" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N135" s="7" t="s">
+      <c r="N135" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O135" s="7">
+      <c r="O135" s="6">
         <v>134</v>
       </c>
     </row>
@@ -8849,7 +8866,7 @@
         <f>3.3*25.4</f>
         <v>83.82</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136" s="8">
         <f>3.4*25.4</f>
         <v>86.36</v>
       </c>
@@ -8871,10 +8888,10 @@
       <c r="M136" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N136" s="7" t="s">
+      <c r="N136" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O136" s="7">
+      <c r="O136" s="6">
         <v>135</v>
       </c>
     </row>
@@ -8898,7 +8915,7 @@
         <f>4.21*25.4</f>
         <v>106.934</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137" s="8">
         <f>3.29*25.4</f>
         <v>83.566000000000003</v>
       </c>
@@ -8920,10 +8937,10 @@
       <c r="M137" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N137" s="7" t="s">
+      <c r="N137" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O137" s="7">
+      <c r="O137" s="6">
         <v>136</v>
       </c>
     </row>
@@ -8947,7 +8964,7 @@
         <f>4.6*25.4</f>
         <v>116.83999999999999</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G138" s="8">
         <f>3.3*25.4</f>
         <v>83.82</v>
       </c>
@@ -8969,10 +8986,10 @@
       <c r="M138" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N138" s="7" t="s">
+      <c r="N138" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O138" s="7">
+      <c r="O138" s="6">
         <v>137</v>
       </c>
     </row>
@@ -8997,7 +9014,7 @@
         <f>8*25.4</f>
         <v>203.2</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G139" s="8">
         <f>4.9*25.4</f>
         <v>124.46000000000001</v>
       </c>
@@ -9019,10 +9036,10 @@
       <c r="M139" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N139" s="7" t="s">
+      <c r="N139" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O139" s="7">
+      <c r="O139" s="6">
         <v>138</v>
       </c>
     </row>
@@ -9046,7 +9063,7 @@
         <f>5.81*25.4</f>
         <v>147.57399999999998</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G140" s="8">
         <f>3.5*25.4</f>
         <v>88.899999999999991</v>
       </c>
@@ -9068,10 +9085,10 @@
       <c r="M140" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N140" s="7" t="s">
+      <c r="N140" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O140" s="7">
+      <c r="O140" s="6">
         <v>139</v>
       </c>
     </row>
@@ -9095,7 +9112,7 @@
         <f>10.5*25.4</f>
         <v>266.7</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G141" s="8">
         <f>4.9*25.4</f>
         <v>124.46000000000001</v>
       </c>
@@ -9117,10 +9134,10 @@
       <c r="M141" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N141" s="7" t="s">
+      <c r="N141" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O141" s="7">
+      <c r="O141" s="6">
         <v>140</v>
       </c>
     </row>
@@ -9166,10 +9183,10 @@
       <c r="M142" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N142" s="7" t="s">
+      <c r="N142" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O142" s="7">
+      <c r="O142" s="6">
         <v>141</v>
       </c>
     </row>
@@ -9193,7 +9210,7 @@
         <f>5.2*25.4</f>
         <v>132.07999999999998</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G143" s="8">
         <f>3.8*25.4</f>
         <v>96.52</v>
       </c>
@@ -9215,10 +9232,10 @@
       <c r="M143" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N143" s="7" t="s">
+      <c r="N143" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O143" s="7">
+      <c r="O143" s="6">
         <v>142</v>
       </c>
     </row>
@@ -9264,10 +9281,10 @@
       <c r="M144" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N144" s="7" t="s">
+      <c r="N144" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O144" s="7">
+      <c r="O144" s="6">
         <v>143</v>
       </c>
     </row>
@@ -9313,10 +9330,10 @@
       <c r="M145" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N145" s="7" t="s">
+      <c r="N145" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O145" s="7">
+      <c r="O145" s="6">
         <v>144</v>
       </c>
     </row>
@@ -9327,7 +9344,7 @@
       <c r="B146" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="12">
         <v>2015</v>
       </c>
       <c r="D146" s="1">
@@ -9362,10 +9379,10 @@
       <c r="M146" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N146" s="7" t="s">
+      <c r="N146" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O146" s="7">
+      <c r="O146" s="6">
         <v>145</v>
       </c>
     </row>
@@ -9411,10 +9428,10 @@
       <c r="M147" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N147" s="7" t="s">
+      <c r="N147" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O147" s="7">
+      <c r="O147" s="6">
         <v>146</v>
       </c>
     </row>
@@ -9460,10 +9477,10 @@
       <c r="M148" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N148" s="7" t="s">
+      <c r="N148" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O148" s="7">
+      <c r="O148" s="6">
         <v>147</v>
       </c>
     </row>
@@ -9487,7 +9504,7 @@
         <f>6.08*25.4</f>
         <v>154.43199999999999</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149" s="8">
         <f>3.46*25.4</f>
         <v>87.884</v>
       </c>
@@ -9509,10 +9526,10 @@
       <c r="M149" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N149" s="7" t="s">
+      <c r="N149" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O149" s="7">
+      <c r="O149" s="6">
         <v>148</v>
       </c>
     </row>
@@ -9558,10 +9575,10 @@
       <c r="M150" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N150" s="7" t="s">
+      <c r="N150" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O150" s="7">
+      <c r="O150" s="6">
         <v>149</v>
       </c>
     </row>
@@ -9607,10 +9624,10 @@
       <c r="M151" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N151" s="7" t="s">
+      <c r="N151" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="O151" s="7">
+      <c r="O151" s="6">
         <v>150</v>
       </c>
     </row>
@@ -9656,10 +9673,10 @@
       <c r="M152" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N152" s="7" t="s">
+      <c r="N152" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O152" s="7">
+      <c r="O152" s="6">
         <v>151</v>
       </c>
     </row>
@@ -9705,10 +9722,10 @@
       <c r="M153" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N153" s="7" t="s">
+      <c r="N153" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O153" s="7">
+      <c r="O153" s="6">
         <v>152</v>
       </c>
     </row>
@@ -9754,10 +9771,10 @@
       <c r="M154" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N154" s="7" t="s">
+      <c r="N154" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O154" s="7">
+      <c r="O154" s="6">
         <v>153</v>
       </c>
     </row>
@@ -9768,7 +9785,7 @@
       <c r="B155" t="s">
         <v>92</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="12">
         <v>2013</v>
       </c>
       <c r="D155">
@@ -9785,7 +9802,7 @@
         <f>3.8*25.4</f>
         <v>96.52</v>
       </c>
-      <c r="H155" s="1">
+      <c r="H155" s="12">
         <v>5.6</v>
       </c>
       <c r="I155" s="4" t="s">
@@ -9803,10 +9820,10 @@
       <c r="M155" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N155" s="7" t="s">
+      <c r="N155" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O155" s="7">
+      <c r="O155" s="6">
         <v>154</v>
       </c>
     </row>
@@ -9850,10 +9867,10 @@
       <c r="M156" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N156" s="7" t="s">
+      <c r="N156" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O156" s="7">
+      <c r="O156" s="6">
         <v>155</v>
       </c>
     </row>
@@ -9876,7 +9893,7 @@
       <c r="F157">
         <v>124</v>
       </c>
-      <c r="G157" s="2">
+      <c r="G157" s="8">
         <v>89</v>
       </c>
       <c r="H157" s="1">
@@ -9897,10 +9914,10 @@
       <c r="M157" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N157" s="7" t="s">
+      <c r="N157" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O157" s="7">
+      <c r="O157" s="6">
         <v>156</v>
       </c>
     </row>
@@ -9944,10 +9961,10 @@
       <c r="M158" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N158" s="7" t="s">
+      <c r="N158" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O158" s="7">
+      <c r="O158" s="6">
         <v>157</v>
       </c>
     </row>
@@ -9991,10 +10008,10 @@
       <c r="M159" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N159" s="7" t="s">
+      <c r="N159" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O159" s="7">
+      <c r="O159" s="6">
         <v>158</v>
       </c>
     </row>
@@ -10038,10 +10055,10 @@
       <c r="M160" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N160" s="7" t="s">
+      <c r="N160" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O160" s="7">
+      <c r="O160" s="6">
         <v>159</v>
       </c>
     </row>
@@ -10085,10 +10102,10 @@
       <c r="M161" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N161" s="7" t="s">
+      <c r="N161" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O161" s="7">
+      <c r="O161" s="6">
         <v>160</v>
       </c>
     </row>
@@ -10099,7 +10116,7 @@
       <c r="B162" t="s">
         <v>376</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="12">
         <v>2016</v>
       </c>
       <c r="D162">
@@ -10132,10 +10149,10 @@
       <c r="M162" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N162" s="7" t="s">
+      <c r="N162" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O162" s="7">
+      <c r="O162" s="6">
         <v>161</v>
       </c>
     </row>
@@ -10179,10 +10196,10 @@
       <c r="M163" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N163" s="7" t="s">
+      <c r="N163" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O163" s="7">
+      <c r="O163" s="6">
         <v>162</v>
       </c>
     </row>
@@ -10226,10 +10243,10 @@
       <c r="M164" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N164" s="7" t="s">
+      <c r="N164" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O164" s="7">
+      <c r="O164" s="6">
         <v>163</v>
       </c>
     </row>
@@ -10273,10 +10290,10 @@
       <c r="M165" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N165" s="7" t="s">
+      <c r="N165" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O165" s="7">
+      <c r="O165" s="6">
         <v>164</v>
       </c>
     </row>
@@ -10320,10 +10337,10 @@
       <c r="M166" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N166" s="7" t="s">
+      <c r="N166" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O166" s="7">
+      <c r="O166" s="6">
         <v>165</v>
       </c>
     </row>
@@ -10369,10 +10386,10 @@
       <c r="M167" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N167" s="7" t="s">
+      <c r="N167" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O167" s="7">
+      <c r="O167" s="6">
         <v>166</v>
       </c>
     </row>
@@ -10416,10 +10433,10 @@
       <c r="M168" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N168" s="7" t="s">
+      <c r="N168" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O168" s="7">
+      <c r="O168" s="6">
         <v>167</v>
       </c>
     </row>
@@ -10436,7 +10453,7 @@
       <c r="D169">
         <v>549</v>
       </c>
-      <c r="E169" s="5">
+      <c r="E169" s="10">
         <f>1.4*453</f>
         <v>634.19999999999993</v>
       </c>
@@ -10466,10 +10483,10 @@
       <c r="M169" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N169" s="7" t="s">
+      <c r="N169" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O169" s="7">
+      <c r="O169" s="6">
         <v>168</v>
       </c>
     </row>
@@ -10492,7 +10509,7 @@
       <c r="F170">
         <v>121.7</v>
       </c>
-      <c r="G170" s="1">
+      <c r="G170" s="12">
         <v>117.6</v>
       </c>
       <c r="H170" s="1">
@@ -10513,10 +10530,10 @@
       <c r="M170" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N170" s="7" t="s">
+      <c r="N170" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O170" s="7">
+      <c r="O170" s="6">
         <v>169</v>
       </c>
     </row>
@@ -10562,10 +10579,10 @@
       <c r="M171" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N171" s="7" t="s">
+      <c r="N171" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O171" s="7">
+      <c r="O171" s="6">
         <v>170</v>
       </c>
     </row>
@@ -10576,7 +10593,7 @@
       <c r="B172" t="s">
         <v>204</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="12">
         <v>2016</v>
       </c>
       <c r="D172">
@@ -10588,7 +10605,7 @@
       <c r="F172">
         <v>121.7</v>
       </c>
-      <c r="G172" s="1">
+      <c r="G172" s="12">
         <v>117.6</v>
       </c>
       <c r="H172" s="1">
@@ -10609,10 +10626,10 @@
       <c r="M172" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N172" s="7" t="s">
+      <c r="N172" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O172" s="7">
+      <c r="O172" s="6">
         <v>171</v>
       </c>
     </row>
@@ -10658,10 +10675,10 @@
       <c r="M173" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N173" s="7" t="s">
+      <c r="N173" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O173" s="7">
+      <c r="O173" s="6">
         <v>172</v>
       </c>
     </row>
@@ -10684,7 +10701,7 @@
       <c r="F174">
         <v>121.7</v>
       </c>
-      <c r="G174" s="1">
+      <c r="G174" s="12">
         <v>117.6</v>
       </c>
       <c r="H174" s="1">
@@ -10705,10 +10722,10 @@
       <c r="M174" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N174" s="7" t="s">
+      <c r="N174" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O174" s="7">
+      <c r="O174" s="6">
         <v>173</v>
       </c>
     </row>
@@ -10754,10 +10771,10 @@
       <c r="M175" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N175" s="7" t="s">
+      <c r="N175" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O175" s="7">
+      <c r="O175" s="6">
         <v>174</v>
       </c>
     </row>
@@ -10780,10 +10797,10 @@
       <c r="F176">
         <v>121.7</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G176" s="12">
         <v>117.6</v>
       </c>
-      <c r="H176" s="1">
+      <c r="H176" s="12">
         <v>1.4</v>
       </c>
       <c r="I176" s="4" t="s">
@@ -10801,10 +10818,10 @@
       <c r="M176" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N176" s="7" t="s">
+      <c r="N176" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O176" s="7">
+      <c r="O176" s="6">
         <v>175</v>
       </c>
     </row>
@@ -10827,7 +10844,7 @@
       <c r="F177">
         <v>98</v>
       </c>
-      <c r="G177" s="2">
+      <c r="G177" s="8">
         <v>67</v>
       </c>
       <c r="H177" s="1">
@@ -10848,10 +10865,10 @@
       <c r="M177" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N177" s="7" t="s">
+      <c r="N177" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O177" s="7">
+      <c r="O177" s="6">
         <v>176</v>
       </c>
     </row>
@@ -10895,10 +10912,10 @@
       <c r="M178" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N178" s="7" t="s">
+      <c r="N178" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O178" s="7">
+      <c r="O178" s="6">
         <v>177</v>
       </c>
     </row>
@@ -10944,10 +10961,10 @@
       <c r="M179" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N179" s="7" t="s">
+      <c r="N179" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O179" s="7">
+      <c r="O179" s="6">
         <v>178</v>
       </c>
     </row>
@@ -10993,10 +11010,10 @@
       <c r="M180" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N180" s="7" t="s">
+      <c r="N180" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O180" s="7">
+      <c r="O180" s="6">
         <v>179</v>
       </c>
     </row>
@@ -11042,10 +11059,10 @@
       <c r="M181" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N181" s="7" t="s">
+      <c r="N181" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O181" s="7">
+      <c r="O181" s="6">
         <v>180</v>
       </c>
     </row>
@@ -11062,7 +11079,7 @@
       <c r="D182" s="1">
         <v>199</v>
       </c>
-      <c r="E182" s="5">
+      <c r="E182" s="10">
         <v>150</v>
       </c>
       <c r="F182">
@@ -11091,10 +11108,10 @@
       <c r="M182" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N182" s="7" t="s">
+      <c r="N182" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O182" s="7">
+      <c r="O182" s="6">
         <v>181</v>
       </c>
     </row>
@@ -11118,7 +11135,7 @@
         <f>5.11*25.4</f>
         <v>129.79400000000001</v>
       </c>
-      <c r="G183" s="2">
+      <c r="G183" s="8">
         <f>3.57*25.4</f>
         <v>90.677999999999997</v>
       </c>
@@ -11140,10 +11157,10 @@
       <c r="M183" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N183" s="7" t="s">
+      <c r="N183" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O183" s="7">
+      <c r="O183" s="6">
         <v>182</v>
       </c>
     </row>
@@ -11189,10 +11206,10 @@
       <c r="M184" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N184" s="7" t="s">
+      <c r="N184" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O184" s="7">
+      <c r="O184" s="6">
         <v>183</v>
       </c>
     </row>
@@ -11209,7 +11226,7 @@
       <c r="D185" s="1">
         <v>199</v>
       </c>
-      <c r="E185" s="5">
+      <c r="E185" s="10">
         <v>150</v>
       </c>
       <c r="F185">
@@ -11238,10 +11255,10 @@
       <c r="M185" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N185" s="7" t="s">
+      <c r="N185" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O185" s="7">
+      <c r="O185" s="6">
         <v>184</v>
       </c>
     </row>
@@ -11287,10 +11304,10 @@
       <c r="M186" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N186" s="7" t="s">
+      <c r="N186" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O186" s="7">
+      <c r="O186" s="6">
         <v>185</v>
       </c>
     </row>
@@ -11336,10 +11353,10 @@
       <c r="M187" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N187" s="7" t="s">
+      <c r="N187" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O187" s="7">
+      <c r="O187" s="6">
         <v>186</v>
       </c>
     </row>
@@ -11385,10 +11402,10 @@
       <c r="M188" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N188" s="7" t="s">
+      <c r="N188" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O188" s="7">
+      <c r="O188" s="6">
         <v>187</v>
       </c>
     </row>
@@ -11399,13 +11416,13 @@
       <c r="B189" t="s">
         <v>305</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="12">
         <v>2012</v>
       </c>
       <c r="D189">
         <v>209</v>
       </c>
-      <c r="E189" s="5">
+      <c r="E189" s="10">
         <v>150</v>
       </c>
       <c r="F189">
@@ -11434,10 +11451,10 @@
       <c r="M189" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N189" s="7" t="s">
+      <c r="N189" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O189" s="7">
+      <c r="O189" s="6">
         <v>188</v>
       </c>
     </row>
@@ -11483,10 +11500,10 @@
       <c r="M190" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N190" s="7" t="s">
+      <c r="N190" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O190" s="7">
+      <c r="O190" s="6">
         <v>189</v>
       </c>
     </row>
@@ -11532,10 +11549,10 @@
       <c r="M191" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N191" s="7" t="s">
+      <c r="N191" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O191" s="7">
+      <c r="O191" s="6">
         <v>190</v>
       </c>
     </row>
@@ -11581,10 +11598,10 @@
       <c r="M192" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N192" s="7" t="s">
+      <c r="N192" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O192" s="7">
+      <c r="O192" s="6">
         <v>191</v>
       </c>
     </row>
@@ -11607,7 +11624,7 @@
       <c r="F193">
         <v>259</v>
       </c>
-      <c r="G193" s="2">
+      <c r="G193" s="8">
         <v>104</v>
       </c>
       <c r="H193" s="1">
@@ -11628,10 +11645,10 @@
       <c r="M193" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N193" s="7" t="s">
+      <c r="N193" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O193" s="7">
+      <c r="O193" s="6">
         <v>192</v>
       </c>
     </row>
@@ -11675,10 +11692,10 @@
       <c r="M194" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N194" s="7" t="s">
+      <c r="N194" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O194" s="7">
+      <c r="O194" s="6">
         <v>193</v>
       </c>
     </row>
@@ -11689,16 +11706,16 @@
       <c r="B195" t="s">
         <v>411</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="12">
         <v>2016</v>
       </c>
       <c r="D195">
         <v>1199</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="12">
         <v>126.2</v>
       </c>
-      <c r="G195" s="2">
+      <c r="G195" s="8">
         <v>94.7</v>
       </c>
       <c r="H195" s="1">
@@ -11719,10 +11736,10 @@
       <c r="M195" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N195" s="7" t="s">
+      <c r="N195" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O195" s="7">
+      <c r="O195" s="6">
         <v>194</v>
       </c>
     </row>
@@ -11745,7 +11762,7 @@
       <c r="F196">
         <v>131.5</v>
       </c>
-      <c r="G196" s="2">
+      <c r="G196" s="8">
         <v>102</v>
       </c>
       <c r="H196" s="1">
@@ -11766,10 +11783,10 @@
       <c r="M196" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N196" s="7" t="s">
+      <c r="N196" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O196" s="7">
+      <c r="O196" s="6">
         <v>195</v>
       </c>
     </row>
@@ -11792,7 +11809,7 @@
       <c r="F197">
         <v>380.3</v>
       </c>
-      <c r="G197" s="2">
+      <c r="G197" s="8">
         <v>144.80000000000001</v>
       </c>
       <c r="H197" s="1">
@@ -11813,10 +11830,10 @@
       <c r="M197" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N197" s="7" t="s">
+      <c r="N197" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O197" s="7">
+      <c r="O197" s="6">
         <v>196</v>
       </c>
     </row>
@@ -11839,7 +11856,7 @@
       <c r="F198">
         <v>170.7</v>
       </c>
-      <c r="G198" s="2">
+      <c r="G198" s="8">
         <v>93.5</v>
       </c>
       <c r="H198" s="1">
@@ -11860,10 +11877,10 @@
       <c r="M198" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N198" s="7" t="s">
+      <c r="N198" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O198" s="7">
+      <c r="O198" s="6">
         <v>197</v>
       </c>
     </row>
@@ -11909,10 +11926,10 @@
       <c r="M199" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N199" s="7" t="s">
+      <c r="N199" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O199" s="7">
+      <c r="O199" s="6">
         <v>198</v>
       </c>
     </row>
@@ -11958,10 +11975,10 @@
       <c r="M200" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N200" s="7" t="s">
+      <c r="N200" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O200" s="7">
+      <c r="O200" s="6">
         <v>199</v>
       </c>
     </row>
@@ -12007,10 +12024,10 @@
       <c r="M201" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N201" s="7" t="s">
+      <c r="N201" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O201" s="7">
+      <c r="O201" s="6">
         <v>200</v>
       </c>
     </row>
@@ -12056,10 +12073,10 @@
       <c r="M202" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N202" s="7" t="s">
+      <c r="N202" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O202" s="7">
+      <c r="O202" s="6">
         <v>201</v>
       </c>
     </row>
@@ -12105,10 +12122,10 @@
       <c r="M203" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N203" s="7" t="s">
+      <c r="N203" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O203" s="7">
+      <c r="O203" s="6">
         <v>202</v>
       </c>
     </row>
@@ -12154,10 +12171,10 @@
       <c r="M204" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N204" s="7" t="s">
+      <c r="N204" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O204" s="7">
+      <c r="O204" s="6">
         <v>203</v>
       </c>
     </row>
@@ -12182,7 +12199,7 @@
         <f>5.14*25.4</f>
         <v>130.55599999999998</v>
       </c>
-      <c r="G205" s="1">
+      <c r="G205" s="12">
         <f>3.11*25.4</f>
         <v>78.993999999999986</v>
       </c>
@@ -12204,10 +12221,10 @@
       <c r="M205" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N205" s="7" t="s">
+      <c r="N205" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O205" s="7">
+      <c r="O205" s="6">
         <v>204</v>
       </c>
     </row>
@@ -12231,7 +12248,7 @@
         <f>3.88*25.4</f>
         <v>98.551999999999992</v>
       </c>
-      <c r="G206" s="2">
+      <c r="G206" s="8">
         <f>3.07*25.4</f>
         <v>77.977999999999994</v>
       </c>
@@ -12253,10 +12270,10 @@
       <c r="M206" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N206" s="7" t="s">
+      <c r="N206" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O206" s="7">
+      <c r="O206" s="6">
         <v>205</v>
       </c>
     </row>
@@ -12302,10 +12319,10 @@
       <c r="M207" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N207" s="7" t="s">
+      <c r="N207" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="O207" s="7">
+      <c r="O207" s="6">
         <v>206</v>
       </c>
     </row>
@@ -12329,7 +12346,7 @@
         <f>3.72*254</f>
         <v>944.88</v>
       </c>
-      <c r="G208" s="1">
+      <c r="G208" s="12">
         <f>2.87*25.4</f>
         <v>72.897999999999996</v>
       </c>
@@ -12351,10 +12368,10 @@
       <c r="M208" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N208" s="7" t="s">
+      <c r="N208" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O208" s="7">
+      <c r="O208" s="6">
         <v>207</v>
       </c>
     </row>
@@ -12400,10 +12417,10 @@
       <c r="M209" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N209" s="7" t="s">
+      <c r="N209" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O209" s="7">
+      <c r="O209" s="6">
         <v>208</v>
       </c>
     </row>
@@ -12449,10 +12466,10 @@
       <c r="M210" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N210" s="7" t="s">
+      <c r="N210" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O210" s="7">
+      <c r="O210" s="6">
         <v>209</v>
       </c>
     </row>
@@ -12498,10 +12515,10 @@
       <c r="M211" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N211" s="7" t="s">
+      <c r="N211" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O211" s="7">
+      <c r="O211" s="6">
         <v>210</v>
       </c>
     </row>
@@ -12547,10 +12564,10 @@
       <c r="M212" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N212" s="7" t="s">
+      <c r="N212" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O212" s="7">
+      <c r="O212" s="6">
         <v>211</v>
       </c>
     </row>
@@ -12574,7 +12591,7 @@
         <f>5.65*25.4</f>
         <v>143.51</v>
       </c>
-      <c r="G213" s="2">
+      <c r="G213" s="8">
         <f>3.31*25.4</f>
         <v>84.073999999999998</v>
       </c>
@@ -12596,10 +12613,10 @@
       <c r="M213" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N213" s="7" t="s">
+      <c r="N213" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O213" s="7">
+      <c r="O213" s="6">
         <v>212</v>
       </c>
     </row>
@@ -12643,10 +12660,10 @@
       <c r="M214" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N214" s="7" t="s">
+      <c r="N214" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O214" s="7">
+      <c r="O214" s="6">
         <v>213</v>
       </c>
     </row>
@@ -12692,10 +12709,10 @@
       <c r="M215" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N215" s="7" t="s">
+      <c r="N215" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O215" s="7">
+      <c r="O215" s="6">
         <v>214</v>
       </c>
     </row>
@@ -12741,10 +12758,10 @@
       <c r="M216" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N216" s="7" t="s">
+      <c r="N216" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O216" s="7">
+      <c r="O216" s="6">
         <v>215</v>
       </c>
     </row>
@@ -12790,10 +12807,10 @@
       <c r="M217" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N217" s="7" t="s">
+      <c r="N217" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O217" s="7">
+      <c r="O217" s="6">
         <v>216</v>
       </c>
     </row>
@@ -12839,10 +12856,10 @@
       <c r="M218" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N218" s="7" t="s">
+      <c r="N218" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O218" s="7">
+      <c r="O218" s="6">
         <v>217</v>
       </c>
     </row>
@@ -12866,7 +12883,7 @@
         <f>5.63*25.4</f>
         <v>143.00199999999998</v>
       </c>
-      <c r="G219" s="2">
+      <c r="G219" s="8">
         <f>3.87*25.4</f>
         <v>98.298000000000002</v>
       </c>
@@ -12888,10 +12905,10 @@
       <c r="M219" t="s">
         <v>285</v>
       </c>
-      <c r="N219" s="7" t="s">
+      <c r="N219" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O219" s="7">
+      <c r="O219" s="6">
         <v>218</v>
       </c>
     </row>
@@ -12937,10 +12954,10 @@
       <c r="M220" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N220" s="7" t="s">
+      <c r="N220" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O220" s="7">
+      <c r="O220" s="6">
         <v>219</v>
       </c>
     </row>
@@ -12986,10 +13003,10 @@
       <c r="M221" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N221" s="7" t="s">
+      <c r="N221" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="O221" s="7">
+      <c r="O221" s="6">
         <v>220</v>
       </c>
     </row>
@@ -13035,10 +13052,10 @@
       <c r="M222" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N222" s="7" t="s">
+      <c r="N222" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O222" s="7">
+      <c r="O222" s="6">
         <v>221</v>
       </c>
     </row>
@@ -13062,7 +13079,7 @@
         <f>5.9*25.4</f>
         <v>149.86000000000001</v>
       </c>
-      <c r="G223" s="2">
+      <c r="G223" s="8">
         <f>3.21*25.4</f>
         <v>81.533999999999992</v>
       </c>
@@ -13084,10 +13101,10 @@
       <c r="M223" t="s">
         <v>285</v>
       </c>
-      <c r="N223" s="7" t="s">
+      <c r="N223" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O223" s="7">
+      <c r="O223" s="6">
         <v>222</v>
       </c>
     </row>
@@ -13131,10 +13148,10 @@
       <c r="M224" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N224" s="7" t="s">
+      <c r="N224" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O224" s="7">
+      <c r="O224" s="6">
         <v>223</v>
       </c>
     </row>
@@ -13178,10 +13195,10 @@
       <c r="M225" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N225" s="7" t="s">
+      <c r="N225" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O225" s="7">
+      <c r="O225" s="6">
         <v>224</v>
       </c>
     </row>
@@ -13225,10 +13242,10 @@
       <c r="M226" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N226" s="7" t="s">
+      <c r="N226" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O226" s="7">
+      <c r="O226" s="6">
         <v>225</v>
       </c>
     </row>
@@ -13274,10 +13291,10 @@
       <c r="M227" t="s">
         <v>285</v>
       </c>
-      <c r="N227" s="7" t="s">
+      <c r="N227" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O227" s="7">
+      <c r="O227" s="6">
         <v>226</v>
       </c>
     </row>
@@ -13323,10 +13340,10 @@
       <c r="M228" t="s">
         <v>285</v>
       </c>
-      <c r="N228" s="7" t="s">
+      <c r="N228" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O228" s="7">
+      <c r="O228" s="6">
         <v>227</v>
       </c>
     </row>
@@ -13372,10 +13389,10 @@
       <c r="M229" t="s">
         <v>285</v>
       </c>
-      <c r="N229" s="7" t="s">
+      <c r="N229" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O229" s="7">
+      <c r="O229" s="6">
         <v>228</v>
       </c>
     </row>
@@ -13399,7 +13416,7 @@
         <f>4.23*25.4</f>
         <v>107.44200000000001</v>
       </c>
-      <c r="G230" s="2">
+      <c r="G230" s="8">
         <f>5.32*25.4</f>
         <v>135.12799999999999</v>
       </c>
@@ -13421,10 +13438,10 @@
       <c r="M230" t="s">
         <v>285</v>
       </c>
-      <c r="N230" s="7" t="s">
+      <c r="N230" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O230" s="7">
+      <c r="O230" s="6">
         <v>229</v>
       </c>
     </row>
@@ -13470,10 +13487,10 @@
       <c r="M231" t="s">
         <v>285</v>
       </c>
-      <c r="N231" s="7" t="s">
+      <c r="N231" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O231" s="7">
+      <c r="O231" s="6">
         <v>230</v>
       </c>
     </row>
@@ -13517,10 +13534,10 @@
       <c r="M232" t="s">
         <v>285</v>
       </c>
-      <c r="N232" s="7" t="s">
+      <c r="N232" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O232" s="7">
+      <c r="O232" s="6">
         <v>231</v>
       </c>
     </row>
@@ -13564,10 +13581,10 @@
       <c r="M233" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N233" s="7" t="s">
+      <c r="N233" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O233" s="7">
+      <c r="O233" s="6">
         <v>232</v>
       </c>
     </row>
@@ -13590,7 +13607,7 @@
       <c r="F234">
         <v>95</v>
       </c>
-      <c r="G234" s="2">
+      <c r="G234" s="8">
         <v>70</v>
       </c>
       <c r="H234" s="1">
@@ -13611,10 +13628,10 @@
       <c r="M234" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N234" s="7" t="s">
+      <c r="N234" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O234" s="7">
+      <c r="O234" s="6">
         <v>233</v>
       </c>
     </row>
@@ -13628,7 +13645,7 @@
       <c r="C235" s="1">
         <v>2016</v>
       </c>
-      <c r="D235" s="13">
+      <c r="D235" s="12">
         <v>699</v>
       </c>
       <c r="E235">
@@ -13658,10 +13675,10 @@
       <c r="M235" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N235" s="7" t="s">
+      <c r="N235" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O235" s="7">
+      <c r="O235" s="6">
         <v>234</v>
       </c>
     </row>
@@ -13705,10 +13722,10 @@
       <c r="M236" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N236" s="7" t="s">
+      <c r="N236" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O236" s="7">
+      <c r="O236" s="6">
         <v>235</v>
       </c>
     </row>
@@ -13732,7 +13749,7 @@
         <f>3.24*25.4</f>
         <v>82.296000000000006</v>
       </c>
-      <c r="G237" s="1">
+      <c r="G237" s="12">
         <f>3.03*25.4</f>
         <v>76.961999999999989</v>
       </c>
@@ -13754,10 +13771,10 @@
       <c r="M237" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N237" s="7" t="s">
+      <c r="N237" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O237" s="7">
+      <c r="O237" s="6">
         <v>236</v>
       </c>
     </row>
@@ -13780,7 +13797,7 @@
       <c r="F238">
         <v>42.5</v>
       </c>
-      <c r="G238" s="2">
+      <c r="G238" s="8">
         <v>74.599999999999994</v>
       </c>
       <c r="H238" s="1">
@@ -13801,10 +13818,10 @@
       <c r="M238" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N238" s="7" t="s">
+      <c r="N238" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O238" s="7">
+      <c r="O238" s="6">
         <v>237</v>
       </c>
     </row>
@@ -13815,7 +13832,7 @@
       <c r="B239" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C239" s="5">
+      <c r="C239" s="10">
         <v>2014</v>
       </c>
       <c r="D239">
@@ -13848,10 +13865,10 @@
       <c r="M239" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N239" s="7" t="s">
+      <c r="N239" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O239" s="7">
+      <c r="O239" s="6">
         <v>238</v>
       </c>
     </row>
@@ -13897,10 +13914,10 @@
       <c r="M240" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N240" s="7" t="s">
+      <c r="N240" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O240" s="7">
+      <c r="O240" s="6">
         <v>239</v>
       </c>
     </row>
@@ -13911,7 +13928,7 @@
       <c r="B241" t="s">
         <v>225</v>
       </c>
-      <c r="C241" s="5">
+      <c r="C241" s="10">
         <v>2014</v>
       </c>
       <c r="D241">
@@ -13944,10 +13961,10 @@
       <c r="M241" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N241" s="7" t="s">
+      <c r="N241" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O241" s="7">
+      <c r="O241" s="6">
         <v>240</v>
       </c>
     </row>
@@ -13991,10 +14008,10 @@
       <c r="M242" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N242" s="7" t="s">
+      <c r="N242" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O242" s="7">
+      <c r="O242" s="6">
         <v>241</v>
       </c>
     </row>
@@ -14005,7 +14022,7 @@
       <c r="B243" t="s">
         <v>278</v>
       </c>
-      <c r="C243" s="5">
+      <c r="C243" s="10">
         <v>2014</v>
       </c>
       <c r="D243">
@@ -14038,10 +14055,10 @@
       <c r="M243" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N243" s="7" t="s">
+      <c r="N243" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O243" s="7">
+      <c r="O243" s="6">
         <v>242</v>
       </c>
     </row>
@@ -14087,10 +14104,10 @@
       <c r="M244" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N244" s="7" t="s">
+      <c r="N244" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O244" s="7">
+      <c r="O244" s="6">
         <v>243</v>
       </c>
     </row>
@@ -14101,7 +14118,7 @@
       <c r="B245" t="s">
         <v>226</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245" s="10">
         <v>2014</v>
       </c>
       <c r="D245">
@@ -14134,10 +14151,10 @@
       <c r="M245" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N245" s="7" t="s">
+      <c r="N245" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O245" s="7">
+      <c r="O245" s="6">
         <v>244</v>
       </c>
     </row>
@@ -14148,7 +14165,7 @@
       <c r="B246" t="s">
         <v>227</v>
       </c>
-      <c r="C246" s="5">
+      <c r="C246" s="10">
         <v>2012</v>
       </c>
       <c r="D246">
@@ -14160,7 +14177,7 @@
       <c r="F246">
         <v>53</v>
       </c>
-      <c r="G246" s="2">
+      <c r="G246" s="8">
         <v>50.9</v>
       </c>
       <c r="H246" s="1">
@@ -14181,10 +14198,10 @@
       <c r="M246" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N246" s="7" t="s">
+      <c r="N246" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O246" s="7">
+      <c r="O246" s="6">
         <v>245</v>
       </c>
     </row>
@@ -14195,7 +14212,7 @@
       <c r="B247" t="s">
         <v>279</v>
       </c>
-      <c r="C247" s="5">
+      <c r="C247" s="10">
         <v>2006</v>
       </c>
       <c r="D247">
@@ -14207,7 +14224,7 @@
       <c r="F247">
         <v>29</v>
       </c>
-      <c r="G247" s="2">
+      <c r="G247" s="8">
         <v>55</v>
       </c>
       <c r="H247" s="1">
@@ -14228,10 +14245,10 @@
       <c r="M247" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N247" s="7" t="s">
+      <c r="N247" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O247" s="7">
+      <c r="O247" s="6">
         <v>246</v>
       </c>
     </row>
@@ -14242,7 +14259,7 @@
       <c r="B248" t="s">
         <v>228</v>
       </c>
-      <c r="C248" s="5">
+      <c r="C248" s="10">
         <v>2012</v>
       </c>
       <c r="D248">
@@ -14275,10 +14292,10 @@
       <c r="M248" t="s">
         <v>285</v>
       </c>
-      <c r="N248" s="7" t="s">
+      <c r="N248" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O248" s="7">
+      <c r="O248" s="6">
         <v>247</v>
       </c>
     </row>
@@ -14289,7 +14306,7 @@
       <c r="B249" t="s">
         <v>280</v>
       </c>
-      <c r="C249" s="5">
+      <c r="C249" s="10">
         <v>2008</v>
       </c>
       <c r="D249">
@@ -14322,10 +14339,10 @@
       <c r="M249" t="s">
         <v>285</v>
       </c>
-      <c r="N249" s="7" t="s">
+      <c r="N249" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O249" s="7">
+      <c r="O249" s="6">
         <v>248</v>
       </c>
     </row>
@@ -14371,10 +14388,10 @@
       <c r="M250" t="s">
         <v>293</v>
       </c>
-      <c r="N250" s="7" t="s">
+      <c r="N250" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O250" s="7">
+      <c r="O250" s="6">
         <v>249</v>
       </c>
     </row>
@@ -14418,10 +14435,10 @@
       <c r="M251" t="s">
         <v>285</v>
       </c>
-      <c r="N251" s="7" t="s">
+      <c r="N251" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O251" s="7">
+      <c r="O251" s="6">
         <v>250</v>
       </c>
     </row>
@@ -14432,7 +14449,7 @@
       <c r="B252" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C252" s="5">
+      <c r="C252" s="10">
         <v>2008</v>
       </c>
       <c r="D252" s="1">
@@ -14465,10 +14482,10 @@
       <c r="M252" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N252" s="7" t="s">
+      <c r="N252" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O252" s="7">
+      <c r="O252" s="6">
         <v>251</v>
       </c>
     </row>
@@ -14479,7 +14496,7 @@
       <c r="B253" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C253" s="5">
+      <c r="C253" s="10">
         <v>2006</v>
       </c>
       <c r="D253" s="1">
@@ -14512,10 +14529,10 @@
       <c r="M253" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N253" s="7" t="s">
+      <c r="N253" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O253" s="7">
+      <c r="O253" s="6">
         <v>252</v>
       </c>
     </row>
@@ -14561,10 +14578,10 @@
       <c r="M254" t="s">
         <v>285</v>
       </c>
-      <c r="N254" s="7" t="s">
+      <c r="N254" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O254" s="7">
+      <c r="O254" s="6">
         <v>253</v>
       </c>
     </row>
@@ -14575,7 +14592,7 @@
       <c r="B255" t="s">
         <v>208</v>
       </c>
-      <c r="C255" s="5">
+      <c r="C255" s="10">
         <v>2006</v>
       </c>
       <c r="D255">
@@ -14608,10 +14625,10 @@
       <c r="M255" t="s">
         <v>285</v>
       </c>
-      <c r="N255" s="7" t="s">
+      <c r="N255" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O255" s="7">
+      <c r="O255" s="6">
         <v>254</v>
       </c>
     </row>
@@ -14655,10 +14672,10 @@
       <c r="M256" t="s">
         <v>285</v>
       </c>
-      <c r="N256" s="7" t="s">
+      <c r="N256" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O256" s="7">
+      <c r="O256" s="6">
         <v>255</v>
       </c>
     </row>
@@ -14669,7 +14686,7 @@
       <c r="B257" t="s">
         <v>136</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257" s="12">
         <v>2009</v>
       </c>
       <c r="D257">
@@ -14704,10 +14721,10 @@
       <c r="M257" t="s">
         <v>285</v>
       </c>
-      <c r="N257" s="7" t="s">
+      <c r="N257" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O257" s="7">
+      <c r="O257" s="6">
         <v>256</v>
       </c>
     </row>
@@ -14751,10 +14768,10 @@
       <c r="M258" t="s">
         <v>285</v>
       </c>
-      <c r="N258" s="7" t="s">
+      <c r="N258" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O258" s="7">
+      <c r="O258" s="6">
         <v>257</v>
       </c>
     </row>
@@ -14798,10 +14815,10 @@
       <c r="M259" t="s">
         <v>285</v>
       </c>
-      <c r="N259" s="7" t="s">
+      <c r="N259" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O259" s="7">
+      <c r="O259" s="6">
         <v>258</v>
       </c>
     </row>
@@ -14847,10 +14864,10 @@
       <c r="M260" t="s">
         <v>285</v>
       </c>
-      <c r="N260" s="7" t="s">
+      <c r="N260" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O260" s="7">
+      <c r="O260" s="6">
         <v>259</v>
       </c>
     </row>
@@ -14896,10 +14913,10 @@
       <c r="M261" t="s">
         <v>285</v>
       </c>
-      <c r="N261" s="7" t="s">
+      <c r="N261" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O261" s="7">
+      <c r="O261" s="6">
         <v>260</v>
       </c>
     </row>
@@ -14945,10 +14962,10 @@
       <c r="M262" t="s">
         <v>285</v>
       </c>
-      <c r="N262" s="7" t="s">
+      <c r="N262" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O262" s="7">
+      <c r="O262" s="6">
         <v>261</v>
       </c>
     </row>
@@ -14959,7 +14976,7 @@
       <c r="B263" t="s">
         <v>282</v>
       </c>
-      <c r="C263" s="5">
+      <c r="C263" s="10">
         <v>2006</v>
       </c>
       <c r="D263">
@@ -14968,10 +14985,10 @@
       <c r="E263">
         <v>300</v>
       </c>
-      <c r="F263" s="5">
+      <c r="F263" s="10">
         <v>75</v>
       </c>
-      <c r="G263" s="6">
+      <c r="G263" s="11">
         <v>60</v>
       </c>
       <c r="H263" s="1">
@@ -14992,10 +15009,10 @@
       <c r="M263" t="s">
         <v>285</v>
       </c>
-      <c r="N263" s="7" t="s">
+      <c r="N263" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O263" s="7">
+      <c r="O263" s="6">
         <v>262</v>
       </c>
     </row>
@@ -15039,10 +15056,10 @@
       <c r="M264" t="s">
         <v>285</v>
       </c>
-      <c r="N264" s="7" t="s">
+      <c r="N264" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O264" s="7">
+      <c r="O264" s="6">
         <v>263</v>
       </c>
     </row>
@@ -15053,7 +15070,7 @@
       <c r="B265" t="s">
         <v>336</v>
       </c>
-      <c r="C265" s="5">
+      <c r="C265" s="10">
         <v>2010</v>
       </c>
       <c r="D265">
@@ -15086,10 +15103,10 @@
       <c r="M265" t="s">
         <v>285</v>
       </c>
-      <c r="N265" s="7" t="s">
+      <c r="N265" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O265" s="7">
+      <c r="O265" s="6">
         <v>264</v>
       </c>
     </row>
@@ -15113,7 +15130,7 @@
         <f>3.86*25.4</f>
         <v>98.043999999999997</v>
       </c>
-      <c r="G266" s="2">
+      <c r="G266" s="8">
         <f>2.87*25.4</f>
         <v>72.897999999999996</v>
       </c>
@@ -15135,10 +15152,10 @@
       <c r="M266" t="s">
         <v>285</v>
       </c>
-      <c r="N266" s="7" t="s">
+      <c r="N266" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O266" s="7">
+      <c r="O266" s="6">
         <v>265</v>
       </c>
     </row>
@@ -15184,10 +15201,10 @@
       <c r="M267" t="s">
         <v>285</v>
       </c>
-      <c r="N267" s="7" t="s">
+      <c r="N267" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O267" s="7">
+      <c r="O267" s="6">
         <v>266</v>
       </c>
     </row>
@@ -15233,10 +15250,10 @@
       <c r="M268" t="s">
         <v>285</v>
       </c>
-      <c r="N268" s="7" t="s">
+      <c r="N268" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O268" s="7">
+      <c r="O268" s="6">
         <v>267</v>
       </c>
     </row>
@@ -15280,10 +15297,10 @@
       <c r="M269" t="s">
         <v>285</v>
       </c>
-      <c r="N269" s="7" t="s">
+      <c r="N269" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O269" s="7">
+      <c r="O269" s="6">
         <v>268</v>
       </c>
     </row>
@@ -15327,10 +15344,10 @@
       <c r="M270" t="s">
         <v>285</v>
       </c>
-      <c r="N270" s="7" t="s">
+      <c r="N270" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O270" s="7">
+      <c r="O270" s="6">
         <v>269</v>
       </c>
     </row>
@@ -15376,10 +15393,10 @@
       <c r="M271" t="s">
         <v>285</v>
       </c>
-      <c r="N271" s="7" t="s">
+      <c r="N271" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O271" s="7">
+      <c r="O271" s="6">
         <v>270</v>
       </c>
     </row>
@@ -15425,10 +15442,10 @@
       <c r="M272" t="s">
         <v>285</v>
       </c>
-      <c r="N272" s="7" t="s">
+      <c r="N272" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O272" s="7">
+      <c r="O272" s="6">
         <v>271</v>
       </c>
     </row>
@@ -15472,10 +15489,10 @@
       <c r="M273" t="s">
         <v>285</v>
       </c>
-      <c r="N273" s="7" t="s">
+      <c r="N273" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O273" s="7">
+      <c r="O273" s="6">
         <v>272</v>
       </c>
     </row>
@@ -15519,10 +15536,10 @@
       <c r="M274" t="s">
         <v>285</v>
       </c>
-      <c r="N274" s="7" t="s">
+      <c r="N274" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O274" s="7">
+      <c r="O274" s="6">
         <v>273</v>
       </c>
     </row>
@@ -15568,10 +15585,10 @@
       <c r="M275" t="s">
         <v>285</v>
       </c>
-      <c r="N275" s="7" t="s">
+      <c r="N275" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O275" s="7">
+      <c r="O275" s="6">
         <v>274</v>
       </c>
     </row>
@@ -15617,10 +15634,10 @@
       <c r="M276" t="s">
         <v>285</v>
       </c>
-      <c r="N276" s="7" t="s">
+      <c r="N276" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O276" s="7">
+      <c r="O276" s="6">
         <v>275</v>
       </c>
     </row>
@@ -15666,10 +15683,10 @@
       <c r="M277" t="s">
         <v>285</v>
       </c>
-      <c r="N277" s="7" t="s">
+      <c r="N277" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O277" s="7">
+      <c r="O277" s="6">
         <v>276</v>
       </c>
     </row>
@@ -15693,7 +15710,7 @@
         <f>2.33*25.4</f>
         <v>59.181999999999995</v>
       </c>
-      <c r="G278" s="1">
+      <c r="G278" s="12">
         <f>2.44*25.4</f>
         <v>61.975999999999992</v>
       </c>
@@ -15715,10 +15732,10 @@
       <c r="M278" t="s">
         <v>285</v>
       </c>
-      <c r="N278" s="7" t="s">
+      <c r="N278" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O278" s="7">
+      <c r="O278" s="6">
         <v>277</v>
       </c>
     </row>
@@ -15762,10 +15779,10 @@
       <c r="M279" t="s">
         <v>285</v>
       </c>
-      <c r="N279" s="7" t="s">
+      <c r="N279" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O279" s="7">
+      <c r="O279" s="6">
         <v>278</v>
       </c>
     </row>
@@ -15809,10 +15826,10 @@
       <c r="M280" t="s">
         <v>285</v>
       </c>
-      <c r="N280" s="7" t="s">
+      <c r="N280" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O280" s="7">
+      <c r="O280" s="6">
         <v>279</v>
       </c>
     </row>
@@ -15835,7 +15852,7 @@
       <c r="F281">
         <v>55</v>
       </c>
-      <c r="G281" s="2">
+      <c r="G281" s="8">
         <v>52</v>
       </c>
       <c r="H281" s="1">
@@ -15856,10 +15873,10 @@
       <c r="M281" t="s">
         <v>285</v>
       </c>
-      <c r="N281" s="7" t="s">
+      <c r="N281" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O281" s="7">
+      <c r="O281" s="6">
         <v>280</v>
       </c>
     </row>
@@ -15870,7 +15887,7 @@
       <c r="B282" t="s">
         <v>328</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C282" s="10">
         <v>2010</v>
       </c>
       <c r="D282">
@@ -15903,10 +15920,10 @@
       <c r="M282" t="s">
         <v>285</v>
       </c>
-      <c r="N282" s="7" t="s">
+      <c r="N282" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O282" s="7">
+      <c r="O282" s="6">
         <v>281</v>
       </c>
     </row>
@@ -15917,7 +15934,7 @@
       <c r="B283" t="s">
         <v>322</v>
       </c>
-      <c r="C283" s="5">
+      <c r="C283" s="10">
         <v>2010</v>
       </c>
       <c r="D283">
@@ -15950,10 +15967,10 @@
       <c r="M283" t="s">
         <v>285</v>
       </c>
-      <c r="N283" s="7" t="s">
+      <c r="N283" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O283" s="7">
+      <c r="O283" s="6">
         <v>282</v>
       </c>
     </row>
@@ -15999,10 +16016,10 @@
       <c r="M284" t="s">
         <v>285</v>
       </c>
-      <c r="N284" s="7" t="s">
+      <c r="N284" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O284" s="7">
+      <c r="O284" s="6">
         <v>283</v>
       </c>
     </row>
@@ -16048,10 +16065,10 @@
       <c r="M285" t="s">
         <v>285</v>
       </c>
-      <c r="N285" s="7" t="s">
+      <c r="N285" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O285" s="7">
+      <c r="O285" s="6">
         <v>284</v>
       </c>
     </row>
@@ -16097,10 +16114,10 @@
       <c r="M286" t="s">
         <v>285</v>
       </c>
-      <c r="N286" s="7" t="s">
+      <c r="N286" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O286" s="7">
+      <c r="O286" s="6">
         <v>285</v>
       </c>
     </row>
@@ -16146,10 +16163,10 @@
       <c r="M287" t="s">
         <v>285</v>
       </c>
-      <c r="N287" s="7" t="s">
+      <c r="N287" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O287" s="7">
+      <c r="O287" s="6">
         <v>286</v>
       </c>
     </row>
@@ -16195,10 +16212,10 @@
       <c r="M288" t="s">
         <v>285</v>
       </c>
-      <c r="N288" s="7" t="s">
+      <c r="N288" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O288" s="7">
+      <c r="O288" s="6">
         <v>287</v>
       </c>
     </row>
@@ -16221,7 +16238,7 @@
       <c r="F289">
         <v>63</v>
       </c>
-      <c r="G289" s="2">
+      <c r="G289" s="8">
         <v>56</v>
       </c>
       <c r="H289" s="1">
@@ -16242,10 +16259,10 @@
       <c r="M289" t="s">
         <v>285</v>
       </c>
-      <c r="N289" s="7" t="s">
+      <c r="N289" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O289" s="7">
+      <c r="O289" s="6">
         <v>288</v>
       </c>
     </row>
@@ -16289,10 +16306,10 @@
       <c r="M290" t="s">
         <v>285</v>
       </c>
-      <c r="N290" s="7" t="s">
+      <c r="N290" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O290" s="7">
+      <c r="O290" s="6">
         <v>289</v>
       </c>
     </row>
@@ -16303,7 +16320,7 @@
       <c r="B291" t="s">
         <v>321</v>
       </c>
-      <c r="C291" s="5">
+      <c r="C291" s="10">
         <v>2010</v>
       </c>
       <c r="D291">
@@ -16336,10 +16353,10 @@
       <c r="M291" t="s">
         <v>285</v>
       </c>
-      <c r="N291" s="7" t="s">
+      <c r="N291" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O291" s="7">
+      <c r="O291" s="6">
         <v>290</v>
       </c>
     </row>
@@ -16350,7 +16367,7 @@
       <c r="B292" t="s">
         <v>329</v>
       </c>
-      <c r="C292" s="5">
+      <c r="C292" s="10">
         <v>2010</v>
       </c>
       <c r="D292">
@@ -16383,10 +16400,10 @@
       <c r="M292" t="s">
         <v>285</v>
       </c>
-      <c r="N292" s="7" t="s">
+      <c r="N292" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O292" s="7">
+      <c r="O292" s="6">
         <v>291</v>
       </c>
     </row>
@@ -16397,7 +16414,7 @@
       <c r="B293" t="s">
         <v>331</v>
       </c>
-      <c r="C293" s="5">
+      <c r="C293" s="10">
         <v>2010</v>
       </c>
       <c r="D293">
@@ -16430,10 +16447,10 @@
       <c r="M293" t="s">
         <v>285</v>
       </c>
-      <c r="N293" s="7" t="s">
+      <c r="N293" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O293" s="7">
+      <c r="O293" s="6">
         <v>292</v>
       </c>
     </row>
@@ -16479,10 +16496,10 @@
       <c r="M294" t="s">
         <v>285</v>
       </c>
-      <c r="N294" s="7" t="s">
+      <c r="N294" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O294" s="7">
+      <c r="O294" s="6">
         <v>293</v>
       </c>
     </row>
@@ -16528,10 +16545,10 @@
       <c r="M295" t="s">
         <v>285</v>
       </c>
-      <c r="N295" s="7" t="s">
+      <c r="N295" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O295" s="7">
+      <c r="O295" s="6">
         <v>294</v>
       </c>
     </row>
@@ -16577,10 +16594,10 @@
       <c r="M296" t="s">
         <v>285</v>
       </c>
-      <c r="N296" s="7" t="s">
+      <c r="N296" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O296" s="7">
+      <c r="O296" s="6">
         <v>295</v>
       </c>
     </row>
@@ -16626,10 +16643,10 @@
       <c r="M297" t="s">
         <v>285</v>
       </c>
-      <c r="N297" s="7" t="s">
+      <c r="N297" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O297" s="7">
+      <c r="O297" s="6">
         <v>296</v>
       </c>
     </row>
@@ -16675,10 +16692,10 @@
       <c r="M298" t="s">
         <v>285</v>
       </c>
-      <c r="N298" s="7" t="s">
+      <c r="N298" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O298" s="7">
+      <c r="O298" s="6">
         <v>297</v>
       </c>
     </row>
@@ -16689,7 +16706,7 @@
       <c r="B299" t="s">
         <v>218</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="12">
         <v>2005</v>
       </c>
       <c r="D299">
@@ -16722,10 +16739,10 @@
       <c r="M299" t="s">
         <v>285</v>
       </c>
-      <c r="N299" s="7" t="s">
+      <c r="N299" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O299" s="7">
+      <c r="O299" s="6">
         <v>298</v>
       </c>
     </row>
@@ -16769,10 +16786,10 @@
       <c r="M300" t="s">
         <v>285</v>
       </c>
-      <c r="N300" s="7" t="s">
+      <c r="N300" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O300" s="7">
+      <c r="O300" s="6">
         <v>299</v>
       </c>
     </row>
@@ -16816,10 +16833,10 @@
       <c r="M301" t="s">
         <v>285</v>
       </c>
-      <c r="N301" s="7" t="s">
+      <c r="N301" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O301" s="7">
+      <c r="O301" s="6">
         <v>300</v>
       </c>
     </row>
@@ -16843,7 +16860,7 @@
         <f>4.45*25.4</f>
         <v>113.03</v>
       </c>
-      <c r="G302" s="2">
+      <c r="G302" s="8">
         <f>2.99*25.4</f>
         <v>75.945999999999998</v>
       </c>
@@ -16865,10 +16882,10 @@
       <c r="M302" t="s">
         <v>285</v>
       </c>
-      <c r="N302" s="7" t="s">
+      <c r="N302" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O302" s="7">
+      <c r="O302" s="6">
         <v>301</v>
       </c>
     </row>
@@ -16892,7 +16909,7 @@
         <f>4.09*25.4</f>
         <v>103.886</v>
       </c>
-      <c r="G303" s="2">
+      <c r="G303" s="8">
         <f>3.17*25.4</f>
         <v>80.518000000000001</v>
       </c>
@@ -16914,10 +16931,10 @@
       <c r="M303" t="s">
         <v>285</v>
       </c>
-      <c r="N303" s="7" t="s">
+      <c r="N303" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O303" s="7">
+      <c r="O303" s="6">
         <v>302</v>
       </c>
     </row>
@@ -16928,7 +16945,7 @@
       <c r="B304" t="s">
         <v>323</v>
       </c>
-      <c r="C304" s="5">
+      <c r="C304" s="10">
         <v>2010</v>
       </c>
       <c r="D304">
@@ -16961,10 +16978,10 @@
       <c r="M304" t="s">
         <v>285</v>
       </c>
-      <c r="N304" s="7" t="s">
+      <c r="N304" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O304" s="7">
+      <c r="O304" s="6">
         <v>303</v>
       </c>
     </row>
@@ -17010,10 +17027,10 @@
       <c r="M305" t="s">
         <v>285</v>
       </c>
-      <c r="N305" s="7" t="s">
+      <c r="N305" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O305" s="7">
+      <c r="O305" s="6">
         <v>304</v>
       </c>
     </row>
@@ -17024,7 +17041,7 @@
       <c r="B306" t="s">
         <v>326</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="12">
         <v>2012</v>
       </c>
       <c r="D306">
@@ -17057,10 +17074,10 @@
       <c r="M306" t="s">
         <v>285</v>
       </c>
-      <c r="N306" s="7" t="s">
+      <c r="N306" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O306" s="7">
+      <c r="O306" s="6">
         <v>305</v>
       </c>
     </row>
@@ -17083,7 +17100,7 @@
       <c r="F307">
         <v>250</v>
       </c>
-      <c r="G307" s="2">
+      <c r="G307" s="8">
         <v>95</v>
       </c>
       <c r="H307" s="1">
@@ -17104,10 +17121,10 @@
       <c r="M307" t="s">
         <v>285</v>
       </c>
-      <c r="N307" s="7" t="s">
+      <c r="N307" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O307" s="7">
+      <c r="O307" s="6">
         <v>306</v>
       </c>
     </row>
@@ -17130,7 +17147,7 @@
       <c r="F308">
         <v>198</v>
       </c>
-      <c r="G308" s="2">
+      <c r="G308" s="8">
         <v>114</v>
       </c>
       <c r="H308" s="1">
@@ -17151,10 +17168,10 @@
       <c r="M308" t="s">
         <v>285</v>
       </c>
-      <c r="N308" s="7" t="s">
+      <c r="N308" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O308" s="7">
+      <c r="O308" s="6">
         <v>307</v>
       </c>
     </row>
@@ -17165,7 +17182,7 @@
       <c r="B309" t="s">
         <v>334</v>
       </c>
-      <c r="C309" s="5">
+      <c r="C309" s="10">
         <v>2010</v>
       </c>
       <c r="D309">
@@ -17177,7 +17194,7 @@
       <c r="F309">
         <v>196</v>
       </c>
-      <c r="G309" s="2">
+      <c r="G309" s="8">
         <v>95</v>
       </c>
       <c r="H309" s="1">
@@ -17198,10 +17215,10 @@
       <c r="M309" t="s">
         <v>285</v>
       </c>
-      <c r="N309" s="7" t="s">
+      <c r="N309" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O309" s="7">
+      <c r="O309" s="6">
         <v>308</v>
       </c>
     </row>
@@ -17224,7 +17241,7 @@
       <c r="F310">
         <v>99</v>
       </c>
-      <c r="G310" s="2">
+      <c r="G310" s="8">
         <v>102.3</v>
       </c>
       <c r="H310" s="1">
@@ -17245,10 +17262,10 @@
       <c r="M310" t="s">
         <v>285</v>
       </c>
-      <c r="N310" s="7" t="s">
+      <c r="N310" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O310" s="7">
+      <c r="O310" s="6">
         <v>309</v>
       </c>
     </row>
@@ -17292,10 +17309,10 @@
       <c r="M311" t="s">
         <v>285</v>
       </c>
-      <c r="N311" s="7" t="s">
+      <c r="N311" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O311" s="7">
+      <c r="O311" s="6">
         <v>310</v>
       </c>
     </row>
@@ -17339,10 +17356,10 @@
       <c r="M312" t="s">
         <v>285</v>
       </c>
-      <c r="N312" s="7" t="s">
+      <c r="N312" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O312" s="7">
+      <c r="O312" s="6">
         <v>311</v>
       </c>
     </row>
@@ -17386,10 +17403,10 @@
       <c r="M313" t="s">
         <v>285</v>
       </c>
-      <c r="N313" s="7" t="s">
+      <c r="N313" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O313" s="7">
+      <c r="O313" s="6">
         <v>312</v>
       </c>
     </row>
@@ -17433,10 +17450,10 @@
       <c r="M314" t="s">
         <v>285</v>
       </c>
-      <c r="N314" s="7" t="s">
+      <c r="N314" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O314" s="7">
+      <c r="O314" s="6">
         <v>313</v>
       </c>
     </row>
@@ -17480,10 +17497,10 @@
       <c r="M315" t="s">
         <v>447</v>
       </c>
-      <c r="N315" s="7" t="s">
+      <c r="N315" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O315" s="7">
+      <c r="O315" s="6">
         <v>314</v>
       </c>
     </row>
@@ -17527,10 +17544,10 @@
       <c r="M316" t="s">
         <v>447</v>
       </c>
-      <c r="N316" s="7" t="s">
+      <c r="N316" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O316" s="7">
+      <c r="O316" s="6">
         <v>315</v>
       </c>
     </row>
@@ -17541,10 +17558,10 @@
       <c r="B317" t="s">
         <v>473</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="12">
         <v>2017</v>
       </c>
-      <c r="D317" s="5"/>
+      <c r="D317" s="10"/>
       <c r="E317">
         <v>1170</v>
       </c>
@@ -17572,10 +17589,10 @@
       <c r="M317" t="s">
         <v>285</v>
       </c>
-      <c r="N317" s="7" t="s">
+      <c r="N317" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O317" s="7">
+      <c r="O317" s="6">
         <v>316</v>
       </c>
     </row>
@@ -17589,7 +17606,7 @@
       <c r="C318">
         <v>2017</v>
       </c>
-      <c r="D318" s="5"/>
+      <c r="D318" s="10"/>
       <c r="E318">
         <v>1130</v>
       </c>
@@ -17617,10 +17634,10 @@
       <c r="M318" t="s">
         <v>285</v>
       </c>
-      <c r="N318" s="7" t="s">
+      <c r="N318" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O318" s="7">
+      <c r="O318" s="6">
         <v>317</v>
       </c>
     </row>
@@ -17634,12 +17651,12 @@
       <c r="C319">
         <v>2017</v>
       </c>
-      <c r="D319" s="5"/>
-      <c r="E319" s="5"/>
+      <c r="D319" s="10"/>
+      <c r="E319" s="10"/>
       <c r="F319">
         <v>107.6</v>
       </c>
-      <c r="G319" s="2">
+      <c r="G319" s="8">
         <v>88</v>
       </c>
       <c r="H319" s="1">
@@ -17660,10 +17677,10 @@
       <c r="M319" t="s">
         <v>285</v>
       </c>
-      <c r="N319" s="7" t="s">
+      <c r="N319" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O319" s="7">
+      <c r="O319" s="6">
         <v>318</v>
       </c>
     </row>
@@ -17677,7 +17694,7 @@
       <c r="C320">
         <v>2017</v>
       </c>
-      <c r="D320" s="5"/>
+      <c r="D320" s="10"/>
       <c r="E320">
         <v>1160</v>
       </c>
@@ -17705,10 +17722,10 @@
       <c r="M320" t="s">
         <v>285</v>
       </c>
-      <c r="N320" s="7" t="s">
+      <c r="N320" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O320" s="7">
+      <c r="O320" s="6">
         <v>319</v>
       </c>
     </row>
@@ -17725,7 +17742,7 @@
       <c r="D321">
         <v>1349</v>
       </c>
-      <c r="E321">
+      <c r="E321" s="12">
         <v>1310</v>
       </c>
       <c r="F321">
@@ -17755,7 +17772,7 @@
       <c r="N321" t="s">
         <v>588</v>
       </c>
-      <c r="O321" s="7">
+      <c r="O321" s="6">
         <v>320</v>
       </c>
     </row>
@@ -17766,7 +17783,7 @@
       <c r="B322" t="s">
         <v>481</v>
       </c>
-      <c r="C322" s="11"/>
+      <c r="C322" s="10"/>
       <c r="D322">
         <v>3360</v>
       </c>
@@ -17776,7 +17793,7 @@
       <c r="F322">
         <v>135.6</v>
       </c>
-      <c r="G322" s="2">
+      <c r="G322" s="8">
         <v>100</v>
       </c>
       <c r="H322" s="1">
@@ -17797,8 +17814,8 @@
       <c r="M322" t="s">
         <v>285</v>
       </c>
-      <c r="N322" s="11"/>
-      <c r="O322" s="7">
+      <c r="N322" s="10"/>
+      <c r="O322" s="6">
         <v>321</v>
       </c>
     </row>
@@ -17809,7 +17826,7 @@
       <c r="B323" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C323" s="11"/>
+      <c r="C323" s="10"/>
       <c r="D323">
         <v>3360</v>
       </c>
@@ -17840,8 +17857,8 @@
       <c r="M323" t="s">
         <v>285</v>
       </c>
-      <c r="N323" s="11"/>
-      <c r="O323" s="7">
+      <c r="N323" s="10"/>
+      <c r="O323" s="6">
         <v>322</v>
       </c>
     </row>
@@ -17852,7 +17869,7 @@
       <c r="B324" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C324" s="11"/>
+      <c r="C324" s="10"/>
       <c r="D324">
         <v>3360</v>
       </c>
@@ -17883,8 +17900,8 @@
       <c r="M324" t="s">
         <v>285</v>
       </c>
-      <c r="N324" s="11"/>
-      <c r="O324" s="7">
+      <c r="N324" s="10"/>
+      <c r="O324" s="6">
         <v>323</v>
       </c>
     </row>
@@ -17895,7 +17912,7 @@
       <c r="B325" t="s">
         <v>487</v>
       </c>
-      <c r="C325" s="11"/>
+      <c r="C325" s="10"/>
       <c r="D325">
         <v>3999</v>
       </c>
@@ -17905,7 +17922,7 @@
       <c r="F325">
         <v>129.5</v>
       </c>
-      <c r="G325" s="2">
+      <c r="G325" s="8">
         <v>95</v>
       </c>
       <c r="H325" s="1">
@@ -17926,8 +17943,8 @@
       <c r="M325" t="s">
         <v>285</v>
       </c>
-      <c r="N325" s="11"/>
-      <c r="O325" s="8">
+      <c r="N325" s="10"/>
+      <c r="O325" s="7">
         <v>324</v>
       </c>
     </row>
@@ -17938,7 +17955,7 @@
       <c r="B326" t="s">
         <v>486</v>
       </c>
-      <c r="C326" s="11"/>
+      <c r="C326" s="10"/>
       <c r="D326">
         <v>4499</v>
       </c>
@@ -17948,7 +17965,7 @@
       <c r="F326">
         <v>159</v>
       </c>
-      <c r="G326" s="2">
+      <c r="G326" s="8">
         <v>114</v>
       </c>
       <c r="H326" s="1">
@@ -17969,8 +17986,8 @@
       <c r="M326" t="s">
         <v>285</v>
       </c>
-      <c r="N326" s="11"/>
-      <c r="O326" s="8">
+      <c r="N326" s="10"/>
+      <c r="O326" s="7">
         <v>325</v>
       </c>
     </row>
@@ -17984,7 +18001,7 @@
       <c r="C327">
         <v>2017</v>
       </c>
-      <c r="D327" s="11"/>
+      <c r="D327" s="10"/>
       <c r="E327">
         <v>1250</v>
       </c>
@@ -18010,10 +18027,10 @@
       <c r="M327" t="s">
         <v>285</v>
       </c>
-      <c r="N327" s="8" t="s">
+      <c r="N327" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="O327" s="8">
+      <c r="O327" s="7">
         <v>326</v>
       </c>
     </row>
@@ -18024,7 +18041,7 @@
       <c r="B328" t="s">
         <v>492</v>
       </c>
-      <c r="C328" s="8">
+      <c r="C328" s="7">
         <v>2016</v>
       </c>
       <c r="D328">
@@ -18057,10 +18074,10 @@
       <c r="M328" t="s">
         <v>447</v>
       </c>
-      <c r="N328" s="8" t="s">
+      <c r="N328" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="O328" s="8">
+      <c r="O328" s="7">
         <v>327</v>
       </c>
     </row>
@@ -18071,7 +18088,7 @@
       <c r="B329" t="s">
         <v>489</v>
       </c>
-      <c r="C329" s="8">
+      <c r="C329" s="7">
         <v>2014</v>
       </c>
       <c r="D329">
@@ -18104,10 +18121,10 @@
       <c r="M329" t="s">
         <v>447</v>
       </c>
-      <c r="N329" s="8" t="s">
+      <c r="N329" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="O329" s="8">
+      <c r="O329" s="7">
         <v>328</v>
       </c>
     </row>
@@ -18118,7 +18135,7 @@
       <c r="B330" t="s">
         <v>493</v>
       </c>
-      <c r="C330" s="8">
+      <c r="C330" s="7">
         <v>2011</v>
       </c>
       <c r="D330">
@@ -18151,10 +18168,10 @@
       <c r="M330" t="s">
         <v>447</v>
       </c>
-      <c r="N330" s="8" t="s">
+      <c r="N330" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="O330" s="8">
+      <c r="O330" s="7">
         <v>329</v>
       </c>
     </row>
@@ -18165,7 +18182,7 @@
       <c r="B331" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C331" s="8">
+      <c r="C331" s="7">
         <v>2011</v>
       </c>
       <c r="D331">
@@ -18198,8 +18215,8 @@
       <c r="M331" t="s">
         <v>447</v>
       </c>
-      <c r="N331" s="11"/>
-      <c r="O331" s="8">
+      <c r="N331" s="10"/>
+      <c r="O331" s="7">
         <v>330</v>
       </c>
     </row>
@@ -18210,7 +18227,7 @@
       <c r="B332" t="s">
         <v>496</v>
       </c>
-      <c r="C332" s="11"/>
+      <c r="C332" s="10"/>
       <c r="D332">
         <v>7750</v>
       </c>
@@ -18241,8 +18258,8 @@
       <c r="M332" t="s">
         <v>285</v>
       </c>
-      <c r="N332" s="11"/>
-      <c r="O332" s="8">
+      <c r="N332" s="10"/>
+      <c r="O332" s="7">
         <v>331</v>
       </c>
     </row>
@@ -18253,7 +18270,7 @@
       <c r="B333" t="s">
         <v>497</v>
       </c>
-      <c r="C333" s="11"/>
+      <c r="C333" s="10"/>
       <c r="D333">
         <v>7750</v>
       </c>
@@ -18284,8 +18301,8 @@
       <c r="M333" t="s">
         <v>285</v>
       </c>
-      <c r="N333" s="11"/>
-      <c r="O333" s="8">
+      <c r="N333" s="10"/>
+      <c r="O333" s="7">
         <v>332</v>
       </c>
     </row>
@@ -18296,7 +18313,7 @@
       <c r="B334" t="s">
         <v>498</v>
       </c>
-      <c r="C334" s="11"/>
+      <c r="C334" s="10"/>
       <c r="D334">
         <v>7750</v>
       </c>
@@ -18306,7 +18323,7 @@
       <c r="F334">
         <v>179.3</v>
       </c>
-      <c r="G334" s="2">
+      <c r="G334" s="8">
         <v>104</v>
       </c>
       <c r="H334" s="1">
@@ -18327,8 +18344,8 @@
       <c r="M334" t="s">
         <v>285</v>
       </c>
-      <c r="N334" s="11"/>
-      <c r="O334" s="8">
+      <c r="N334" s="10"/>
+      <c r="O334" s="7">
         <v>333</v>
       </c>
     </row>
@@ -18339,7 +18356,7 @@
       <c r="B335" t="s">
         <v>499</v>
       </c>
-      <c r="C335" s="11"/>
+      <c r="C335" s="10"/>
       <c r="D335">
         <v>9660</v>
       </c>
@@ -18370,8 +18387,8 @@
       <c r="M335" t="s">
         <v>285</v>
       </c>
-      <c r="N335" s="11"/>
-      <c r="O335" s="8">
+      <c r="N335" s="10"/>
+      <c r="O335" s="7">
         <v>334</v>
       </c>
     </row>
@@ -18382,7 +18399,7 @@
       <c r="B336" t="s">
         <v>500</v>
       </c>
-      <c r="C336" s="11"/>
+      <c r="C336" s="10"/>
       <c r="D336">
         <v>7750</v>
       </c>
@@ -18413,8 +18430,8 @@
       <c r="M336" t="s">
         <v>285</v>
       </c>
-      <c r="N336" s="11"/>
-      <c r="O336" s="8">
+      <c r="N336" s="10"/>
+      <c r="O336" s="7">
         <v>335</v>
       </c>
     </row>
@@ -18425,7 +18442,7 @@
       <c r="B337" t="s">
         <v>501</v>
       </c>
-      <c r="C337" s="11"/>
+      <c r="C337" s="10"/>
       <c r="D337">
         <v>7750</v>
       </c>
@@ -18456,8 +18473,8 @@
       <c r="M337" t="s">
         <v>285</v>
       </c>
-      <c r="N337" s="11"/>
-      <c r="O337" s="8">
+      <c r="N337" s="10"/>
+      <c r="O337" s="7">
         <v>336</v>
       </c>
     </row>
@@ -18501,8 +18518,8 @@
       <c r="M338" t="s">
         <v>285</v>
       </c>
-      <c r="N338" s="11"/>
-      <c r="O338" s="8">
+      <c r="N338" s="10"/>
+      <c r="O338" s="7">
         <v>337</v>
       </c>
     </row>
@@ -18513,10 +18530,10 @@
       <c r="B339" t="s">
         <v>508</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="12">
         <v>2017</v>
       </c>
-      <c r="D339" s="11"/>
+      <c r="D339" s="10"/>
       <c r="E339">
         <v>2070</v>
       </c>
@@ -18544,8 +18561,8 @@
       <c r="M339" t="s">
         <v>285</v>
       </c>
-      <c r="N339" s="11"/>
-      <c r="O339" s="8">
+      <c r="N339" s="10"/>
+      <c r="O339" s="7">
         <v>338</v>
       </c>
     </row>
@@ -18559,7 +18576,7 @@
       <c r="C340">
         <v>2017</v>
       </c>
-      <c r="D340" s="11"/>
+      <c r="D340" s="10"/>
       <c r="E340">
         <v>2150</v>
       </c>
@@ -18587,8 +18604,8 @@
       <c r="M340" t="s">
         <v>285</v>
       </c>
-      <c r="N340" s="11"/>
-      <c r="O340" s="8">
+      <c r="N340" s="10"/>
+      <c r="O340" s="7">
         <v>339</v>
       </c>
     </row>
@@ -18602,7 +18619,7 @@
       <c r="C341">
         <v>2017</v>
       </c>
-      <c r="D341" s="11"/>
+      <c r="D341" s="10"/>
       <c r="E341">
         <v>2050</v>
       </c>
@@ -18630,8 +18647,8 @@
       <c r="M341" t="s">
         <v>285</v>
       </c>
-      <c r="N341" s="11"/>
-      <c r="O341" s="8">
+      <c r="N341" s="10"/>
+      <c r="O341" s="7">
         <v>340</v>
       </c>
     </row>
@@ -18645,14 +18662,14 @@
       <c r="C342">
         <v>2017</v>
       </c>
-      <c r="D342" s="11"/>
+      <c r="D342" s="10"/>
       <c r="E342">
         <v>1950</v>
       </c>
       <c r="F342">
         <v>206</v>
       </c>
-      <c r="G342" s="2">
+      <c r="G342" s="8">
         <v>114</v>
       </c>
       <c r="H342" s="1">
@@ -18673,8 +18690,8 @@
       <c r="M342" t="s">
         <v>285</v>
       </c>
-      <c r="N342" s="11"/>
-      <c r="O342" s="8">
+      <c r="N342" s="10"/>
+      <c r="O342" s="7">
         <v>341</v>
       </c>
     </row>
@@ -18685,10 +18702,10 @@
       <c r="B343" t="s">
         <v>516</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="12">
         <v>2017</v>
       </c>
-      <c r="D343" s="11"/>
+      <c r="D343" s="10"/>
       <c r="E343">
         <v>1920</v>
       </c>
@@ -18716,8 +18733,8 @@
       <c r="M343" t="s">
         <v>285</v>
       </c>
-      <c r="N343" s="11"/>
-      <c r="O343" s="8">
+      <c r="N343" s="10"/>
+      <c r="O343" s="7">
         <v>342</v>
       </c>
     </row>
@@ -18728,10 +18745,10 @@
       <c r="B344" t="s">
         <v>518</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="12">
         <v>2017</v>
       </c>
-      <c r="D344" s="11"/>
+      <c r="D344" s="10"/>
       <c r="E344">
         <v>1920</v>
       </c>
@@ -18759,8 +18776,8 @@
       <c r="M344" t="s">
         <v>285</v>
       </c>
-      <c r="N344" s="11"/>
-      <c r="O344" s="8">
+      <c r="N344" s="10"/>
+      <c r="O344" s="7">
         <v>343</v>
       </c>
     </row>
@@ -18774,7 +18791,7 @@
       <c r="C345">
         <v>2017</v>
       </c>
-      <c r="D345" s="11"/>
+      <c r="D345" s="10"/>
       <c r="E345">
         <v>7300</v>
       </c>
@@ -18802,8 +18819,8 @@
       <c r="M345" t="s">
         <v>285</v>
       </c>
-      <c r="N345" s="11"/>
-      <c r="O345" s="8">
+      <c r="N345" s="10"/>
+      <c r="O345" s="7">
         <v>344</v>
       </c>
     </row>
@@ -18817,14 +18834,14 @@
       <c r="C346">
         <v>2017</v>
       </c>
-      <c r="D346" s="11"/>
+      <c r="D346" s="10"/>
       <c r="E346">
         <v>1920</v>
       </c>
       <c r="F346">
         <v>186</v>
       </c>
-      <c r="G346" s="2">
+      <c r="G346" s="8">
         <v>114</v>
       </c>
       <c r="H346" s="1">
@@ -18845,8 +18862,8 @@
       <c r="M346" t="s">
         <v>285</v>
       </c>
-      <c r="N346" s="11"/>
-      <c r="O346" s="8">
+      <c r="N346" s="10"/>
+      <c r="O346" s="7">
         <v>345</v>
       </c>
     </row>
@@ -18860,7 +18877,7 @@
       <c r="C347">
         <v>2017</v>
       </c>
-      <c r="D347" s="11"/>
+      <c r="D347" s="10"/>
       <c r="E347">
         <v>1920</v>
       </c>
@@ -18888,8 +18905,8 @@
       <c r="M347" t="s">
         <v>285</v>
       </c>
-      <c r="N347" s="11"/>
-      <c r="O347" s="8">
+      <c r="N347" s="10"/>
+      <c r="O347" s="7">
         <v>346</v>
       </c>
     </row>
@@ -18903,7 +18920,7 @@
       <c r="C348">
         <v>2017</v>
       </c>
-      <c r="D348" s="11"/>
+      <c r="D348" s="10"/>
       <c r="E348">
         <v>1950</v>
       </c>
@@ -18931,8 +18948,8 @@
       <c r="M348" t="s">
         <v>285</v>
       </c>
-      <c r="N348" s="11"/>
-      <c r="O348" s="8">
+      <c r="N348" s="10"/>
+      <c r="O348" s="7">
         <v>347</v>
       </c>
     </row>
@@ -18946,7 +18963,7 @@
       <c r="C349">
         <v>2017</v>
       </c>
-      <c r="D349" s="11"/>
+      <c r="D349" s="10"/>
       <c r="E349">
         <v>11100</v>
       </c>
@@ -18974,8 +18991,8 @@
       <c r="M349" t="s">
         <v>285</v>
       </c>
-      <c r="N349" s="11"/>
-      <c r="O349" s="8">
+      <c r="N349" s="10"/>
+      <c r="O349" s="7">
         <v>348</v>
       </c>
     </row>
@@ -18989,7 +19006,7 @@
       <c r="C350">
         <v>2017</v>
       </c>
-      <c r="D350" s="11"/>
+      <c r="D350" s="10"/>
       <c r="E350">
         <v>11000</v>
       </c>
@@ -19017,8 +19034,8 @@
       <c r="M350" t="s">
         <v>285</v>
       </c>
-      <c r="N350" s="11"/>
-      <c r="O350" s="8">
+      <c r="N350" s="10"/>
+      <c r="O350" s="7">
         <v>349</v>
       </c>
     </row>
@@ -19032,7 +19049,7 @@
       <c r="C351">
         <v>2017</v>
       </c>
-      <c r="D351" s="11"/>
+      <c r="D351" s="10"/>
       <c r="E351">
         <v>5600</v>
       </c>
@@ -19060,8 +19077,8 @@
       <c r="M351" t="s">
         <v>285</v>
       </c>
-      <c r="N351" s="11"/>
-      <c r="O351" s="8">
+      <c r="N351" s="10"/>
+      <c r="O351" s="7">
         <v>350</v>
       </c>
     </row>
@@ -19075,7 +19092,7 @@
       <c r="C352">
         <v>2017</v>
       </c>
-      <c r="D352" s="11"/>
+      <c r="D352" s="10"/>
       <c r="E352">
         <v>7550</v>
       </c>
@@ -19103,8 +19120,8 @@
       <c r="M352" t="s">
         <v>285</v>
       </c>
-      <c r="N352" s="11"/>
-      <c r="O352" s="8">
+      <c r="N352" s="10"/>
+      <c r="O352" s="7">
         <v>351</v>
       </c>
     </row>
@@ -19118,7 +19135,7 @@
       <c r="C353">
         <v>2017</v>
       </c>
-      <c r="D353" s="11"/>
+      <c r="D353" s="10"/>
       <c r="E353">
         <v>2400</v>
       </c>
@@ -19146,8 +19163,8 @@
       <c r="M353" t="s">
         <v>285</v>
       </c>
-      <c r="N353" s="11"/>
-      <c r="O353" s="8">
+      <c r="N353" s="10"/>
+      <c r="O353" s="7">
         <v>352</v>
       </c>
     </row>
@@ -19161,7 +19178,7 @@
       <c r="C354">
         <v>2017</v>
       </c>
-      <c r="D354" s="11"/>
+      <c r="D354" s="10"/>
       <c r="E354">
         <v>2200</v>
       </c>
@@ -19189,8 +19206,8 @@
       <c r="M354" t="s">
         <v>285</v>
       </c>
-      <c r="N354" s="11"/>
-      <c r="O354" s="8">
+      <c r="N354" s="10"/>
+      <c r="O354" s="7">
         <v>353</v>
       </c>
     </row>
@@ -19201,7 +19218,7 @@
       <c r="B355" t="s">
         <v>539</v>
       </c>
-      <c r="C355" s="13">
+      <c r="C355" s="12">
         <v>2013</v>
       </c>
       <c r="D355">
@@ -19234,10 +19251,10 @@
       <c r="M355" t="s">
         <v>447</v>
       </c>
-      <c r="N355" s="13" t="s">
+      <c r="N355" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O355" s="8">
+      <c r="O355" s="7">
         <v>354</v>
       </c>
     </row>
@@ -19248,7 +19265,7 @@
       <c r="B356" t="s">
         <v>541</v>
       </c>
-      <c r="C356" s="13">
+      <c r="C356" s="12">
         <v>2016</v>
       </c>
       <c r="D356">
@@ -19281,10 +19298,10 @@
       <c r="M356" t="s">
         <v>447</v>
       </c>
-      <c r="N356" s="13" t="s">
+      <c r="N356" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="O356" s="8">
+      <c r="O356" s="7">
         <v>355</v>
       </c>
     </row>
@@ -19295,7 +19312,7 @@
       <c r="B357" t="s">
         <v>543</v>
       </c>
-      <c r="C357" s="13">
+      <c r="C357" s="12">
         <v>2012</v>
       </c>
       <c r="D357">
@@ -19328,10 +19345,10 @@
       <c r="M357" t="s">
         <v>447</v>
       </c>
-      <c r="N357" s="13" t="s">
+      <c r="N357" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O357" s="8">
+      <c r="O357" s="7">
         <v>356</v>
       </c>
     </row>
@@ -19342,7 +19359,7 @@
       <c r="B358" t="s">
         <v>545</v>
       </c>
-      <c r="C358" s="11">
+      <c r="C358" s="10">
         <v>2017</v>
       </c>
       <c r="D358">
@@ -19375,10 +19392,10 @@
       <c r="M358" t="s">
         <v>447</v>
       </c>
-      <c r="N358" s="13" t="s">
+      <c r="N358" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O358" s="8">
+      <c r="O358" s="7">
         <v>357</v>
       </c>
     </row>
@@ -19389,7 +19406,7 @@
       <c r="B359" t="s">
         <v>547</v>
       </c>
-      <c r="C359" s="13">
+      <c r="C359" s="12">
         <v>2014</v>
       </c>
       <c r="D359">
@@ -19422,10 +19439,10 @@
       <c r="M359" t="s">
         <v>447</v>
       </c>
-      <c r="N359" s="13" t="s">
+      <c r="N359" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="O359" s="8">
+      <c r="O359" s="7">
         <v>358</v>
       </c>
     </row>
@@ -19436,7 +19453,7 @@
       <c r="B360" t="s">
         <v>549</v>
       </c>
-      <c r="C360" s="11">
+      <c r="C360" s="10">
         <v>2017</v>
       </c>
       <c r="D360">
@@ -19469,10 +19486,10 @@
       <c r="M360" t="s">
         <v>447</v>
       </c>
-      <c r="N360" s="13" t="s">
+      <c r="N360" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="O360" s="8">
+      <c r="O360" s="7">
         <v>359</v>
       </c>
     </row>
@@ -19483,7 +19500,7 @@
       <c r="B361" t="s">
         <v>551</v>
       </c>
-      <c r="C361" s="11">
+      <c r="C361" s="10">
         <v>2013</v>
       </c>
       <c r="D361">
@@ -19516,10 +19533,10 @@
       <c r="M361" t="s">
         <v>447</v>
       </c>
-      <c r="N361" s="13" t="s">
+      <c r="N361" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O361" s="8">
+      <c r="O361" s="7">
         <v>360</v>
       </c>
     </row>
@@ -19530,7 +19547,7 @@
       <c r="B362" t="s">
         <v>553</v>
       </c>
-      <c r="C362" s="11">
+      <c r="C362" s="10">
         <v>2017</v>
       </c>
       <c r="D362">
@@ -19563,10 +19580,10 @@
       <c r="M362" t="s">
         <v>447</v>
       </c>
-      <c r="N362" s="13" t="s">
+      <c r="N362" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="O362" s="8">
+      <c r="O362" s="7">
         <v>361</v>
       </c>
     </row>
@@ -19577,7 +19594,7 @@
       <c r="B363" t="s">
         <v>555</v>
       </c>
-      <c r="C363" s="13">
+      <c r="C363" s="12">
         <v>2012</v>
       </c>
       <c r="D363">
@@ -19610,10 +19627,10 @@
       <c r="M363" t="s">
         <v>447</v>
       </c>
-      <c r="N363" s="13" t="s">
+      <c r="N363" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="O363" s="8">
+      <c r="O363" s="7">
         <v>362</v>
       </c>
     </row>
@@ -19624,7 +19641,7 @@
       <c r="B364" t="s">
         <v>557</v>
       </c>
-      <c r="C364" s="13">
+      <c r="C364" s="12">
         <v>2016</v>
       </c>
       <c r="D364">
@@ -19657,10 +19674,10 @@
       <c r="M364" t="s">
         <v>447</v>
       </c>
-      <c r="N364" s="13" t="s">
+      <c r="N364" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="O364" s="8">
+      <c r="O364" s="7">
         <v>363</v>
       </c>
     </row>
@@ -19704,10 +19721,10 @@
       <c r="M365" t="s">
         <v>285</v>
       </c>
-      <c r="N365" s="13" t="s">
+      <c r="N365" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O365" s="8">
+      <c r="O365" s="7">
         <v>364</v>
       </c>
     </row>
@@ -19751,10 +19768,10 @@
       <c r="M366" t="s">
         <v>285</v>
       </c>
-      <c r="N366" s="13" t="s">
+      <c r="N366" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O366" s="8">
+      <c r="O366" s="7">
         <v>365</v>
       </c>
     </row>
@@ -19798,10 +19815,10 @@
       <c r="M367" t="s">
         <v>285</v>
       </c>
-      <c r="N367" s="13" t="s">
+      <c r="N367" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O367" s="8">
+      <c r="O367" s="7">
         <v>366</v>
       </c>
     </row>
@@ -19845,10 +19862,10 @@
       <c r="M368" t="s">
         <v>285</v>
       </c>
-      <c r="N368" s="13" t="s">
+      <c r="N368" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O368" s="8">
+      <c r="O368" s="7">
         <v>367</v>
       </c>
     </row>
@@ -19892,10 +19909,10 @@
       <c r="M369" t="s">
         <v>285</v>
       </c>
-      <c r="N369" s="13" t="s">
+      <c r="N369" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O369" s="8">
+      <c r="O369" s="7">
         <v>368</v>
       </c>
     </row>
@@ -19912,7 +19929,7 @@
       <c r="D370" s="1">
         <v>3499</v>
       </c>
-      <c r="E370">
+      <c r="E370" s="12">
         <v>1295</v>
       </c>
       <c r="F370">
@@ -19939,10 +19956,10 @@
       <c r="M370" t="s">
         <v>285</v>
       </c>
-      <c r="N370" s="13" t="s">
+      <c r="N370" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O370" s="8">
+      <c r="O370" s="7">
         <v>369</v>
       </c>
     </row>
@@ -19986,10 +20003,10 @@
       <c r="M371" t="s">
         <v>285</v>
       </c>
-      <c r="N371" s="13" t="s">
+      <c r="N371" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="O371" s="8">
+      <c r="O371" s="7">
         <v>370</v>
       </c>
     </row>
@@ -20012,7 +20029,7 @@
       <c r="F372">
         <v>166</v>
       </c>
-      <c r="G372" s="2">
+      <c r="G372" s="8">
         <v>123</v>
       </c>
       <c r="H372" s="1">
@@ -20033,10 +20050,10 @@
       <c r="M372" t="s">
         <v>285</v>
       </c>
-      <c r="N372" s="13" t="s">
+      <c r="N372" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O372" s="8">
+      <c r="O372" s="7">
         <v>371</v>
       </c>
     </row>
@@ -20053,7 +20070,7 @@
       <c r="D373">
         <v>4999</v>
       </c>
-      <c r="E373">
+      <c r="E373" s="12">
         <v>1830</v>
       </c>
       <c r="F373">
@@ -20080,10 +20097,10 @@
       <c r="M373" t="s">
         <v>285</v>
       </c>
-      <c r="N373" s="13" t="s">
+      <c r="N373" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O373" s="8">
+      <c r="O373" s="7">
         <v>372</v>
       </c>
     </row>
@@ -20100,7 +20117,7 @@
       <c r="D374">
         <v>4999</v>
       </c>
-      <c r="E374">
+      <c r="E374" s="12">
         <v>2120</v>
       </c>
       <c r="F374">
@@ -20127,10 +20144,10 @@
       <c r="M374" t="s">
         <v>285</v>
       </c>
-      <c r="N374" s="13" t="s">
+      <c r="N374" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O374" s="8">
+      <c r="O374" s="7">
         <v>373</v>
       </c>
     </row>
@@ -20174,10 +20191,10 @@
       <c r="M375" t="s">
         <v>285</v>
       </c>
-      <c r="N375" s="13" t="s">
+      <c r="N375" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O375" s="8">
+      <c r="O375" s="7">
         <v>374</v>
       </c>
     </row>
@@ -20188,7 +20205,7 @@
       <c r="B376" t="s">
         <v>569</v>
       </c>
-      <c r="C376" s="11"/>
+      <c r="C376" s="10"/>
       <c r="D376">
         <v>1499</v>
       </c>
@@ -20198,7 +20215,7 @@
       <c r="F376">
         <v>98</v>
       </c>
-      <c r="G376" s="2">
+      <c r="G376" s="8">
         <v>84</v>
       </c>
       <c r="H376" s="1">
@@ -20219,10 +20236,10 @@
       <c r="M376" t="s">
         <v>300</v>
       </c>
-      <c r="N376" s="13" t="s">
+      <c r="N376" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O376" s="8">
+      <c r="O376" s="7">
         <v>375</v>
       </c>
     </row>
@@ -20236,7 +20253,7 @@
       <c r="C377">
         <v>2017</v>
       </c>
-      <c r="D377">
+      <c r="D377" s="12">
         <v>2499</v>
       </c>
       <c r="E377">
@@ -20266,10 +20283,10 @@
       <c r="M377" t="s">
         <v>285</v>
       </c>
-      <c r="N377" s="13" t="s">
+      <c r="N377" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="O377" s="8">
+      <c r="O377" s="7">
         <v>376</v>
       </c>
     </row>
@@ -20283,7 +20300,7 @@
       <c r="C378">
         <v>2017</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="12">
         <v>4999</v>
       </c>
       <c r="E378">
@@ -20313,10 +20330,10 @@
       <c r="M378" t="s">
         <v>285</v>
       </c>
-      <c r="N378" s="13" t="s">
+      <c r="N378" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O378" s="8">
+      <c r="O378" s="7">
         <v>377</v>
       </c>
     </row>
@@ -20330,10 +20347,10 @@
       <c r="C379">
         <v>2017</v>
       </c>
-      <c r="D379">
+      <c r="D379" s="12">
         <v>9900</v>
       </c>
-      <c r="E379">
+      <c r="E379" s="12">
         <v>2000</v>
       </c>
       <c r="F379">
@@ -20360,10 +20377,10 @@
       <c r="M379" t="s">
         <v>447</v>
       </c>
-      <c r="N379" s="13" t="s">
+      <c r="N379" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="O379" s="8">
+      <c r="O379" s="7">
         <v>378</v>
       </c>
     </row>
@@ -20377,7 +20394,7 @@
       <c r="C380">
         <v>2017</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="12">
         <v>349</v>
       </c>
       <c r="E380">
@@ -20407,10 +20424,10 @@
       <c r="M380" t="s">
         <v>300</v>
       </c>
-      <c r="N380" s="13" t="s">
+      <c r="N380" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="O380" s="8">
+      <c r="O380" s="7">
         <v>379</v>
       </c>
     </row>
@@ -20424,7 +20441,7 @@
       <c r="C381">
         <v>2016</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="12">
         <v>329</v>
       </c>
       <c r="E381">
@@ -20454,10 +20471,10 @@
       <c r="M381" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N381" s="13" t="s">
+      <c r="N381" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O381" s="8">
+      <c r="O381" s="7">
         <v>380</v>
       </c>
     </row>
@@ -20471,7 +20488,7 @@
       <c r="C382">
         <v>2009</v>
       </c>
-      <c r="D382" s="1">
+      <c r="D382" s="12">
         <v>279</v>
       </c>
       <c r="E382">
@@ -20501,10 +20518,10 @@
       <c r="M382" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N382" s="13" t="s">
+      <c r="N382" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="O382" s="8">
+      <c r="O382" s="7">
         <v>381</v>
       </c>
     </row>
@@ -20518,7 +20535,7 @@
       <c r="C383">
         <v>2015</v>
       </c>
-      <c r="D383" s="1">
+      <c r="D383" s="12">
         <v>499</v>
       </c>
       <c r="E383">
@@ -20548,10 +20565,10 @@
       <c r="M383" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N383" s="13" t="s">
+      <c r="N383" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="O383" s="8">
+      <c r="O383" s="7">
         <v>382</v>
       </c>
     </row>
@@ -20565,7 +20582,7 @@
       <c r="C384" s="1">
         <v>2009</v>
       </c>
-      <c r="D384" s="1">
+      <c r="D384" s="12">
         <v>289</v>
       </c>
       <c r="E384">
@@ -20595,611 +20612,611 @@
       <c r="M384" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N384" s="13" t="s">
+      <c r="N384" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O384" s="8">
+      <c r="O384" s="7">
         <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A385" s="8" t="s">
+      <c r="A385" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B385" s="8" t="s">
+      <c r="B385" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="C385" s="8">
+      <c r="C385" s="7">
         <v>2017</v>
       </c>
-      <c r="D385" s="8">
+      <c r="D385" s="12">
         <v>1299</v>
       </c>
-      <c r="E385" s="8">
+      <c r="E385" s="7">
         <v>1500</v>
       </c>
-      <c r="F385" s="8">
+      <c r="F385" s="7">
         <v>193.04</v>
       </c>
-      <c r="G385" s="9">
+      <c r="G385" s="8">
         <v>87.88</v>
       </c>
-      <c r="H385" s="8">
+      <c r="H385" s="7">
         <v>2.8</v>
       </c>
-      <c r="I385" s="10" t="s">
+      <c r="I385" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="J385" s="10" t="s">
+      <c r="J385" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K385" s="8">
+      <c r="K385" s="7">
         <v>1</v>
       </c>
-      <c r="L385" s="8">
-        <v>0</v>
-      </c>
-      <c r="M385" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="N385" s="7" t="s">
+      <c r="L385" s="7">
+        <v>0</v>
+      </c>
+      <c r="M385" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="N385" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="O385" s="8">
+      <c r="O385" s="7">
         <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A386" s="8" t="s">
+      <c r="A386" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B386" s="8" t="s">
+      <c r="B386" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="C386" s="8">
+      <c r="C386" s="7">
         <v>2017</v>
       </c>
-      <c r="D386" s="8">
+      <c r="D386" s="12">
         <v>1999</v>
       </c>
-      <c r="E386" s="8">
+      <c r="E386" s="7">
         <v>614</v>
       </c>
-      <c r="F386" s="8">
+      <c r="F386" s="7">
         <v>120</v>
       </c>
-      <c r="G386" s="9">
+      <c r="G386" s="8">
         <v>81</v>
       </c>
-      <c r="H386" s="8">
+      <c r="H386" s="7">
         <v>2.8</v>
       </c>
-      <c r="I386" s="10" t="s">
+      <c r="I386" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J386" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K386" s="8">
+      <c r="J386" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K386" s="7">
         <v>1</v>
       </c>
-      <c r="L386" s="8">
-        <v>0</v>
-      </c>
-      <c r="M386" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="N386" s="7" t="s">
+      <c r="L386" s="7">
+        <v>0</v>
+      </c>
+      <c r="M386" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="N386" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O386" s="8">
+      <c r="O386" s="7">
         <v>385</v>
       </c>
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A387" s="8" t="s">
+      <c r="A387" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B387" s="8" t="s">
+      <c r="B387" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="C387" s="8">
+      <c r="C387" s="7">
         <v>2017</v>
       </c>
-      <c r="D387" s="8">
+      <c r="D387" s="12">
         <v>1698</v>
       </c>
-      <c r="E387" s="8">
+      <c r="E387" s="7">
         <v>565</v>
       </c>
-      <c r="F387" s="8">
+      <c r="F387" s="7">
         <v>116.84</v>
       </c>
-      <c r="G387" s="9">
+      <c r="G387" s="8">
         <v>88.9</v>
       </c>
-      <c r="H387" s="8">
+      <c r="H387" s="7">
         <v>4</v>
       </c>
-      <c r="I387" s="10" t="s">
+      <c r="I387" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="J387" s="10" t="s">
+      <c r="J387" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K387" s="8">
-        <v>0</v>
-      </c>
-      <c r="L387" s="8">
-        <v>0</v>
-      </c>
-      <c r="M387" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="N387" s="7" t="s">
+      <c r="K387" s="7">
+        <v>0</v>
+      </c>
+      <c r="L387" s="7">
+        <v>0</v>
+      </c>
+      <c r="M387" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="N387" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O387" s="8">
+      <c r="O387" s="7">
         <v>386</v>
       </c>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A388" s="8" t="s">
+      <c r="A388" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B388" s="8" t="s">
+      <c r="B388" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="C388" s="8">
+      <c r="C388" s="7">
         <v>2017</v>
       </c>
-      <c r="D388" s="8">
+      <c r="D388" s="12">
         <v>2198</v>
       </c>
-      <c r="E388" s="8">
+      <c r="E388" s="7">
         <v>680</v>
       </c>
-      <c r="F388" s="8">
+      <c r="F388" s="7">
         <v>121.6</v>
       </c>
-      <c r="G388" s="9">
+      <c r="G388" s="8">
         <v>88.5</v>
       </c>
-      <c r="H388" s="8">
+      <c r="H388" s="7">
         <v>2.8</v>
       </c>
-      <c r="I388" s="10" t="s">
+      <c r="I388" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="J388" s="10" t="s">
+      <c r="J388" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K388" s="8">
-        <v>0</v>
-      </c>
-      <c r="L388" s="8">
-        <v>0</v>
-      </c>
-      <c r="M388" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="N388" s="7" t="s">
+      <c r="K388" s="7">
+        <v>0</v>
+      </c>
+      <c r="L388" s="7">
+        <v>0</v>
+      </c>
+      <c r="M388" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="N388" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O388" s="8">
+      <c r="O388" s="7">
         <v>387</v>
       </c>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A389" s="8" t="s">
+      <c r="A389" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B389" s="8" t="s">
+      <c r="B389" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="C389" s="8">
+      <c r="C389" s="7">
         <v>2017</v>
       </c>
-      <c r="D389" s="8">
+      <c r="D389" s="12">
         <v>2498</v>
       </c>
-      <c r="E389" s="8">
+      <c r="E389" s="7">
         <v>1395</v>
       </c>
-      <c r="F389" s="8">
+      <c r="F389" s="7">
         <v>205</v>
       </c>
-      <c r="G389" s="9">
+      <c r="G389" s="8">
         <v>93.9</v>
       </c>
-      <c r="H389" s="8">
+      <c r="H389" s="7">
         <v>5.6</v>
       </c>
-      <c r="I389" s="10" t="s">
+      <c r="I389" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="J389" s="10" t="s">
+      <c r="J389" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K389" s="8">
+      <c r="K389" s="7">
         <v>1</v>
       </c>
-      <c r="L389" s="8">
-        <v>0</v>
-      </c>
-      <c r="M389" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="N389" s="7" t="s">
+      <c r="L389" s="7">
+        <v>0</v>
+      </c>
+      <c r="M389" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="N389" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="O389" s="8">
+      <c r="O389" s="7">
         <v>388</v>
       </c>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A390" s="8" t="s">
+      <c r="A390" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B390" s="8" t="s">
+      <c r="B390" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="C390" s="8">
+      <c r="C390" s="7">
         <v>2017</v>
       </c>
-      <c r="D390" s="11"/>
-      <c r="E390" s="8">
+      <c r="D390" s="10"/>
+      <c r="E390" s="7">
         <v>500</v>
       </c>
-      <c r="F390" s="8">
+      <c r="F390" s="7">
         <v>82</v>
       </c>
-      <c r="G390" s="9">
+      <c r="G390" s="8">
         <v>66</v>
       </c>
-      <c r="H390" s="8">
+      <c r="H390" s="7">
         <v>2</v>
       </c>
-      <c r="I390" s="10" t="s">
+      <c r="I390" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J390" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K390" s="8">
-        <v>0</v>
-      </c>
-      <c r="L390" s="8">
-        <v>0</v>
-      </c>
-      <c r="M390" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="N390" s="7" t="s">
+      <c r="J390" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K390" s="7">
+        <v>0</v>
+      </c>
+      <c r="L390" s="7">
+        <v>0</v>
+      </c>
+      <c r="M390" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="N390" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O390" s="8">
+      <c r="O390" s="7">
         <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A391" s="8" t="s">
+      <c r="A391" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B391" s="8" t="s">
+      <c r="B391" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="C391" s="8">
+      <c r="C391" s="7">
         <v>2017</v>
       </c>
-      <c r="D391" s="8">
+      <c r="D391" s="12">
         <v>499</v>
       </c>
-      <c r="E391" s="8">
+      <c r="E391" s="7">
         <v>170</v>
       </c>
-      <c r="F391" s="8">
+      <c r="F391" s="7">
         <v>55</v>
       </c>
-      <c r="G391" s="9">
+      <c r="G391" s="8">
         <v>50</v>
       </c>
-      <c r="H391" s="8">
+      <c r="H391" s="7">
         <v>2</v>
       </c>
-      <c r="I391" s="10" t="s">
+      <c r="I391" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="J391" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K391" s="8">
-        <v>0</v>
-      </c>
-      <c r="L391" s="8">
-        <v>0</v>
-      </c>
-      <c r="M391" s="8" t="s">
+      <c r="J391" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K391" s="7">
+        <v>0</v>
+      </c>
+      <c r="L391" s="7">
+        <v>0</v>
+      </c>
+      <c r="M391" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="N391" s="7" t="s">
+      <c r="N391" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O391" s="8">
+      <c r="O391" s="7">
         <v>390</v>
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A392" s="8" t="s">
+      <c r="A392" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B392" s="8" t="s">
+      <c r="B392" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="C392" s="8">
+      <c r="C392" s="7">
         <v>2017</v>
       </c>
-      <c r="D392" s="8">
+      <c r="D392" s="12">
         <v>1499</v>
       </c>
-      <c r="E392" s="8">
+      <c r="E392" s="7">
         <v>405</v>
       </c>
-      <c r="F392" s="8">
+      <c r="F392" s="7">
         <v>71</v>
       </c>
-      <c r="G392" s="9">
+      <c r="G392" s="8">
         <v>84</v>
       </c>
-      <c r="H392" s="8">
+      <c r="H392" s="7">
         <v>2.8</v>
       </c>
-      <c r="I392" s="10" t="s">
+      <c r="I392" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="J392" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K392" s="8">
-        <v>0</v>
-      </c>
-      <c r="L392" s="8">
-        <v>0</v>
-      </c>
-      <c r="M392" s="8" t="s">
+      <c r="J392" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K392" s="7">
+        <v>0</v>
+      </c>
+      <c r="L392" s="7">
+        <v>0</v>
+      </c>
+      <c r="M392" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="N392" s="7" t="s">
+      <c r="N392" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O392" s="8">
+      <c r="O392" s="7">
         <v>391</v>
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A393" s="8" t="s">
+      <c r="A393" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B393" s="8" t="s">
+      <c r="B393" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C393" s="8">
+      <c r="C393" s="7">
         <v>2017</v>
       </c>
-      <c r="D393" s="8">
+      <c r="D393" s="12">
         <v>2699</v>
       </c>
-      <c r="E393" s="8">
+      <c r="E393" s="7">
         <v>980</v>
       </c>
-      <c r="F393" s="8">
+      <c r="F393" s="7">
         <v>152.5</v>
       </c>
-      <c r="G393" s="9">
+      <c r="G393" s="8">
         <v>89.2</v>
       </c>
-      <c r="H393" s="8">
+      <c r="H393" s="7">
         <v>4</v>
       </c>
-      <c r="I393" s="10" t="s">
+      <c r="I393" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="J393" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K393" s="8">
+      <c r="J393" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K393" s="7">
         <v>1</v>
       </c>
-      <c r="L393" s="8">
-        <v>0</v>
-      </c>
-      <c r="M393" s="8" t="s">
+      <c r="L393" s="7">
+        <v>0</v>
+      </c>
+      <c r="M393" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="N393" s="7" t="s">
+      <c r="N393" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O393" s="8">
+      <c r="O393" s="7">
         <v>392</v>
       </c>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A394" s="8" t="s">
+      <c r="A394" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B394" s="8" t="s">
+      <c r="B394" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="C394" s="8">
+      <c r="C394" s="7">
         <v>2017</v>
       </c>
-      <c r="D394" s="8">
+      <c r="D394" s="12">
         <v>229</v>
       </c>
-      <c r="E394" s="8">
+      <c r="E394" s="7">
         <v>875</v>
       </c>
-      <c r="F394" s="8">
+      <c r="F394" s="7">
         <v>116</v>
       </c>
-      <c r="G394" s="9">
+      <c r="G394" s="8">
         <v>92.6</v>
       </c>
-      <c r="H394" s="8">
+      <c r="H394" s="7">
         <v>4</v>
       </c>
-      <c r="I394" s="10" t="s">
+      <c r="I394" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="J394" s="10" t="s">
+      <c r="J394" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K394" s="8">
-        <v>0</v>
-      </c>
-      <c r="L394" s="8">
-        <v>0</v>
-      </c>
-      <c r="M394" s="8" t="s">
+      <c r="K394" s="7">
+        <v>0</v>
+      </c>
+      <c r="L394" s="7">
+        <v>0</v>
+      </c>
+      <c r="M394" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="N394" s="7" t="s">
+      <c r="N394" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O394" s="8">
+      <c r="O394" s="7">
         <v>393</v>
       </c>
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="B395" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="C395" s="8">
+      <c r="C395" s="7">
         <v>2017</v>
       </c>
-      <c r="D395" s="11"/>
-      <c r="E395" s="11"/>
-      <c r="F395" s="11"/>
-      <c r="G395" s="12"/>
-      <c r="H395" s="8">
+      <c r="D395" s="10"/>
+      <c r="E395" s="10"/>
+      <c r="F395" s="10"/>
+      <c r="G395" s="11"/>
+      <c r="H395" s="7">
         <v>2.8</v>
       </c>
-      <c r="I395" s="10" t="s">
+      <c r="I395" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J395" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K395" s="8">
-        <v>0</v>
-      </c>
-      <c r="L395" s="8">
-        <v>0</v>
-      </c>
-      <c r="M395" s="8" t="s">
+      <c r="J395" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K395" s="7">
+        <v>0</v>
+      </c>
+      <c r="L395" s="7">
+        <v>0</v>
+      </c>
+      <c r="M395" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="N395" s="7" t="s">
+      <c r="N395" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O395" s="8">
+      <c r="O395" s="7">
         <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A396" s="8" t="s">
+      <c r="A396" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="B396" s="8" t="s">
+      <c r="B396" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="C396" s="8">
+      <c r="C396" s="7">
         <v>2016</v>
       </c>
-      <c r="D396" s="8">
+      <c r="D396" s="12">
         <v>2695</v>
       </c>
-      <c r="E396" s="8">
+      <c r="E396" s="7">
         <v>417</v>
       </c>
-      <c r="F396" s="8">
+      <c r="F396" s="7">
         <v>75</v>
       </c>
-      <c r="G396" s="9">
+      <c r="G396" s="8">
         <v>77</v>
       </c>
-      <c r="H396" s="8">
+      <c r="H396" s="7">
         <v>3.5</v>
       </c>
-      <c r="I396" s="10" t="s">
+      <c r="I396" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J396" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K396" s="8">
-        <v>0</v>
-      </c>
-      <c r="L396" s="8">
-        <v>0</v>
-      </c>
-      <c r="M396" s="8" t="s">
+      <c r="J396" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K396" s="7">
+        <v>0</v>
+      </c>
+      <c r="L396" s="7">
+        <v>0</v>
+      </c>
+      <c r="M396" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="N396" s="7" t="s">
+      <c r="N396" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O396" s="8">
+      <c r="O396" s="7">
         <v>395</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A397" s="8" t="s">
+      <c r="A397" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="B397" s="8" t="s">
+      <c r="B397" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="C397" s="8">
+      <c r="C397" s="7">
         <v>2016</v>
       </c>
-      <c r="D397" s="8">
+      <c r="D397" s="12">
         <v>3195</v>
       </c>
-      <c r="E397" s="8">
+      <c r="E397" s="7">
         <v>619</v>
       </c>
-      <c r="F397" s="8">
+      <c r="F397" s="7">
         <v>100</v>
       </c>
-      <c r="G397" s="9">
+      <c r="G397" s="8">
         <v>77</v>
       </c>
-      <c r="H397" s="8">
+      <c r="H397" s="7">
         <v>3.2</v>
       </c>
-      <c r="I397" s="10" t="s">
+      <c r="I397" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J397" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K397" s="8">
-        <v>0</v>
-      </c>
-      <c r="L397" s="8">
-        <v>0</v>
-      </c>
-      <c r="M397" s="8" t="s">
+      <c r="J397" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K397" s="7">
+        <v>0</v>
+      </c>
+      <c r="L397" s="7">
+        <v>0</v>
+      </c>
+      <c r="M397" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="N397" s="7" t="s">
+      <c r="N397" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O397" s="8">
+      <c r="O397" s="7">
         <v>396</v>
       </c>
     </row>
@@ -21210,8 +21227,8 @@
       <c r="B398" t="s">
         <v>618</v>
       </c>
-      <c r="C398" s="11"/>
-      <c r="D398">
+      <c r="C398" s="10"/>
+      <c r="D398" s="12">
         <v>5350</v>
       </c>
       <c r="E398">
@@ -21221,17 +21238,17 @@
         <f>5.26*25.4</f>
         <v>133.60399999999998</v>
       </c>
-      <c r="G398" s="9">
+      <c r="G398" s="8">
         <f>2.7*25.4</f>
         <v>68.58</v>
       </c>
       <c r="H398" s="1">
         <v>4.5</v>
       </c>
-      <c r="I398" s="10" t="s">
+      <c r="I398" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J398" s="10" t="s">
+      <c r="J398" s="9" t="s">
         <v>180</v>
       </c>
       <c r="K398">
@@ -21257,24 +21274,24 @@
       <c r="B399" t="s">
         <v>617</v>
       </c>
-      <c r="C399" s="11"/>
-      <c r="D399">
+      <c r="C399" s="10"/>
+      <c r="D399" s="12">
         <v>5750</v>
       </c>
-      <c r="E399">
+      <c r="E399" s="12">
         <v>620</v>
       </c>
-      <c r="F399">
+      <c r="F399" s="12">
         <v>73.400000000000006</v>
       </c>
-      <c r="G399" s="12"/>
+      <c r="G399" s="11"/>
       <c r="H399" s="1">
         <v>4</v>
       </c>
-      <c r="I399" s="10" t="s">
+      <c r="I399" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J399" s="10" t="s">
+      <c r="J399" s="9" t="s">
         <v>180</v>
       </c>
       <c r="K399">
@@ -21291,6 +21308,147 @@
       </c>
       <c r="O399">
         <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>59</v>
+      </c>
+      <c r="B400" t="s">
+        <v>619</v>
+      </c>
+      <c r="C400">
+        <v>2017</v>
+      </c>
+      <c r="D400">
+        <v>1996.96</v>
+      </c>
+      <c r="E400">
+        <v>645</v>
+      </c>
+      <c r="F400">
+        <v>101</v>
+      </c>
+      <c r="G400" s="8">
+        <v>83</v>
+      </c>
+      <c r="H400" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I400" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J400" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+      <c r="M400" t="s">
+        <v>285</v>
+      </c>
+      <c r="N400" t="s">
+        <v>581</v>
+      </c>
+      <c r="O400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>59</v>
+      </c>
+      <c r="B401" t="s">
+        <v>620</v>
+      </c>
+      <c r="C401">
+        <v>2017</v>
+      </c>
+      <c r="D401">
+        <v>1246.95</v>
+      </c>
+      <c r="E401">
+        <v>485</v>
+      </c>
+      <c r="F401">
+        <v>83</v>
+      </c>
+      <c r="G401" s="8">
+        <v>78</v>
+      </c>
+      <c r="H401" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="I401" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="J401" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+      <c r="M401" t="s">
+        <v>285</v>
+      </c>
+      <c r="N401" t="s">
+        <v>613</v>
+      </c>
+      <c r="O401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>59</v>
+      </c>
+      <c r="B402" t="s">
+        <v>622</v>
+      </c>
+      <c r="C402">
+        <v>2017</v>
+      </c>
+      <c r="D402">
+        <v>306.95</v>
+      </c>
+      <c r="E402">
+        <v>230</v>
+      </c>
+      <c r="F402">
+        <v>73</v>
+      </c>
+      <c r="G402" s="8">
+        <v>77</v>
+      </c>
+      <c r="H402" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="I402" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="J402" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K402">
+        <v>1</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+      <c r="M402" t="s">
+        <v>285</v>
+      </c>
+      <c r="N402" t="s">
+        <v>579</v>
+      </c>
+      <c r="O402">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -21304,10 +21462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21596,31 +21754,31 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>42833</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>42833</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>42874</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>42876</v>
       </c>
       <c r="B40" t="s">
@@ -21628,7 +21786,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>42878</v>
       </c>
       <c r="B41" t="s">
@@ -21636,7 +21794,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>42878</v>
       </c>
       <c r="B42" t="s">
@@ -21644,7 +21802,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>42879</v>
       </c>
       <c r="B43" t="s">
@@ -21652,11 +21810,19 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>42884</v>
       </c>
       <c r="B44" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <v>42887</v>
+      </c>
+      <c r="B45" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="633">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1900,6 +1900,30 @@
   </si>
   <si>
     <t>Add Nikon 28mm f/1.4, 10-20mm AF-P, and 8-15mm fisheye</t>
+  </si>
+  <si>
+    <t>Designed In</t>
+  </si>
+  <si>
+    <t>Made In</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>New Designed in and Made In columns (needs substantial additions).  Variety for CN-E 14.5-45mm, Format for Angenieux Lenses</t>
   </si>
 </sst>
 </file>
@@ -1992,12 +2016,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O402" totalsRowShown="0">
-  <autoFilter ref="A1:O402"/>
-  <sortState ref="A2:O400">
-    <sortCondition ref="O1:O400"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q402" totalsRowShown="0">
+  <autoFilter ref="A1:Q402">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:Q400">
+    <sortCondition ref="Q1:Q400"/>
   </sortState>
-  <tableColumns count="15">
+  <tableColumns count="17">
     <tableColumn id="1" name="Manufacture"/>
     <tableColumn id="2" name="Model"/>
     <tableColumn id="3" name="Release Year"/>
@@ -2012,6 +2042,8 @@
     <tableColumn id="9" name="Cinema"/>
     <tableColumn id="13" name="Format"/>
     <tableColumn id="14" name="Variety"/>
+    <tableColumn id="17" name="Designed In"/>
+    <tableColumn id="16" name="Made In"/>
     <tableColumn id="15" name="Index"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2316,10 +2348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O402"/>
+  <dimension ref="A1:Q402"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403"/>
+    <sheetView topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="O396" sqref="O396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2336,9 +2368,10 @@
     <col min="11" max="11" width="10.21875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2381,11 +2414,17 @@
       <c r="N1" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2430,11 +2469,17 @@
       <c r="N2" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2479,11 +2524,17 @@
       <c r="N3" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q3" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2528,11 +2579,17 @@
       <c r="N4" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q4" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2577,11 +2634,17 @@
       <c r="N5" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q5" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2626,11 +2689,17 @@
       <c r="N6" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q6" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2675,11 +2744,17 @@
       <c r="N7" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q7" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2724,11 +2799,17 @@
       <c r="N8" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q8" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2773,11 +2854,17 @@
       <c r="N9" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q9" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2822,11 +2909,17 @@
       <c r="N10" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q10" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2871,11 +2964,17 @@
       <c r="N11" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q11" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2920,11 +3019,17 @@
       <c r="N12" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q12" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2969,11 +3074,17 @@
       <c r="N13" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q13" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3018,11 +3129,17 @@
       <c r="N14" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q14" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3067,11 +3184,17 @@
       <c r="N15" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q15" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3116,11 +3239,17 @@
       <c r="N16" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q16" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3165,11 +3294,17 @@
       <c r="N17" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q17" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3214,11 +3349,17 @@
       <c r="N18" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q18" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3263,11 +3404,17 @@
       <c r="N19" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q19" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3312,11 +3459,17 @@
       <c r="N20" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q20" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3361,11 +3514,17 @@
       <c r="N21" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q21" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3410,11 +3569,17 @@
       <c r="N22" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q22" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3459,11 +3624,17 @@
       <c r="N23" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q23" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3508,11 +3679,17 @@
       <c r="N24" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q24" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3557,11 +3734,17 @@
       <c r="N25" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q25" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3606,11 +3789,17 @@
       <c r="N26" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q26" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3655,11 +3844,17 @@
       <c r="N27" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q27" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3704,11 +3899,17 @@
       <c r="N28" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q28" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3753,11 +3954,17 @@
       <c r="N29" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q29" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -3802,11 +4009,17 @@
       <c r="N30" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q30" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -3851,11 +4064,17 @@
       <c r="N31" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q31" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -3900,11 +4119,17 @@
       <c r="N32" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q32" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -3949,11 +4174,17 @@
       <c r="N33" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q33" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -3998,11 +4229,17 @@
       <c r="N34" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q34" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4047,11 +4284,17 @@
       <c r="N35" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q35" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4096,11 +4339,17 @@
       <c r="N36" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q36" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4145,11 +4394,17 @@
       <c r="N37" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q37" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4194,11 +4449,17 @@
       <c r="N38" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q38" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4243,11 +4504,17 @@
       <c r="N39" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q39" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4292,11 +4559,17 @@
       <c r="N40" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q40" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4341,11 +4614,17 @@
       <c r="N41" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q41" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4390,11 +4669,17 @@
       <c r="N42" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q42" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4439,11 +4724,17 @@
       <c r="N43" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q43" s="6">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4486,11 +4777,17 @@
       <c r="N44" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q44" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4535,11 +4832,17 @@
       <c r="N45" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q45" s="6">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4584,11 +4887,17 @@
       <c r="N46" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q46" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4633,11 +4942,17 @@
       <c r="N47" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q47" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4682,11 +4997,17 @@
       <c r="N48" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q48" s="6">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4731,11 +5052,17 @@
       <c r="N49" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q49" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4780,11 +5107,17 @@
       <c r="N50" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q50" s="6">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4829,11 +5162,17 @@
       <c r="N51" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q51" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4878,11 +5217,17 @@
       <c r="N52" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q52" s="6">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4927,11 +5272,17 @@
       <c r="N53" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P53" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q53" s="6">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4976,11 +5327,17 @@
       <c r="N54" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P54" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q54" s="6">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5025,11 +5382,17 @@
       <c r="N55" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P55" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q55" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -5074,11 +5437,17 @@
       <c r="N56" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P56" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q56" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5123,11 +5492,17 @@
       <c r="N57" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P57" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q57" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5172,11 +5547,17 @@
       <c r="N58" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P58" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q58" s="6">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5221,11 +5602,17 @@
       <c r="N59" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P59" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q59" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5270,11 +5657,17 @@
       <c r="N60" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O60" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P60" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q60" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5317,11 +5710,17 @@
       <c r="N61" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P61" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q61" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5366,11 +5765,17 @@
       <c r="N62" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O62" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P62" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q62" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5413,11 +5818,17 @@
       <c r="N63" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O63" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P63" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q63" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5460,11 +5871,17 @@
       <c r="N64" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O64" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P64" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q64" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -5507,11 +5924,17 @@
       <c r="N65" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O65" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P65" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q65" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -5554,11 +5977,17 @@
       <c r="N66" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O66" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P66" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q66" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -5601,11 +6030,17 @@
       <c r="N67" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P67" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q67" s="6">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>378</v>
       </c>
@@ -5648,11 +6083,17 @@
       <c r="N68" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O68" s="6">
+      <c r="O68" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P68" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q68" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>378</v>
       </c>
@@ -5695,11 +6136,17 @@
       <c r="N69" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P69" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q69" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>378</v>
       </c>
@@ -5742,11 +6189,17 @@
       <c r="N70" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O70" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P70" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q70" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>378</v>
       </c>
@@ -5789,11 +6242,17 @@
       <c r="N71" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P71" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q71" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>378</v>
       </c>
@@ -5836,11 +6295,17 @@
       <c r="N72" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O72" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P72" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q72" s="6">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>378</v>
       </c>
@@ -5883,11 +6348,17 @@
       <c r="N73" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O73" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P73" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q73" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>378</v>
       </c>
@@ -5930,11 +6401,17 @@
       <c r="N74" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O74" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P74" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q74" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>378</v>
       </c>
@@ -5977,11 +6454,17 @@
       <c r="N75" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O75" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P75" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q75" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>378</v>
       </c>
@@ -6024,11 +6507,17 @@
       <c r="N76" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O76" s="6">
+      <c r="O76" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P76" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q76" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>378</v>
       </c>
@@ -6071,11 +6560,17 @@
       <c r="N77" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O77" s="6">
+      <c r="O77" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P77" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q77" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>378</v>
       </c>
@@ -6118,11 +6613,17 @@
       <c r="N78" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O78" s="6">
+      <c r="O78" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P78" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q78" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>378</v>
       </c>
@@ -6165,11 +6666,17 @@
       <c r="N79" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O79" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P79" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q79" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>378</v>
       </c>
@@ -6212,11 +6719,17 @@
       <c r="N80" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O80" s="6">
+      <c r="O80" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P80" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q80" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>378</v>
       </c>
@@ -6259,11 +6772,17 @@
       <c r="N81" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O81" s="6">
+      <c r="O81" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P81" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q81" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>378</v>
       </c>
@@ -6306,11 +6825,17 @@
       <c r="N82" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O82" s="6">
+      <c r="O82" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P82" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q82" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>378</v>
       </c>
@@ -6353,11 +6878,17 @@
       <c r="N83" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O83" s="6">
+      <c r="O83" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P83" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q83" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>378</v>
       </c>
@@ -6400,11 +6931,17 @@
       <c r="N84" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O84" s="6">
+      <c r="O84" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P84" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q84" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>378</v>
       </c>
@@ -6447,11 +6984,17 @@
       <c r="N85" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O85" s="6">
+      <c r="O85" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P85" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q85" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>378</v>
       </c>
@@ -6494,11 +7037,17 @@
       <c r="N86" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O86" s="6">
+      <c r="O86" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P86" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q86" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>378</v>
       </c>
@@ -6541,11 +7090,17 @@
       <c r="N87" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O87" s="6">
+      <c r="O87" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P87" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q87" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>378</v>
       </c>
@@ -6585,11 +7140,17 @@
       <c r="N88" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O88" s="6">
+      <c r="O88" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P88" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q88" s="6">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>294</v>
       </c>
@@ -6634,11 +7195,11 @@
       <c r="N89" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O89" s="6">
+      <c r="Q89" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>429</v>
       </c>
@@ -6681,11 +7242,11 @@
       <c r="N90" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O90" s="6">
+      <c r="Q90" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>429</v>
       </c>
@@ -6728,11 +7289,11 @@
       <c r="N91" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O91" s="6">
+      <c r="Q91" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>233</v>
       </c>
@@ -6775,11 +7336,17 @@
       <c r="N92" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O92" s="6">
+      <c r="O92" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P92" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q92" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>233</v>
       </c>
@@ -6822,11 +7389,17 @@
       <c r="N93" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O93" s="6">
+      <c r="O93" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P93" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q93" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>233</v>
       </c>
@@ -6869,11 +7442,17 @@
       <c r="N94" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O94" s="6">
+      <c r="O94" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P94" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q94" s="6">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>233</v>
       </c>
@@ -6916,11 +7495,17 @@
       <c r="N95" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O95" s="6">
+      <c r="O95" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P95" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q95" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>233</v>
       </c>
@@ -6963,11 +7548,17 @@
       <c r="N96" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O96" s="6">
+      <c r="O96" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P96" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q96" s="6">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>233</v>
       </c>
@@ -7010,11 +7601,17 @@
       <c r="N97" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O97" s="6">
+      <c r="O97" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P97" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q97" s="6">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>233</v>
       </c>
@@ -7059,11 +7656,17 @@
       <c r="N98" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O98" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P98" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q98" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>233</v>
       </c>
@@ -7109,11 +7712,17 @@
       <c r="N99" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O99" s="6">
+      <c r="O99" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P99" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q99" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>233</v>
       </c>
@@ -7158,11 +7767,17 @@
       <c r="N100" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O100" s="6">
+      <c r="O100" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P100" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q100" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>233</v>
       </c>
@@ -7205,11 +7820,17 @@
       <c r="N101" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O101" s="6">
+      <c r="O101" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P101" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q101" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>233</v>
       </c>
@@ -7252,11 +7873,17 @@
       <c r="N102" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O102" s="6">
+      <c r="O102" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P102" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q102" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -7299,11 +7926,17 @@
       <c r="N103" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O103" s="6">
+      <c r="O103" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P103" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q103" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>233</v>
       </c>
@@ -7346,11 +7979,17 @@
       <c r="N104" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O104" s="6">
+      <c r="O104" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P104" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q104" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -7393,11 +8032,17 @@
       <c r="N105" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O105" s="6">
+      <c r="O105" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P105" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q105" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -7440,11 +8085,17 @@
       <c r="N106" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O106" s="6">
+      <c r="O106" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P106" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q106" s="6">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>233</v>
       </c>
@@ -7490,11 +8141,17 @@
       <c r="N107" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O107" s="6">
+      <c r="O107" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P107" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q107" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -7537,11 +8194,17 @@
       <c r="N108" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O108" s="6">
+      <c r="O108" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P108" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q108" s="6">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>233</v>
       </c>
@@ -7584,11 +8247,17 @@
       <c r="N109" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O109" s="6">
+      <c r="O109" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P109" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q109" s="6">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -7631,11 +8300,17 @@
       <c r="N110" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O110" s="6">
+      <c r="O110" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P110" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q110" s="6">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>233</v>
       </c>
@@ -7678,11 +8353,17 @@
       <c r="N111" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O111" s="6">
+      <c r="O111" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P111" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q111" s="6">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>233</v>
       </c>
@@ -7725,11 +8406,17 @@
       <c r="N112" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O112" s="6">
+      <c r="O112" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P112" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q112" s="6">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -7772,11 +8459,17 @@
       <c r="N113" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O113" s="6">
+      <c r="O113" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P113" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q113" s="6">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -7819,11 +8512,17 @@
       <c r="N114" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O114" s="6">
+      <c r="O114" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P114" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q114" s="6">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -7866,11 +8565,17 @@
       <c r="N115" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O115" s="6">
+      <c r="O115" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P115" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q115" s="6">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -7916,11 +8621,17 @@
       <c r="N116" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O116" s="6">
+      <c r="O116" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P116" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q116" s="6">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -7966,11 +8677,17 @@
       <c r="N117" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O117" s="6">
+      <c r="O117" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P117" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q117" s="6">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -8013,11 +8730,17 @@
       <c r="N118" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O118" s="6">
+      <c r="O118" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P118" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q118" s="6">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -8060,11 +8783,17 @@
       <c r="N119" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O119" s="6">
+      <c r="O119" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P119" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q119" s="6">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>233</v>
       </c>
@@ -8107,11 +8836,17 @@
       <c r="N120" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O120" s="6">
+      <c r="O120" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P120" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q120" s="6">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>296</v>
       </c>
@@ -8156,11 +8891,17 @@
       <c r="N121" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O121" s="6">
+      <c r="O121" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="P121" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q121" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -8205,11 +8946,17 @@
       <c r="N122" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O122" s="6">
+      <c r="O122" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="P122" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q122" s="6">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>296</v>
       </c>
@@ -8254,11 +9001,17 @@
       <c r="N123" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O123" s="6">
+      <c r="O123" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="P123" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q123" s="6">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -8303,11 +9056,14 @@
       <c r="N124" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O124" s="6">
+      <c r="O124" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q124" s="6">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -8352,11 +9108,14 @@
       <c r="N125" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O125" s="6">
+      <c r="O125" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q125" s="6">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -8401,11 +9160,14 @@
       <c r="N126" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O126" s="6">
+      <c r="O126" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q126" s="6">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -8450,11 +9212,14 @@
       <c r="N127" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O127" s="6">
+      <c r="O127" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q127" s="6">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -8499,11 +9264,14 @@
       <c r="N128" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O128" s="6">
+      <c r="O128" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q128" s="6">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -8548,11 +9316,14 @@
       <c r="N129" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O129" s="6">
+      <c r="O129" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q129" s="6">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -8597,11 +9368,14 @@
       <c r="N130" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O130" s="6">
+      <c r="O130" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q130" s="6">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -8646,11 +9420,14 @@
       <c r="N131" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O131" s="6">
+      <c r="O131" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q131" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -8695,11 +9472,14 @@
       <c r="N132" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O132" s="6">
+      <c r="O132" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q132" s="6">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -8744,11 +9524,14 @@
       <c r="N133" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O133" s="6">
+      <c r="O133" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q133" s="6">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -8793,11 +9576,14 @@
       <c r="N134" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O134" s="6">
+      <c r="O134" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q134" s="6">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -8842,11 +9628,14 @@
       <c r="N135" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O135" s="6">
+      <c r="O135" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q135" s="6">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -8891,11 +9680,14 @@
       <c r="N136" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O136" s="6">
+      <c r="O136" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q136" s="6">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -8940,11 +9732,14 @@
       <c r="N137" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O137" s="6">
+      <c r="O137" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q137" s="6">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -8989,11 +9784,14 @@
       <c r="N138" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O138" s="6">
+      <c r="O138" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q138" s="6">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -9039,11 +9837,14 @@
       <c r="N139" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O139" s="6">
+      <c r="O139" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q139" s="6">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -9088,11 +9889,14 @@
       <c r="N140" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O140" s="6">
+      <c r="O140" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q140" s="6">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -9137,11 +9941,14 @@
       <c r="N141" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O141" s="6">
+      <c r="O141" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q141" s="6">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -9186,11 +9993,15 @@
       <c r="N142" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O142" s="6">
+      <c r="O142" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="6">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -9235,11 +10046,15 @@
       <c r="N143" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O143" s="6">
+      <c r="O143" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="6">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -9284,11 +10099,15 @@
       <c r="N144" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O144" s="6">
+      <c r="O144" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="6">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -9333,11 +10152,15 @@
       <c r="N145" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O145" s="6">
+      <c r="O145" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="6">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -9382,11 +10205,15 @@
       <c r="N146" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O146" s="6">
+      <c r="O146" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="6">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -9431,11 +10258,14 @@
       <c r="N147" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O147" s="6">
+      <c r="O147" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q147" s="6">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -9480,11 +10310,14 @@
       <c r="N148" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O148" s="6">
+      <c r="O148" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q148" s="6">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -9529,11 +10362,14 @@
       <c r="N149" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O149" s="6">
+      <c r="O149" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q149" s="6">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -9578,11 +10414,14 @@
       <c r="N150" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O150" s="6">
+      <c r="O150" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q150" s="6">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -9627,11 +10466,14 @@
       <c r="N151" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="O151" s="6">
+      <c r="O151" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q151" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -9676,11 +10518,14 @@
       <c r="N152" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O152" s="6">
+      <c r="O152" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q152" s="6">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -9725,11 +10570,14 @@
       <c r="N153" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O153" s="6">
+      <c r="O153" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q153" s="6">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -9774,11 +10622,14 @@
       <c r="N154" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O154" s="6">
+      <c r="O154" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q154" s="6">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -9823,11 +10674,14 @@
       <c r="N155" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O155" s="6">
+      <c r="O155" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q155" s="6">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -9870,11 +10724,14 @@
       <c r="N156" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O156" s="6">
+      <c r="O156" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q156" s="6">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -9917,11 +10774,14 @@
       <c r="N157" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O157" s="6">
+      <c r="O157" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q157" s="6">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -9964,11 +10824,14 @@
       <c r="N158" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O158" s="6">
+      <c r="O158" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q158" s="6">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -10011,11 +10874,14 @@
       <c r="N159" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O159" s="6">
+      <c r="O159" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q159" s="6">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -10058,11 +10924,14 @@
       <c r="N160" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O160" s="6">
+      <c r="O160" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q160" s="6">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>371</v>
       </c>
@@ -10105,11 +10974,14 @@
       <c r="N161" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O161" s="6">
+      <c r="O161" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q161" s="6">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>371</v>
       </c>
@@ -10152,11 +11024,14 @@
       <c r="N162" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O162" s="6">
+      <c r="O162" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q162" s="6">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>371</v>
       </c>
@@ -10199,11 +11074,14 @@
       <c r="N163" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O163" s="6">
+      <c r="O163" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q163" s="6">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -10246,11 +11124,14 @@
       <c r="N164" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O164" s="6">
+      <c r="O164" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q164" s="6">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>438</v>
       </c>
@@ -10293,11 +11174,14 @@
       <c r="N165" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O165" s="6">
+      <c r="O165" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q165" s="6">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>438</v>
       </c>
@@ -10340,11 +11224,14 @@
       <c r="N166" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O166" s="6">
+      <c r="O166" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q166" s="6">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>100</v>
       </c>
@@ -10389,11 +11276,11 @@
       <c r="N167" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O167" s="6">
+      <c r="Q167" s="6">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>100</v>
       </c>
@@ -10436,11 +11323,13 @@
       <c r="N168" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O168" s="6">
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>100</v>
       </c>
@@ -10486,11 +11375,11 @@
       <c r="N169" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O169" s="6">
+      <c r="Q169" s="6">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>100</v>
       </c>
@@ -10533,11 +11422,11 @@
       <c r="N170" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O170" s="6">
+      <c r="Q170" s="6">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>100</v>
       </c>
@@ -10582,11 +11471,11 @@
       <c r="N171" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O171" s="6">
+      <c r="Q171" s="6">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>100</v>
       </c>
@@ -10629,11 +11518,11 @@
       <c r="N172" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O172" s="6">
+      <c r="Q172" s="6">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>100</v>
       </c>
@@ -10678,11 +11567,11 @@
       <c r="N173" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O173" s="6">
+      <c r="Q173" s="6">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>100</v>
       </c>
@@ -10725,11 +11614,11 @@
       <c r="N174" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O174" s="6">
+      <c r="Q174" s="6">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>100</v>
       </c>
@@ -10774,11 +11663,11 @@
       <c r="N175" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O175" s="6">
+      <c r="Q175" s="6">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>100</v>
       </c>
@@ -10821,11 +11710,11 @@
       <c r="N176" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O176" s="6">
+      <c r="Q176" s="6">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>100</v>
       </c>
@@ -10868,11 +11757,11 @@
       <c r="N177" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O177" s="6">
+      <c r="Q177" s="6">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>100</v>
       </c>
@@ -10915,11 +11804,11 @@
       <c r="N178" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O178" s="6">
+      <c r="Q178" s="6">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>219</v>
       </c>
@@ -10964,11 +11853,17 @@
       <c r="N179" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O179" s="6">
+      <c r="O179" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P179" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q179" s="6">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -11013,11 +11908,17 @@
       <c r="N180" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O180" s="6">
+      <c r="O180" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P180" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q180" s="6">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>219</v>
       </c>
@@ -11062,11 +11963,17 @@
       <c r="N181" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="O181" s="6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O181" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P181" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q181" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>101</v>
       </c>
@@ -11111,11 +12018,14 @@
       <c r="N182" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O182" s="6">
+      <c r="O182" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q182" s="6">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>101</v>
       </c>
@@ -11160,11 +12070,14 @@
       <c r="N183" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O183" s="6">
+      <c r="O183" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q183" s="6">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>101</v>
       </c>
@@ -11209,11 +12122,14 @@
       <c r="N184" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O184" s="6">
+      <c r="O184" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q184" s="6">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>101</v>
       </c>
@@ -11258,11 +12174,14 @@
       <c r="N185" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O185" s="6">
+      <c r="O185" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q185" s="6">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>101</v>
       </c>
@@ -11307,11 +12226,14 @@
       <c r="N186" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O186" s="6">
+      <c r="O186" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q186" s="6">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>101</v>
       </c>
@@ -11356,11 +12278,14 @@
       <c r="N187" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O187" s="6">
+      <c r="O187" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q187" s="6">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>101</v>
       </c>
@@ -11405,11 +12330,14 @@
       <c r="N188" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O188" s="6">
+      <c r="O188" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q188" s="6">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -11454,11 +12382,14 @@
       <c r="N189" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O189" s="6">
+      <c r="O189" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q189" s="6">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>101</v>
       </c>
@@ -11503,11 +12434,14 @@
       <c r="N190" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O190" s="6">
+      <c r="O190" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q190" s="6">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>101</v>
       </c>
@@ -11552,11 +12486,14 @@
       <c r="N191" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O191" s="6">
+      <c r="O191" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q191" s="6">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>101</v>
       </c>
@@ -11601,11 +12538,14 @@
       <c r="N192" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O192" s="6">
+      <c r="O192" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q192" s="6">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>101</v>
       </c>
@@ -11648,11 +12588,14 @@
       <c r="N193" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O193" s="6">
+      <c r="O193" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q193" s="6">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>101</v>
       </c>
@@ -11695,11 +12638,14 @@
       <c r="N194" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O194" s="6">
+      <c r="O194" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q194" s="6">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -11739,11 +12685,14 @@
       <c r="N195" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O195" s="6">
+      <c r="O195" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q195" s="6">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>101</v>
       </c>
@@ -11786,11 +12735,14 @@
       <c r="N196" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O196" s="6">
+      <c r="O196" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q196" s="6">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -11833,11 +12785,14 @@
       <c r="N197" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O197" s="6">
+      <c r="O197" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q197" s="6">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -11880,11 +12835,14 @@
       <c r="N198" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O198" s="6">
+      <c r="O198" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q198" s="6">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>167</v>
       </c>
@@ -11929,11 +12887,14 @@
       <c r="N199" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O199" s="6">
+      <c r="O199" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q199" s="6">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -11978,11 +12939,14 @@
       <c r="N200" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O200" s="6">
+      <c r="O200" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q200" s="6">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -12027,11 +12991,14 @@
       <c r="N201" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O201" s="6">
+      <c r="O201" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q201" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>167</v>
       </c>
@@ -12076,11 +13043,14 @@
       <c r="N202" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O202" s="6">
+      <c r="O202" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q202" s="6">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>167</v>
       </c>
@@ -12125,11 +13095,14 @@
       <c r="N203" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O203" s="6">
+      <c r="O203" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q203" s="6">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>167</v>
       </c>
@@ -12174,11 +13147,14 @@
       <c r="N204" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O204" s="6">
+      <c r="O204" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q204" s="6">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>167</v>
       </c>
@@ -12224,11 +13200,14 @@
       <c r="N205" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O205" s="6">
+      <c r="O205" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q205" s="6">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>167</v>
       </c>
@@ -12273,11 +13252,14 @@
       <c r="N206" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O206" s="6">
+      <c r="O206" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q206" s="6">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>167</v>
       </c>
@@ -12322,11 +13304,14 @@
       <c r="N207" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="O207" s="6">
+      <c r="O207" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q207" s="6">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>167</v>
       </c>
@@ -12371,11 +13356,14 @@
       <c r="N208" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O208" s="6">
+      <c r="O208" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q208" s="6">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>167</v>
       </c>
@@ -12420,11 +13408,14 @@
       <c r="N209" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O209" s="6">
+      <c r="O209" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q209" s="6">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>167</v>
       </c>
@@ -12469,11 +13460,14 @@
       <c r="N210" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O210" s="6">
+      <c r="O210" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q210" s="6">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>167</v>
       </c>
@@ -12518,11 +13512,14 @@
       <c r="N211" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O211" s="6">
+      <c r="O211" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q211" s="6">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>167</v>
       </c>
@@ -12567,11 +13564,14 @@
       <c r="N212" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O212" s="6">
+      <c r="O212" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q212" s="6">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>167</v>
       </c>
@@ -12616,11 +13616,14 @@
       <c r="N213" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O213" s="6">
+      <c r="O213" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q213" s="6">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>167</v>
       </c>
@@ -12663,11 +13666,14 @@
       <c r="N214" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O214" s="6">
+      <c r="O214" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q214" s="6">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>183</v>
       </c>
@@ -12712,11 +13718,14 @@
       <c r="N215" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O215" s="6">
+      <c r="O215" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q215" s="6">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -12761,11 +13770,14 @@
       <c r="N216" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O216" s="6">
+      <c r="O216" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q216" s="6">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>183</v>
       </c>
@@ -12810,11 +13822,14 @@
       <c r="N217" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O217" s="6">
+      <c r="O217" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q217" s="6">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>183</v>
       </c>
@@ -12859,11 +13874,14 @@
       <c r="N218" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O218" s="6">
+      <c r="O218" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q218" s="6">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>183</v>
       </c>
@@ -12908,11 +13926,14 @@
       <c r="N219" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O219" s="6">
+      <c r="O219" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q219" s="6">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>183</v>
       </c>
@@ -12957,11 +13978,14 @@
       <c r="N220" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O220" s="6">
+      <c r="O220" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q220" s="6">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -13006,11 +14030,14 @@
       <c r="N221" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="O221" s="6">
+      <c r="O221" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q221" s="6">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>183</v>
       </c>
@@ -13055,11 +14082,14 @@
       <c r="N222" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O222" s="6">
+      <c r="O222" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q222" s="6">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>183</v>
       </c>
@@ -13104,11 +14134,14 @@
       <c r="N223" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O223" s="6">
+      <c r="O223" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q223" s="6">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>183</v>
       </c>
@@ -13151,11 +14184,14 @@
       <c r="N224" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O224" s="6">
+      <c r="O224" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q224" s="6">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>183</v>
       </c>
@@ -13198,11 +14234,14 @@
       <c r="N225" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O225" s="6">
+      <c r="O225" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q225" s="6">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>183</v>
       </c>
@@ -13245,11 +14284,14 @@
       <c r="N226" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O226" s="6">
+      <c r="O226" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q226" s="6">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -13294,11 +14336,14 @@
       <c r="N227" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O227" s="6">
+      <c r="O227" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q227" s="6">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>192</v>
       </c>
@@ -13343,11 +14388,14 @@
       <c r="N228" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O228" s="6">
+      <c r="O228" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q228" s="6">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>192</v>
       </c>
@@ -13392,11 +14440,14 @@
       <c r="N229" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O229" s="6">
+      <c r="O229" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q229" s="6">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>192</v>
       </c>
@@ -13441,11 +14492,14 @@
       <c r="N230" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O230" s="6">
+      <c r="O230" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q230" s="6">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>192</v>
       </c>
@@ -13490,11 +14544,14 @@
       <c r="N231" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O231" s="6">
+      <c r="O231" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q231" s="6">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>192</v>
       </c>
@@ -13537,11 +14594,14 @@
       <c r="N232" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O232" s="6">
+      <c r="O232" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q232" s="6">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -13584,11 +14644,17 @@
       <c r="N233" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O233" s="6">
+      <c r="O233" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="P233" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q233" s="6">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>264</v>
       </c>
@@ -13631,11 +14697,17 @@
       <c r="N234" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O234" s="6">
+      <c r="O234" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="P234" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q234" s="6">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>264</v>
       </c>
@@ -13678,11 +14750,17 @@
       <c r="N235" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O235" s="6">
+      <c r="O235" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="P235" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q235" s="6">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>264</v>
       </c>
@@ -13725,11 +14803,17 @@
       <c r="N236" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O236" s="6">
+      <c r="O236" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="P236" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q236" s="6">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>221</v>
       </c>
@@ -13774,11 +14858,11 @@
       <c r="N237" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O237" s="6">
+      <c r="Q237" s="6">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>221</v>
       </c>
@@ -13821,11 +14905,11 @@
       <c r="N238" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O238" s="6">
+      <c r="Q238" s="6">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>221</v>
       </c>
@@ -13868,11 +14952,11 @@
       <c r="N239" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O239" s="6">
+      <c r="Q239" s="6">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>221</v>
       </c>
@@ -13917,11 +15001,11 @@
       <c r="N240" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O240" s="6">
+      <c r="Q240" s="6">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>221</v>
       </c>
@@ -13964,11 +15048,11 @@
       <c r="N241" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O241" s="6">
+      <c r="Q241" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>221</v>
       </c>
@@ -14011,11 +15095,11 @@
       <c r="N242" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O242" s="6">
+      <c r="Q242" s="6">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>221</v>
       </c>
@@ -14058,11 +15142,11 @@
       <c r="N243" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O243" s="6">
+      <c r="Q243" s="6">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>221</v>
       </c>
@@ -14107,11 +15191,11 @@
       <c r="N244" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O244" s="6">
+      <c r="Q244" s="6">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>221</v>
       </c>
@@ -14154,11 +15238,11 @@
       <c r="N245" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O245" s="6">
+      <c r="Q245" s="6">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>221</v>
       </c>
@@ -14201,11 +15285,11 @@
       <c r="N246" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O246" s="6">
+      <c r="Q246" s="6">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>221</v>
       </c>
@@ -14248,11 +15332,11 @@
       <c r="N247" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O247" s="6">
+      <c r="Q247" s="6">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>221</v>
       </c>
@@ -14295,11 +15379,11 @@
       <c r="N248" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O248" s="6">
+      <c r="Q248" s="6">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>221</v>
       </c>
@@ -14342,11 +15426,11 @@
       <c r="N249" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O249" s="6">
+      <c r="Q249" s="6">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>221</v>
       </c>
@@ -14391,11 +15475,11 @@
       <c r="N250" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O250" s="6">
+      <c r="Q250" s="6">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>221</v>
       </c>
@@ -14438,11 +15522,11 @@
       <c r="N251" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O251" s="6">
+      <c r="Q251" s="6">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>221</v>
       </c>
@@ -14485,11 +15569,11 @@
       <c r="N252" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O252" s="6">
+      <c r="Q252" s="6">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>221</v>
       </c>
@@ -14532,11 +15616,11 @@
       <c r="N253" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O253" s="6">
+      <c r="Q253" s="6">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>133</v>
       </c>
@@ -14581,11 +15665,17 @@
       <c r="N254" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O254" s="6">
+      <c r="O254" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P254" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q254" s="6">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>133</v>
       </c>
@@ -14628,11 +15718,17 @@
       <c r="N255" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O255" s="6">
+      <c r="O255" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P255" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q255" s="6">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>133</v>
       </c>
@@ -14675,11 +15771,17 @@
       <c r="N256" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O256" s="6">
+      <c r="O256" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P256" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q256" s="6">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>133</v>
       </c>
@@ -14724,11 +15826,17 @@
       <c r="N257" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O257" s="6">
+      <c r="O257" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P257" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q257" s="6">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>133</v>
       </c>
@@ -14771,11 +15879,17 @@
       <c r="N258" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O258" s="6">
+      <c r="O258" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P258" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q258" s="6">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>133</v>
       </c>
@@ -14818,11 +15932,17 @@
       <c r="N259" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O259" s="6">
+      <c r="O259" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P259" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q259" s="6">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>133</v>
       </c>
@@ -14867,11 +15987,17 @@
       <c r="N260" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O260" s="6">
+      <c r="O260" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P260" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q260" s="6">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>133</v>
       </c>
@@ -14916,11 +16042,17 @@
       <c r="N261" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O261" s="6">
+      <c r="O261" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P261" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q261" s="6">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>133</v>
       </c>
@@ -14965,11 +16097,17 @@
       <c r="N262" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O262" s="6">
+      <c r="O262" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P262" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q262" s="6">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>133</v>
       </c>
@@ -15012,11 +16150,17 @@
       <c r="N263" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O263" s="6">
+      <c r="O263" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P263" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q263" s="6">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -15059,11 +16203,17 @@
       <c r="N264" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O264" s="6">
+      <c r="O264" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P264" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q264" s="6">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>133</v>
       </c>
@@ -15106,11 +16256,17 @@
       <c r="N265" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O265" s="6">
+      <c r="O265" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P265" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q265" s="6">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>133</v>
       </c>
@@ -15155,11 +16311,17 @@
       <c r="N266" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O266" s="6">
+      <c r="O266" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P266" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q266" s="6">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>133</v>
       </c>
@@ -15204,11 +16366,17 @@
       <c r="N267" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O267" s="6">
+      <c r="O267" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P267" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q267" s="6">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>133</v>
       </c>
@@ -15253,11 +16421,17 @@
       <c r="N268" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O268" s="6">
+      <c r="O268" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P268" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q268" s="6">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>133</v>
       </c>
@@ -15300,11 +16474,17 @@
       <c r="N269" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O269" s="6">
+      <c r="O269" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P269" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q269" s="6">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>133</v>
       </c>
@@ -15347,11 +16527,17 @@
       <c r="N270" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O270" s="6">
+      <c r="O270" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P270" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q270" s="6">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>133</v>
       </c>
@@ -15396,11 +16582,17 @@
       <c r="N271" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O271" s="6">
+      <c r="O271" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P271" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q271" s="6">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>133</v>
       </c>
@@ -15445,11 +16637,17 @@
       <c r="N272" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O272" s="6">
+      <c r="O272" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P272" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q272" s="6">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>133</v>
       </c>
@@ -15492,11 +16690,17 @@
       <c r="N273" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O273" s="6">
+      <c r="O273" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P273" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q273" s="6">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>133</v>
       </c>
@@ -15539,11 +16743,17 @@
       <c r="N274" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O274" s="6">
+      <c r="O274" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P274" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q274" s="6">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>133</v>
       </c>
@@ -15588,11 +16798,17 @@
       <c r="N275" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O275" s="6">
+      <c r="O275" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P275" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q275" s="6">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>133</v>
       </c>
@@ -15637,11 +16853,17 @@
       <c r="N276" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O276" s="6">
+      <c r="O276" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P276" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q276" s="6">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>133</v>
       </c>
@@ -15686,11 +16908,17 @@
       <c r="N277" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O277" s="6">
+      <c r="O277" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P277" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q277" s="6">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>133</v>
       </c>
@@ -15735,11 +16963,17 @@
       <c r="N278" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O278" s="6">
+      <c r="O278" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P278" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q278" s="6">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>133</v>
       </c>
@@ -15782,11 +17016,17 @@
       <c r="N279" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O279" s="6">
+      <c r="O279" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P279" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q279" s="6">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>133</v>
       </c>
@@ -15829,11 +17069,17 @@
       <c r="N280" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O280" s="6">
+      <c r="O280" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P280" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q280" s="6">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>133</v>
       </c>
@@ -15876,11 +17122,17 @@
       <c r="N281" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O281" s="6">
+      <c r="O281" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P281" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q281" s="6">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>133</v>
       </c>
@@ -15923,11 +17175,17 @@
       <c r="N282" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O282" s="6">
+      <c r="O282" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P282" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q282" s="6">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>133</v>
       </c>
@@ -15970,11 +17228,17 @@
       <c r="N283" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="O283" s="6">
+      <c r="O283" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P283" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q283" s="6">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>133</v>
       </c>
@@ -16019,11 +17283,17 @@
       <c r="N284" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O284" s="6">
+      <c r="O284" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P284" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q284" s="6">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -16068,11 +17338,17 @@
       <c r="N285" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O285" s="6">
+      <c r="O285" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P285" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q285" s="6">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>133</v>
       </c>
@@ -16117,11 +17393,17 @@
       <c r="N286" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O286" s="6">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O286" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P286" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q286" s="6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>133</v>
       </c>
@@ -16166,11 +17448,17 @@
       <c r="N287" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O287" s="6">
+      <c r="O287" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P287" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q287" s="6">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>133</v>
       </c>
@@ -16215,11 +17503,17 @@
       <c r="N288" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O288" s="6">
+      <c r="O288" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P288" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q288" s="6">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>133</v>
       </c>
@@ -16262,11 +17556,17 @@
       <c r="N289" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O289" s="6">
+      <c r="O289" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P289" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q289" s="6">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>133</v>
       </c>
@@ -16309,11 +17609,17 @@
       <c r="N290" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O290" s="6">
+      <c r="O290" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P290" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q290" s="6">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>133</v>
       </c>
@@ -16356,11 +17662,17 @@
       <c r="N291" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O291" s="6">
+      <c r="O291" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P291" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q291" s="6">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>133</v>
       </c>
@@ -16403,11 +17715,17 @@
       <c r="N292" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O292" s="6">
+      <c r="O292" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P292" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q292" s="6">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>133</v>
       </c>
@@ -16450,11 +17768,17 @@
       <c r="N293" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O293" s="6">
+      <c r="O293" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P293" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q293" s="6">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>133</v>
       </c>
@@ -16499,11 +17823,17 @@
       <c r="N294" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O294" s="6">
+      <c r="O294" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P294" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q294" s="6">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>133</v>
       </c>
@@ -16548,11 +17878,17 @@
       <c r="N295" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O295" s="6">
+      <c r="O295" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P295" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q295" s="6">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>133</v>
       </c>
@@ -16597,11 +17933,17 @@
       <c r="N296" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O296" s="6">
+      <c r="O296" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P296" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q296" s="6">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>133</v>
       </c>
@@ -16646,11 +17988,17 @@
       <c r="N297" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O297" s="6">
+      <c r="O297" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P297" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q297" s="6">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>133</v>
       </c>
@@ -16695,11 +18043,17 @@
       <c r="N298" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O298" s="6">
+      <c r="O298" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P298" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q298" s="6">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>133</v>
       </c>
@@ -16742,11 +18096,17 @@
       <c r="N299" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O299" s="6">
+      <c r="O299" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P299" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q299" s="6">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>133</v>
       </c>
@@ -16789,11 +18149,17 @@
       <c r="N300" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O300" s="6">
+      <c r="O300" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P300" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q300" s="6">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>133</v>
       </c>
@@ -16836,11 +18202,17 @@
       <c r="N301" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O301" s="6">
+      <c r="O301" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P301" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q301" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>133</v>
       </c>
@@ -16885,11 +18257,17 @@
       <c r="N302" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O302" s="6">
+      <c r="O302" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P302" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q302" s="6">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>133</v>
       </c>
@@ -16934,11 +18312,17 @@
       <c r="N303" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O303" s="6">
+      <c r="O303" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P303" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q303" s="6">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>133</v>
       </c>
@@ -16981,11 +18365,17 @@
       <c r="N304" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O304" s="6">
+      <c r="O304" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P304" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q304" s="6">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -17030,11 +18420,17 @@
       <c r="N305" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O305" s="6">
+      <c r="O305" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P305" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q305" s="6">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>133</v>
       </c>
@@ -17077,11 +18473,17 @@
       <c r="N306" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O306" s="6">
+      <c r="O306" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P306" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q306" s="6">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>133</v>
       </c>
@@ -17124,11 +18526,17 @@
       <c r="N307" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O307" s="6">
+      <c r="O307" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P307" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q307" s="6">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -17171,11 +18579,17 @@
       <c r="N308" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O308" s="6">
+      <c r="O308" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P308" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q308" s="6">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>133</v>
       </c>
@@ -17218,11 +18632,17 @@
       <c r="N309" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O309" s="6">
+      <c r="O309" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P309" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q309" s="6">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>133</v>
       </c>
@@ -17265,11 +18685,17 @@
       <c r="N310" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O310" s="6">
+      <c r="O310" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P310" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q310" s="6">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>133</v>
       </c>
@@ -17312,11 +18738,17 @@
       <c r="N311" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O311" s="6">
+      <c r="O311" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P311" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q311" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>133</v>
       </c>
@@ -17359,11 +18791,17 @@
       <c r="N312" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O312" s="6">
+      <c r="O312" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P312" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q312" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>133</v>
       </c>
@@ -17406,11 +18844,17 @@
       <c r="N313" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="O313" s="6">
+      <c r="O313" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P313" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q313" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>133</v>
       </c>
@@ -17453,11 +18897,17 @@
       <c r="N314" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O314" s="6">
+      <c r="O314" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P314" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q314" s="6">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>378</v>
       </c>
@@ -17500,11 +18950,17 @@
       <c r="N315" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O315" s="6">
+      <c r="O315" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P315" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q315" s="6">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>378</v>
       </c>
@@ -17547,11 +19003,17 @@
       <c r="N316" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="O316" s="6">
+      <c r="O316" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P316" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q316" s="6">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>101</v>
       </c>
@@ -17592,11 +19054,14 @@
       <c r="N317" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="O317" s="6">
+      <c r="O317" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q317" s="6">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>101</v>
       </c>
@@ -17637,11 +19102,14 @@
       <c r="N318" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O318" s="6">
+      <c r="O318" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q318" s="6">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>101</v>
       </c>
@@ -17680,11 +19148,14 @@
       <c r="N319" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="O319" s="6">
+      <c r="O319" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q319" s="6">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>101</v>
       </c>
@@ -17725,11 +19196,14 @@
       <c r="N320" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O320" s="6">
+      <c r="O320" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q320" s="6">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -17772,11 +19246,17 @@
       <c r="N321" t="s">
         <v>588</v>
       </c>
-      <c r="O321" s="6">
+      <c r="O321" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P321" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q321" s="6">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>219</v>
       </c>
@@ -17815,11 +19295,17 @@
         <v>285</v>
       </c>
       <c r="N322" s="10"/>
-      <c r="O322" s="6">
+      <c r="O322" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P322" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q322" s="6">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>219</v>
       </c>
@@ -17858,11 +19344,17 @@
         <v>285</v>
       </c>
       <c r="N323" s="10"/>
-      <c r="O323" s="6">
+      <c r="O323" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P323" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q323" s="6">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>219</v>
       </c>
@@ -17901,11 +19393,17 @@
         <v>285</v>
       </c>
       <c r="N324" s="10"/>
-      <c r="O324" s="6">
+      <c r="O324" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P324" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q324" s="6">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>101</v>
       </c>
@@ -17944,11 +19442,15 @@
         <v>285</v>
       </c>
       <c r="N325" s="10"/>
-      <c r="O325" s="7">
+      <c r="O325" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P325" s="10"/>
+      <c r="Q325" s="7">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>192</v>
       </c>
@@ -17987,11 +19489,15 @@
         <v>285</v>
       </c>
       <c r="N326" s="10"/>
-      <c r="O326" s="7">
+      <c r="O326" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P326" s="10"/>
+      <c r="Q326" s="7">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -18030,11 +19536,17 @@
       <c r="N327" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="O327" s="7">
+      <c r="O327" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P327" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q327" s="7">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -18077,11 +19589,17 @@
       <c r="N328" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="O328" s="7">
+      <c r="O328" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P328" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q328" s="7">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -18124,11 +19642,17 @@
       <c r="N329" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="O329" s="7">
+      <c r="O329" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P329" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q329" s="7">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -18171,11 +19695,17 @@
       <c r="N330" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="O330" s="7">
+      <c r="O330" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P330" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q330" s="7">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -18215,12 +19745,20 @@
       <c r="M331" t="s">
         <v>447</v>
       </c>
-      <c r="N331" s="10"/>
-      <c r="O331" s="7">
+      <c r="N331" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="O331" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P331" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q331" s="7">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>219</v>
       </c>
@@ -18259,11 +19797,17 @@
         <v>285</v>
       </c>
       <c r="N332" s="10"/>
-      <c r="O332" s="7">
+      <c r="O332" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P332" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q332" s="7">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>219</v>
       </c>
@@ -18302,11 +19846,17 @@
         <v>285</v>
       </c>
       <c r="N333" s="10"/>
-      <c r="O333" s="7">
+      <c r="O333" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P333" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q333" s="7">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>219</v>
       </c>
@@ -18345,11 +19895,17 @@
         <v>285</v>
       </c>
       <c r="N334" s="10"/>
-      <c r="O334" s="7">
+      <c r="O334" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P334" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q334" s="7">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>219</v>
       </c>
@@ -18388,11 +19944,17 @@
         <v>285</v>
       </c>
       <c r="N335" s="10"/>
-      <c r="O335" s="7">
+      <c r="O335" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P335" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q335" s="7">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>219</v>
       </c>
@@ -18431,11 +19993,17 @@
         <v>285</v>
       </c>
       <c r="N336" s="10"/>
-      <c r="O336" s="7">
+      <c r="O336" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P336" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q336" s="7">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>219</v>
       </c>
@@ -18474,11 +20042,17 @@
         <v>285</v>
       </c>
       <c r="N337" s="10"/>
-      <c r="O337" s="7">
+      <c r="O337" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P337" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q337" s="7">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>505</v>
       </c>
@@ -18516,14 +20090,20 @@
         <v>1</v>
       </c>
       <c r="M338" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N338" s="10"/>
-      <c r="O338" s="7">
+      <c r="O338" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P338" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q338" s="7">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>505</v>
       </c>
@@ -18559,14 +20139,20 @@
         <v>1</v>
       </c>
       <c r="M339" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N339" s="10"/>
-      <c r="O339" s="7">
+      <c r="O339" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P339" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q339" s="7">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>505</v>
       </c>
@@ -18602,14 +20188,20 @@
         <v>1</v>
       </c>
       <c r="M340" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N340" s="10"/>
-      <c r="O340" s="7">
+      <c r="O340" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P340" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q340" s="7">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>505</v>
       </c>
@@ -18648,11 +20240,17 @@
         <v>285</v>
       </c>
       <c r="N341" s="10"/>
-      <c r="O341" s="7">
+      <c r="O341" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P341" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q341" s="7">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>505</v>
       </c>
@@ -18688,14 +20286,20 @@
         <v>1</v>
       </c>
       <c r="M342" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N342" s="10"/>
-      <c r="O342" s="7">
+      <c r="O342" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P342" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q342" s="7">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>505</v>
       </c>
@@ -18734,11 +20338,17 @@
         <v>285</v>
       </c>
       <c r="N343" s="10"/>
-      <c r="O343" s="7">
+      <c r="O343" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P343" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q343" s="7">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>505</v>
       </c>
@@ -18774,14 +20384,20 @@
         <v>1</v>
       </c>
       <c r="M344" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N344" s="10"/>
-      <c r="O344" s="7">
+      <c r="O344" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P344" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q344" s="7">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>505</v>
       </c>
@@ -18817,14 +20433,20 @@
         <v>1</v>
       </c>
       <c r="M345" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N345" s="10"/>
-      <c r="O345" s="7">
+      <c r="O345" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P345" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q345" s="7">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>505</v>
       </c>
@@ -18860,14 +20482,20 @@
         <v>1</v>
       </c>
       <c r="M346" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N346" s="10"/>
-      <c r="O346" s="7">
+      <c r="O346" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P346" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q346" s="7">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>505</v>
       </c>
@@ -18903,14 +20531,20 @@
         <v>1</v>
       </c>
       <c r="M347" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N347" s="10"/>
-      <c r="O347" s="7">
+      <c r="O347" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P347" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q347" s="7">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>505</v>
       </c>
@@ -18946,14 +20580,20 @@
         <v>1</v>
       </c>
       <c r="M348" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N348" s="10"/>
-      <c r="O348" s="7">
+      <c r="O348" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P348" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q348" s="7">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>505</v>
       </c>
@@ -18989,14 +20629,20 @@
         <v>1</v>
       </c>
       <c r="M349" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N349" s="10"/>
-      <c r="O349" s="7">
+      <c r="O349" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P349" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q349" s="7">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>505</v>
       </c>
@@ -19032,14 +20678,20 @@
         <v>1</v>
       </c>
       <c r="M350" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N350" s="10"/>
-      <c r="O350" s="7">
+      <c r="O350" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P350" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q350" s="7">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>505</v>
       </c>
@@ -19075,14 +20727,20 @@
         <v>1</v>
       </c>
       <c r="M351" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N351" s="10"/>
-      <c r="O351" s="7">
+      <c r="O351" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P351" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q351" s="7">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>505</v>
       </c>
@@ -19118,14 +20776,20 @@
         <v>1</v>
       </c>
       <c r="M352" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N352" s="10"/>
-      <c r="O352" s="7">
+      <c r="O352" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P352" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q352" s="7">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>505</v>
       </c>
@@ -19161,14 +20825,20 @@
         <v>1</v>
       </c>
       <c r="M353" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N353" s="10"/>
-      <c r="O353" s="7">
+      <c r="O353" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P353" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q353" s="7">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>505</v>
       </c>
@@ -19204,14 +20874,20 @@
         <v>1</v>
       </c>
       <c r="M354" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N354" s="10"/>
-      <c r="O354" s="7">
+      <c r="O354" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="P354" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q354" s="7">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>378</v>
       </c>
@@ -19254,11 +20930,17 @@
       <c r="N355" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O355" s="7">
+      <c r="O355" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P355" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q355" s="7">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>378</v>
       </c>
@@ -19301,11 +20983,17 @@
       <c r="N356" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="O356" s="7">
+      <c r="O356" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P356" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q356" s="7">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>378</v>
       </c>
@@ -19348,11 +21036,17 @@
       <c r="N357" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O357" s="7">
+      <c r="O357" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P357" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q357" s="7">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>378</v>
       </c>
@@ -19395,11 +21089,17 @@
       <c r="N358" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O358" s="7">
+      <c r="O358" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P358" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q358" s="7">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>378</v>
       </c>
@@ -19442,11 +21142,17 @@
       <c r="N359" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="O359" s="7">
+      <c r="O359" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P359" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q359" s="7">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -19489,11 +21195,17 @@
       <c r="N360" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="O360" s="7">
+      <c r="O360" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P360" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q360" s="7">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>378</v>
       </c>
@@ -19536,11 +21248,17 @@
       <c r="N361" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O361" s="7">
+      <c r="O361" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P361" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q361" s="7">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -19583,11 +21301,17 @@
       <c r="N362" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="O362" s="7">
+      <c r="O362" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P362" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q362" s="7">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>378</v>
       </c>
@@ -19630,11 +21354,17 @@
       <c r="N363" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="O363" s="7">
+      <c r="O363" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P363" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q363" s="7">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>101</v>
       </c>
@@ -19677,11 +21407,14 @@
       <c r="N364" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="O364" s="7">
+      <c r="O364" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q364" s="7">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>101</v>
       </c>
@@ -19724,11 +21457,14 @@
       <c r="N365" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O365" s="7">
+      <c r="O365" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q365" s="7">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>101</v>
       </c>
@@ -19771,11 +21507,14 @@
       <c r="N366" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O366" s="7">
+      <c r="O366" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q366" s="7">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>101</v>
       </c>
@@ -19818,11 +21557,14 @@
       <c r="N367" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O367" s="7">
+      <c r="O367" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q367" s="7">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>101</v>
       </c>
@@ -19865,11 +21607,14 @@
       <c r="N368" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O368" s="7">
+      <c r="O368" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q368" s="7">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>101</v>
       </c>
@@ -19912,11 +21657,14 @@
       <c r="N369" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O369" s="7">
+      <c r="O369" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q369" s="7">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>101</v>
       </c>
@@ -19959,11 +21707,14 @@
       <c r="N370" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O370" s="7">
+      <c r="O370" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q370" s="7">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>101</v>
       </c>
@@ -20006,11 +21757,14 @@
       <c r="N371" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="O371" s="7">
+      <c r="O371" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q371" s="7">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>192</v>
       </c>
@@ -20053,11 +21807,14 @@
       <c r="N372" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O372" s="7">
+      <c r="O372" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q372" s="7">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>192</v>
       </c>
@@ -20100,11 +21857,14 @@
       <c r="N373" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O373" s="7">
+      <c r="O373" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q373" s="7">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>192</v>
       </c>
@@ -20147,11 +21907,14 @@
       <c r="N374" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O374" s="7">
+      <c r="O374" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q374" s="7">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>192</v>
       </c>
@@ -20194,11 +21957,14 @@
       <c r="N375" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O375" s="7">
+      <c r="O375" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q375" s="7">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>192</v>
       </c>
@@ -20239,11 +22005,14 @@
       <c r="N376" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O376" s="7">
+      <c r="O376" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q376" s="7">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>192</v>
       </c>
@@ -20286,11 +22055,14 @@
       <c r="N377" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="O377" s="7">
+      <c r="O377" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q377" s="7">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>192</v>
       </c>
@@ -20333,11 +22105,14 @@
       <c r="N378" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O378" s="7">
+      <c r="O378" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q378" s="7">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>133</v>
       </c>
@@ -20380,11 +22155,17 @@
       <c r="N379" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="O379" s="7">
+      <c r="O379" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="P379" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q379" s="7">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -20427,11 +22208,17 @@
       <c r="N380" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="O380" s="7">
+      <c r="O380" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P380" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q380" s="7">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>432</v>
       </c>
@@ -20474,11 +22261,11 @@
       <c r="N381" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O381" s="7">
+      <c r="Q381" s="7">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>432</v>
       </c>
@@ -20521,11 +22308,11 @@
       <c r="N382" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="O382" s="7">
+      <c r="Q382" s="7">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>432</v>
       </c>
@@ -20568,11 +22355,11 @@
       <c r="N383" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="O383" s="7">
+      <c r="Q383" s="7">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>432</v>
       </c>
@@ -20615,11 +22402,11 @@
       <c r="N384" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O384" s="7">
+      <c r="Q384" s="7">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
         <v>183</v>
       </c>
@@ -20662,11 +22449,14 @@
       <c r="N385" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="O385" s="7">
+      <c r="O385" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q385" s="7">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
         <v>133</v>
       </c>
@@ -20709,11 +22499,14 @@
       <c r="N386" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O386" s="7">
+      <c r="O386" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q386" s="7">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
         <v>167</v>
       </c>
@@ -20756,11 +22549,14 @@
       <c r="N387" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O387" s="7">
+      <c r="O387" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q387" s="7">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
         <v>167</v>
       </c>
@@ -20803,11 +22599,14 @@
       <c r="N388" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O388" s="7">
+      <c r="O388" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q388" s="7">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
         <v>167</v>
       </c>
@@ -20850,11 +22649,14 @@
       <c r="N389" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="O389" s="7">
+      <c r="O389" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q389" s="7">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
         <v>264</v>
       </c>
@@ -20895,11 +22697,17 @@
       <c r="N390" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O390" s="7">
+      <c r="O390" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="P390" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q390" s="7">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
         <v>264</v>
       </c>
@@ -20942,11 +22750,17 @@
       <c r="N391" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="O391" s="7">
+      <c r="O391" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="P391" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q391" s="7">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
         <v>378</v>
       </c>
@@ -20989,11 +22803,17 @@
       <c r="N392" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O392" s="7">
+      <c r="O392" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P392" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q392" s="7">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
         <v>378</v>
       </c>
@@ -21036,11 +22856,17 @@
       <c r="N393" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O393" s="7">
+      <c r="O393" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P393" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q393" s="7">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
         <v>378</v>
       </c>
@@ -21083,11 +22909,17 @@
       <c r="N394" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="O394" s="7">
+      <c r="O394" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P394" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q394" s="7">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
         <v>378</v>
       </c>
@@ -21122,11 +22954,17 @@
       <c r="N395" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O395" s="7">
+      <c r="O395" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P395" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q395" s="7">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="7" t="s">
         <v>604</v>
       </c>
@@ -21169,11 +23007,11 @@
       <c r="N396" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O396" s="7">
+      <c r="Q396" s="7">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
         <v>604</v>
       </c>
@@ -21216,11 +23054,11 @@
       <c r="N397" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="O397" s="7">
+      <c r="Q397" s="7">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>615</v>
       </c>
@@ -21263,11 +23101,17 @@
       <c r="N398" t="s">
         <v>584</v>
       </c>
-      <c r="O398">
+      <c r="O398" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P398" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>615</v>
       </c>
@@ -21306,11 +23150,17 @@
       <c r="N399" t="s">
         <v>582</v>
       </c>
-      <c r="O399">
+      <c r="O399" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P399" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q399">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>59</v>
       </c>
@@ -21353,11 +23203,14 @@
       <c r="N400" t="s">
         <v>581</v>
       </c>
-      <c r="O400">
+      <c r="O400" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q400">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>59</v>
       </c>
@@ -21400,11 +23253,14 @@
       <c r="N401" t="s">
         <v>613</v>
       </c>
-      <c r="O401">
+      <c r="O401" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q401">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>59</v>
       </c>
@@ -21447,7 +23303,10 @@
       <c r="N402" t="s">
         <v>579</v>
       </c>
-      <c r="O402">
+      <c r="O402" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q402">
         <v>401</v>
       </c>
     </row>
@@ -21462,10 +23321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21825,6 +23684,14 @@
         <v>624</v>
       </c>
     </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>42887</v>
+      </c>
+      <c r="B46" t="s">
+        <v>632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\BATOL\BigAssTableOfLenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\olaff\Olaf-Optical-Testing-Software\Matlab\Support Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="616">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1867,6 +1867,12 @@
   </si>
   <si>
     <t>Removed duplicate CN-E 18-80</t>
+  </si>
+  <si>
+    <t>FE 85mm f/1.8</t>
+  </si>
+  <si>
+    <t>Added Sony FE 85mm f/1.8</t>
   </si>
 </sst>
 </file>
@@ -1960,8 +1966,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O397" totalsRowShown="0">
-  <autoFilter ref="A1:O397"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O398" totalsRowShown="0">
+  <autoFilter ref="A1:O398"/>
   <sortState ref="A2:M314">
     <sortCondition ref="A1:A314"/>
   </sortState>
@@ -2284,10 +2290,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O397"/>
+  <dimension ref="A1:O398"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="D400" sqref="D400"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="K403" sqref="K403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21126,6 +21132,51 @@
         <v>396</v>
       </c>
     </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A398" t="s">
+        <v>167</v>
+      </c>
+      <c r="B398" t="s">
+        <v>614</v>
+      </c>
+      <c r="C398">
+        <v>2017</v>
+      </c>
+      <c r="D398">
+        <v>598</v>
+      </c>
+      <c r="E398">
+        <v>371</v>
+      </c>
+      <c r="F398">
+        <v>82</v>
+      </c>
+      <c r="G398" s="9">
+        <v>78</v>
+      </c>
+      <c r="H398" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I398" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J398" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398">
+        <v>0</v>
+      </c>
+      <c r="M398" t="s">
+        <v>285</v>
+      </c>
+      <c r="N398" s="11"/>
+      <c r="O398">
+        <v>397</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21137,10 +21188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21476,6 +21527,14 @@
         <v>613</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="14">
+        <v>42891</v>
+      </c>
+      <c r="B43" t="s">
+        <v>615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\olaff\Olaf-Optical-Testing-Software\Matlab\Support Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\BATOL\BigAssTableOfLenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="614">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1867,12 +1867,6 @@
   </si>
   <si>
     <t>Removed duplicate CN-E 18-80</t>
-  </si>
-  <si>
-    <t>FE 85mm f/1.8</t>
-  </si>
-  <si>
-    <t>Added Sony FE 85mm f/1.8</t>
   </si>
 </sst>
 </file>
@@ -1966,8 +1960,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O398" totalsRowShown="0">
-  <autoFilter ref="A1:O398"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O397" totalsRowShown="0">
+  <autoFilter ref="A1:O397"/>
   <sortState ref="A2:M314">
     <sortCondition ref="A1:A314"/>
   </sortState>
@@ -2290,10 +2284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O398"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="K403" sqref="K403"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="D400" sqref="D400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21132,51 +21126,6 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A398" t="s">
-        <v>167</v>
-      </c>
-      <c r="B398" t="s">
-        <v>614</v>
-      </c>
-      <c r="C398">
-        <v>2017</v>
-      </c>
-      <c r="D398">
-        <v>598</v>
-      </c>
-      <c r="E398">
-        <v>371</v>
-      </c>
-      <c r="F398">
-        <v>82</v>
-      </c>
-      <c r="G398" s="9">
-        <v>78</v>
-      </c>
-      <c r="H398" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="I398" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J398" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K398">
-        <v>0</v>
-      </c>
-      <c r="L398">
-        <v>0</v>
-      </c>
-      <c r="M398" t="s">
-        <v>285</v>
-      </c>
-      <c r="N398" s="11"/>
-      <c r="O398">
-        <v>397</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21188,10 +21137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21527,14 +21476,6 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="14">
-        <v>42891</v>
-      </c>
-      <c r="B43" t="s">
-        <v>615</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Optics\Olaf\Software\BigAssTableOfLenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\BATOL\BigAssTableOfLenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="635">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1924,6 +1924,12 @@
   </si>
   <si>
     <t>New Designed in and Made In columns (needs substantial additions).  Variety for CN-E 14.5-45mm, Format for Angenieux Lenses</t>
+  </si>
+  <si>
+    <t>FE 85mm f/1.8</t>
+  </si>
+  <si>
+    <t>Added Sony FE 85mm f/1.8</t>
   </si>
 </sst>
 </file>
@@ -2016,8 +2022,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q402" totalsRowShown="0">
-  <autoFilter ref="A1:Q402">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q403" totalsRowShown="0">
+  <autoFilter ref="A1:Q403">
     <filterColumn colId="11">
       <filters>
         <filter val="0"/>
@@ -2348,30 +2354,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q402"/>
+  <dimension ref="A1:Q403"/>
   <sheetViews>
-    <sheetView topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="O396" sqref="O396"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B406" sqref="B406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.1015625" customWidth="1"/>
+    <col min="2" max="2" width="37.89453125" customWidth="1"/>
+    <col min="3" max="3" width="5.41796875" customWidth="1"/>
+    <col min="4" max="4" width="6.41796875" customWidth="1"/>
+    <col min="5" max="5" width="8.20703125" customWidth="1"/>
+    <col min="7" max="7" width="8.68359375" customWidth="1"/>
+    <col min="8" max="8" width="12.41796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1015625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.89453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.20703125" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="12"/>
+    <col min="13" max="13" width="11.68359375" customWidth="1"/>
+    <col min="15" max="16" width="8.89453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2644,7 +2650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2809,7 +2815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3084,7 +3090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3579,7 +3585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3634,7 +3640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3909,7 +3915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -4074,7 +4080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -4129,7 +4135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -4184,7 +4190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -4239,7 +4245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4459,7 +4465,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4514,7 +4520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4624,7 +4630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4787,7 +4793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4842,7 +4848,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4952,7 +4958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5007,7 +5013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5062,7 +5068,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5117,7 +5123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5172,7 +5178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -5227,7 +5233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5282,7 +5288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -5337,7 +5343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5392,7 +5398,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -5447,7 +5453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5502,7 +5508,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5612,7 +5618,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5667,7 +5673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5720,7 +5726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5775,7 +5781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5828,7 +5834,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -5987,7 +5993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>378</v>
       </c>
@@ -6093,7 +6099,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>378</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>378</v>
       </c>
@@ -6199,7 +6205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>378</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>378</v>
       </c>
@@ -6305,7 +6311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>378</v>
       </c>
@@ -6358,7 +6364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>378</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>378</v>
       </c>
@@ -6464,7 +6470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>378</v>
       </c>
@@ -6517,7 +6523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>378</v>
       </c>
@@ -6570,7 +6576,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>378</v>
       </c>
@@ -6623,7 +6629,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>378</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>378</v>
       </c>
@@ -6729,7 +6735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>378</v>
       </c>
@@ -6782,7 +6788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>378</v>
       </c>
@@ -6835,7 +6841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>378</v>
       </c>
@@ -6888,7 +6894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>378</v>
       </c>
@@ -6941,7 +6947,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>378</v>
       </c>
@@ -6994,7 +7000,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>378</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>378</v>
       </c>
@@ -7100,7 +7106,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>378</v>
       </c>
@@ -7150,7 +7156,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>294</v>
       </c>
@@ -7199,7 +7205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>429</v>
       </c>
@@ -7246,7 +7252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>429</v>
       </c>
@@ -7293,7 +7299,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>233</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>233</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>233</v>
       </c>
@@ -7452,7 +7458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>233</v>
       </c>
@@ -7505,7 +7511,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>233</v>
       </c>
@@ -7558,7 +7564,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>233</v>
       </c>
@@ -7611,7 +7617,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>233</v>
       </c>
@@ -7666,7 +7672,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>233</v>
       </c>
@@ -7722,7 +7728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>233</v>
       </c>
@@ -7777,7 +7783,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>233</v>
       </c>
@@ -7830,7 +7836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>233</v>
       </c>
@@ -7883,7 +7889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -7936,7 +7942,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>233</v>
       </c>
@@ -7989,7 +7995,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -8042,7 +8048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -8095,7 +8101,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>233</v>
       </c>
@@ -8151,7 +8157,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -8204,7 +8210,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>233</v>
       </c>
@@ -8257,7 +8263,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -8310,7 +8316,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>233</v>
       </c>
@@ -8363,7 +8369,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>233</v>
       </c>
@@ -8416,7 +8422,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -8469,7 +8475,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -8522,7 +8528,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -8631,7 +8637,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -8687,7 +8693,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -8793,7 +8799,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>233</v>
       </c>
@@ -8846,7 +8852,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>296</v>
       </c>
@@ -8901,7 +8907,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>296</v>
       </c>
@@ -9011,7 +9017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -9063,7 +9069,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -9115,7 +9121,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -9167,7 +9173,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -9219,7 +9225,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -9271,7 +9277,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -9323,7 +9329,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -9375,7 +9381,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -9427,7 +9433,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -9479,7 +9485,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -9531,7 +9537,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -9583,7 +9589,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -9635,7 +9641,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -9687,7 +9693,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -9739,7 +9745,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -9791,7 +9797,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -9844,7 +9850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -9896,7 +9902,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -9948,7 +9954,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -10001,7 +10007,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -10107,7 +10113,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -10160,7 +10166,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -10213,7 +10219,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -10265,7 +10271,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -10317,7 +10323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -10369,7 +10375,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -10421,7 +10427,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -10473,7 +10479,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -10577,7 +10583,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -10629,7 +10635,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -10681,7 +10687,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -10731,7 +10737,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -10781,7 +10787,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -10831,7 +10837,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -10881,7 +10887,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -10931,7 +10937,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>371</v>
       </c>
@@ -10981,7 +10987,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>371</v>
       </c>
@@ -11031,7 +11037,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>371</v>
       </c>
@@ -11081,7 +11087,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -11131,7 +11137,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>438</v>
       </c>
@@ -11181,7 +11187,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>438</v>
       </c>
@@ -11231,7 +11237,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>100</v>
       </c>
@@ -11280,7 +11286,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>100</v>
       </c>
@@ -11329,7 +11335,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>100</v>
       </c>
@@ -11379,7 +11385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>100</v>
       </c>
@@ -11426,7 +11432,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>100</v>
       </c>
@@ -11475,7 +11481,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>100</v>
       </c>
@@ -11522,7 +11528,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>100</v>
       </c>
@@ -11571,7 +11577,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>100</v>
       </c>
@@ -11618,7 +11624,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>100</v>
       </c>
@@ -11667,7 +11673,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>100</v>
       </c>
@@ -11714,7 +11720,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>100</v>
       </c>
@@ -11761,7 +11767,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>100</v>
       </c>
@@ -11808,7 +11814,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>219</v>
       </c>
@@ -11863,7 +11869,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -11918,7 +11924,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>219</v>
       </c>
@@ -11973,7 +11979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>101</v>
       </c>
@@ -12025,7 +12031,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>101</v>
       </c>
@@ -12077,7 +12083,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>101</v>
       </c>
@@ -12129,7 +12135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>101</v>
       </c>
@@ -12181,7 +12187,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>101</v>
       </c>
@@ -12233,7 +12239,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>101</v>
       </c>
@@ -12285,7 +12291,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>101</v>
       </c>
@@ -12337,7 +12343,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -12389,7 +12395,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>101</v>
       </c>
@@ -12441,7 +12447,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>101</v>
       </c>
@@ -12493,7 +12499,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>101</v>
       </c>
@@ -12545,7 +12551,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>101</v>
       </c>
@@ -12595,7 +12601,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>101</v>
       </c>
@@ -12645,7 +12651,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -12692,7 +12698,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>101</v>
       </c>
@@ -12742,7 +12748,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -12792,7 +12798,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -12842,7 +12848,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>167</v>
       </c>
@@ -12894,7 +12900,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -12946,7 +12952,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -12998,7 +13004,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>167</v>
       </c>
@@ -13050,7 +13056,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>167</v>
       </c>
@@ -13102,7 +13108,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>167</v>
       </c>
@@ -13154,7 +13160,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>167</v>
       </c>
@@ -13207,7 +13213,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>167</v>
       </c>
@@ -13259,7 +13265,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>167</v>
       </c>
@@ -13311,7 +13317,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>167</v>
       </c>
@@ -13363,7 +13369,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>167</v>
       </c>
@@ -13415,7 +13421,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>167</v>
       </c>
@@ -13467,7 +13473,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>167</v>
       </c>
@@ -13519,7 +13525,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>167</v>
       </c>
@@ -13571,7 +13577,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>167</v>
       </c>
@@ -13623,7 +13629,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>167</v>
       </c>
@@ -13673,7 +13679,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>183</v>
       </c>
@@ -13725,7 +13731,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -13777,7 +13783,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>183</v>
       </c>
@@ -13829,7 +13835,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>183</v>
       </c>
@@ -13881,7 +13887,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>183</v>
       </c>
@@ -13933,7 +13939,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>183</v>
       </c>
@@ -13985,7 +13991,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -14037,7 +14043,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>183</v>
       </c>
@@ -14089,7 +14095,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>183</v>
       </c>
@@ -14141,7 +14147,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>183</v>
       </c>
@@ -14191,7 +14197,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
         <v>183</v>
       </c>
@@ -14241,7 +14247,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
         <v>183</v>
       </c>
@@ -14291,7 +14297,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -14343,7 +14349,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>192</v>
       </c>
@@ -14395,7 +14401,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>192</v>
       </c>
@@ -14447,7 +14453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>192</v>
       </c>
@@ -14499,7 +14505,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>192</v>
       </c>
@@ -14551,7 +14557,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>192</v>
       </c>
@@ -14601,7 +14607,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -14654,7 +14660,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
         <v>264</v>
       </c>
@@ -14707,7 +14713,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1" t="s">
         <v>264</v>
       </c>
@@ -14760,7 +14766,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
         <v>264</v>
       </c>
@@ -14813,7 +14819,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
         <v>221</v>
       </c>
@@ -14862,7 +14868,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
         <v>221</v>
       </c>
@@ -14909,7 +14915,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
         <v>221</v>
       </c>
@@ -14956,7 +14962,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
         <v>221</v>
       </c>
@@ -15005,7 +15011,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1" t="s">
         <v>221</v>
       </c>
@@ -15052,7 +15058,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1" t="s">
         <v>221</v>
       </c>
@@ -15099,7 +15105,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1" t="s">
         <v>221</v>
       </c>
@@ -15146,7 +15152,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1" t="s">
         <v>221</v>
       </c>
@@ -15195,7 +15201,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1" t="s">
         <v>221</v>
       </c>
@@ -15242,7 +15248,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1" t="s">
         <v>221</v>
       </c>
@@ -15289,7 +15295,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>221</v>
       </c>
@@ -15336,7 +15342,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>221</v>
       </c>
@@ -15383,7 +15389,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>221</v>
       </c>
@@ -15430,7 +15436,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>221</v>
       </c>
@@ -15479,7 +15485,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>221</v>
       </c>
@@ -15526,7 +15532,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1" t="s">
         <v>221</v>
       </c>
@@ -15573,7 +15579,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1" t="s">
         <v>221</v>
       </c>
@@ -15620,7 +15626,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>133</v>
       </c>
@@ -15675,7 +15681,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>133</v>
       </c>
@@ -15728,7 +15734,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>133</v>
       </c>
@@ -15781,7 +15787,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>133</v>
       </c>
@@ -15836,7 +15842,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>133</v>
       </c>
@@ -15889,7 +15895,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>133</v>
       </c>
@@ -15942,7 +15948,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>133</v>
       </c>
@@ -15997,7 +16003,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>133</v>
       </c>
@@ -16052,7 +16058,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>133</v>
       </c>
@@ -16107,7 +16113,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>133</v>
       </c>
@@ -16160,7 +16166,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -16213,7 +16219,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>133</v>
       </c>
@@ -16266,7 +16272,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>133</v>
       </c>
@@ -16321,7 +16327,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>133</v>
       </c>
@@ -16376,7 +16382,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1" t="s">
         <v>133</v>
       </c>
@@ -16431,7 +16437,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1" t="s">
         <v>133</v>
       </c>
@@ -16484,7 +16490,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>133</v>
       </c>
@@ -16537,7 +16543,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>133</v>
       </c>
@@ -16592,7 +16598,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>133</v>
       </c>
@@ -16647,7 +16653,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>133</v>
       </c>
@@ -16700,7 +16706,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>133</v>
       </c>
@@ -16753,7 +16759,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>133</v>
       </c>
@@ -16808,7 +16814,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>133</v>
       </c>
@@ -16863,7 +16869,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>133</v>
       </c>
@@ -16918,7 +16924,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>133</v>
       </c>
@@ -16973,7 +16979,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>133</v>
       </c>
@@ -17026,7 +17032,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>133</v>
       </c>
@@ -17079,7 +17085,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>133</v>
       </c>
@@ -17132,7 +17138,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>133</v>
       </c>
@@ -17185,7 +17191,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>133</v>
       </c>
@@ -17238,7 +17244,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>133</v>
       </c>
@@ -17293,7 +17299,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -17348,7 +17354,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>133</v>
       </c>
@@ -17403,7 +17409,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>133</v>
       </c>
@@ -17458,7 +17464,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>133</v>
       </c>
@@ -17513,7 +17519,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>133</v>
       </c>
@@ -17566,7 +17572,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>133</v>
       </c>
@@ -17619,7 +17625,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>133</v>
       </c>
@@ -17672,7 +17678,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>133</v>
       </c>
@@ -17725,7 +17731,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>133</v>
       </c>
@@ -17778,7 +17784,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>133</v>
       </c>
@@ -17833,7 +17839,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>133</v>
       </c>
@@ -17888,7 +17894,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>133</v>
       </c>
@@ -17943,7 +17949,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>133</v>
       </c>
@@ -17998,7 +18004,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>133</v>
       </c>
@@ -18053,7 +18059,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>133</v>
       </c>
@@ -18106,7 +18112,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>133</v>
       </c>
@@ -18159,7 +18165,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>133</v>
       </c>
@@ -18212,7 +18218,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>133</v>
       </c>
@@ -18267,7 +18273,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>133</v>
       </c>
@@ -18322,7 +18328,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>133</v>
       </c>
@@ -18375,7 +18381,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -18430,7 +18436,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>133</v>
       </c>
@@ -18483,7 +18489,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>133</v>
       </c>
@@ -18536,7 +18542,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -18589,7 +18595,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>133</v>
       </c>
@@ -18642,7 +18648,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>133</v>
       </c>
@@ -18695,7 +18701,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>133</v>
       </c>
@@ -18748,7 +18754,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>133</v>
       </c>
@@ -18801,7 +18807,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>133</v>
       </c>
@@ -18854,7 +18860,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>133</v>
       </c>
@@ -18907,7 +18913,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>378</v>
       </c>
@@ -18960,7 +18966,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>378</v>
       </c>
@@ -19013,7 +19019,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>101</v>
       </c>
@@ -19061,7 +19067,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>101</v>
       </c>
@@ -19109,7 +19115,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>101</v>
       </c>
@@ -19155,7 +19161,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>101</v>
       </c>
@@ -19203,7 +19209,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -19256,7 +19262,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>219</v>
       </c>
@@ -19305,7 +19311,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>219</v>
       </c>
@@ -19354,7 +19360,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>219</v>
       </c>
@@ -19403,7 +19409,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>101</v>
       </c>
@@ -19450,7 +19456,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>192</v>
       </c>
@@ -19497,7 +19503,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -19546,7 +19552,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -19599,7 +19605,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -19652,7 +19658,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -19705,7 +19711,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -19758,7 +19764,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>219</v>
       </c>
@@ -19807,7 +19813,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>219</v>
       </c>
@@ -19856,7 +19862,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>219</v>
       </c>
@@ -19905,7 +19911,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>219</v>
       </c>
@@ -19954,7 +19960,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>219</v>
       </c>
@@ -20003,7 +20009,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>219</v>
       </c>
@@ -20052,7 +20058,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>505</v>
       </c>
@@ -20103,7 +20109,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>505</v>
       </c>
@@ -20152,7 +20158,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>505</v>
       </c>
@@ -20201,7 +20207,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>505</v>
       </c>
@@ -20250,7 +20256,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>505</v>
       </c>
@@ -20299,7 +20305,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>505</v>
       </c>
@@ -20348,7 +20354,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>505</v>
       </c>
@@ -20397,7 +20403,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>505</v>
       </c>
@@ -20446,7 +20452,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>505</v>
       </c>
@@ -20495,7 +20501,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>505</v>
       </c>
@@ -20544,7 +20550,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>505</v>
       </c>
@@ -20593,7 +20599,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>505</v>
       </c>
@@ -20642,7 +20648,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>505</v>
       </c>
@@ -20691,7 +20697,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>505</v>
       </c>
@@ -20740,7 +20746,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>505</v>
       </c>
@@ -20789,7 +20795,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>505</v>
       </c>
@@ -20838,7 +20844,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>505</v>
       </c>
@@ -20887,7 +20893,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>378</v>
       </c>
@@ -20940,7 +20946,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>378</v>
       </c>
@@ -20993,7 +20999,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>378</v>
       </c>
@@ -21046,7 +21052,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>378</v>
       </c>
@@ -21099,7 +21105,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>378</v>
       </c>
@@ -21152,7 +21158,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -21205,7 +21211,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>378</v>
       </c>
@@ -21258,7 +21264,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -21311,7 +21317,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>378</v>
       </c>
@@ -21364,7 +21370,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>101</v>
       </c>
@@ -21414,7 +21420,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>101</v>
       </c>
@@ -21464,7 +21470,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>101</v>
       </c>
@@ -21514,7 +21520,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>101</v>
       </c>
@@ -21564,7 +21570,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>101</v>
       </c>
@@ -21614,7 +21620,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>101</v>
       </c>
@@ -21664,7 +21670,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>101</v>
       </c>
@@ -21714,7 +21720,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>101</v>
       </c>
@@ -21764,7 +21770,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>192</v>
       </c>
@@ -21814,7 +21820,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>192</v>
       </c>
@@ -21864,7 +21870,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>192</v>
       </c>
@@ -21914,7 +21920,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>192</v>
       </c>
@@ -21964,7 +21970,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>192</v>
       </c>
@@ -22012,7 +22018,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>192</v>
       </c>
@@ -22062,7 +22068,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>192</v>
       </c>
@@ -22112,7 +22118,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>133</v>
       </c>
@@ -22165,7 +22171,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -22218,7 +22224,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>432</v>
       </c>
@@ -22265,7 +22271,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>432</v>
       </c>
@@ -22312,7 +22318,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>432</v>
       </c>
@@ -22359,7 +22365,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>432</v>
       </c>
@@ -22406,7 +22412,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="7" t="s">
         <v>183</v>
       </c>
@@ -22456,7 +22462,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="7" t="s">
         <v>133</v>
       </c>
@@ -22506,7 +22512,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="7" t="s">
         <v>167</v>
       </c>
@@ -22556,7 +22562,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="7" t="s">
         <v>167</v>
       </c>
@@ -22606,7 +22612,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="7" t="s">
         <v>167</v>
       </c>
@@ -22656,7 +22662,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="7" t="s">
         <v>264</v>
       </c>
@@ -22707,7 +22713,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="7" t="s">
         <v>264</v>
       </c>
@@ -22760,7 +22766,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="7" t="s">
         <v>378</v>
       </c>
@@ -22813,7 +22819,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="7" t="s">
         <v>378</v>
       </c>
@@ -22866,7 +22872,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="7" t="s">
         <v>378</v>
       </c>
@@ -22919,7 +22925,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="7" t="s">
         <v>378</v>
       </c>
@@ -22964,7 +22970,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="7" t="s">
         <v>604</v>
       </c>
@@ -23011,7 +23017,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="7" t="s">
         <v>604</v>
       </c>
@@ -23058,7 +23064,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>615</v>
       </c>
@@ -23111,7 +23117,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>615</v>
       </c>
@@ -23160,7 +23166,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>59</v>
       </c>
@@ -23210,7 +23216,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>59</v>
       </c>
@@ -23260,7 +23266,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>59</v>
       </c>
@@ -23308,6 +23314,50 @@
       </c>
       <c r="Q402">
         <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A403" t="s">
+        <v>167</v>
+      </c>
+      <c r="B403" t="s">
+        <v>633</v>
+      </c>
+      <c r="C403">
+        <v>2017</v>
+      </c>
+      <c r="D403">
+        <v>598</v>
+      </c>
+      <c r="E403">
+        <v>371</v>
+      </c>
+      <c r="F403">
+        <v>82</v>
+      </c>
+      <c r="G403" s="8">
+        <v>78</v>
+      </c>
+      <c r="H403" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I403" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J403" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>0</v>
+      </c>
+      <c r="M403" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q403">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -23321,23 +23371,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>42361</v>
       </c>
@@ -23345,7 +23395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>42369</v>
       </c>
@@ -23353,7 +23403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>42371</v>
       </c>
@@ -23361,7 +23411,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>42372</v>
       </c>
@@ -23369,7 +23419,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>42373</v>
       </c>
@@ -23377,7 +23427,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>42382</v>
       </c>
@@ -23385,7 +23435,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>42385</v>
       </c>
@@ -23393,7 +23443,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>42387</v>
       </c>
@@ -23401,7 +23451,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>42388</v>
       </c>
@@ -23409,7 +23459,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>42390</v>
       </c>
@@ -23417,7 +23467,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>42391</v>
       </c>
@@ -23425,7 +23475,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>42400</v>
       </c>
@@ -23433,7 +23483,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>42414</v>
       </c>
@@ -23441,7 +23491,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>42432</v>
       </c>
@@ -23452,7 +23502,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>42435</v>
       </c>
@@ -23460,7 +23510,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>42436</v>
       </c>
@@ -23468,7 +23518,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>42441</v>
       </c>
@@ -23476,7 +23526,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>42445</v>
       </c>
@@ -23484,7 +23534,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>42453</v>
       </c>
@@ -23492,7 +23542,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>42456</v>
       </c>
@@ -23500,7 +23550,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>42457</v>
       </c>
@@ -23508,7 +23558,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <v>42458</v>
       </c>
@@ -23516,7 +23566,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>42464</v>
       </c>
@@ -23524,7 +23574,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>42510</v>
       </c>
@@ -23532,7 +23582,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>42515</v>
       </c>
@@ -23540,7 +23590,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <v>42560</v>
       </c>
@@ -23548,7 +23598,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <v>42565</v>
       </c>
@@ -23556,7 +23606,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>42576</v>
       </c>
@@ -23564,7 +23614,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <v>42590</v>
       </c>
@@ -23572,7 +23622,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <v>42593</v>
       </c>
@@ -23580,7 +23630,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <v>42598</v>
       </c>
@@ -23588,7 +23638,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <v>42665</v>
       </c>
@@ -23596,7 +23646,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <v>42788</v>
       </c>
@@ -23604,7 +23654,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <v>42831</v>
       </c>
@@ -23612,7 +23662,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13">
         <v>42833</v>
       </c>
@@ -23620,7 +23670,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13">
         <v>42833</v>
       </c>
@@ -23628,7 +23678,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13">
         <v>42874</v>
       </c>
@@ -23636,7 +23686,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="13">
         <v>42876</v>
       </c>
@@ -23644,7 +23694,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13">
         <v>42878</v>
       </c>
@@ -23652,7 +23702,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="13">
         <v>42878</v>
       </c>
@@ -23660,7 +23710,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="13">
         <v>42879</v>
       </c>
@@ -23668,7 +23718,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13">
         <v>42884</v>
       </c>
@@ -23676,7 +23726,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13">
         <v>42887</v>
       </c>
@@ -23684,12 +23734,20 @@
         <v>624</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="13">
         <v>42887</v>
       </c>
       <c r="B46" t="s">
         <v>632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="13">
+        <v>42891</v>
+      </c>
+      <c r="B47" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\BATOL\BigAssTableOfLenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Optics\Olaf\Software\BigAssTableOfLenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="636">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1930,6 +1930,9 @@
   </si>
   <si>
     <t>Added Sony FE 85mm f/1.8</t>
+  </si>
+  <si>
+    <t>Prices for new Sigma lenses</t>
   </si>
 </sst>
 </file>
@@ -2356,28 +2359,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="B406" sqref="B406"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="D320" sqref="D320"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1015625" customWidth="1"/>
-    <col min="2" max="2" width="37.89453125" customWidth="1"/>
-    <col min="3" max="3" width="5.41796875" customWidth="1"/>
-    <col min="4" max="4" width="6.41796875" customWidth="1"/>
-    <col min="5" max="5" width="8.20703125" customWidth="1"/>
-    <col min="7" max="7" width="8.68359375" customWidth="1"/>
-    <col min="8" max="8" width="12.41796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1015625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.89453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.20703125" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.68359375" customWidth="1"/>
-    <col min="15" max="16" width="8.89453125" style="12"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3200,7 +3203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4903,7 +4906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4958,7 +4961,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5068,7 +5071,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5123,7 +5126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5178,7 +5181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -5453,7 +5456,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5673,7 +5676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5781,7 +5784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>378</v>
       </c>
@@ -6099,7 +6102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>378</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>378</v>
       </c>
@@ -6205,7 +6208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>378</v>
       </c>
@@ -6258,7 +6261,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>378</v>
       </c>
@@ -6311,7 +6314,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>378</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>378</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>378</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>378</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>378</v>
       </c>
@@ -6576,7 +6579,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>378</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>378</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>378</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>378</v>
       </c>
@@ -6788,7 +6791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>378</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>378</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>378</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>378</v>
       </c>
@@ -7000,7 +7003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>378</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>378</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>378</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>294</v>
       </c>
@@ -7205,7 +7208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>429</v>
       </c>
@@ -7252,7 +7255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>429</v>
       </c>
@@ -7299,7 +7302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>233</v>
       </c>
@@ -7352,7 +7355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>233</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>233</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>233</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>233</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>233</v>
       </c>
@@ -7617,7 +7620,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>233</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>233</v>
       </c>
@@ -7728,7 +7731,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>233</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>233</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>233</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>233</v>
       </c>
@@ -7995,7 +7998,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>233</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>233</v>
       </c>
@@ -8263,7 +8266,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -8316,7 +8319,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>233</v>
       </c>
@@ -8369,7 +8372,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>233</v>
       </c>
@@ -8422,7 +8425,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -8475,7 +8478,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -8528,7 +8531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -8581,7 +8584,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -8693,7 +8696,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -8746,7 +8749,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -8799,7 +8802,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>233</v>
       </c>
@@ -8852,7 +8855,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>296</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -8962,7 +8965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>296</v>
       </c>
@@ -9017,7 +9020,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -9121,7 +9124,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -9225,7 +9228,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -9277,7 +9280,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -9381,7 +9384,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -9433,7 +9436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -9485,7 +9488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -9537,7 +9540,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -9589,7 +9592,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -9641,7 +9644,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -9693,7 +9696,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -9745,7 +9748,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -9797,7 +9800,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -9850,7 +9853,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -9954,7 +9957,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -10219,7 +10222,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -10271,7 +10274,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -10323,7 +10326,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -10375,7 +10378,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -10427,7 +10430,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -10479,7 +10482,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -10531,7 +10534,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -10583,7 +10586,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -10635,7 +10638,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -10687,7 +10690,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -10737,7 +10740,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -10787,7 +10790,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -10837,7 +10840,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -10887,7 +10890,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -10937,7 +10940,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>371</v>
       </c>
@@ -10987,7 +10990,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>371</v>
       </c>
@@ -11037,7 +11040,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>371</v>
       </c>
@@ -11087,7 +11090,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -11137,7 +11140,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>438</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>438</v>
       </c>
@@ -11237,7 +11240,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>100</v>
       </c>
@@ -11286,7 +11289,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>100</v>
       </c>
@@ -11335,7 +11338,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>100</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>100</v>
       </c>
@@ -11432,7 +11435,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>100</v>
       </c>
@@ -11481,7 +11484,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>100</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>100</v>
       </c>
@@ -11577,7 +11580,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>100</v>
       </c>
@@ -11624,7 +11627,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>100</v>
       </c>
@@ -11673,7 +11676,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>100</v>
       </c>
@@ -11720,7 +11723,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>100</v>
       </c>
@@ -11767,7 +11770,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>100</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>219</v>
       </c>
@@ -11869,7 +11872,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -11924,7 +11927,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>219</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>101</v>
       </c>
@@ -12031,7 +12034,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>101</v>
       </c>
@@ -12083,7 +12086,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>101</v>
       </c>
@@ -12135,7 +12138,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>101</v>
       </c>
@@ -12187,7 +12190,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>101</v>
       </c>
@@ -12239,7 +12242,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>101</v>
       </c>
@@ -12291,7 +12294,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>101</v>
       </c>
@@ -12343,7 +12346,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -12395,7 +12398,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>101</v>
       </c>
@@ -12447,7 +12450,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>101</v>
       </c>
@@ -12499,7 +12502,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>101</v>
       </c>
@@ -12551,7 +12554,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>101</v>
       </c>
@@ -12601,7 +12604,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>101</v>
       </c>
@@ -12651,7 +12654,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -12698,7 +12701,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>101</v>
       </c>
@@ -12748,7 +12751,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -12798,7 +12801,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -12848,7 +12851,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>167</v>
       </c>
@@ -12900,7 +12903,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -12952,7 +12955,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -13004,7 +13007,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>167</v>
       </c>
@@ -13056,7 +13059,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>167</v>
       </c>
@@ -13108,7 +13111,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>167</v>
       </c>
@@ -13160,7 +13163,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>167</v>
       </c>
@@ -13213,7 +13216,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>167</v>
       </c>
@@ -13265,7 +13268,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>167</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>167</v>
       </c>
@@ -13369,7 +13372,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>167</v>
       </c>
@@ -13421,7 +13424,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>167</v>
       </c>
@@ -13473,7 +13476,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>167</v>
       </c>
@@ -13525,7 +13528,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>167</v>
       </c>
@@ -13577,7 +13580,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>167</v>
       </c>
@@ -13629,7 +13632,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>167</v>
       </c>
@@ -13679,7 +13682,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>183</v>
       </c>
@@ -13731,7 +13734,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -13783,7 +13786,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>183</v>
       </c>
@@ -13835,7 +13838,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>183</v>
       </c>
@@ -13887,7 +13890,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>183</v>
       </c>
@@ -13939,7 +13942,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>183</v>
       </c>
@@ -13991,7 +13994,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -14043,7 +14046,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>183</v>
       </c>
@@ -14095,7 +14098,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>183</v>
       </c>
@@ -14147,7 +14150,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>183</v>
       </c>
@@ -14197,7 +14200,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>183</v>
       </c>
@@ -14247,7 +14250,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>183</v>
       </c>
@@ -14297,7 +14300,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -14349,7 +14352,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>192</v>
       </c>
@@ -14401,7 +14404,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>192</v>
       </c>
@@ -14453,7 +14456,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>192</v>
       </c>
@@ -14505,7 +14508,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>192</v>
       </c>
@@ -14557,7 +14560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>192</v>
       </c>
@@ -14607,7 +14610,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -14660,7 +14663,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>264</v>
       </c>
@@ -14713,7 +14716,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>264</v>
       </c>
@@ -14766,7 +14769,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>264</v>
       </c>
@@ -14819,7 +14822,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>221</v>
       </c>
@@ -14868,7 +14871,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>221</v>
       </c>
@@ -14915,7 +14918,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>221</v>
       </c>
@@ -14962,7 +14965,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>221</v>
       </c>
@@ -15011,7 +15014,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>221</v>
       </c>
@@ -15058,7 +15061,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>221</v>
       </c>
@@ -15105,7 +15108,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>221</v>
       </c>
@@ -15152,7 +15155,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>221</v>
       </c>
@@ -15201,7 +15204,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>221</v>
       </c>
@@ -15248,7 +15251,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>221</v>
       </c>
@@ -15295,7 +15298,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>221</v>
       </c>
@@ -15342,7 +15345,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>221</v>
       </c>
@@ -15389,7 +15392,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>221</v>
       </c>
@@ -15436,7 +15439,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>221</v>
       </c>
@@ -15485,7 +15488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>221</v>
       </c>
@@ -15532,7 +15535,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>221</v>
       </c>
@@ -15579,7 +15582,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>221</v>
       </c>
@@ -15626,7 +15629,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>133</v>
       </c>
@@ -15681,7 +15684,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>133</v>
       </c>
@@ -15734,7 +15737,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>133</v>
       </c>
@@ -15787,7 +15790,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>133</v>
       </c>
@@ -15842,7 +15845,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>133</v>
       </c>
@@ -15895,7 +15898,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>133</v>
       </c>
@@ -15948,7 +15951,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>133</v>
       </c>
@@ -16003,7 +16006,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>133</v>
       </c>
@@ -16058,7 +16061,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>133</v>
       </c>
@@ -16113,7 +16116,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>133</v>
       </c>
@@ -16166,7 +16169,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -16219,7 +16222,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>133</v>
       </c>
@@ -16272,7 +16275,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>133</v>
       </c>
@@ -16327,7 +16330,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>133</v>
       </c>
@@ -16382,7 +16385,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>133</v>
       </c>
@@ -16437,7 +16440,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>133</v>
       </c>
@@ -16490,7 +16493,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>133</v>
       </c>
@@ -16543,7 +16546,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>133</v>
       </c>
@@ -16598,7 +16601,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>133</v>
       </c>
@@ -16653,7 +16656,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>133</v>
       </c>
@@ -16706,7 +16709,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>133</v>
       </c>
@@ -16759,7 +16762,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>133</v>
       </c>
@@ -16814,7 +16817,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>133</v>
       </c>
@@ -16869,7 +16872,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>133</v>
       </c>
@@ -16924,7 +16927,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>133</v>
       </c>
@@ -16979,7 +16982,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>133</v>
       </c>
@@ -17032,7 +17035,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>133</v>
       </c>
@@ -17085,7 +17088,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>133</v>
       </c>
@@ -17138,7 +17141,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>133</v>
       </c>
@@ -17191,7 +17194,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>133</v>
       </c>
@@ -17244,7 +17247,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>133</v>
       </c>
@@ -17299,7 +17302,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -17354,7 +17357,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>133</v>
       </c>
@@ -17409,7 +17412,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>133</v>
       </c>
@@ -17464,7 +17467,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>133</v>
       </c>
@@ -17519,7 +17522,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>133</v>
       </c>
@@ -17572,7 +17575,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>133</v>
       </c>
@@ -17625,7 +17628,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>133</v>
       </c>
@@ -17678,7 +17681,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>133</v>
       </c>
@@ -17731,7 +17734,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>133</v>
       </c>
@@ -17784,7 +17787,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>133</v>
       </c>
@@ -17839,7 +17842,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>133</v>
       </c>
@@ -17894,7 +17897,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>133</v>
       </c>
@@ -17949,7 +17952,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>133</v>
       </c>
@@ -18004,7 +18007,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>133</v>
       </c>
@@ -18059,7 +18062,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>133</v>
       </c>
@@ -18112,7 +18115,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>133</v>
       </c>
@@ -18165,7 +18168,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>133</v>
       </c>
@@ -18218,7 +18221,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>133</v>
       </c>
@@ -18273,7 +18276,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>133</v>
       </c>
@@ -18328,7 +18331,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>133</v>
       </c>
@@ -18381,7 +18384,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -18436,7 +18439,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>133</v>
       </c>
@@ -18489,7 +18492,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>133</v>
       </c>
@@ -18542,7 +18545,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -18595,7 +18598,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>133</v>
       </c>
@@ -18648,7 +18651,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>133</v>
       </c>
@@ -18701,7 +18704,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>133</v>
       </c>
@@ -18754,7 +18757,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>133</v>
       </c>
@@ -18807,7 +18810,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>133</v>
       </c>
@@ -18860,7 +18863,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>133</v>
       </c>
@@ -18913,7 +18916,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>378</v>
       </c>
@@ -18966,7 +18969,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>378</v>
       </c>
@@ -19019,7 +19022,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>101</v>
       </c>
@@ -19029,7 +19032,9 @@
       <c r="C317" s="12">
         <v>2017</v>
       </c>
-      <c r="D317" s="10"/>
+      <c r="D317" s="12">
+        <v>1599</v>
+      </c>
       <c r="E317">
         <v>1170</v>
       </c>
@@ -19067,7 +19072,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>101</v>
       </c>
@@ -19077,7 +19082,9 @@
       <c r="C318">
         <v>2017</v>
       </c>
-      <c r="D318" s="10"/>
+      <c r="D318" s="12">
+        <v>1399</v>
+      </c>
       <c r="E318">
         <v>1130</v>
       </c>
@@ -19115,7 +19122,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>101</v>
       </c>
@@ -19125,7 +19132,9 @@
       <c r="C319">
         <v>2017</v>
       </c>
-      <c r="D319" s="10"/>
+      <c r="D319" s="12">
+        <v>1299</v>
+      </c>
       <c r="E319" s="10"/>
       <c r="F319">
         <v>107.6</v>
@@ -19161,7 +19170,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>101</v>
       </c>
@@ -19171,7 +19180,9 @@
       <c r="C320">
         <v>2017</v>
       </c>
-      <c r="D320" s="10"/>
+      <c r="D320" s="12">
+        <v>799</v>
+      </c>
       <c r="E320">
         <v>1160</v>
       </c>
@@ -19209,7 +19220,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -19262,7 +19273,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>219</v>
       </c>
@@ -19311,7 +19322,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>219</v>
       </c>
@@ -19360,7 +19371,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>219</v>
       </c>
@@ -19409,7 +19420,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>101</v>
       </c>
@@ -19456,7 +19467,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>192</v>
       </c>
@@ -19503,7 +19514,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -19552,7 +19563,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -19605,7 +19616,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -19658,7 +19669,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -19711,7 +19722,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -19764,7 +19775,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>219</v>
       </c>
@@ -19813,7 +19824,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>219</v>
       </c>
@@ -19862,7 +19873,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>219</v>
       </c>
@@ -19911,7 +19922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>219</v>
       </c>
@@ -19960,7 +19971,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>219</v>
       </c>
@@ -20009,7 +20020,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>219</v>
       </c>
@@ -20058,7 +20069,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>505</v>
       </c>
@@ -20109,7 +20120,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>505</v>
       </c>
@@ -20158,7 +20169,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>505</v>
       </c>
@@ -20207,7 +20218,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>505</v>
       </c>
@@ -20256,7 +20267,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>505</v>
       </c>
@@ -20305,7 +20316,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>505</v>
       </c>
@@ -20354,7 +20365,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>505</v>
       </c>
@@ -20403,7 +20414,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>505</v>
       </c>
@@ -20452,7 +20463,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>505</v>
       </c>
@@ -20501,7 +20512,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>505</v>
       </c>
@@ -20550,7 +20561,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>505</v>
       </c>
@@ -20599,7 +20610,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>505</v>
       </c>
@@ -20648,7 +20659,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>505</v>
       </c>
@@ -20697,7 +20708,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>505</v>
       </c>
@@ -20746,7 +20757,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>505</v>
       </c>
@@ -20795,7 +20806,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>505</v>
       </c>
@@ -20844,7 +20855,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>505</v>
       </c>
@@ -20893,7 +20904,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>378</v>
       </c>
@@ -20946,7 +20957,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>378</v>
       </c>
@@ -20999,7 +21010,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>378</v>
       </c>
@@ -21052,7 +21063,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>378</v>
       </c>
@@ -21105,7 +21116,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>378</v>
       </c>
@@ -21158,7 +21169,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -21211,7 +21222,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>378</v>
       </c>
@@ -21264,7 +21275,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -21317,7 +21328,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>378</v>
       </c>
@@ -21370,7 +21381,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>101</v>
       </c>
@@ -21420,7 +21431,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>101</v>
       </c>
@@ -21470,7 +21481,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>101</v>
       </c>
@@ -21520,7 +21531,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>101</v>
       </c>
@@ -21570,7 +21581,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>101</v>
       </c>
@@ -21620,7 +21631,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>101</v>
       </c>
@@ -21670,7 +21681,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>101</v>
       </c>
@@ -21720,7 +21731,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>101</v>
       </c>
@@ -21770,7 +21781,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>192</v>
       </c>
@@ -21820,7 +21831,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>192</v>
       </c>
@@ -21870,7 +21881,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>192</v>
       </c>
@@ -21920,7 +21931,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>192</v>
       </c>
@@ -21970,7 +21981,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>192</v>
       </c>
@@ -22018,7 +22029,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>192</v>
       </c>
@@ -22068,7 +22079,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>192</v>
       </c>
@@ -22118,7 +22129,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>133</v>
       </c>
@@ -22171,7 +22182,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -22224,7 +22235,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>432</v>
       </c>
@@ -22271,7 +22282,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>432</v>
       </c>
@@ -22318,7 +22329,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>432</v>
       </c>
@@ -22365,7 +22376,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>432</v>
       </c>
@@ -22412,7 +22423,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
         <v>183</v>
       </c>
@@ -22462,7 +22473,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
         <v>133</v>
       </c>
@@ -22512,7 +22523,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
         <v>167</v>
       </c>
@@ -22562,7 +22573,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
         <v>167</v>
       </c>
@@ -22612,7 +22623,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
         <v>167</v>
       </c>
@@ -22662,7 +22673,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
         <v>264</v>
       </c>
@@ -22713,7 +22724,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
         <v>264</v>
       </c>
@@ -22766,7 +22777,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
         <v>378</v>
       </c>
@@ -22819,7 +22830,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
         <v>378</v>
       </c>
@@ -22872,7 +22883,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
         <v>378</v>
       </c>
@@ -22925,7 +22936,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
         <v>378</v>
       </c>
@@ -22970,7 +22981,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="7" t="s">
         <v>604</v>
       </c>
@@ -23017,7 +23028,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
         <v>604</v>
       </c>
@@ -23064,7 +23075,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>615</v>
       </c>
@@ -23117,7 +23128,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>615</v>
       </c>
@@ -23166,7 +23177,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>59</v>
       </c>
@@ -23216,7 +23227,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>59</v>
       </c>
@@ -23266,7 +23277,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>59</v>
       </c>
@@ -23316,7 +23327,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>167</v>
       </c>
@@ -23371,23 +23382,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>42361</v>
       </c>
@@ -23395,7 +23406,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>42369</v>
       </c>
@@ -23403,7 +23414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>42371</v>
       </c>
@@ -23411,7 +23422,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>42372</v>
       </c>
@@ -23419,7 +23430,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>42373</v>
       </c>
@@ -23427,7 +23438,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>42382</v>
       </c>
@@ -23435,7 +23446,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42385</v>
       </c>
@@ -23443,7 +23454,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42387</v>
       </c>
@@ -23451,7 +23462,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>42388</v>
       </c>
@@ -23459,7 +23470,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>42390</v>
       </c>
@@ -23467,7 +23478,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>42391</v>
       </c>
@@ -23475,7 +23486,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>42400</v>
       </c>
@@ -23483,7 +23494,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>42414</v>
       </c>
@@ -23491,7 +23502,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>42432</v>
       </c>
@@ -23502,7 +23513,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>42435</v>
       </c>
@@ -23510,7 +23521,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>42436</v>
       </c>
@@ -23518,7 +23529,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>42441</v>
       </c>
@@ -23526,7 +23537,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>42445</v>
       </c>
@@ -23534,7 +23545,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>42453</v>
       </c>
@@ -23542,7 +23553,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>42456</v>
       </c>
@@ -23550,7 +23561,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>42457</v>
       </c>
@@ -23558,7 +23569,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>42458</v>
       </c>
@@ -23566,7 +23577,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>42464</v>
       </c>
@@ -23574,7 +23585,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>42510</v>
       </c>
@@ -23582,7 +23593,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>42515</v>
       </c>
@@ -23590,7 +23601,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>42560</v>
       </c>
@@ -23598,7 +23609,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>42565</v>
       </c>
@@ -23606,7 +23617,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>42576</v>
       </c>
@@ -23614,7 +23625,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>42590</v>
       </c>
@@ -23622,7 +23633,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>42593</v>
       </c>
@@ -23630,7 +23641,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>42598</v>
       </c>
@@ -23638,7 +23649,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>42665</v>
       </c>
@@ -23646,7 +23657,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>42788</v>
       </c>
@@ -23654,7 +23665,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>42831</v>
       </c>
@@ -23662,7 +23673,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>42833</v>
       </c>
@@ -23670,7 +23681,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>42833</v>
       </c>
@@ -23678,7 +23689,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>42874</v>
       </c>
@@ -23686,7 +23697,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>42876</v>
       </c>
@@ -23694,7 +23705,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>42878</v>
       </c>
@@ -23702,7 +23713,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>42878</v>
       </c>
@@ -23710,7 +23721,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>42879</v>
       </c>
@@ -23718,7 +23729,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>42884</v>
       </c>
@@ -23726,7 +23737,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>42887</v>
       </c>
@@ -23734,7 +23745,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>42887</v>
       </c>
@@ -23742,12 +23753,20 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>42891</v>
       </c>
       <c r="B47" t="s">
         <v>634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
+        <v>42901</v>
+      </c>
+      <c r="B48" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="650">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1930,6 +1930,51 @@
   </si>
   <si>
     <t>Added Sony FE 85mm f/1.8</t>
+  </si>
+  <si>
+    <t>CP.3 XD 135mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 25mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 35mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 50mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 85mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 100mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 15mm T2.9 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 18mm T2.9 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 21mm T2.9 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 25mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 28mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 35mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 50mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 85mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>Added Zeiss CP.3 lenses</t>
   </si>
 </sst>
 </file>
@@ -2022,8 +2067,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q403" totalsRowShown="0">
-  <autoFilter ref="A1:Q403">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q417" totalsRowShown="0">
+  <autoFilter ref="A1:Q417">
     <filterColumn colId="11">
       <filters>
         <filter val="0"/>
@@ -2354,10 +2399,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q403"/>
+  <dimension ref="A1:Q417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="B406" sqref="B406"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="B419" sqref="B419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18165,7 +18210,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>133</v>
       </c>
@@ -18273,7 +18318,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>133</v>
       </c>
@@ -18328,7 +18373,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>133</v>
       </c>
@@ -18381,7 +18426,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:17" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -18436,7 +18481,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>133</v>
       </c>
@@ -18489,7 +18534,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>133</v>
       </c>
@@ -18542,7 +18587,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -18595,7 +18640,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>133</v>
       </c>
@@ -23358,6 +23403,622 @@
       </c>
       <c r="Q403">
         <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A404" t="s">
+        <v>133</v>
+      </c>
+      <c r="B404" t="s">
+        <v>635</v>
+      </c>
+      <c r="C404">
+        <v>2017</v>
+      </c>
+      <c r="D404">
+        <v>7490</v>
+      </c>
+      <c r="E404">
+        <v>1150</v>
+      </c>
+      <c r="F404">
+        <v>126.5</v>
+      </c>
+      <c r="G404" s="8">
+        <v>95</v>
+      </c>
+      <c r="H404" s="1">
+        <v>2</v>
+      </c>
+      <c r="I404" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J404" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>1</v>
+      </c>
+      <c r="M404" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A405" t="s">
+        <v>133</v>
+      </c>
+      <c r="B405" t="s">
+        <v>636</v>
+      </c>
+      <c r="C405">
+        <v>2017</v>
+      </c>
+      <c r="D405">
+        <v>4390</v>
+      </c>
+      <c r="E405">
+        <v>820</v>
+      </c>
+      <c r="F405">
+        <v>83.7</v>
+      </c>
+      <c r="G405" s="8">
+        <v>95</v>
+      </c>
+      <c r="H405" s="1">
+        <v>2</v>
+      </c>
+      <c r="I405" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J405" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+      <c r="L405">
+        <v>1</v>
+      </c>
+      <c r="M405" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" t="s">
+        <v>133</v>
+      </c>
+      <c r="B406" t="s">
+        <v>637</v>
+      </c>
+      <c r="C406">
+        <v>2017</v>
+      </c>
+      <c r="D406">
+        <v>4390</v>
+      </c>
+      <c r="E406">
+        <v>800</v>
+      </c>
+      <c r="F406">
+        <v>83.7</v>
+      </c>
+      <c r="G406" s="8">
+        <v>95</v>
+      </c>
+      <c r="H406" s="1">
+        <v>2</v>
+      </c>
+      <c r="I406" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J406" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <v>1</v>
+      </c>
+      <c r="M406" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A407" t="s">
+        <v>133</v>
+      </c>
+      <c r="B407" t="s">
+        <v>638</v>
+      </c>
+      <c r="C407">
+        <v>2017</v>
+      </c>
+      <c r="D407">
+        <v>4390</v>
+      </c>
+      <c r="E407">
+        <v>770</v>
+      </c>
+      <c r="F407">
+        <v>83.7</v>
+      </c>
+      <c r="G407" s="8">
+        <v>95</v>
+      </c>
+      <c r="H407" s="1">
+        <v>2</v>
+      </c>
+      <c r="I407" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J407" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <v>1</v>
+      </c>
+      <c r="M407" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A408" t="s">
+        <v>133</v>
+      </c>
+      <c r="B408" t="s">
+        <v>639</v>
+      </c>
+      <c r="C408">
+        <v>2017</v>
+      </c>
+      <c r="D408">
+        <v>4390</v>
+      </c>
+      <c r="E408">
+        <v>880</v>
+      </c>
+      <c r="F408">
+        <v>83.7</v>
+      </c>
+      <c r="G408" s="8">
+        <v>95</v>
+      </c>
+      <c r="H408" s="1">
+        <v>2</v>
+      </c>
+      <c r="I408" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J408" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>1</v>
+      </c>
+      <c r="M408" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A409" t="s">
+        <v>133</v>
+      </c>
+      <c r="B409" t="s">
+        <v>640</v>
+      </c>
+      <c r="C409">
+        <v>2017</v>
+      </c>
+      <c r="D409">
+        <v>6690</v>
+      </c>
+      <c r="E409">
+        <v>1010</v>
+      </c>
+      <c r="F409">
+        <v>126.5</v>
+      </c>
+      <c r="G409" s="8">
+        <v>95</v>
+      </c>
+      <c r="H409" s="1">
+        <v>2</v>
+      </c>
+      <c r="I409" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J409" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <v>1</v>
+      </c>
+      <c r="M409" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A410" t="s">
+        <v>133</v>
+      </c>
+      <c r="B410" t="s">
+        <v>641</v>
+      </c>
+      <c r="C410">
+        <v>2017</v>
+      </c>
+      <c r="D410">
+        <v>7490</v>
+      </c>
+      <c r="E410">
+        <v>870</v>
+      </c>
+      <c r="F410">
+        <v>83.7</v>
+      </c>
+      <c r="G410" s="8">
+        <v>95</v>
+      </c>
+      <c r="H410" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I410" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J410" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
+        <v>1</v>
+      </c>
+      <c r="M410" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A411" t="s">
+        <v>133</v>
+      </c>
+      <c r="B411" t="s">
+        <v>642</v>
+      </c>
+      <c r="C411">
+        <v>2017</v>
+      </c>
+      <c r="D411">
+        <v>6690</v>
+      </c>
+      <c r="E411">
+        <v>860</v>
+      </c>
+      <c r="F411">
+        <v>83.7</v>
+      </c>
+      <c r="G411" s="8">
+        <v>95</v>
+      </c>
+      <c r="H411" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I411" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J411" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
+      </c>
+      <c r="M411" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A412" t="s">
+        <v>133</v>
+      </c>
+      <c r="B412" t="s">
+        <v>643</v>
+      </c>
+      <c r="C412">
+        <v>2017</v>
+      </c>
+      <c r="D412">
+        <v>5790</v>
+      </c>
+      <c r="E412">
+        <v>820</v>
+      </c>
+      <c r="F412">
+        <v>83.7</v>
+      </c>
+      <c r="G412" s="8">
+        <v>95</v>
+      </c>
+      <c r="H412" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I412" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J412" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>1</v>
+      </c>
+      <c r="M412" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A413" t="s">
+        <v>133</v>
+      </c>
+      <c r="B413" t="s">
+        <v>644</v>
+      </c>
+      <c r="C413">
+        <v>2017</v>
+      </c>
+      <c r="D413">
+        <v>5790</v>
+      </c>
+      <c r="E413">
+        <v>820</v>
+      </c>
+      <c r="F413">
+        <v>83.7</v>
+      </c>
+      <c r="G413" s="8">
+        <v>95</v>
+      </c>
+      <c r="H413" s="1">
+        <v>2</v>
+      </c>
+      <c r="I413" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J413" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>1</v>
+      </c>
+      <c r="M413" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A414" t="s">
+        <v>133</v>
+      </c>
+      <c r="B414" t="s">
+        <v>645</v>
+      </c>
+      <c r="C414">
+        <v>2017</v>
+      </c>
+      <c r="D414">
+        <v>5790</v>
+      </c>
+      <c r="E414">
+        <v>840</v>
+      </c>
+      <c r="F414">
+        <v>83.7</v>
+      </c>
+      <c r="G414" s="8">
+        <v>95</v>
+      </c>
+      <c r="H414" s="1">
+        <v>2</v>
+      </c>
+      <c r="I414" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J414" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414">
+        <v>1</v>
+      </c>
+      <c r="M414" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A415" t="s">
+        <v>133</v>
+      </c>
+      <c r="B415" t="s">
+        <v>646</v>
+      </c>
+      <c r="C415">
+        <v>2017</v>
+      </c>
+      <c r="D415">
+        <v>5790</v>
+      </c>
+      <c r="E415">
+        <v>800</v>
+      </c>
+      <c r="F415">
+        <v>83.7</v>
+      </c>
+      <c r="G415" s="8">
+        <v>95</v>
+      </c>
+      <c r="H415" s="1">
+        <v>2</v>
+      </c>
+      <c r="I415" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J415" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+      <c r="L415">
+        <v>1</v>
+      </c>
+      <c r="M415" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A416" t="s">
+        <v>133</v>
+      </c>
+      <c r="B416" t="s">
+        <v>647</v>
+      </c>
+      <c r="C416">
+        <v>2017</v>
+      </c>
+      <c r="D416">
+        <v>5790</v>
+      </c>
+      <c r="E416">
+        <v>770</v>
+      </c>
+      <c r="F416">
+        <v>83.7</v>
+      </c>
+      <c r="G416" s="8">
+        <v>95</v>
+      </c>
+      <c r="H416" s="1">
+        <v>2</v>
+      </c>
+      <c r="I416" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J416" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>1</v>
+      </c>
+      <c r="M416" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A417" t="s">
+        <v>133</v>
+      </c>
+      <c r="B417" t="s">
+        <v>648</v>
+      </c>
+      <c r="C417">
+        <v>2017</v>
+      </c>
+      <c r="D417">
+        <v>5790</v>
+      </c>
+      <c r="E417">
+        <v>880</v>
+      </c>
+      <c r="F417">
+        <v>83.7</v>
+      </c>
+      <c r="G417" s="8">
+        <v>95</v>
+      </c>
+      <c r="H417" s="1">
+        <v>2</v>
+      </c>
+      <c r="I417" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J417" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>1</v>
+      </c>
+      <c r="M417" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q417">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -23371,10 +24032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -23750,6 +24411,14 @@
         <v>634</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="13">
+        <v>42910</v>
+      </c>
+      <c r="B48" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="635">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1930,51 +1930,6 @@
   </si>
   <si>
     <t>Added Sony FE 85mm f/1.8</t>
-  </si>
-  <si>
-    <t>CP.3 XD 135mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 25mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 35mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 50mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 85mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 100mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 15mm T2.9 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 18mm T2.9 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 21mm T2.9 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 25mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 28mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 35mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 50mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 85mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>Added Zeiss CP.3 lenses</t>
   </si>
 </sst>
 </file>
@@ -2067,8 +2022,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q417" totalsRowShown="0">
-  <autoFilter ref="A1:Q417">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q403" totalsRowShown="0">
+  <autoFilter ref="A1:Q403">
     <filterColumn colId="11">
       <filters>
         <filter val="0"/>
@@ -2399,10 +2354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q417"/>
+  <dimension ref="A1:Q403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="B419" sqref="B419"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B406" sqref="B406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18210,7 +18165,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>133</v>
       </c>
@@ -18318,7 +18273,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>133</v>
       </c>
@@ -18373,7 +18328,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>133</v>
       </c>
@@ -18426,7 +18381,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -18481,7 +18436,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>133</v>
       </c>
@@ -18534,7 +18489,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>133</v>
       </c>
@@ -18587,7 +18542,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -18640,7 +18595,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>133</v>
       </c>
@@ -23403,622 +23358,6 @@
       </c>
       <c r="Q403">
         <v>402</v>
-      </c>
-    </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A404" t="s">
-        <v>133</v>
-      </c>
-      <c r="B404" t="s">
-        <v>635</v>
-      </c>
-      <c r="C404">
-        <v>2017</v>
-      </c>
-      <c r="D404">
-        <v>7490</v>
-      </c>
-      <c r="E404">
-        <v>1150</v>
-      </c>
-      <c r="F404">
-        <v>126.5</v>
-      </c>
-      <c r="G404" s="8">
-        <v>95</v>
-      </c>
-      <c r="H404" s="1">
-        <v>2</v>
-      </c>
-      <c r="I404" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J404" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K404">
-        <v>0</v>
-      </c>
-      <c r="L404">
-        <v>1</v>
-      </c>
-      <c r="M404" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q404">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A405" t="s">
-        <v>133</v>
-      </c>
-      <c r="B405" t="s">
-        <v>636</v>
-      </c>
-      <c r="C405">
-        <v>2017</v>
-      </c>
-      <c r="D405">
-        <v>4390</v>
-      </c>
-      <c r="E405">
-        <v>820</v>
-      </c>
-      <c r="F405">
-        <v>83.7</v>
-      </c>
-      <c r="G405" s="8">
-        <v>95</v>
-      </c>
-      <c r="H405" s="1">
-        <v>2</v>
-      </c>
-      <c r="I405" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J405" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K405">
-        <v>0</v>
-      </c>
-      <c r="L405">
-        <v>1</v>
-      </c>
-      <c r="M405" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q405">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A406" t="s">
-        <v>133</v>
-      </c>
-      <c r="B406" t="s">
-        <v>637</v>
-      </c>
-      <c r="C406">
-        <v>2017</v>
-      </c>
-      <c r="D406">
-        <v>4390</v>
-      </c>
-      <c r="E406">
-        <v>800</v>
-      </c>
-      <c r="F406">
-        <v>83.7</v>
-      </c>
-      <c r="G406" s="8">
-        <v>95</v>
-      </c>
-      <c r="H406" s="1">
-        <v>2</v>
-      </c>
-      <c r="I406" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J406" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K406">
-        <v>0</v>
-      </c>
-      <c r="L406">
-        <v>1</v>
-      </c>
-      <c r="M406" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q406">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A407" t="s">
-        <v>133</v>
-      </c>
-      <c r="B407" t="s">
-        <v>638</v>
-      </c>
-      <c r="C407">
-        <v>2017</v>
-      </c>
-      <c r="D407">
-        <v>4390</v>
-      </c>
-      <c r="E407">
-        <v>770</v>
-      </c>
-      <c r="F407">
-        <v>83.7</v>
-      </c>
-      <c r="G407" s="8">
-        <v>95</v>
-      </c>
-      <c r="H407" s="1">
-        <v>2</v>
-      </c>
-      <c r="I407" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J407" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K407">
-        <v>0</v>
-      </c>
-      <c r="L407">
-        <v>1</v>
-      </c>
-      <c r="M407" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q407">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A408" t="s">
-        <v>133</v>
-      </c>
-      <c r="B408" t="s">
-        <v>639</v>
-      </c>
-      <c r="C408">
-        <v>2017</v>
-      </c>
-      <c r="D408">
-        <v>4390</v>
-      </c>
-      <c r="E408">
-        <v>880</v>
-      </c>
-      <c r="F408">
-        <v>83.7</v>
-      </c>
-      <c r="G408" s="8">
-        <v>95</v>
-      </c>
-      <c r="H408" s="1">
-        <v>2</v>
-      </c>
-      <c r="I408" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J408" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K408">
-        <v>0</v>
-      </c>
-      <c r="L408">
-        <v>1</v>
-      </c>
-      <c r="M408" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q408">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A409" t="s">
-        <v>133</v>
-      </c>
-      <c r="B409" t="s">
-        <v>640</v>
-      </c>
-      <c r="C409">
-        <v>2017</v>
-      </c>
-      <c r="D409">
-        <v>6690</v>
-      </c>
-      <c r="E409">
-        <v>1010</v>
-      </c>
-      <c r="F409">
-        <v>126.5</v>
-      </c>
-      <c r="G409" s="8">
-        <v>95</v>
-      </c>
-      <c r="H409" s="1">
-        <v>2</v>
-      </c>
-      <c r="I409" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J409" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K409">
-        <v>0</v>
-      </c>
-      <c r="L409">
-        <v>1</v>
-      </c>
-      <c r="M409" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q409">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A410" t="s">
-        <v>133</v>
-      </c>
-      <c r="B410" t="s">
-        <v>641</v>
-      </c>
-      <c r="C410">
-        <v>2017</v>
-      </c>
-      <c r="D410">
-        <v>7490</v>
-      </c>
-      <c r="E410">
-        <v>870</v>
-      </c>
-      <c r="F410">
-        <v>83.7</v>
-      </c>
-      <c r="G410" s="8">
-        <v>95</v>
-      </c>
-      <c r="H410" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="I410" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="J410" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K410">
-        <v>0</v>
-      </c>
-      <c r="L410">
-        <v>1</v>
-      </c>
-      <c r="M410" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q410">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A411" t="s">
-        <v>133</v>
-      </c>
-      <c r="B411" t="s">
-        <v>642</v>
-      </c>
-      <c r="C411">
-        <v>2017</v>
-      </c>
-      <c r="D411">
-        <v>6690</v>
-      </c>
-      <c r="E411">
-        <v>860</v>
-      </c>
-      <c r="F411">
-        <v>83.7</v>
-      </c>
-      <c r="G411" s="8">
-        <v>95</v>
-      </c>
-      <c r="H411" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="I411" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J411" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K411">
-        <v>0</v>
-      </c>
-      <c r="L411">
-        <v>1</v>
-      </c>
-      <c r="M411" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q411">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A412" t="s">
-        <v>133</v>
-      </c>
-      <c r="B412" t="s">
-        <v>643</v>
-      </c>
-      <c r="C412">
-        <v>2017</v>
-      </c>
-      <c r="D412">
-        <v>5790</v>
-      </c>
-      <c r="E412">
-        <v>820</v>
-      </c>
-      <c r="F412">
-        <v>83.7</v>
-      </c>
-      <c r="G412" s="8">
-        <v>95</v>
-      </c>
-      <c r="H412" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="I412" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J412" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K412">
-        <v>0</v>
-      </c>
-      <c r="L412">
-        <v>1</v>
-      </c>
-      <c r="M412" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q412">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A413" t="s">
-        <v>133</v>
-      </c>
-      <c r="B413" t="s">
-        <v>644</v>
-      </c>
-      <c r="C413">
-        <v>2017</v>
-      </c>
-      <c r="D413">
-        <v>5790</v>
-      </c>
-      <c r="E413">
-        <v>820</v>
-      </c>
-      <c r="F413">
-        <v>83.7</v>
-      </c>
-      <c r="G413" s="8">
-        <v>95</v>
-      </c>
-      <c r="H413" s="1">
-        <v>2</v>
-      </c>
-      <c r="I413" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J413" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K413">
-        <v>0</v>
-      </c>
-      <c r="L413">
-        <v>1</v>
-      </c>
-      <c r="M413" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q413">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A414" t="s">
-        <v>133</v>
-      </c>
-      <c r="B414" t="s">
-        <v>645</v>
-      </c>
-      <c r="C414">
-        <v>2017</v>
-      </c>
-      <c r="D414">
-        <v>5790</v>
-      </c>
-      <c r="E414">
-        <v>840</v>
-      </c>
-      <c r="F414">
-        <v>83.7</v>
-      </c>
-      <c r="G414" s="8">
-        <v>95</v>
-      </c>
-      <c r="H414" s="1">
-        <v>2</v>
-      </c>
-      <c r="I414" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J414" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K414">
-        <v>0</v>
-      </c>
-      <c r="L414">
-        <v>1</v>
-      </c>
-      <c r="M414" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q414">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A415" t="s">
-        <v>133</v>
-      </c>
-      <c r="B415" t="s">
-        <v>646</v>
-      </c>
-      <c r="C415">
-        <v>2017</v>
-      </c>
-      <c r="D415">
-        <v>5790</v>
-      </c>
-      <c r="E415">
-        <v>800</v>
-      </c>
-      <c r="F415">
-        <v>83.7</v>
-      </c>
-      <c r="G415" s="8">
-        <v>95</v>
-      </c>
-      <c r="H415" s="1">
-        <v>2</v>
-      </c>
-      <c r="I415" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J415" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K415">
-        <v>0</v>
-      </c>
-      <c r="L415">
-        <v>1</v>
-      </c>
-      <c r="M415" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q415">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A416" t="s">
-        <v>133</v>
-      </c>
-      <c r="B416" t="s">
-        <v>647</v>
-      </c>
-      <c r="C416">
-        <v>2017</v>
-      </c>
-      <c r="D416">
-        <v>5790</v>
-      </c>
-      <c r="E416">
-        <v>770</v>
-      </c>
-      <c r="F416">
-        <v>83.7</v>
-      </c>
-      <c r="G416" s="8">
-        <v>95</v>
-      </c>
-      <c r="H416" s="1">
-        <v>2</v>
-      </c>
-      <c r="I416" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J416" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K416">
-        <v>0</v>
-      </c>
-      <c r="L416">
-        <v>1</v>
-      </c>
-      <c r="M416" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q416">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A417" t="s">
-        <v>133</v>
-      </c>
-      <c r="B417" t="s">
-        <v>648</v>
-      </c>
-      <c r="C417">
-        <v>2017</v>
-      </c>
-      <c r="D417">
-        <v>5790</v>
-      </c>
-      <c r="E417">
-        <v>880</v>
-      </c>
-      <c r="F417">
-        <v>83.7</v>
-      </c>
-      <c r="G417" s="8">
-        <v>95</v>
-      </c>
-      <c r="H417" s="1">
-        <v>2</v>
-      </c>
-      <c r="I417" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J417" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K417">
-        <v>0</v>
-      </c>
-      <c r="L417">
-        <v>1</v>
-      </c>
-      <c r="M417" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q417">
-        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -24032,10 +23371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -24411,14 +23750,6 @@
         <v>634</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="13">
-        <v>42910</v>
-      </c>
-      <c r="B48" t="s">
-        <v>649</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Optics\Olaf\Software\BigAssTableOfLenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\BATOL\BigAssTableOfLenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="657">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1951,6 +1951,51 @@
   </si>
   <si>
     <t>Cine lens metadata</t>
+  </si>
+  <si>
+    <t>CP.3 XD 135mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 25mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 35mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 50mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 85mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 100mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 15mm T2.9 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 18mm T2.9 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 21mm T2.9 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 25mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 28mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 35mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 50mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 85mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>Added CP.3 lenses</t>
   </si>
 </sst>
 </file>
@@ -2043,8 +2088,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q405" totalsRowShown="0">
-  <autoFilter ref="A1:Q405"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q419" totalsRowShown="0">
+  <autoFilter ref="A1:Q419"/>
   <sortState ref="A2:Q403">
     <sortCondition ref="Q1:Q403"/>
   </sortState>
@@ -2369,30 +2414,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q405"/>
+  <dimension ref="A1:Q419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="Q422" sqref="Q422"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.1015625" customWidth="1"/>
+    <col min="2" max="2" width="37.89453125" customWidth="1"/>
+    <col min="3" max="3" width="5.41796875" customWidth="1"/>
+    <col min="4" max="4" width="6.41796875" customWidth="1"/>
+    <col min="5" max="5" width="8.20703125" customWidth="1"/>
+    <col min="7" max="7" width="8.68359375" customWidth="1"/>
+    <col min="8" max="8" width="12.41796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1015625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.89453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.20703125" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="12"/>
+    <col min="13" max="13" width="11.68359375" customWidth="1"/>
+    <col min="15" max="16" width="8.89453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2490,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2555,7 +2600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2665,7 +2710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2720,7 +2765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2775,7 +2820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2830,7 +2875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2885,7 +2930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2940,7 +2985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2995,7 +3040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3050,7 +3095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3105,7 +3150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3160,7 +3205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3215,7 +3260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3270,7 +3315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3325,7 +3370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3380,7 +3425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3435,7 +3480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3490,7 +3535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3545,7 +3590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3600,7 +3645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3655,7 +3700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3710,7 +3755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3765,7 +3810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3820,7 +3865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3875,7 +3920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3930,7 +3975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3985,7 +4030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -4040,7 +4085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -4095,7 +4140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -4150,7 +4195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -4205,7 +4250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -4260,7 +4305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4315,7 +4360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4370,7 +4415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4425,7 +4470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4480,7 +4525,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4535,7 +4580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4590,7 +4635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4645,7 +4690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4700,7 +4745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4755,7 +4800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4808,7 +4853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4863,7 +4908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4918,7 +4963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4973,7 +5018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5028,7 +5073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5083,7 +5128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5138,7 +5183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5193,7 +5238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -5248,7 +5293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5303,7 +5348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5403,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5413,7 +5458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -5468,7 +5513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5523,7 +5568,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5578,7 +5623,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5688,7 +5733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5741,7 +5786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5796,7 +5841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5849,7 +5894,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5902,7 +5947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +6000,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -6008,7 +6053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -6061,7 +6106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>377</v>
       </c>
@@ -6114,7 +6159,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>377</v>
       </c>
@@ -6167,7 +6212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>377</v>
       </c>
@@ -6220,7 +6265,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>377</v>
       </c>
@@ -6273,7 +6318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>377</v>
       </c>
@@ -6326,7 +6371,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>377</v>
       </c>
@@ -6379,7 +6424,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>377</v>
       </c>
@@ -6432,7 +6477,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>377</v>
       </c>
@@ -6485,7 +6530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>377</v>
       </c>
@@ -6538,7 +6583,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>377</v>
       </c>
@@ -6591,7 +6636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>377</v>
       </c>
@@ -6644,7 +6689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>377</v>
       </c>
@@ -6697,7 +6742,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>377</v>
       </c>
@@ -6750,7 +6795,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>377</v>
       </c>
@@ -6803,7 +6848,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>377</v>
       </c>
@@ -6856,7 +6901,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>377</v>
       </c>
@@ -6909,7 +6954,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>377</v>
       </c>
@@ -6962,7 +7007,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>377</v>
       </c>
@@ -7015,7 +7060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>377</v>
       </c>
@@ -7068,7 +7113,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>377</v>
       </c>
@@ -7121,7 +7166,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>377</v>
       </c>
@@ -7171,7 +7216,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>293</v>
       </c>
@@ -7223,7 +7268,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>428</v>
       </c>
@@ -7270,7 +7315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>428</v>
       </c>
@@ -7317,7 +7362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>232</v>
       </c>
@@ -7370,7 +7415,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>232</v>
       </c>
@@ -7423,7 +7468,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>232</v>
       </c>
@@ -7476,7 +7521,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>232</v>
       </c>
@@ -7529,7 +7574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>232</v>
       </c>
@@ -7582,7 +7627,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>232</v>
       </c>
@@ -7635,7 +7680,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>232</v>
       </c>
@@ -7690,7 +7735,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>232</v>
       </c>
@@ -7746,7 +7791,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>232</v>
       </c>
@@ -7801,7 +7846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>232</v>
       </c>
@@ -7854,7 +7899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -7907,7 +7952,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>232</v>
       </c>
@@ -7960,7 +8005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>232</v>
       </c>
@@ -8013,7 +8058,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>232</v>
       </c>
@@ -8066,7 +8111,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>232</v>
       </c>
@@ -8119,7 +8164,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>232</v>
       </c>
@@ -8175,7 +8220,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -8228,7 +8273,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -8281,7 +8326,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -8334,7 +8379,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>232</v>
       </c>
@@ -8387,7 +8432,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>232</v>
       </c>
@@ -8440,7 +8485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -8493,7 +8538,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>232</v>
       </c>
@@ -8546,7 +8591,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>232</v>
       </c>
@@ -8599,7 +8644,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>232</v>
       </c>
@@ -8655,7 +8700,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -8711,7 +8756,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -8764,7 +8809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>232</v>
       </c>
@@ -8817,7 +8862,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>232</v>
       </c>
@@ -8870,7 +8915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>295</v>
       </c>
@@ -8925,7 +8970,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>295</v>
       </c>
@@ -8980,7 +9025,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>295</v>
       </c>
@@ -9035,7 +9080,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -9087,7 +9132,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -9139,7 +9184,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -9191,7 +9236,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -9243,7 +9288,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -9295,7 +9340,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -9347,7 +9392,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -9399,7 +9444,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -9451,7 +9496,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -9503,7 +9548,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -9555,7 +9600,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -9607,7 +9652,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -9659,7 +9704,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -9711,7 +9756,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -9763,7 +9808,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -9815,7 +9860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -9868,7 +9913,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -9920,7 +9965,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -9972,7 +10017,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -10025,7 +10070,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -10078,7 +10123,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -10131,7 +10176,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -10184,7 +10229,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -10237,7 +10282,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -10289,7 +10334,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -10341,7 +10386,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -10393,7 +10438,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -10445,7 +10490,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -10497,7 +10542,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -10549,7 +10594,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -10601,7 +10646,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -10653,7 +10698,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -10705,7 +10750,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -10755,7 +10800,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -10805,7 +10850,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -10855,7 +10900,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -10905,7 +10950,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -10955,7 +11000,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>370</v>
       </c>
@@ -11005,7 +11050,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>370</v>
       </c>
@@ -11055,7 +11100,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>370</v>
       </c>
@@ -11105,7 +11150,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>437</v>
       </c>
@@ -11155,7 +11200,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>437</v>
       </c>
@@ -11205,7 +11250,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>437</v>
       </c>
@@ -11255,7 +11300,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>431</v>
       </c>
@@ -11310,7 +11355,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>431</v>
       </c>
@@ -11363,7 +11408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>431</v>
       </c>
@@ -11419,7 +11464,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>431</v>
       </c>
@@ -11472,7 +11517,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>431</v>
       </c>
@@ -11527,7 +11572,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="12" t="s">
         <v>431</v>
       </c>
@@ -11580,7 +11625,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="12" t="s">
         <v>431</v>
       </c>
@@ -11635,7 +11680,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="12" t="s">
         <v>431</v>
       </c>
@@ -11688,7 +11733,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="12" t="s">
         <v>431</v>
       </c>
@@ -11743,7 +11788,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="12" t="s">
         <v>431</v>
       </c>
@@ -11796,7 +11841,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="12" t="s">
         <v>431</v>
       </c>
@@ -11849,7 +11894,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="12" t="s">
         <v>431</v>
       </c>
@@ -11902,7 +11947,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>218</v>
       </c>
@@ -11957,7 +12002,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>218</v>
       </c>
@@ -12012,7 +12057,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>218</v>
       </c>
@@ -12067,7 +12112,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>100</v>
       </c>
@@ -12119,7 +12164,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>100</v>
       </c>
@@ -12171,7 +12216,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>100</v>
       </c>
@@ -12223,7 +12268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>100</v>
       </c>
@@ -12275,7 +12320,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>100</v>
       </c>
@@ -12327,7 +12372,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>100</v>
       </c>
@@ -12379,7 +12424,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -12431,7 +12476,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>100</v>
       </c>
@@ -12483,7 +12528,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>100</v>
       </c>
@@ -12535,7 +12580,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>100</v>
       </c>
@@ -12587,7 +12632,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>100</v>
       </c>
@@ -12639,7 +12684,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>100</v>
       </c>
@@ -12689,7 +12734,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>100</v>
       </c>
@@ -12739,7 +12784,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>100</v>
       </c>
@@ -12786,7 +12831,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>100</v>
       </c>
@@ -12836,7 +12881,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>100</v>
       </c>
@@ -12886,7 +12931,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>100</v>
       </c>
@@ -12936,7 +12981,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>166</v>
       </c>
@@ -12988,7 +13033,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>166</v>
       </c>
@@ -13040,7 +13085,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>166</v>
       </c>
@@ -13092,7 +13137,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>166</v>
       </c>
@@ -13144,7 +13189,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>166</v>
       </c>
@@ -13196,7 +13241,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>166</v>
       </c>
@@ -13248,7 +13293,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>166</v>
       </c>
@@ -13301,7 +13346,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>166</v>
       </c>
@@ -13353,7 +13398,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>166</v>
       </c>
@@ -13405,7 +13450,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>166</v>
       </c>
@@ -13457,7 +13502,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>166</v>
       </c>
@@ -13509,7 +13554,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>166</v>
       </c>
@@ -13561,7 +13606,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>166</v>
       </c>
@@ -13613,7 +13658,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>166</v>
       </c>
@@ -13665,7 +13710,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>166</v>
       </c>
@@ -13717,7 +13762,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>166</v>
       </c>
@@ -13767,7 +13812,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>182</v>
       </c>
@@ -13819,7 +13864,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>182</v>
       </c>
@@ -13871,7 +13916,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>182</v>
       </c>
@@ -13923,7 +13968,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>182</v>
       </c>
@@ -13975,7 +14020,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>182</v>
       </c>
@@ -14027,7 +14072,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>182</v>
       </c>
@@ -14079,7 +14124,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>182</v>
       </c>
@@ -14131,7 +14176,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>182</v>
       </c>
@@ -14183,7 +14228,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>182</v>
       </c>
@@ -14235,7 +14280,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>182</v>
       </c>
@@ -14285,7 +14330,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
         <v>182</v>
       </c>
@@ -14335,7 +14380,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
         <v>182</v>
       </c>
@@ -14385,7 +14430,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>191</v>
       </c>
@@ -14437,7 +14482,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>191</v>
       </c>
@@ -14489,7 +14534,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>191</v>
       </c>
@@ -14541,7 +14586,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>191</v>
       </c>
@@ -14593,7 +14638,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>191</v>
       </c>
@@ -14645,7 +14690,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>191</v>
       </c>
@@ -14695,7 +14740,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>263</v>
       </c>
@@ -14748,7 +14793,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
         <v>263</v>
       </c>
@@ -14801,7 +14846,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1" t="s">
         <v>263</v>
       </c>
@@ -14854,7 +14899,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
         <v>263</v>
       </c>
@@ -14907,7 +14952,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
         <v>220</v>
       </c>
@@ -14956,7 +15001,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
         <v>220</v>
       </c>
@@ -15003,7 +15048,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
         <v>220</v>
       </c>
@@ -15050,7 +15095,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
         <v>220</v>
       </c>
@@ -15099,7 +15144,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1" t="s">
         <v>220</v>
       </c>
@@ -15146,7 +15191,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1" t="s">
         <v>220</v>
       </c>
@@ -15193,7 +15238,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1" t="s">
         <v>220</v>
       </c>
@@ -15240,7 +15285,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1" t="s">
         <v>220</v>
       </c>
@@ -15289,7 +15334,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1" t="s">
         <v>220</v>
       </c>
@@ -15336,7 +15381,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1" t="s">
         <v>220</v>
       </c>
@@ -15383,7 +15428,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>220</v>
       </c>
@@ -15430,7 +15475,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>220</v>
       </c>
@@ -15477,7 +15522,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>220</v>
       </c>
@@ -15524,7 +15569,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>220</v>
       </c>
@@ -15573,7 +15618,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>220</v>
       </c>
@@ -15620,7 +15665,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1" t="s">
         <v>220</v>
       </c>
@@ -15667,7 +15712,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1" t="s">
         <v>220</v>
       </c>
@@ -15714,7 +15759,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>132</v>
       </c>
@@ -15769,7 +15814,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>132</v>
       </c>
@@ -15822,7 +15867,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>132</v>
       </c>
@@ -15875,7 +15920,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>132</v>
       </c>
@@ -15930,7 +15975,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>132</v>
       </c>
@@ -15983,7 +16028,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>132</v>
       </c>
@@ -16036,7 +16081,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>132</v>
       </c>
@@ -16091,7 +16136,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>132</v>
       </c>
@@ -16146,7 +16191,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>132</v>
       </c>
@@ -16201,7 +16246,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>132</v>
       </c>
@@ -16254,7 +16299,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>132</v>
       </c>
@@ -16307,7 +16352,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>132</v>
       </c>
@@ -16360,7 +16405,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>132</v>
       </c>
@@ -16415,7 +16460,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>132</v>
       </c>
@@ -16470,7 +16515,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1" t="s">
         <v>132</v>
       </c>
@@ -16525,7 +16570,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1" t="s">
         <v>132</v>
       </c>
@@ -16578,7 +16623,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>132</v>
       </c>
@@ -16631,7 +16676,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>132</v>
       </c>
@@ -16686,7 +16731,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>132</v>
       </c>
@@ -16741,7 +16786,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>132</v>
       </c>
@@ -16794,7 +16839,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>132</v>
       </c>
@@ -16847,7 +16892,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>132</v>
       </c>
@@ -16902,7 +16947,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>132</v>
       </c>
@@ -16957,7 +17002,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>132</v>
       </c>
@@ -17012,7 +17057,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>132</v>
       </c>
@@ -17067,7 +17112,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>132</v>
       </c>
@@ -17120,7 +17165,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>132</v>
       </c>
@@ -17173,7 +17218,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>132</v>
       </c>
@@ -17226,7 +17271,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>132</v>
       </c>
@@ -17279,7 +17324,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>132</v>
       </c>
@@ -17332,7 +17377,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>132</v>
       </c>
@@ -17387,7 +17432,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>132</v>
       </c>
@@ -17442,7 +17487,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>132</v>
       </c>
@@ -17497,7 +17542,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>132</v>
       </c>
@@ -17552,7 +17597,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>132</v>
       </c>
@@ -17607,7 +17652,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>132</v>
       </c>
@@ -17660,7 +17705,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>132</v>
       </c>
@@ -17713,7 +17758,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>132</v>
       </c>
@@ -17766,7 +17811,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>132</v>
       </c>
@@ -17819,7 +17864,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>132</v>
       </c>
@@ -17872,7 +17917,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>132</v>
       </c>
@@ -17927,7 +17972,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>132</v>
       </c>
@@ -17982,7 +18027,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>132</v>
       </c>
@@ -18037,7 +18082,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>132</v>
       </c>
@@ -18092,7 +18137,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>132</v>
       </c>
@@ -18147,7 +18192,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>132</v>
       </c>
@@ -18200,7 +18245,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>132</v>
       </c>
@@ -18253,7 +18298,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>132</v>
       </c>
@@ -18306,7 +18351,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>132</v>
       </c>
@@ -18361,7 +18406,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>132</v>
       </c>
@@ -18416,7 +18461,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>132</v>
       </c>
@@ -18469,7 +18514,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>132</v>
       </c>
@@ -18524,7 +18569,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>132</v>
       </c>
@@ -18577,7 +18622,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>132</v>
       </c>
@@ -18630,7 +18675,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>132</v>
       </c>
@@ -18683,7 +18728,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>132</v>
       </c>
@@ -18736,7 +18781,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>132</v>
       </c>
@@ -18789,7 +18834,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>132</v>
       </c>
@@ -18842,7 +18887,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>132</v>
       </c>
@@ -18895,7 +18940,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>132</v>
       </c>
@@ -18948,7 +18993,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>132</v>
       </c>
@@ -19001,7 +19046,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>377</v>
       </c>
@@ -19054,7 +19099,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>377</v>
       </c>
@@ -19107,7 +19152,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>100</v>
       </c>
@@ -19157,7 +19202,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>100</v>
       </c>
@@ -19207,7 +19252,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>100</v>
       </c>
@@ -19255,7 +19300,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>100</v>
       </c>
@@ -19305,7 +19350,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -19358,7 +19403,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>218</v>
       </c>
@@ -19409,7 +19454,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>218</v>
       </c>
@@ -19460,7 +19505,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>218</v>
       </c>
@@ -19511,7 +19556,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>100</v>
       </c>
@@ -19560,7 +19605,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>191</v>
       </c>
@@ -19611,7 +19656,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -19660,7 +19705,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -19713,7 +19758,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -19766,7 +19811,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -19819,7 +19864,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -19872,7 +19917,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>218</v>
       </c>
@@ -19923,7 +19968,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>218</v>
       </c>
@@ -19974,7 +20019,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>218</v>
       </c>
@@ -20025,7 +20070,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>218</v>
       </c>
@@ -20076,7 +20121,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>218</v>
       </c>
@@ -20127,7 +20172,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>218</v>
       </c>
@@ -20178,7 +20223,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>504</v>
       </c>
@@ -20231,7 +20276,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>504</v>
       </c>
@@ -20282,7 +20327,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>504</v>
       </c>
@@ -20333,7 +20378,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>504</v>
       </c>
@@ -20384,7 +20429,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>504</v>
       </c>
@@ -20435,7 +20480,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>504</v>
       </c>
@@ -20486,7 +20531,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>504</v>
       </c>
@@ -20537,7 +20582,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>504</v>
       </c>
@@ -20588,7 +20633,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>504</v>
       </c>
@@ -20639,7 +20684,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>504</v>
       </c>
@@ -20690,7 +20735,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>504</v>
       </c>
@@ -20741,7 +20786,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>504</v>
       </c>
@@ -20792,7 +20837,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>504</v>
       </c>
@@ -20843,7 +20888,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>504</v>
       </c>
@@ -20894,7 +20939,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>504</v>
       </c>
@@ -20945,7 +20990,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>504</v>
       </c>
@@ -20996,7 +21041,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>504</v>
       </c>
@@ -21047,7 +21092,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>377</v>
       </c>
@@ -21100,7 +21145,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>377</v>
       </c>
@@ -21153,7 +21198,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>377</v>
       </c>
@@ -21206,7 +21251,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>377</v>
       </c>
@@ -21259,7 +21304,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>377</v>
       </c>
@@ -21312,7 +21357,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>377</v>
       </c>
@@ -21365,7 +21410,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>377</v>
       </c>
@@ -21418,7 +21463,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>377</v>
       </c>
@@ -21471,7 +21516,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>377</v>
       </c>
@@ -21524,7 +21569,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>100</v>
       </c>
@@ -21574,7 +21619,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>100</v>
       </c>
@@ -21624,7 +21669,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>100</v>
       </c>
@@ -21674,7 +21719,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>100</v>
       </c>
@@ -21724,7 +21769,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>100</v>
       </c>
@@ -21774,7 +21819,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>100</v>
       </c>
@@ -21824,7 +21869,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>100</v>
       </c>
@@ -21874,7 +21919,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>100</v>
       </c>
@@ -21924,7 +21969,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>191</v>
       </c>
@@ -21974,7 +22019,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>191</v>
       </c>
@@ -22024,7 +22069,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>191</v>
       </c>
@@ -22074,7 +22119,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>191</v>
       </c>
@@ -22124,7 +22169,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>191</v>
       </c>
@@ -22172,7 +22217,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>191</v>
       </c>
@@ -22222,7 +22267,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>191</v>
       </c>
@@ -22272,7 +22317,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>132</v>
       </c>
@@ -22325,7 +22370,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -22378,7 +22423,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>431</v>
       </c>
@@ -22431,7 +22476,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>431</v>
       </c>
@@ -22484,7 +22529,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>431</v>
       </c>
@@ -22537,7 +22582,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>431</v>
       </c>
@@ -22590,7 +22635,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="7" t="s">
         <v>182</v>
       </c>
@@ -22640,7 +22685,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="7" t="s">
         <v>132</v>
       </c>
@@ -22693,7 +22738,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="7" t="s">
         <v>166</v>
       </c>
@@ -22743,7 +22788,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="7" t="s">
         <v>166</v>
       </c>
@@ -22793,7 +22838,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="7" t="s">
         <v>166</v>
       </c>
@@ -22843,7 +22888,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="7" t="s">
         <v>263</v>
       </c>
@@ -22894,7 +22939,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="7" t="s">
         <v>263</v>
       </c>
@@ -22947,7 +22992,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="7" t="s">
         <v>377</v>
       </c>
@@ -23000,7 +23045,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="7" t="s">
         <v>377</v>
       </c>
@@ -23053,7 +23098,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="7" t="s">
         <v>377</v>
       </c>
@@ -23106,7 +23151,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="7" t="s">
         <v>377</v>
       </c>
@@ -23151,7 +23196,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="7" t="s">
         <v>603</v>
       </c>
@@ -23198,7 +23243,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="7" t="s">
         <v>603</v>
       </c>
@@ -23245,7 +23290,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>614</v>
       </c>
@@ -23298,7 +23343,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>614</v>
       </c>
@@ -23347,7 +23392,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>59</v>
       </c>
@@ -23397,7 +23442,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>59</v>
       </c>
@@ -23447,7 +23492,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>59</v>
       </c>
@@ -23497,7 +23542,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>166</v>
       </c>
@@ -23547,7 +23592,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>182</v>
       </c>
@@ -23589,7 +23634,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>182</v>
       </c>
@@ -23640,6 +23685,622 @@
       </c>
       <c r="Q405">
         <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" t="s">
+        <v>132</v>
+      </c>
+      <c r="B406" t="s">
+        <v>642</v>
+      </c>
+      <c r="C406">
+        <v>2017</v>
+      </c>
+      <c r="D406">
+        <v>7490</v>
+      </c>
+      <c r="E406">
+        <v>1150</v>
+      </c>
+      <c r="F406">
+        <v>126.5</v>
+      </c>
+      <c r="G406" s="8">
+        <v>95</v>
+      </c>
+      <c r="H406" s="1">
+        <v>2</v>
+      </c>
+      <c r="I406" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J406" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <v>1</v>
+      </c>
+      <c r="M406" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A407" t="s">
+        <v>132</v>
+      </c>
+      <c r="B407" t="s">
+        <v>643</v>
+      </c>
+      <c r="C407">
+        <v>2017</v>
+      </c>
+      <c r="D407">
+        <v>4390</v>
+      </c>
+      <c r="E407">
+        <v>820</v>
+      </c>
+      <c r="F407">
+        <v>83.7</v>
+      </c>
+      <c r="G407" s="8">
+        <v>95</v>
+      </c>
+      <c r="H407" s="1">
+        <v>2</v>
+      </c>
+      <c r="I407" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J407" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <v>1</v>
+      </c>
+      <c r="M407" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q407" s="12">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A408" t="s">
+        <v>132</v>
+      </c>
+      <c r="B408" t="s">
+        <v>644</v>
+      </c>
+      <c r="C408">
+        <v>2017</v>
+      </c>
+      <c r="D408">
+        <v>4390</v>
+      </c>
+      <c r="E408">
+        <v>800</v>
+      </c>
+      <c r="F408">
+        <v>83.7</v>
+      </c>
+      <c r="G408" s="8">
+        <v>95</v>
+      </c>
+      <c r="H408" s="1">
+        <v>2</v>
+      </c>
+      <c r="I408" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J408" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>1</v>
+      </c>
+      <c r="M408" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q408" s="12">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A409" t="s">
+        <v>132</v>
+      </c>
+      <c r="B409" t="s">
+        <v>645</v>
+      </c>
+      <c r="C409">
+        <v>2017</v>
+      </c>
+      <c r="D409">
+        <v>4390</v>
+      </c>
+      <c r="E409">
+        <v>770</v>
+      </c>
+      <c r="F409">
+        <v>83.7</v>
+      </c>
+      <c r="G409" s="8">
+        <v>95</v>
+      </c>
+      <c r="H409" s="1">
+        <v>2</v>
+      </c>
+      <c r="I409" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J409" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <v>1</v>
+      </c>
+      <c r="M409" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q409" s="12">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A410" t="s">
+        <v>132</v>
+      </c>
+      <c r="B410" t="s">
+        <v>646</v>
+      </c>
+      <c r="C410">
+        <v>2017</v>
+      </c>
+      <c r="D410">
+        <v>4390</v>
+      </c>
+      <c r="E410">
+        <v>880</v>
+      </c>
+      <c r="F410">
+        <v>83.7</v>
+      </c>
+      <c r="G410" s="8">
+        <v>95</v>
+      </c>
+      <c r="H410" s="1">
+        <v>2</v>
+      </c>
+      <c r="I410" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J410" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
+        <v>1</v>
+      </c>
+      <c r="M410" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q410" s="12">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A411" t="s">
+        <v>132</v>
+      </c>
+      <c r="B411" t="s">
+        <v>647</v>
+      </c>
+      <c r="C411">
+        <v>2017</v>
+      </c>
+      <c r="D411">
+        <v>6690</v>
+      </c>
+      <c r="E411">
+        <v>1010</v>
+      </c>
+      <c r="F411">
+        <v>126.5</v>
+      </c>
+      <c r="G411" s="8">
+        <v>95</v>
+      </c>
+      <c r="H411" s="1">
+        <v>2</v>
+      </c>
+      <c r="I411" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J411" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
+      </c>
+      <c r="M411" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q411" s="12">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A412" t="s">
+        <v>132</v>
+      </c>
+      <c r="B412" t="s">
+        <v>648</v>
+      </c>
+      <c r="C412">
+        <v>2017</v>
+      </c>
+      <c r="D412">
+        <v>7490</v>
+      </c>
+      <c r="E412">
+        <v>870</v>
+      </c>
+      <c r="F412">
+        <v>83.7</v>
+      </c>
+      <c r="G412" s="8">
+        <v>95</v>
+      </c>
+      <c r="H412" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I412" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J412" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>1</v>
+      </c>
+      <c r="M412" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q412" s="12">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A413" t="s">
+        <v>132</v>
+      </c>
+      <c r="B413" t="s">
+        <v>649</v>
+      </c>
+      <c r="C413">
+        <v>2017</v>
+      </c>
+      <c r="D413">
+        <v>6690</v>
+      </c>
+      <c r="E413">
+        <v>860</v>
+      </c>
+      <c r="F413">
+        <v>83.7</v>
+      </c>
+      <c r="G413" s="8">
+        <v>95</v>
+      </c>
+      <c r="H413" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I413" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J413" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>1</v>
+      </c>
+      <c r="M413" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q413" s="12">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A414" t="s">
+        <v>132</v>
+      </c>
+      <c r="B414" t="s">
+        <v>650</v>
+      </c>
+      <c r="C414">
+        <v>2017</v>
+      </c>
+      <c r="D414">
+        <v>5790</v>
+      </c>
+      <c r="E414">
+        <v>820</v>
+      </c>
+      <c r="F414">
+        <v>83.7</v>
+      </c>
+      <c r="G414" s="8">
+        <v>95</v>
+      </c>
+      <c r="H414" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I414" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J414" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414">
+        <v>1</v>
+      </c>
+      <c r="M414" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q414" s="12">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A415" t="s">
+        <v>132</v>
+      </c>
+      <c r="B415" t="s">
+        <v>651</v>
+      </c>
+      <c r="C415">
+        <v>2017</v>
+      </c>
+      <c r="D415">
+        <v>5790</v>
+      </c>
+      <c r="E415">
+        <v>820</v>
+      </c>
+      <c r="F415">
+        <v>83.7</v>
+      </c>
+      <c r="G415" s="8">
+        <v>95</v>
+      </c>
+      <c r="H415" s="1">
+        <v>2</v>
+      </c>
+      <c r="I415" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J415" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+      <c r="L415">
+        <v>1</v>
+      </c>
+      <c r="M415" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q415" s="12">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A416" t="s">
+        <v>132</v>
+      </c>
+      <c r="B416" t="s">
+        <v>652</v>
+      </c>
+      <c r="C416">
+        <v>2017</v>
+      </c>
+      <c r="D416">
+        <v>5790</v>
+      </c>
+      <c r="E416">
+        <v>840</v>
+      </c>
+      <c r="F416">
+        <v>83.7</v>
+      </c>
+      <c r="G416" s="8">
+        <v>95</v>
+      </c>
+      <c r="H416" s="1">
+        <v>2</v>
+      </c>
+      <c r="I416" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J416" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>1</v>
+      </c>
+      <c r="M416" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q416" s="12">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A417" t="s">
+        <v>132</v>
+      </c>
+      <c r="B417" t="s">
+        <v>653</v>
+      </c>
+      <c r="C417">
+        <v>2017</v>
+      </c>
+      <c r="D417">
+        <v>5790</v>
+      </c>
+      <c r="E417">
+        <v>800</v>
+      </c>
+      <c r="F417">
+        <v>83.7</v>
+      </c>
+      <c r="G417" s="8">
+        <v>95</v>
+      </c>
+      <c r="H417" s="1">
+        <v>2</v>
+      </c>
+      <c r="I417" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J417" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>1</v>
+      </c>
+      <c r="M417" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q417" s="12">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A418" t="s">
+        <v>132</v>
+      </c>
+      <c r="B418" t="s">
+        <v>654</v>
+      </c>
+      <c r="C418">
+        <v>2017</v>
+      </c>
+      <c r="D418">
+        <v>5790</v>
+      </c>
+      <c r="E418">
+        <v>770</v>
+      </c>
+      <c r="F418">
+        <v>83.7</v>
+      </c>
+      <c r="G418" s="8">
+        <v>95</v>
+      </c>
+      <c r="H418" s="1">
+        <v>2</v>
+      </c>
+      <c r="I418" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J418" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418">
+        <v>1</v>
+      </c>
+      <c r="M418" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q418" s="12">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A419" t="s">
+        <v>132</v>
+      </c>
+      <c r="B419" t="s">
+        <v>655</v>
+      </c>
+      <c r="C419">
+        <v>2017</v>
+      </c>
+      <c r="D419">
+        <v>5790</v>
+      </c>
+      <c r="E419">
+        <v>880</v>
+      </c>
+      <c r="F419">
+        <v>83.7</v>
+      </c>
+      <c r="G419" s="8">
+        <v>95</v>
+      </c>
+      <c r="H419" s="1">
+        <v>2</v>
+      </c>
+      <c r="I419" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J419" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+      <c r="L419">
+        <v>1</v>
+      </c>
+      <c r="M419" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q419" s="12">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -23653,23 +24314,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B57"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>42361</v>
       </c>
@@ -23677,7 +24338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>42369</v>
       </c>
@@ -23685,7 +24346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>42371</v>
       </c>
@@ -23693,7 +24354,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>42372</v>
       </c>
@@ -23701,7 +24362,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>42373</v>
       </c>
@@ -23709,7 +24370,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>42382</v>
       </c>
@@ -23717,7 +24378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>42385</v>
       </c>
@@ -23725,7 +24386,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>42387</v>
       </c>
@@ -23733,7 +24394,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>42388</v>
       </c>
@@ -23741,7 +24402,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>42390</v>
       </c>
@@ -23749,7 +24410,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>42391</v>
       </c>
@@ -23757,7 +24418,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>42400</v>
       </c>
@@ -23765,7 +24426,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>42414</v>
       </c>
@@ -23773,7 +24434,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>42432</v>
       </c>
@@ -23784,7 +24445,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>42435</v>
       </c>
@@ -23792,7 +24453,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>42436</v>
       </c>
@@ -23800,7 +24461,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>42441</v>
       </c>
@@ -23808,7 +24469,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>42445</v>
       </c>
@@ -23816,7 +24477,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>42453</v>
       </c>
@@ -23824,7 +24485,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>42456</v>
       </c>
@@ -23832,7 +24493,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>42457</v>
       </c>
@@ -23840,7 +24501,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <v>42458</v>
       </c>
@@ -23848,7 +24509,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>42464</v>
       </c>
@@ -23856,7 +24517,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>42510</v>
       </c>
@@ -23864,7 +24525,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>42515</v>
       </c>
@@ -23872,7 +24533,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <v>42560</v>
       </c>
@@ -23880,7 +24541,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <v>42565</v>
       </c>
@@ -23888,7 +24549,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>42576</v>
       </c>
@@ -23896,7 +24557,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <v>42590</v>
       </c>
@@ -23904,7 +24565,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <v>42593</v>
       </c>
@@ -23912,7 +24573,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <v>42598</v>
       </c>
@@ -23920,7 +24581,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <v>42665</v>
       </c>
@@ -23928,7 +24589,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <v>42788</v>
       </c>
@@ -23936,7 +24597,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <v>42831</v>
       </c>
@@ -23944,7 +24605,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13">
         <v>42833</v>
       </c>
@@ -23952,7 +24613,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13">
         <v>42833</v>
       </c>
@@ -23960,7 +24621,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13">
         <v>42874</v>
       </c>
@@ -23968,7 +24629,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="13">
         <v>42876</v>
       </c>
@@ -23976,7 +24637,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13">
         <v>42878</v>
       </c>
@@ -23984,7 +24645,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="13">
         <v>42878</v>
       </c>
@@ -23992,7 +24653,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="13">
         <v>42879</v>
       </c>
@@ -24000,7 +24661,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13">
         <v>42884</v>
       </c>
@@ -24008,7 +24669,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13">
         <v>42887</v>
       </c>
@@ -24016,7 +24677,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="13">
         <v>42887</v>
       </c>
@@ -24024,7 +24685,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="13">
         <v>42891</v>
       </c>
@@ -24032,7 +24693,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="13">
         <v>42901</v>
       </c>
@@ -24040,7 +24701,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13">
         <v>42908</v>
       </c>
@@ -24048,7 +24709,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="13">
         <v>42909</v>
       </c>
@@ -24056,12 +24717,20 @@
         <v>640</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="13">
         <v>42910</v>
       </c>
       <c r="B51" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="13">
+        <v>42910</v>
+      </c>
+      <c r="B52" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\BATOL\BigAssTableOfLenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Optics\Olaf\Software\BigAssTableOfLenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
     <sheet name="Changelog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="645">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1953,49 +1953,13 @@
     <t>Cine lens metadata</t>
   </si>
   <si>
-    <t>CP.3 XD 135mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 25mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 35mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 50mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 85mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 100mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 15mm T2.9 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 18mm T2.9 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 21mm T2.9 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 25mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 28mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 35mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 50mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>CP.3 XD 85mm T2.1 Compact Prime</t>
-  </si>
-  <si>
-    <t>Added CP.3 lenses</t>
+    <t>Lensbaby</t>
+  </si>
+  <si>
+    <t>Velvet 85mm f/1.8</t>
+  </si>
+  <si>
+    <t>Lensbaby Velvet 85mm added</t>
   </si>
 </sst>
 </file>
@@ -2088,8 +2052,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q419" totalsRowShown="0">
-  <autoFilter ref="A1:Q419"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q406" totalsRowShown="0">
+  <autoFilter ref="A1:Q406"/>
   <sortState ref="A2:Q403">
     <sortCondition ref="Q1:Q403"/>
   </sortState>
@@ -2414,30 +2378,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q419"/>
+  <dimension ref="A1:Q406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="Q422" sqref="Q422"/>
+    <sheetView topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="H407" sqref="H407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1015625" customWidth="1"/>
-    <col min="2" max="2" width="37.89453125" customWidth="1"/>
-    <col min="3" max="3" width="5.41796875" customWidth="1"/>
-    <col min="4" max="4" width="6.41796875" customWidth="1"/>
-    <col min="5" max="5" width="8.20703125" customWidth="1"/>
-    <col min="7" max="7" width="8.68359375" customWidth="1"/>
-    <col min="8" max="8" width="12.41796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1015625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.89453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.20703125" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.68359375" customWidth="1"/>
-    <col min="15" max="16" width="8.89453125" style="12"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2490,7 +2454,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2600,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2655,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2710,7 +2674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2765,7 +2729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2820,7 +2784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2875,7 +2839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2930,7 +2894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2985,7 +2949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3040,7 +3004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3095,7 +3059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3150,7 +3114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3205,7 +3169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3260,7 +3224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3315,7 +3279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3370,7 +3334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3425,7 +3389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3480,7 +3444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3535,7 +3499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3590,7 +3554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3645,7 +3609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3700,7 +3664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3755,7 +3719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3810,7 +3774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3865,7 +3829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +3884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3975,7 +3939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -4030,7 +3994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -4085,7 +4049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -4140,7 +4104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -4195,7 +4159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -4250,7 +4214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -4305,7 +4269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4360,7 +4324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4415,7 +4379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4470,7 +4434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4525,7 +4489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4580,7 +4544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4635,7 +4599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4690,7 +4654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4745,7 +4709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4800,7 +4764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4853,7 +4817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4908,7 +4872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4963,7 +4927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -5018,7 +4982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5073,7 +5037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5183,7 +5147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5238,7 +5202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -5293,7 +5257,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5348,7 +5312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -5403,7 +5367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5458,7 +5422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -5513,7 +5477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5568,7 +5532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5623,7 +5587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5678,7 +5642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5733,7 +5697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5786,7 +5750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5841,7 +5805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5894,7 +5858,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5947,7 +5911,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -6000,7 +5964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -6053,7 +6017,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -6106,7 +6070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>377</v>
       </c>
@@ -6159,7 +6123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>377</v>
       </c>
@@ -6212,7 +6176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>377</v>
       </c>
@@ -6265,7 +6229,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>377</v>
       </c>
@@ -6318,7 +6282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>377</v>
       </c>
@@ -6371,7 +6335,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>377</v>
       </c>
@@ -6424,7 +6388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>377</v>
       </c>
@@ -6477,7 +6441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>377</v>
       </c>
@@ -6530,7 +6494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>377</v>
       </c>
@@ -6583,7 +6547,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>377</v>
       </c>
@@ -6636,7 +6600,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>377</v>
       </c>
@@ -6689,7 +6653,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>377</v>
       </c>
@@ -6742,7 +6706,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>377</v>
       </c>
@@ -6795,7 +6759,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>377</v>
       </c>
@@ -6848,7 +6812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>377</v>
       </c>
@@ -6901,7 +6865,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>377</v>
       </c>
@@ -6954,7 +6918,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>377</v>
       </c>
@@ -7007,7 +6971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>377</v>
       </c>
@@ -7060,7 +7024,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>377</v>
       </c>
@@ -7113,7 +7077,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>377</v>
       </c>
@@ -7166,7 +7130,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>377</v>
       </c>
@@ -7216,7 +7180,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>293</v>
       </c>
@@ -7268,7 +7232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>428</v>
       </c>
@@ -7315,7 +7279,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>428</v>
       </c>
@@ -7362,7 +7326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>232</v>
       </c>
@@ -7415,7 +7379,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>232</v>
       </c>
@@ -7468,7 +7432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>232</v>
       </c>
@@ -7521,7 +7485,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>232</v>
       </c>
@@ -7574,7 +7538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>232</v>
       </c>
@@ -7627,7 +7591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>232</v>
       </c>
@@ -7680,7 +7644,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>232</v>
       </c>
@@ -7735,7 +7699,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>232</v>
       </c>
@@ -7791,7 +7755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>232</v>
       </c>
@@ -7846,7 +7810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>232</v>
       </c>
@@ -7899,7 +7863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -7952,7 +7916,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>232</v>
       </c>
@@ -8005,7 +7969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>232</v>
       </c>
@@ -8058,7 +8022,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>232</v>
       </c>
@@ -8111,7 +8075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>232</v>
       </c>
@@ -8164,7 +8128,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>232</v>
       </c>
@@ -8220,7 +8184,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -8273,7 +8237,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -8326,7 +8290,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -8379,7 +8343,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>232</v>
       </c>
@@ -8432,7 +8396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>232</v>
       </c>
@@ -8485,7 +8449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -8538,7 +8502,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>232</v>
       </c>
@@ -8591,7 +8555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>232</v>
       </c>
@@ -8644,7 +8608,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>232</v>
       </c>
@@ -8700,7 +8664,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -8756,7 +8720,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -8809,7 +8773,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>232</v>
       </c>
@@ -8862,7 +8826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>232</v>
       </c>
@@ -8915,7 +8879,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>295</v>
       </c>
@@ -8970,7 +8934,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>295</v>
       </c>
@@ -9025,7 +8989,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>295</v>
       </c>
@@ -9080,7 +9044,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -9132,7 +9096,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -9184,7 +9148,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -9236,7 +9200,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -9288,7 +9252,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -9340,7 +9304,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -9392,7 +9356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -9444,7 +9408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -9496,7 +9460,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -9548,7 +9512,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -9600,7 +9564,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -9652,7 +9616,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -9704,7 +9668,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -9756,7 +9720,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -9808,7 +9772,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -9860,7 +9824,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -9913,7 +9877,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -9965,7 +9929,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -10017,7 +9981,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -10070,7 +10034,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -10123,7 +10087,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -10176,7 +10140,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -10229,7 +10193,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -10282,7 +10246,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -10334,7 +10298,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -10386,7 +10350,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -10438,7 +10402,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -10490,7 +10454,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -10542,7 +10506,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -10594,7 +10558,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -10646,7 +10610,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -10698,7 +10662,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -10750,7 +10714,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -10800,7 +10764,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -10850,7 +10814,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -10900,7 +10864,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -10950,7 +10914,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -11000,7 +10964,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>370</v>
       </c>
@@ -11050,7 +11014,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>370</v>
       </c>
@@ -11100,7 +11064,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>370</v>
       </c>
@@ -11150,7 +11114,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>437</v>
       </c>
@@ -11200,7 +11164,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>437</v>
       </c>
@@ -11250,7 +11214,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>437</v>
       </c>
@@ -11300,7 +11264,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>431</v>
       </c>
@@ -11355,7 +11319,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>431</v>
       </c>
@@ -11408,7 +11372,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>431</v>
       </c>
@@ -11464,7 +11428,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>431</v>
       </c>
@@ -11517,7 +11481,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>431</v>
       </c>
@@ -11572,7 +11536,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>431</v>
       </c>
@@ -11625,7 +11589,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>431</v>
       </c>
@@ -11680,7 +11644,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
         <v>431</v>
       </c>
@@ -11733,7 +11697,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>431</v>
       </c>
@@ -11788,7 +11752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>431</v>
       </c>
@@ -11841,7 +11805,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>431</v>
       </c>
@@ -11894,7 +11858,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
         <v>431</v>
       </c>
@@ -11947,7 +11911,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>218</v>
       </c>
@@ -12002,7 +11966,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>218</v>
       </c>
@@ -12057,7 +12021,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>218</v>
       </c>
@@ -12112,7 +12076,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>100</v>
       </c>
@@ -12164,7 +12128,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>100</v>
       </c>
@@ -12216,7 +12180,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>100</v>
       </c>
@@ -12268,7 +12232,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>100</v>
       </c>
@@ -12320,7 +12284,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>100</v>
       </c>
@@ -12372,7 +12336,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>100</v>
       </c>
@@ -12424,7 +12388,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -12476,7 +12440,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>100</v>
       </c>
@@ -12528,7 +12492,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>100</v>
       </c>
@@ -12580,7 +12544,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>100</v>
       </c>
@@ -12632,7 +12596,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>100</v>
       </c>
@@ -12684,7 +12648,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>100</v>
       </c>
@@ -12734,7 +12698,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>100</v>
       </c>
@@ -12784,7 +12748,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>100</v>
       </c>
@@ -12831,7 +12795,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>100</v>
       </c>
@@ -12881,7 +12845,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>100</v>
       </c>
@@ -12931,7 +12895,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>100</v>
       </c>
@@ -12981,7 +12945,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>166</v>
       </c>
@@ -13033,7 +12997,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>166</v>
       </c>
@@ -13085,7 +13049,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>166</v>
       </c>
@@ -13137,7 +13101,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>166</v>
       </c>
@@ -13189,7 +13153,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>166</v>
       </c>
@@ -13241,7 +13205,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>166</v>
       </c>
@@ -13293,7 +13257,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>166</v>
       </c>
@@ -13346,7 +13310,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>166</v>
       </c>
@@ -13398,7 +13362,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>166</v>
       </c>
@@ -13450,7 +13414,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>166</v>
       </c>
@@ -13502,7 +13466,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>166</v>
       </c>
@@ -13554,7 +13518,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>166</v>
       </c>
@@ -13606,7 +13570,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>166</v>
       </c>
@@ -13658,7 +13622,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>166</v>
       </c>
@@ -13710,7 +13674,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>166</v>
       </c>
@@ -13762,7 +13726,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>166</v>
       </c>
@@ -13812,7 +13776,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>182</v>
       </c>
@@ -13864,7 +13828,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>182</v>
       </c>
@@ -13916,7 +13880,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>182</v>
       </c>
@@ -13968,7 +13932,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>182</v>
       </c>
@@ -14020,7 +13984,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>182</v>
       </c>
@@ -14072,7 +14036,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>182</v>
       </c>
@@ -14124,7 +14088,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>182</v>
       </c>
@@ -14176,7 +14140,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>182</v>
       </c>
@@ -14228,7 +14192,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>182</v>
       </c>
@@ -14280,7 +14244,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>182</v>
       </c>
@@ -14330,7 +14294,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>182</v>
       </c>
@@ -14380,7 +14344,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>182</v>
       </c>
@@ -14430,7 +14394,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>191</v>
       </c>
@@ -14482,7 +14446,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>191</v>
       </c>
@@ -14534,7 +14498,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>191</v>
       </c>
@@ -14586,7 +14550,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>191</v>
       </c>
@@ -14638,7 +14602,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>191</v>
       </c>
@@ -14690,7 +14654,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>191</v>
       </c>
@@ -14740,7 +14704,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>263</v>
       </c>
@@ -14793,7 +14757,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>263</v>
       </c>
@@ -14846,7 +14810,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>263</v>
       </c>
@@ -14899,7 +14863,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>263</v>
       </c>
@@ -14952,7 +14916,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>220</v>
       </c>
@@ -15001,7 +14965,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>220</v>
       </c>
@@ -15048,7 +15012,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>220</v>
       </c>
@@ -15095,7 +15059,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>220</v>
       </c>
@@ -15144,7 +15108,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>220</v>
       </c>
@@ -15191,7 +15155,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>220</v>
       </c>
@@ -15238,7 +15202,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>220</v>
       </c>
@@ -15285,7 +15249,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>220</v>
       </c>
@@ -15334,7 +15298,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>220</v>
       </c>
@@ -15381,7 +15345,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>220</v>
       </c>
@@ -15428,7 +15392,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>220</v>
       </c>
@@ -15475,7 +15439,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>220</v>
       </c>
@@ -15522,7 +15486,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>220</v>
       </c>
@@ -15569,7 +15533,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>220</v>
       </c>
@@ -15618,7 +15582,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>220</v>
       </c>
@@ -15665,7 +15629,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>220</v>
       </c>
@@ -15712,7 +15676,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>220</v>
       </c>
@@ -15759,7 +15723,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>132</v>
       </c>
@@ -15814,7 +15778,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>132</v>
       </c>
@@ -15867,7 +15831,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>132</v>
       </c>
@@ -15920,7 +15884,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>132</v>
       </c>
@@ -15975,7 +15939,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>132</v>
       </c>
@@ -16028,7 +15992,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>132</v>
       </c>
@@ -16081,7 +16045,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>132</v>
       </c>
@@ -16136,7 +16100,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>132</v>
       </c>
@@ -16191,7 +16155,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>132</v>
       </c>
@@ -16246,7 +16210,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>132</v>
       </c>
@@ -16299,7 +16263,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>132</v>
       </c>
@@ -16352,7 +16316,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>132</v>
       </c>
@@ -16405,7 +16369,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>132</v>
       </c>
@@ -16460,7 +16424,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>132</v>
       </c>
@@ -16515,7 +16479,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>132</v>
       </c>
@@ -16570,7 +16534,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>132</v>
       </c>
@@ -16623,7 +16587,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>132</v>
       </c>
@@ -16676,7 +16640,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>132</v>
       </c>
@@ -16731,7 +16695,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>132</v>
       </c>
@@ -16786,7 +16750,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>132</v>
       </c>
@@ -16839,7 +16803,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>132</v>
       </c>
@@ -16892,7 +16856,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>132</v>
       </c>
@@ -16947,7 +16911,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>132</v>
       </c>
@@ -17002,7 +16966,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>132</v>
       </c>
@@ -17057,7 +17021,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>132</v>
       </c>
@@ -17112,7 +17076,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>132</v>
       </c>
@@ -17165,7 +17129,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>132</v>
       </c>
@@ -17218,7 +17182,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>132</v>
       </c>
@@ -17271,7 +17235,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>132</v>
       </c>
@@ -17324,7 +17288,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>132</v>
       </c>
@@ -17377,7 +17341,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>132</v>
       </c>
@@ -17432,7 +17396,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>132</v>
       </c>
@@ -17487,7 +17451,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>132</v>
       </c>
@@ -17542,7 +17506,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>132</v>
       </c>
@@ -17597,7 +17561,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>132</v>
       </c>
@@ -17652,7 +17616,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>132</v>
       </c>
@@ -17705,7 +17669,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>132</v>
       </c>
@@ -17758,7 +17722,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>132</v>
       </c>
@@ -17811,7 +17775,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>132</v>
       </c>
@@ -17864,7 +17828,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>132</v>
       </c>
@@ -17917,7 +17881,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>132</v>
       </c>
@@ -17972,7 +17936,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>132</v>
       </c>
@@ -18027,7 +17991,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>132</v>
       </c>
@@ -18082,7 +18046,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>132</v>
       </c>
@@ -18137,7 +18101,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>132</v>
       </c>
@@ -18192,7 +18156,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>132</v>
       </c>
@@ -18245,7 +18209,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>132</v>
       </c>
@@ -18298,7 +18262,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>132</v>
       </c>
@@ -18351,7 +18315,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>132</v>
       </c>
@@ -18406,7 +18370,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>132</v>
       </c>
@@ -18461,7 +18425,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>132</v>
       </c>
@@ -18514,7 +18478,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>132</v>
       </c>
@@ -18569,7 +18533,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>132</v>
       </c>
@@ -18622,7 +18586,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>132</v>
       </c>
@@ -18675,7 +18639,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>132</v>
       </c>
@@ -18728,7 +18692,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>132</v>
       </c>
@@ -18781,7 +18745,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>132</v>
       </c>
@@ -18834,7 +18798,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>132</v>
       </c>
@@ -18887,7 +18851,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>132</v>
       </c>
@@ -18940,7 +18904,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>132</v>
       </c>
@@ -18993,7 +18957,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>132</v>
       </c>
@@ -19046,7 +19010,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>377</v>
       </c>
@@ -19099,7 +19063,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>377</v>
       </c>
@@ -19152,7 +19116,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>100</v>
       </c>
@@ -19202,7 +19166,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>100</v>
       </c>
@@ -19252,7 +19216,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>100</v>
       </c>
@@ -19300,7 +19264,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>100</v>
       </c>
@@ -19350,7 +19314,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -19403,7 +19367,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>218</v>
       </c>
@@ -19454,7 +19418,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>218</v>
       </c>
@@ -19505,7 +19469,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>218</v>
       </c>
@@ -19556,7 +19520,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>100</v>
       </c>
@@ -19605,7 +19569,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>191</v>
       </c>
@@ -19656,7 +19620,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -19705,7 +19669,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -19758,7 +19722,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -19811,7 +19775,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -19864,7 +19828,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -19917,7 +19881,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>218</v>
       </c>
@@ -19968,7 +19932,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>218</v>
       </c>
@@ -20019,7 +19983,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>218</v>
       </c>
@@ -20070,7 +20034,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>218</v>
       </c>
@@ -20121,7 +20085,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>218</v>
       </c>
@@ -20172,7 +20136,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>218</v>
       </c>
@@ -20223,7 +20187,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>504</v>
       </c>
@@ -20276,7 +20240,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>504</v>
       </c>
@@ -20327,7 +20291,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>504</v>
       </c>
@@ -20378,7 +20342,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>504</v>
       </c>
@@ -20429,7 +20393,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>504</v>
       </c>
@@ -20480,7 +20444,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>504</v>
       </c>
@@ -20531,7 +20495,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>504</v>
       </c>
@@ -20582,7 +20546,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>504</v>
       </c>
@@ -20633,7 +20597,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>504</v>
       </c>
@@ -20684,7 +20648,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>504</v>
       </c>
@@ -20735,7 +20699,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>504</v>
       </c>
@@ -20786,7 +20750,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>504</v>
       </c>
@@ -20837,7 +20801,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>504</v>
       </c>
@@ -20888,7 +20852,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>504</v>
       </c>
@@ -20939,7 +20903,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>504</v>
       </c>
@@ -20990,7 +20954,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>504</v>
       </c>
@@ -21041,7 +21005,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>504</v>
       </c>
@@ -21092,7 +21056,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>377</v>
       </c>
@@ -21145,7 +21109,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>377</v>
       </c>
@@ -21198,7 +21162,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>377</v>
       </c>
@@ -21251,7 +21215,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>377</v>
       </c>
@@ -21304,7 +21268,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>377</v>
       </c>
@@ -21357,7 +21321,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>377</v>
       </c>
@@ -21410,7 +21374,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>377</v>
       </c>
@@ -21463,7 +21427,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>377</v>
       </c>
@@ -21516,7 +21480,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>377</v>
       </c>
@@ -21569,7 +21533,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>100</v>
       </c>
@@ -21619,7 +21583,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>100</v>
       </c>
@@ -21669,7 +21633,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>100</v>
       </c>
@@ -21719,7 +21683,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>100</v>
       </c>
@@ -21769,7 +21733,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>100</v>
       </c>
@@ -21819,7 +21783,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>100</v>
       </c>
@@ -21869,7 +21833,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>100</v>
       </c>
@@ -21919,7 +21883,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>100</v>
       </c>
@@ -21969,7 +21933,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>191</v>
       </c>
@@ -22019,7 +21983,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>191</v>
       </c>
@@ -22069,7 +22033,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>191</v>
       </c>
@@ -22119,7 +22083,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>191</v>
       </c>
@@ -22169,7 +22133,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>191</v>
       </c>
@@ -22217,7 +22181,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>191</v>
       </c>
@@ -22267,7 +22231,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>191</v>
       </c>
@@ -22317,7 +22281,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>132</v>
       </c>
@@ -22370,7 +22334,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -22423,7 +22387,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>431</v>
       </c>
@@ -22476,7 +22440,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>431</v>
       </c>
@@ -22529,7 +22493,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>431</v>
       </c>
@@ -22582,7 +22546,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>431</v>
       </c>
@@ -22635,7 +22599,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
         <v>182</v>
       </c>
@@ -22685,7 +22649,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
         <v>132</v>
       </c>
@@ -22738,7 +22702,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
         <v>166</v>
       </c>
@@ -22788,7 +22752,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
         <v>166</v>
       </c>
@@ -22838,7 +22802,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
         <v>166</v>
       </c>
@@ -22888,7 +22852,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
         <v>263</v>
       </c>
@@ -22939,7 +22903,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
         <v>263</v>
       </c>
@@ -22992,7 +22956,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
         <v>377</v>
       </c>
@@ -23045,7 +23009,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
         <v>377</v>
       </c>
@@ -23098,7 +23062,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
         <v>377</v>
       </c>
@@ -23151,7 +23115,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
         <v>377</v>
       </c>
@@ -23196,7 +23160,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="7" t="s">
         <v>603</v>
       </c>
@@ -23243,7 +23207,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
         <v>603</v>
       </c>
@@ -23290,7 +23254,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>614</v>
       </c>
@@ -23343,7 +23307,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>614</v>
       </c>
@@ -23392,7 +23356,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>59</v>
       </c>
@@ -23442,7 +23406,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>59</v>
       </c>
@@ -23492,7 +23456,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>59</v>
       </c>
@@ -23542,7 +23506,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>166</v>
       </c>
@@ -23592,7 +23556,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>182</v>
       </c>
@@ -23634,7 +23598,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>182</v>
       </c>
@@ -23687,33 +23651,33 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>132</v>
+        <v>642</v>
       </c>
       <c r="B406" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C406">
         <v>2017</v>
       </c>
       <c r="D406">
-        <v>7490</v>
+        <v>499.95</v>
       </c>
       <c r="E406">
-        <v>1150</v>
+        <v>530.13610000000006</v>
       </c>
       <c r="F406">
-        <v>126.5</v>
+        <v>89</v>
       </c>
       <c r="G406" s="8">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H406" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I406" s="9" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="J406" s="9" t="s">
         <v>179</v>
@@ -23722,585 +23686,18 @@
         <v>0</v>
       </c>
       <c r="L406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M406" t="s">
         <v>284</v>
       </c>
+      <c r="N406" t="s">
+        <v>583</v>
+      </c>
+      <c r="O406" s="10"/>
+      <c r="P406" s="10"/>
       <c r="Q406">
         <v>405</v>
-      </c>
-    </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A407" t="s">
-        <v>132</v>
-      </c>
-      <c r="B407" t="s">
-        <v>643</v>
-      </c>
-      <c r="C407">
-        <v>2017</v>
-      </c>
-      <c r="D407">
-        <v>4390</v>
-      </c>
-      <c r="E407">
-        <v>820</v>
-      </c>
-      <c r="F407">
-        <v>83.7</v>
-      </c>
-      <c r="G407" s="8">
-        <v>95</v>
-      </c>
-      <c r="H407" s="1">
-        <v>2</v>
-      </c>
-      <c r="I407" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J407" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K407">
-        <v>0</v>
-      </c>
-      <c r="L407">
-        <v>1</v>
-      </c>
-      <c r="M407" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q407" s="12">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A408" t="s">
-        <v>132</v>
-      </c>
-      <c r="B408" t="s">
-        <v>644</v>
-      </c>
-      <c r="C408">
-        <v>2017</v>
-      </c>
-      <c r="D408">
-        <v>4390</v>
-      </c>
-      <c r="E408">
-        <v>800</v>
-      </c>
-      <c r="F408">
-        <v>83.7</v>
-      </c>
-      <c r="G408" s="8">
-        <v>95</v>
-      </c>
-      <c r="H408" s="1">
-        <v>2</v>
-      </c>
-      <c r="I408" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J408" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K408">
-        <v>0</v>
-      </c>
-      <c r="L408">
-        <v>1</v>
-      </c>
-      <c r="M408" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q408" s="12">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A409" t="s">
-        <v>132</v>
-      </c>
-      <c r="B409" t="s">
-        <v>645</v>
-      </c>
-      <c r="C409">
-        <v>2017</v>
-      </c>
-      <c r="D409">
-        <v>4390</v>
-      </c>
-      <c r="E409">
-        <v>770</v>
-      </c>
-      <c r="F409">
-        <v>83.7</v>
-      </c>
-      <c r="G409" s="8">
-        <v>95</v>
-      </c>
-      <c r="H409" s="1">
-        <v>2</v>
-      </c>
-      <c r="I409" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J409" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K409">
-        <v>0</v>
-      </c>
-      <c r="L409">
-        <v>1</v>
-      </c>
-      <c r="M409" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q409" s="12">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A410" t="s">
-        <v>132</v>
-      </c>
-      <c r="B410" t="s">
-        <v>646</v>
-      </c>
-      <c r="C410">
-        <v>2017</v>
-      </c>
-      <c r="D410">
-        <v>4390</v>
-      </c>
-      <c r="E410">
-        <v>880</v>
-      </c>
-      <c r="F410">
-        <v>83.7</v>
-      </c>
-      <c r="G410" s="8">
-        <v>95</v>
-      </c>
-      <c r="H410" s="1">
-        <v>2</v>
-      </c>
-      <c r="I410" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J410" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K410">
-        <v>0</v>
-      </c>
-      <c r="L410">
-        <v>1</v>
-      </c>
-      <c r="M410" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q410" s="12">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A411" t="s">
-        <v>132</v>
-      </c>
-      <c r="B411" t="s">
-        <v>647</v>
-      </c>
-      <c r="C411">
-        <v>2017</v>
-      </c>
-      <c r="D411">
-        <v>6690</v>
-      </c>
-      <c r="E411">
-        <v>1010</v>
-      </c>
-      <c r="F411">
-        <v>126.5</v>
-      </c>
-      <c r="G411" s="8">
-        <v>95</v>
-      </c>
-      <c r="H411" s="1">
-        <v>2</v>
-      </c>
-      <c r="I411" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J411" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K411">
-        <v>0</v>
-      </c>
-      <c r="L411">
-        <v>1</v>
-      </c>
-      <c r="M411" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q411" s="12">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A412" t="s">
-        <v>132</v>
-      </c>
-      <c r="B412" t="s">
-        <v>648</v>
-      </c>
-      <c r="C412">
-        <v>2017</v>
-      </c>
-      <c r="D412">
-        <v>7490</v>
-      </c>
-      <c r="E412">
-        <v>870</v>
-      </c>
-      <c r="F412">
-        <v>83.7</v>
-      </c>
-      <c r="G412" s="8">
-        <v>95</v>
-      </c>
-      <c r="H412" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="I412" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J412" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K412">
-        <v>0</v>
-      </c>
-      <c r="L412">
-        <v>1</v>
-      </c>
-      <c r="M412" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q412" s="12">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A413" t="s">
-        <v>132</v>
-      </c>
-      <c r="B413" t="s">
-        <v>649</v>
-      </c>
-      <c r="C413">
-        <v>2017</v>
-      </c>
-      <c r="D413">
-        <v>6690</v>
-      </c>
-      <c r="E413">
-        <v>860</v>
-      </c>
-      <c r="F413">
-        <v>83.7</v>
-      </c>
-      <c r="G413" s="8">
-        <v>95</v>
-      </c>
-      <c r="H413" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="I413" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J413" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K413">
-        <v>0</v>
-      </c>
-      <c r="L413">
-        <v>1</v>
-      </c>
-      <c r="M413" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q413" s="12">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A414" t="s">
-        <v>132</v>
-      </c>
-      <c r="B414" t="s">
-        <v>650</v>
-      </c>
-      <c r="C414">
-        <v>2017</v>
-      </c>
-      <c r="D414">
-        <v>5790</v>
-      </c>
-      <c r="E414">
-        <v>820</v>
-      </c>
-      <c r="F414">
-        <v>83.7</v>
-      </c>
-      <c r="G414" s="8">
-        <v>95</v>
-      </c>
-      <c r="H414" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="I414" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J414" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K414">
-        <v>0</v>
-      </c>
-      <c r="L414">
-        <v>1</v>
-      </c>
-      <c r="M414" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q414" s="12">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A415" t="s">
-        <v>132</v>
-      </c>
-      <c r="B415" t="s">
-        <v>651</v>
-      </c>
-      <c r="C415">
-        <v>2017</v>
-      </c>
-      <c r="D415">
-        <v>5790</v>
-      </c>
-      <c r="E415">
-        <v>820</v>
-      </c>
-      <c r="F415">
-        <v>83.7</v>
-      </c>
-      <c r="G415" s="8">
-        <v>95</v>
-      </c>
-      <c r="H415" s="1">
-        <v>2</v>
-      </c>
-      <c r="I415" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J415" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K415">
-        <v>0</v>
-      </c>
-      <c r="L415">
-        <v>1</v>
-      </c>
-      <c r="M415" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q415" s="12">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A416" t="s">
-        <v>132</v>
-      </c>
-      <c r="B416" t="s">
-        <v>652</v>
-      </c>
-      <c r="C416">
-        <v>2017</v>
-      </c>
-      <c r="D416">
-        <v>5790</v>
-      </c>
-      <c r="E416">
-        <v>840</v>
-      </c>
-      <c r="F416">
-        <v>83.7</v>
-      </c>
-      <c r="G416" s="8">
-        <v>95</v>
-      </c>
-      <c r="H416" s="1">
-        <v>2</v>
-      </c>
-      <c r="I416" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J416" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K416">
-        <v>0</v>
-      </c>
-      <c r="L416">
-        <v>1</v>
-      </c>
-      <c r="M416" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q416" s="12">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A417" t="s">
-        <v>132</v>
-      </c>
-      <c r="B417" t="s">
-        <v>653</v>
-      </c>
-      <c r="C417">
-        <v>2017</v>
-      </c>
-      <c r="D417">
-        <v>5790</v>
-      </c>
-      <c r="E417">
-        <v>800</v>
-      </c>
-      <c r="F417">
-        <v>83.7</v>
-      </c>
-      <c r="G417" s="8">
-        <v>95</v>
-      </c>
-      <c r="H417" s="1">
-        <v>2</v>
-      </c>
-      <c r="I417" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J417" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K417">
-        <v>0</v>
-      </c>
-      <c r="L417">
-        <v>1</v>
-      </c>
-      <c r="M417" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q417" s="12">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A418" t="s">
-        <v>132</v>
-      </c>
-      <c r="B418" t="s">
-        <v>654</v>
-      </c>
-      <c r="C418">
-        <v>2017</v>
-      </c>
-      <c r="D418">
-        <v>5790</v>
-      </c>
-      <c r="E418">
-        <v>770</v>
-      </c>
-      <c r="F418">
-        <v>83.7</v>
-      </c>
-      <c r="G418" s="8">
-        <v>95</v>
-      </c>
-      <c r="H418" s="1">
-        <v>2</v>
-      </c>
-      <c r="I418" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J418" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K418">
-        <v>0</v>
-      </c>
-      <c r="L418">
-        <v>1</v>
-      </c>
-      <c r="M418" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q418" s="12">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A419" t="s">
-        <v>132</v>
-      </c>
-      <c r="B419" t="s">
-        <v>655</v>
-      </c>
-      <c r="C419">
-        <v>2017</v>
-      </c>
-      <c r="D419">
-        <v>5790</v>
-      </c>
-      <c r="E419">
-        <v>880</v>
-      </c>
-      <c r="F419">
-        <v>83.7</v>
-      </c>
-      <c r="G419" s="8">
-        <v>95</v>
-      </c>
-      <c r="H419" s="1">
-        <v>2</v>
-      </c>
-      <c r="I419" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J419" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K419">
-        <v>0</v>
-      </c>
-      <c r="L419">
-        <v>1</v>
-      </c>
-      <c r="M419" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q419" s="12">
-        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -24316,21 +23713,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>42361</v>
       </c>
@@ -24338,7 +23735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>42369</v>
       </c>
@@ -24346,7 +23743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>42371</v>
       </c>
@@ -24354,7 +23751,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>42372</v>
       </c>
@@ -24362,7 +23759,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>42373</v>
       </c>
@@ -24370,7 +23767,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>42382</v>
       </c>
@@ -24378,7 +23775,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42385</v>
       </c>
@@ -24386,7 +23783,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42387</v>
       </c>
@@ -24394,7 +23791,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>42388</v>
       </c>
@@ -24402,7 +23799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>42390</v>
       </c>
@@ -24410,7 +23807,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>42391</v>
       </c>
@@ -24418,7 +23815,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>42400</v>
       </c>
@@ -24426,7 +23823,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>42414</v>
       </c>
@@ -24434,7 +23831,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>42432</v>
       </c>
@@ -24445,7 +23842,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>42435</v>
       </c>
@@ -24453,7 +23850,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>42436</v>
       </c>
@@ -24461,7 +23858,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>42441</v>
       </c>
@@ -24469,7 +23866,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>42445</v>
       </c>
@@ -24477,7 +23874,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>42453</v>
       </c>
@@ -24485,7 +23882,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>42456</v>
       </c>
@@ -24493,7 +23890,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>42457</v>
       </c>
@@ -24501,7 +23898,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>42458</v>
       </c>
@@ -24509,7 +23906,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>42464</v>
       </c>
@@ -24517,7 +23914,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>42510</v>
       </c>
@@ -24525,7 +23922,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>42515</v>
       </c>
@@ -24533,7 +23930,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>42560</v>
       </c>
@@ -24541,7 +23938,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>42565</v>
       </c>
@@ -24549,7 +23946,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>42576</v>
       </c>
@@ -24557,7 +23954,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>42590</v>
       </c>
@@ -24565,7 +23962,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>42593</v>
       </c>
@@ -24573,7 +23970,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>42598</v>
       </c>
@@ -24581,7 +23978,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>42665</v>
       </c>
@@ -24589,7 +23986,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>42788</v>
       </c>
@@ -24597,7 +23994,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>42831</v>
       </c>
@@ -24605,7 +24002,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>42833</v>
       </c>
@@ -24613,7 +24010,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>42833</v>
       </c>
@@ -24621,7 +24018,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>42874</v>
       </c>
@@ -24629,7 +24026,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>42876</v>
       </c>
@@ -24637,7 +24034,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>42878</v>
       </c>
@@ -24645,7 +24042,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>42878</v>
       </c>
@@ -24653,7 +24050,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>42879</v>
       </c>
@@ -24661,7 +24058,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>42884</v>
       </c>
@@ -24669,7 +24066,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>42887</v>
       </c>
@@ -24677,7 +24074,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>42887</v>
       </c>
@@ -24685,7 +24082,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>42891</v>
       </c>
@@ -24693,7 +24090,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>42901</v>
       </c>
@@ -24701,7 +24098,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>42908</v>
       </c>
@@ -24709,7 +24106,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>42909</v>
       </c>
@@ -24717,7 +24114,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>42910</v>
       </c>
@@ -24725,12 +24122,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
-        <v>42910</v>
+        <v>42913</v>
       </c>
       <c r="B52" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
     <sheet name="Changelog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="658">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1960,6 +1960,45 @@
   </si>
   <si>
     <t>Lensbaby Velvet 85mm added</t>
+  </si>
+  <si>
+    <t>CP.3 XD 100mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 15mm T2.9 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 18mm T2.9 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 21mm T2.9 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 25mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 28mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 35mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 50mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>CP.3 XD 85mm T2.1 Compact Prime</t>
+  </si>
+  <si>
+    <t>GF 23mm f/4 R LM WR</t>
+  </si>
+  <si>
+    <t>GF 110mm f/2 R LM WR</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Restore CP.3 lenses, + GF 23mm and GF 110mm</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2034,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2003,12 +2042,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2023,6 +2077,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2052,8 +2107,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q406" totalsRowShown="0">
-  <autoFilter ref="A1:Q406"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q417" totalsRowShown="0">
+  <autoFilter ref="A1:Q417"/>
   <sortState ref="A2:Q403">
     <sortCondition ref="Q1:Q403"/>
   </sortState>
@@ -2378,10 +2433,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q406"/>
+  <dimension ref="A1:Q417"/>
   <sheetViews>
-    <sheetView topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="H407" sqref="H407"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="E417" sqref="E417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7228,6 +7283,7 @@
       <c r="O89" s="12" t="s">
         <v>629</v>
       </c>
+      <c r="P89" s="10"/>
       <c r="Q89" s="6">
         <v>88</v>
       </c>
@@ -7275,6 +7331,8 @@
       <c r="N90" s="6" t="s">
         <v>578</v>
       </c>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
       <c r="Q90" s="6">
         <v>89</v>
       </c>
@@ -7322,6 +7380,8 @@
       <c r="N91" s="6" t="s">
         <v>578</v>
       </c>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
       <c r="Q91" s="6">
         <v>90</v>
       </c>
@@ -9092,6 +9152,7 @@
       <c r="O124" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P124" s="10"/>
       <c r="Q124" s="6">
         <v>123</v>
       </c>
@@ -9144,6 +9205,7 @@
       <c r="O125" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P125" s="10"/>
       <c r="Q125" s="6">
         <v>124</v>
       </c>
@@ -9196,6 +9258,7 @@
       <c r="O126" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P126" s="10"/>
       <c r="Q126" s="6">
         <v>125</v>
       </c>
@@ -9248,6 +9311,7 @@
       <c r="O127" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P127" s="10"/>
       <c r="Q127" s="6">
         <v>126</v>
       </c>
@@ -9300,6 +9364,7 @@
       <c r="O128" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P128" s="10"/>
       <c r="Q128" s="6">
         <v>127</v>
       </c>
@@ -9352,6 +9417,7 @@
       <c r="O129" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P129" s="10"/>
       <c r="Q129" s="6">
         <v>128</v>
       </c>
@@ -9404,6 +9470,7 @@
       <c r="O130" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P130" s="10"/>
       <c r="Q130" s="6">
         <v>129</v>
       </c>
@@ -9456,6 +9523,7 @@
       <c r="O131" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P131" s="10"/>
       <c r="Q131" s="6">
         <v>130</v>
       </c>
@@ -9508,6 +9576,7 @@
       <c r="O132" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P132" s="10"/>
       <c r="Q132" s="6">
         <v>131</v>
       </c>
@@ -9560,6 +9629,7 @@
       <c r="O133" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P133" s="10"/>
       <c r="Q133" s="6">
         <v>132</v>
       </c>
@@ -9612,6 +9682,7 @@
       <c r="O134" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P134" s="10"/>
       <c r="Q134" s="6">
         <v>133</v>
       </c>
@@ -9664,6 +9735,7 @@
       <c r="O135" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P135" s="10"/>
       <c r="Q135" s="6">
         <v>134</v>
       </c>
@@ -9716,6 +9788,7 @@
       <c r="O136" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P136" s="10"/>
       <c r="Q136" s="6">
         <v>135</v>
       </c>
@@ -9768,6 +9841,7 @@
       <c r="O137" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P137" s="10"/>
       <c r="Q137" s="6">
         <v>136</v>
       </c>
@@ -9820,6 +9894,7 @@
       <c r="O138" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P138" s="10"/>
       <c r="Q138" s="6">
         <v>137</v>
       </c>
@@ -9873,6 +9948,7 @@
       <c r="O139" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P139" s="10"/>
       <c r="Q139" s="6">
         <v>138</v>
       </c>
@@ -9925,6 +10001,7 @@
       <c r="O140" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P140" s="10"/>
       <c r="Q140" s="6">
         <v>139</v>
       </c>
@@ -9977,6 +10054,7 @@
       <c r="O141" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P141" s="10"/>
       <c r="Q141" s="6">
         <v>140</v>
       </c>
@@ -10029,7 +10107,7 @@
       <c r="O142" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="P142" s="12"/>
+      <c r="P142" s="10"/>
       <c r="Q142" s="6">
         <v>141</v>
       </c>
@@ -10082,7 +10160,7 @@
       <c r="O143" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="P143" s="12"/>
+      <c r="P143" s="10"/>
       <c r="Q143" s="6">
         <v>142</v>
       </c>
@@ -10135,7 +10213,7 @@
       <c r="O144" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="P144" s="12"/>
+      <c r="P144" s="10"/>
       <c r="Q144" s="6">
         <v>143</v>
       </c>
@@ -10188,7 +10266,7 @@
       <c r="O145" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="P145" s="12"/>
+      <c r="P145" s="10"/>
       <c r="Q145" s="6">
         <v>144</v>
       </c>
@@ -10241,7 +10319,7 @@
       <c r="O146" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="P146" s="12"/>
+      <c r="P146" s="10"/>
       <c r="Q146" s="6">
         <v>145</v>
       </c>
@@ -10294,6 +10372,7 @@
       <c r="O147" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P147" s="10"/>
       <c r="Q147" s="6">
         <v>146</v>
       </c>
@@ -10346,6 +10425,7 @@
       <c r="O148" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P148" s="10"/>
       <c r="Q148" s="6">
         <v>147</v>
       </c>
@@ -10398,6 +10478,7 @@
       <c r="O149" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P149" s="10"/>
       <c r="Q149" s="6">
         <v>148</v>
       </c>
@@ -10450,6 +10531,7 @@
       <c r="O150" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P150" s="10"/>
       <c r="Q150" s="6">
         <v>149</v>
       </c>
@@ -10502,6 +10584,7 @@
       <c r="O151" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P151" s="10"/>
       <c r="Q151" s="6">
         <v>150</v>
       </c>
@@ -10554,6 +10637,7 @@
       <c r="O152" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P152" s="10"/>
       <c r="Q152" s="6">
         <v>151</v>
       </c>
@@ -10606,6 +10690,7 @@
       <c r="O153" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P153" s="10"/>
       <c r="Q153" s="6">
         <v>152</v>
       </c>
@@ -10658,6 +10743,7 @@
       <c r="O154" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P154" s="10"/>
       <c r="Q154" s="6">
         <v>153</v>
       </c>
@@ -10710,6 +10796,7 @@
       <c r="O155" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P155" s="10"/>
       <c r="Q155" s="6">
         <v>154</v>
       </c>
@@ -10760,6 +10847,7 @@
       <c r="O156" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P156" s="10"/>
       <c r="Q156" s="6">
         <v>155</v>
       </c>
@@ -10810,6 +10898,7 @@
       <c r="O157" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P157" s="10"/>
       <c r="Q157" s="6">
         <v>156</v>
       </c>
@@ -10860,6 +10949,7 @@
       <c r="O158" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P158" s="10"/>
       <c r="Q158" s="6">
         <v>157</v>
       </c>
@@ -10910,6 +11000,7 @@
       <c r="O159" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P159" s="10"/>
       <c r="Q159" s="6">
         <v>158</v>
       </c>
@@ -10960,6 +11051,7 @@
       <c r="O160" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P160" s="10"/>
       <c r="Q160" s="6">
         <v>159</v>
       </c>
@@ -11010,6 +11102,7 @@
       <c r="O161" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P161" s="10"/>
       <c r="Q161" s="6">
         <v>160</v>
       </c>
@@ -11060,6 +11153,7 @@
       <c r="O162" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P162" s="10"/>
       <c r="Q162" s="6">
         <v>161</v>
       </c>
@@ -11110,6 +11204,7 @@
       <c r="O163" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P163" s="10"/>
       <c r="Q163" s="6">
         <v>162</v>
       </c>
@@ -11160,6 +11255,7 @@
       <c r="O164" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P164" s="10"/>
       <c r="Q164" s="6">
         <v>163</v>
       </c>
@@ -11210,6 +11306,7 @@
       <c r="O165" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P165" s="10"/>
       <c r="Q165" s="6">
         <v>164</v>
       </c>
@@ -11260,6 +11357,7 @@
       <c r="O166" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P166" s="10"/>
       <c r="Q166" s="6">
         <v>165</v>
       </c>
@@ -12124,6 +12222,7 @@
       <c r="O182" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P182" s="10"/>
       <c r="Q182" s="6">
         <v>181</v>
       </c>
@@ -12176,6 +12275,7 @@
       <c r="O183" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P183" s="10"/>
       <c r="Q183" s="6">
         <v>182</v>
       </c>
@@ -12228,6 +12328,7 @@
       <c r="O184" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P184" s="10"/>
       <c r="Q184" s="6">
         <v>183</v>
       </c>
@@ -12280,6 +12381,7 @@
       <c r="O185" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P185" s="10"/>
       <c r="Q185" s="6">
         <v>184</v>
       </c>
@@ -12332,6 +12434,7 @@
       <c r="O186" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P186" s="10"/>
       <c r="Q186" s="6">
         <v>185</v>
       </c>
@@ -12384,6 +12487,7 @@
       <c r="O187" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P187" s="10"/>
       <c r="Q187" s="6">
         <v>186</v>
       </c>
@@ -12436,6 +12540,7 @@
       <c r="O188" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P188" s="10"/>
       <c r="Q188" s="6">
         <v>187</v>
       </c>
@@ -12488,6 +12593,7 @@
       <c r="O189" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P189" s="10"/>
       <c r="Q189" s="6">
         <v>188</v>
       </c>
@@ -12540,6 +12646,7 @@
       <c r="O190" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P190" s="10"/>
       <c r="Q190" s="6">
         <v>189</v>
       </c>
@@ -12592,6 +12699,7 @@
       <c r="O191" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P191" s="10"/>
       <c r="Q191" s="6">
         <v>190</v>
       </c>
@@ -12644,6 +12752,7 @@
       <c r="O192" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P192" s="10"/>
       <c r="Q192" s="6">
         <v>191</v>
       </c>
@@ -12694,6 +12803,7 @@
       <c r="O193" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P193" s="10"/>
       <c r="Q193" s="6">
         <v>192</v>
       </c>
@@ -12744,6 +12854,7 @@
       <c r="O194" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P194" s="10"/>
       <c r="Q194" s="6">
         <v>193</v>
       </c>
@@ -12791,6 +12902,7 @@
       <c r="O195" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P195" s="10"/>
       <c r="Q195" s="6">
         <v>194</v>
       </c>
@@ -12841,6 +12953,7 @@
       <c r="O196" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P196" s="10"/>
       <c r="Q196" s="6">
         <v>195</v>
       </c>
@@ -12891,6 +13004,7 @@
       <c r="O197" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P197" s="10"/>
       <c r="Q197" s="6">
         <v>196</v>
       </c>
@@ -12941,6 +13055,7 @@
       <c r="O198" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P198" s="10"/>
       <c r="Q198" s="6">
         <v>197</v>
       </c>
@@ -12993,6 +13108,7 @@
       <c r="O199" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P199" s="10"/>
       <c r="Q199" s="6">
         <v>198</v>
       </c>
@@ -13045,6 +13161,7 @@
       <c r="O200" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P200" s="10"/>
       <c r="Q200" s="6">
         <v>199</v>
       </c>
@@ -13097,6 +13214,7 @@
       <c r="O201" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P201" s="10"/>
       <c r="Q201" s="6">
         <v>200</v>
       </c>
@@ -13149,6 +13267,7 @@
       <c r="O202" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P202" s="10"/>
       <c r="Q202" s="6">
         <v>201</v>
       </c>
@@ -13201,6 +13320,7 @@
       <c r="O203" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P203" s="10"/>
       <c r="Q203" s="6">
         <v>202</v>
       </c>
@@ -13253,6 +13373,7 @@
       <c r="O204" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P204" s="10"/>
       <c r="Q204" s="6">
         <v>203</v>
       </c>
@@ -13306,6 +13427,7 @@
       <c r="O205" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P205" s="10"/>
       <c r="Q205" s="6">
         <v>204</v>
       </c>
@@ -13358,6 +13480,7 @@
       <c r="O206" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P206" s="10"/>
       <c r="Q206" s="6">
         <v>205</v>
       </c>
@@ -13410,6 +13533,7 @@
       <c r="O207" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P207" s="10"/>
       <c r="Q207" s="6">
         <v>206</v>
       </c>
@@ -13462,6 +13586,7 @@
       <c r="O208" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P208" s="10"/>
       <c r="Q208" s="6">
         <v>207</v>
       </c>
@@ -13514,6 +13639,7 @@
       <c r="O209" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P209" s="10"/>
       <c r="Q209" s="6">
         <v>208</v>
       </c>
@@ -13566,6 +13692,7 @@
       <c r="O210" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P210" s="10"/>
       <c r="Q210" s="6">
         <v>209</v>
       </c>
@@ -13618,6 +13745,7 @@
       <c r="O211" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P211" s="10"/>
       <c r="Q211" s="6">
         <v>210</v>
       </c>
@@ -13670,6 +13798,7 @@
       <c r="O212" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P212" s="10"/>
       <c r="Q212" s="6">
         <v>211</v>
       </c>
@@ -13722,6 +13851,7 @@
       <c r="O213" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P213" s="10"/>
       <c r="Q213" s="6">
         <v>212</v>
       </c>
@@ -13772,6 +13902,7 @@
       <c r="O214" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P214" s="10"/>
       <c r="Q214" s="6">
         <v>213</v>
       </c>
@@ -13824,6 +13955,7 @@
       <c r="O215" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P215" s="10"/>
       <c r="Q215" s="6">
         <v>214</v>
       </c>
@@ -13876,6 +14008,7 @@
       <c r="O216" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P216" s="10"/>
       <c r="Q216" s="6">
         <v>215</v>
       </c>
@@ -13928,6 +14061,7 @@
       <c r="O217" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P217" s="10"/>
       <c r="Q217" s="6">
         <v>216</v>
       </c>
@@ -13980,6 +14114,7 @@
       <c r="O218" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P218" s="10"/>
       <c r="Q218" s="6">
         <v>217</v>
       </c>
@@ -14032,6 +14167,7 @@
       <c r="O219" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P219" s="10"/>
       <c r="Q219" s="6">
         <v>218</v>
       </c>
@@ -14084,6 +14220,7 @@
       <c r="O220" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P220" s="10"/>
       <c r="Q220" s="6">
         <v>219</v>
       </c>
@@ -14136,6 +14273,7 @@
       <c r="O221" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P221" s="10"/>
       <c r="Q221" s="6">
         <v>220</v>
       </c>
@@ -14188,6 +14326,7 @@
       <c r="O222" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P222" s="10"/>
       <c r="Q222" s="6">
         <v>221</v>
       </c>
@@ -14240,6 +14379,7 @@
       <c r="O223" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P223" s="10"/>
       <c r="Q223" s="6">
         <v>222</v>
       </c>
@@ -14290,6 +14430,7 @@
       <c r="O224" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P224" s="10"/>
       <c r="Q224" s="6">
         <v>223</v>
       </c>
@@ -14340,6 +14481,7 @@
       <c r="O225" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P225" s="10"/>
       <c r="Q225" s="6">
         <v>224</v>
       </c>
@@ -14390,6 +14532,7 @@
       <c r="O226" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P226" s="10"/>
       <c r="Q226" s="6">
         <v>225</v>
       </c>
@@ -14442,6 +14585,7 @@
       <c r="O227" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P227" s="10"/>
       <c r="Q227" s="6">
         <v>226</v>
       </c>
@@ -14494,6 +14638,7 @@
       <c r="O228" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P228" s="10"/>
       <c r="Q228" s="6">
         <v>227</v>
       </c>
@@ -14546,6 +14691,7 @@
       <c r="O229" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P229" s="10"/>
       <c r="Q229" s="6">
         <v>228</v>
       </c>
@@ -14598,6 +14744,7 @@
       <c r="O230" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P230" s="10"/>
       <c r="Q230" s="6">
         <v>229</v>
       </c>
@@ -14650,6 +14797,7 @@
       <c r="O231" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P231" s="10"/>
       <c r="Q231" s="6">
         <v>230</v>
       </c>
@@ -14700,6 +14848,7 @@
       <c r="O232" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P232" s="10"/>
       <c r="Q232" s="6">
         <v>231</v>
       </c>
@@ -14961,6 +15110,8 @@
       <c r="N237" s="6" t="s">
         <v>578</v>
       </c>
+      <c r="O237" s="14"/>
+      <c r="P237" s="14"/>
       <c r="Q237" s="6">
         <v>236</v>
       </c>
@@ -15008,6 +15159,8 @@
       <c r="N238" s="6" t="s">
         <v>578</v>
       </c>
+      <c r="O238" s="14"/>
+      <c r="P238" s="14"/>
       <c r="Q238" s="6">
         <v>237</v>
       </c>
@@ -15055,6 +15208,8 @@
       <c r="N239" s="6" t="s">
         <v>578</v>
       </c>
+      <c r="O239" s="14"/>
+      <c r="P239" s="14"/>
       <c r="Q239" s="6">
         <v>238</v>
       </c>
@@ -15104,6 +15259,8 @@
       <c r="N240" s="6" t="s">
         <v>580</v>
       </c>
+      <c r="O240" s="14"/>
+      <c r="P240" s="14"/>
       <c r="Q240" s="6">
         <v>239</v>
       </c>
@@ -15151,6 +15308,8 @@
       <c r="N241" s="6" t="s">
         <v>580</v>
       </c>
+      <c r="O241" s="14"/>
+      <c r="P241" s="14"/>
       <c r="Q241" s="6">
         <v>240</v>
       </c>
@@ -15198,6 +15357,8 @@
       <c r="N242" s="6" t="s">
         <v>580</v>
       </c>
+      <c r="O242" s="14"/>
+      <c r="P242" s="14"/>
       <c r="Q242" s="6">
         <v>241</v>
       </c>
@@ -15245,6 +15406,8 @@
       <c r="N243" s="6" t="s">
         <v>580</v>
       </c>
+      <c r="O243" s="14"/>
+      <c r="P243" s="14"/>
       <c r="Q243" s="6">
         <v>242</v>
       </c>
@@ -15294,6 +15457,8 @@
       <c r="N244" s="6" t="s">
         <v>581</v>
       </c>
+      <c r="O244" s="14"/>
+      <c r="P244" s="14"/>
       <c r="Q244" s="6">
         <v>243</v>
       </c>
@@ -15341,6 +15506,8 @@
       <c r="N245" s="6" t="s">
         <v>580</v>
       </c>
+      <c r="O245" s="14"/>
+      <c r="P245" s="14"/>
       <c r="Q245" s="6">
         <v>244</v>
       </c>
@@ -15388,6 +15555,8 @@
       <c r="N246" s="6" t="s">
         <v>580</v>
       </c>
+      <c r="O246" s="14"/>
+      <c r="P246" s="14"/>
       <c r="Q246" s="6">
         <v>245</v>
       </c>
@@ -15435,6 +15604,8 @@
       <c r="N247" s="6" t="s">
         <v>580</v>
       </c>
+      <c r="O247" s="14"/>
+      <c r="P247" s="14"/>
       <c r="Q247" s="6">
         <v>246</v>
       </c>
@@ -15482,6 +15653,8 @@
       <c r="N248" s="6" t="s">
         <v>580</v>
       </c>
+      <c r="O248" s="14"/>
+      <c r="P248" s="14"/>
       <c r="Q248" s="6">
         <v>247</v>
       </c>
@@ -15529,6 +15702,8 @@
       <c r="N249" s="6" t="s">
         <v>581</v>
       </c>
+      <c r="O249" s="14"/>
+      <c r="P249" s="14"/>
       <c r="Q249" s="6">
         <v>248</v>
       </c>
@@ -15578,6 +15753,8 @@
       <c r="N250" s="6" t="s">
         <v>583</v>
       </c>
+      <c r="O250" s="14"/>
+      <c r="P250" s="14"/>
       <c r="Q250" s="6">
         <v>249</v>
       </c>
@@ -15625,6 +15802,8 @@
       <c r="N251" s="6" t="s">
         <v>581</v>
       </c>
+      <c r="O251" s="14"/>
+      <c r="P251" s="14"/>
       <c r="Q251" s="6">
         <v>250</v>
       </c>
@@ -15672,6 +15851,8 @@
       <c r="N252" s="6" t="s">
         <v>581</v>
       </c>
+      <c r="O252" s="14"/>
+      <c r="P252" s="14"/>
       <c r="Q252" s="6">
         <v>251</v>
       </c>
@@ -15719,6 +15900,8 @@
       <c r="N253" s="6" t="s">
         <v>583</v>
       </c>
+      <c r="O253" s="14"/>
+      <c r="P253" s="14"/>
       <c r="Q253" s="6">
         <v>252</v>
       </c>
@@ -19162,6 +19345,7 @@
       <c r="O317" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P317" s="10"/>
       <c r="Q317" s="6">
         <v>316</v>
       </c>
@@ -19212,6 +19396,7 @@
       <c r="O318" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P318" s="10"/>
       <c r="Q318" s="6">
         <v>317</v>
       </c>
@@ -19260,6 +19445,7 @@
       <c r="O319" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P319" s="10"/>
       <c r="Q319" s="6">
         <v>318</v>
       </c>
@@ -19310,6 +19496,7 @@
       <c r="O320" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P320" s="10"/>
       <c r="Q320" s="6">
         <v>319</v>
       </c>
@@ -21579,6 +21766,7 @@
       <c r="O364" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P364" s="10"/>
       <c r="Q364" s="7">
         <v>363</v>
       </c>
@@ -21629,6 +21817,7 @@
       <c r="O365" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P365" s="10"/>
       <c r="Q365" s="7">
         <v>364</v>
       </c>
@@ -21679,6 +21868,7 @@
       <c r="O366" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P366" s="10"/>
       <c r="Q366" s="7">
         <v>365</v>
       </c>
@@ -21729,6 +21919,7 @@
       <c r="O367" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P367" s="10"/>
       <c r="Q367" s="7">
         <v>366</v>
       </c>
@@ -21779,6 +21970,7 @@
       <c r="O368" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P368" s="10"/>
       <c r="Q368" s="7">
         <v>367</v>
       </c>
@@ -21829,6 +22021,7 @@
       <c r="O369" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P369" s="10"/>
       <c r="Q369" s="7">
         <v>368</v>
       </c>
@@ -21879,6 +22072,7 @@
       <c r="O370" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P370" s="10"/>
       <c r="Q370" s="7">
         <v>369</v>
       </c>
@@ -21929,6 +22123,7 @@
       <c r="O371" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P371" s="10"/>
       <c r="Q371" s="7">
         <v>370</v>
       </c>
@@ -21979,6 +22174,7 @@
       <c r="O372" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P372" s="10"/>
       <c r="Q372" s="7">
         <v>371</v>
       </c>
@@ -22029,6 +22225,7 @@
       <c r="O373" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P373" s="10"/>
       <c r="Q373" s="7">
         <v>372</v>
       </c>
@@ -22079,6 +22276,7 @@
       <c r="O374" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P374" s="10"/>
       <c r="Q374" s="7">
         <v>373</v>
       </c>
@@ -22129,6 +22327,7 @@
       <c r="O375" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P375" s="10"/>
       <c r="Q375" s="7">
         <v>374</v>
       </c>
@@ -22177,6 +22376,7 @@
       <c r="O376" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P376" s="10"/>
       <c r="Q376" s="7">
         <v>375</v>
       </c>
@@ -22227,6 +22427,7 @@
       <c r="O377" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P377" s="10"/>
       <c r="Q377" s="7">
         <v>376</v>
       </c>
@@ -22277,6 +22478,7 @@
       <c r="O378" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P378" s="10"/>
       <c r="Q378" s="7">
         <v>377</v>
       </c>
@@ -22645,6 +22847,7 @@
       <c r="O385" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P385" s="10"/>
       <c r="Q385" s="7">
         <v>384</v>
       </c>
@@ -22748,6 +22951,7 @@
       <c r="O387" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P387" s="10"/>
       <c r="Q387" s="7">
         <v>386</v>
       </c>
@@ -22798,6 +23002,7 @@
       <c r="O388" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P388" s="10"/>
       <c r="Q388" s="7">
         <v>387</v>
       </c>
@@ -22848,6 +23053,7 @@
       <c r="O389" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P389" s="10"/>
       <c r="Q389" s="7">
         <v>388</v>
       </c>
@@ -23203,6 +23409,8 @@
       <c r="N396" s="12" t="s">
         <v>581</v>
       </c>
+      <c r="O396" s="10"/>
+      <c r="P396" s="10"/>
       <c r="Q396" s="7">
         <v>395</v>
       </c>
@@ -23250,6 +23458,8 @@
       <c r="N397" s="12" t="s">
         <v>583</v>
       </c>
+      <c r="O397" s="10"/>
+      <c r="P397" s="10"/>
       <c r="Q397" s="7">
         <v>396</v>
       </c>
@@ -23402,6 +23612,7 @@
       <c r="O400" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P400" s="10"/>
       <c r="Q400">
         <v>399</v>
       </c>
@@ -23452,6 +23663,7 @@
       <c r="O401" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P401" s="10"/>
       <c r="Q401">
         <v>400</v>
       </c>
@@ -23502,6 +23714,7 @@
       <c r="O402" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P402" s="10"/>
       <c r="Q402">
         <v>401</v>
       </c>
@@ -23552,6 +23765,7 @@
       <c r="O403" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P403" s="10"/>
       <c r="Q403">
         <v>402</v>
       </c>
@@ -23594,6 +23808,7 @@
       <c r="O404" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P404" s="10"/>
       <c r="Q404">
         <v>403</v>
       </c>
@@ -23698,6 +23913,584 @@
       <c r="P406" s="10"/>
       <c r="Q406">
         <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A407" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B407" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="C407" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D407" s="12">
+        <v>6690</v>
+      </c>
+      <c r="E407" s="12">
+        <v>1010</v>
+      </c>
+      <c r="F407" s="12">
+        <v>126.5</v>
+      </c>
+      <c r="G407" s="8">
+        <v>95</v>
+      </c>
+      <c r="H407" s="12">
+        <v>2</v>
+      </c>
+      <c r="I407" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J407" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K407" s="12">
+        <v>0</v>
+      </c>
+      <c r="L407" s="12">
+        <v>1</v>
+      </c>
+      <c r="M407" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N407" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="O407" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P407" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q407" s="12">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A408" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B408" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="C408" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D408" s="12">
+        <v>7490</v>
+      </c>
+      <c r="E408" s="12">
+        <v>870</v>
+      </c>
+      <c r="F408" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="G408" s="8">
+        <v>95</v>
+      </c>
+      <c r="H408" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="I408" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J408" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K408" s="12">
+        <v>0</v>
+      </c>
+      <c r="L408" s="12">
+        <v>1</v>
+      </c>
+      <c r="M408" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N408" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="O408" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P408" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q408" s="12">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A409" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B409" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="C409" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D409" s="12">
+        <v>6690</v>
+      </c>
+      <c r="E409" s="12">
+        <v>860</v>
+      </c>
+      <c r="F409" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="G409" s="8">
+        <v>95</v>
+      </c>
+      <c r="H409" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="I409" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J409" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K409" s="12">
+        <v>0</v>
+      </c>
+      <c r="L409" s="12">
+        <v>1</v>
+      </c>
+      <c r="M409" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N409" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="O409" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P409" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q409" s="12">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A410" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="C410" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D410" s="12">
+        <v>5790</v>
+      </c>
+      <c r="E410" s="12">
+        <v>820</v>
+      </c>
+      <c r="F410" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="G410" s="8">
+        <v>95</v>
+      </c>
+      <c r="H410" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="I410" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J410" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K410" s="12">
+        <v>0</v>
+      </c>
+      <c r="L410" s="12">
+        <v>1</v>
+      </c>
+      <c r="M410" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N410" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="O410" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P410" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q410" s="12">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A411" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B411" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="C411" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D411" s="12">
+        <v>5790</v>
+      </c>
+      <c r="E411" s="12">
+        <v>820</v>
+      </c>
+      <c r="F411" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="G411" s="8">
+        <v>95</v>
+      </c>
+      <c r="H411" s="12">
+        <v>2</v>
+      </c>
+      <c r="I411" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J411" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K411" s="12">
+        <v>0</v>
+      </c>
+      <c r="L411" s="12">
+        <v>1</v>
+      </c>
+      <c r="M411" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N411" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="O411" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P411" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q411" s="12">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A412" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="C412" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D412" s="12">
+        <v>5790</v>
+      </c>
+      <c r="E412" s="12">
+        <v>840</v>
+      </c>
+      <c r="F412" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="G412" s="8">
+        <v>95</v>
+      </c>
+      <c r="H412" s="12">
+        <v>2</v>
+      </c>
+      <c r="I412" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J412" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K412" s="12">
+        <v>0</v>
+      </c>
+      <c r="L412" s="12">
+        <v>1</v>
+      </c>
+      <c r="M412" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N412" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="O412" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P412" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q412" s="12">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A413" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B413" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C413" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D413" s="12">
+        <v>5790</v>
+      </c>
+      <c r="E413" s="12">
+        <v>800</v>
+      </c>
+      <c r="F413" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="G413" s="8">
+        <v>95</v>
+      </c>
+      <c r="H413" s="12">
+        <v>2</v>
+      </c>
+      <c r="I413" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J413" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K413" s="12">
+        <v>0</v>
+      </c>
+      <c r="L413" s="12">
+        <v>1</v>
+      </c>
+      <c r="M413" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N413" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="O413" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P413" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q413" s="12">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A414" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B414" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C414" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D414" s="12">
+        <v>5790</v>
+      </c>
+      <c r="E414" s="12">
+        <v>770</v>
+      </c>
+      <c r="F414" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="G414" s="8">
+        <v>95</v>
+      </c>
+      <c r="H414" s="12">
+        <v>2</v>
+      </c>
+      <c r="I414" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J414" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K414" s="12">
+        <v>0</v>
+      </c>
+      <c r="L414" s="12">
+        <v>1</v>
+      </c>
+      <c r="M414" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N414" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="O414" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P414" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q414" s="12">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A415" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B415" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="C415" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D415" s="12">
+        <v>5790</v>
+      </c>
+      <c r="E415" s="12">
+        <v>880</v>
+      </c>
+      <c r="F415" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="G415" s="8">
+        <v>95</v>
+      </c>
+      <c r="H415" s="12">
+        <v>2</v>
+      </c>
+      <c r="I415" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J415" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K415" s="12">
+        <v>0</v>
+      </c>
+      <c r="L415" s="12">
+        <v>1</v>
+      </c>
+      <c r="M415" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N415" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="O415" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P415" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q415" s="12">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A416" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B416" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C416" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D416" s="12">
+        <v>2599</v>
+      </c>
+      <c r="E416" s="12">
+        <v>845</v>
+      </c>
+      <c r="F416" s="12">
+        <v>103</v>
+      </c>
+      <c r="G416" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="H416" s="12">
+        <v>4</v>
+      </c>
+      <c r="I416" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="J416" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K416" s="12">
+        <v>0</v>
+      </c>
+      <c r="L416" s="12">
+        <v>0</v>
+      </c>
+      <c r="M416" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="N416" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="O416" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="P416" s="10"/>
+      <c r="Q416" s="12">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>377</v>
+      </c>
+      <c r="B417" t="s">
+        <v>655</v>
+      </c>
+      <c r="C417">
+        <v>2017</v>
+      </c>
+      <c r="D417">
+        <v>2799</v>
+      </c>
+      <c r="E417">
+        <v>1010</v>
+      </c>
+      <c r="F417">
+        <v>125.5</v>
+      </c>
+      <c r="G417" s="8">
+        <v>94.3</v>
+      </c>
+      <c r="H417" s="1">
+        <v>2</v>
+      </c>
+      <c r="I417" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="J417" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>0</v>
+      </c>
+      <c r="M417" t="s">
+        <v>597</v>
+      </c>
+      <c r="N417" t="s">
+        <v>583</v>
+      </c>
+      <c r="O417" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q417">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -23711,10 +24504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24130,6 +24923,14 @@
         <v>644</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
+        <v>42914</v>
+      </c>
+      <c r="B53" t="s">
+        <v>657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="659">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1999,6 +1999,9 @@
   </si>
   <si>
     <t>Restore CP.3 lenses, + GF 23mm and GF 110mm</t>
+  </si>
+  <si>
+    <t>Milvus 35mm f/1.4 ZE</t>
   </si>
 </sst>
 </file>
@@ -2107,8 +2110,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q417" totalsRowShown="0">
-  <autoFilter ref="A1:Q417"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q418" totalsRowShown="0">
+  <autoFilter ref="A1:Q418"/>
   <sortState ref="A2:Q403">
     <sortCondition ref="Q1:Q403"/>
   </sortState>
@@ -2433,10 +2436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q417"/>
+  <dimension ref="A1:Q418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="E417" sqref="E417"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="Q417" sqref="Q417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24489,8 +24492,62 @@
       <c r="O417" s="12" t="s">
         <v>626</v>
       </c>
+      <c r="P417" s="10"/>
       <c r="Q417">
         <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>132</v>
+      </c>
+      <c r="B418" t="s">
+        <v>658</v>
+      </c>
+      <c r="C418">
+        <v>2017</v>
+      </c>
+      <c r="D418">
+        <v>1999</v>
+      </c>
+      <c r="E418">
+        <v>1170</v>
+      </c>
+      <c r="F418">
+        <v>124.8</v>
+      </c>
+      <c r="G418" s="8">
+        <v>84.8</v>
+      </c>
+      <c r="H418" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I418" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J418" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+      <c r="M418" t="s">
+        <v>284</v>
+      </c>
+      <c r="N418" t="s">
+        <v>580</v>
+      </c>
+      <c r="O418" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P418" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q418">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="668">
   <si>
     <t>Manufacture</t>
   </si>
@@ -2002,6 +2002,33 @@
   </si>
   <si>
     <t>Milvus 35mm f/1.4 ZE</t>
+  </si>
+  <si>
+    <t>Veydra</t>
+  </si>
+  <si>
+    <t>12mm T2.2 Mini Prime</t>
+  </si>
+  <si>
+    <t>16mm T2.2 Mini Prime</t>
+  </si>
+  <si>
+    <t>25mm T2.2 Mini Prime</t>
+  </si>
+  <si>
+    <t>35mm T2.2 Mini Prime</t>
+  </si>
+  <si>
+    <t>50mm T2.2 Mini Prime</t>
+  </si>
+  <si>
+    <t>19mm T2.6 Mini Prime</t>
+  </si>
+  <si>
+    <t>85mm T2.2 Mini Prime</t>
+  </si>
+  <si>
+    <t>Veydra lenses, Tamron 24-70 G2 metadata</t>
   </si>
 </sst>
 </file>
@@ -2110,8 +2137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q418" totalsRowShown="0">
-  <autoFilter ref="A1:Q418"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q425" totalsRowShown="0">
+  <autoFilter ref="A1:Q425"/>
   <sortState ref="A2:Q403">
     <sortCondition ref="Q1:Q403"/>
   </sortState>
@@ -2436,10 +2463,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q418"/>
+  <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="Q417" sqref="Q417"/>
+    <sheetView topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="O405" sqref="O405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23783,10 +23810,18 @@
       <c r="C404">
         <v>2017</v>
       </c>
-      <c r="D404" s="10"/>
-      <c r="E404" s="10"/>
-      <c r="F404" s="10"/>
-      <c r="G404" s="11"/>
+      <c r="D404" s="12">
+        <v>1199</v>
+      </c>
+      <c r="E404" s="12">
+        <v>904</v>
+      </c>
+      <c r="F404" s="12">
+        <v>111.8</v>
+      </c>
+      <c r="G404" s="12">
+        <v>88.4</v>
+      </c>
       <c r="H404" s="1">
         <v>2.8</v>
       </c>
@@ -24548,6 +24583,329 @@
       </c>
       <c r="Q418">
         <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>659</v>
+      </c>
+      <c r="B419" t="s">
+        <v>660</v>
+      </c>
+      <c r="C419" s="10">
+        <v>2014</v>
+      </c>
+      <c r="D419">
+        <v>999</v>
+      </c>
+      <c r="E419">
+        <v>544</v>
+      </c>
+      <c r="F419" s="10"/>
+      <c r="G419" s="8">
+        <v>80</v>
+      </c>
+      <c r="H419" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I419" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J419" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+      <c r="L419">
+        <v>1</v>
+      </c>
+      <c r="M419" t="s">
+        <v>292</v>
+      </c>
+      <c r="N419" t="s">
+        <v>580</v>
+      </c>
+      <c r="O419" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P419" s="10"/>
+      <c r="Q419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>659</v>
+      </c>
+      <c r="B420" t="s">
+        <v>661</v>
+      </c>
+      <c r="C420" s="10">
+        <v>2014</v>
+      </c>
+      <c r="D420">
+        <v>999</v>
+      </c>
+      <c r="E420">
+        <v>546</v>
+      </c>
+      <c r="F420" s="10"/>
+      <c r="G420" s="8">
+        <v>80</v>
+      </c>
+      <c r="H420" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I420" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="J420" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
+      <c r="L420">
+        <v>1</v>
+      </c>
+      <c r="M420" t="s">
+        <v>292</v>
+      </c>
+      <c r="O420" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P420" s="10"/>
+      <c r="Q420" s="12">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B421" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="C421" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D421" s="12">
+        <v>999</v>
+      </c>
+      <c r="E421" s="10"/>
+      <c r="F421" s="10"/>
+      <c r="G421" s="8">
+        <v>80</v>
+      </c>
+      <c r="H421" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="I421" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J421" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K421" s="12">
+        <v>0</v>
+      </c>
+      <c r="L421" s="12">
+        <v>1</v>
+      </c>
+      <c r="M421" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="O421" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P421" s="10"/>
+      <c r="Q421" s="12">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>659</v>
+      </c>
+      <c r="B422" t="s">
+        <v>662</v>
+      </c>
+      <c r="C422" s="10">
+        <v>2014</v>
+      </c>
+      <c r="D422">
+        <v>899</v>
+      </c>
+      <c r="E422">
+        <v>500</v>
+      </c>
+      <c r="F422" s="10"/>
+      <c r="G422" s="8">
+        <v>80</v>
+      </c>
+      <c r="H422" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I422" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J422" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K422">
+        <v>0</v>
+      </c>
+      <c r="L422">
+        <v>1</v>
+      </c>
+      <c r="M422" t="s">
+        <v>292</v>
+      </c>
+      <c r="O422" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P422" s="10"/>
+      <c r="Q422" s="12">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>659</v>
+      </c>
+      <c r="B423" t="s">
+        <v>663</v>
+      </c>
+      <c r="C423" s="10">
+        <v>2014</v>
+      </c>
+      <c r="D423">
+        <v>799</v>
+      </c>
+      <c r="E423">
+        <v>473</v>
+      </c>
+      <c r="F423" s="10"/>
+      <c r="G423" s="8">
+        <v>80</v>
+      </c>
+      <c r="H423" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I423" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J423" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+      <c r="L423">
+        <v>1</v>
+      </c>
+      <c r="M423" t="s">
+        <v>292</v>
+      </c>
+      <c r="O423" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P423" s="10"/>
+      <c r="Q423" s="12">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>659</v>
+      </c>
+      <c r="B424" t="s">
+        <v>664</v>
+      </c>
+      <c r="C424" s="10">
+        <v>2014</v>
+      </c>
+      <c r="D424">
+        <v>799</v>
+      </c>
+      <c r="E424">
+        <v>461</v>
+      </c>
+      <c r="F424" s="10"/>
+      <c r="G424" s="8">
+        <v>80</v>
+      </c>
+      <c r="H424" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I424" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J424" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+      <c r="L424">
+        <v>1</v>
+      </c>
+      <c r="M424" t="s">
+        <v>292</v>
+      </c>
+      <c r="O424" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P424" s="10"/>
+      <c r="Q424" s="12">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>659</v>
+      </c>
+      <c r="B425" t="s">
+        <v>666</v>
+      </c>
+      <c r="C425">
+        <v>2015</v>
+      </c>
+      <c r="D425">
+        <v>999</v>
+      </c>
+      <c r="E425">
+        <v>770</v>
+      </c>
+      <c r="F425" s="10"/>
+      <c r="G425" s="8">
+        <v>80</v>
+      </c>
+      <c r="H425" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I425" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J425" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+      <c r="L425">
+        <v>1</v>
+      </c>
+      <c r="M425" t="s">
+        <v>292</v>
+      </c>
+      <c r="O425" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P425" s="10"/>
+      <c r="Q425">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -24561,10 +24919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24988,6 +25346,14 @@
         <v>657</v>
       </c>
     </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
+        <v>42948</v>
+      </c>
+      <c r="B54" t="s">
+        <v>667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="670">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1668,27 +1668,6 @@
     <t>50-100mm T2 Cine</t>
   </si>
   <si>
-    <t>85mm T1.5 FF</t>
-  </si>
-  <si>
-    <t>14mm T2 FF</t>
-  </si>
-  <si>
-    <t>20mm T1.5 FF</t>
-  </si>
-  <si>
-    <t>24mm T1.5 FF</t>
-  </si>
-  <si>
-    <t>35mm T1.5 FF</t>
-  </si>
-  <si>
-    <t>135mm T2 FF</t>
-  </si>
-  <si>
-    <t>50mm T1.5 FF</t>
-  </si>
-  <si>
     <t>AT-X 16-28mm T3</t>
   </si>
   <si>
@@ -2032,6 +2011,30 @@
   </si>
   <si>
     <t>Removed slashes for old T#'s</t>
+  </si>
+  <si>
+    <t>Cine 85mm T1.5 FF</t>
+  </si>
+  <si>
+    <t>Cine 14mm T2 FF</t>
+  </si>
+  <si>
+    <t>Cine 20mm T1.5 FF</t>
+  </si>
+  <si>
+    <t>Cine 24mm T1.5 FF</t>
+  </si>
+  <si>
+    <t>Cine 35mm T1.5 FF</t>
+  </si>
+  <si>
+    <t>Cine 50mm T1.5 FF</t>
+  </si>
+  <si>
+    <t>Cine 135mm T2 FF</t>
+  </si>
+  <si>
+    <t>Added 'Cine' to modelnames for Sigma primes</t>
   </si>
 </sst>
 </file>
@@ -2468,8 +2471,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="B364" sqref="B364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2530,16 +2533,16 @@
         <v>277</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -2585,13 +2588,13 @@
         <v>278</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q2" s="6">
         <v>1</v>
@@ -2640,13 +2643,13 @@
         <v>278</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q3" s="6">
         <v>2</v>
@@ -2695,13 +2698,13 @@
         <v>278</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q4" s="6">
         <v>3</v>
@@ -2750,13 +2753,13 @@
         <v>278</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q5" s="6">
         <v>4</v>
@@ -2805,13 +2808,13 @@
         <v>278</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q6" s="6">
         <v>5</v>
@@ -2860,13 +2863,13 @@
         <v>278</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q7" s="6">
         <v>6</v>
@@ -2915,13 +2918,13 @@
         <v>278</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q8" s="6">
         <v>7</v>
@@ -2970,13 +2973,13 @@
         <v>278</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q9" s="6">
         <v>8</v>
@@ -3025,13 +3028,13 @@
         <v>278</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q10" s="6">
         <v>9</v>
@@ -3080,13 +3083,13 @@
         <v>278</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q11" s="6">
         <v>10</v>
@@ -3135,13 +3138,13 @@
         <v>278</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q12" s="6">
         <v>11</v>
@@ -3190,13 +3193,13 @@
         <v>278</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q13" s="6">
         <v>12</v>
@@ -3245,13 +3248,13 @@
         <v>278</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q14" s="6">
         <v>13</v>
@@ -3300,13 +3303,13 @@
         <v>278</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q15" s="6">
         <v>14</v>
@@ -3355,13 +3358,13 @@
         <v>278</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q16" s="6">
         <v>15</v>
@@ -3410,13 +3413,13 @@
         <v>278</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q17" s="6">
         <v>16</v>
@@ -3465,13 +3468,13 @@
         <v>278</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q18" s="6">
         <v>17</v>
@@ -3520,13 +3523,13 @@
         <v>278</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q19" s="6">
         <v>18</v>
@@ -3575,13 +3578,13 @@
         <v>278</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q20" s="6">
         <v>19</v>
@@ -3630,13 +3633,13 @@
         <v>278</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q21" s="6">
         <v>20</v>
@@ -3685,13 +3688,13 @@
         <v>278</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q22" s="6">
         <v>21</v>
@@ -3740,13 +3743,13 @@
         <v>278</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q23" s="6">
         <v>22</v>
@@ -3795,13 +3798,13 @@
         <v>278</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q24" s="6">
         <v>23</v>
@@ -3850,13 +3853,13 @@
         <v>278</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q25" s="6">
         <v>24</v>
@@ -3905,13 +3908,13 @@
         <v>278</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q26" s="6">
         <v>25</v>
@@ -3960,13 +3963,13 @@
         <v>278</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q27" s="6">
         <v>26</v>
@@ -4015,13 +4018,13 @@
         <v>278</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q28" s="6">
         <v>27</v>
@@ -4070,13 +4073,13 @@
         <v>278</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q29" s="6">
         <v>28</v>
@@ -4125,13 +4128,13 @@
         <v>278</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q30" s="6">
         <v>29</v>
@@ -4180,13 +4183,13 @@
         <v>278</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q31" s="6">
         <v>30</v>
@@ -4235,13 +4238,13 @@
         <v>278</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q32" s="6">
         <v>31</v>
@@ -4290,13 +4293,13 @@
         <v>278</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q33" s="6">
         <v>32</v>
@@ -4345,13 +4348,13 @@
         <v>278</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q34" s="6">
         <v>33</v>
@@ -4400,13 +4403,13 @@
         <v>278</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q35" s="6">
         <v>34</v>
@@ -4455,13 +4458,13 @@
         <v>278</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q36" s="6">
         <v>35</v>
@@ -4510,13 +4513,13 @@
         <v>278</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q37" s="6">
         <v>36</v>
@@ -4565,13 +4568,13 @@
         <v>278</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q38" s="6">
         <v>37</v>
@@ -4620,13 +4623,13 @@
         <v>278</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q39" s="6">
         <v>38</v>
@@ -4675,13 +4678,13 @@
         <v>278</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q40" s="6">
         <v>39</v>
@@ -4730,13 +4733,13 @@
         <v>278</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q41" s="6">
         <v>40</v>
@@ -4785,13 +4788,13 @@
         <v>278</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q42" s="6">
         <v>41</v>
@@ -4840,13 +4843,13 @@
         <v>278</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q43" s="6">
         <v>42</v>
@@ -4893,13 +4896,13 @@
         <v>278</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q44" s="6">
         <v>43</v>
@@ -4948,13 +4951,13 @@
         <v>278</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q45" s="6">
         <v>44</v>
@@ -5003,13 +5006,13 @@
         <v>278</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q46" s="6">
         <v>45</v>
@@ -5058,13 +5061,13 @@
         <v>278</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q47" s="6">
         <v>46</v>
@@ -5113,13 +5116,13 @@
         <v>278</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q48" s="6">
         <v>47</v>
@@ -5168,13 +5171,13 @@
         <v>278</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q49" s="6">
         <v>48</v>
@@ -5223,13 +5226,13 @@
         <v>278</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q50" s="6">
         <v>49</v>
@@ -5278,13 +5281,13 @@
         <v>278</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q51" s="6">
         <v>50</v>
@@ -5333,13 +5336,13 @@
         <v>278</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q52" s="6">
         <v>51</v>
@@ -5388,13 +5391,13 @@
         <v>278</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q53" s="6">
         <v>52</v>
@@ -5443,13 +5446,13 @@
         <v>278</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q54" s="6">
         <v>53</v>
@@ -5498,13 +5501,13 @@
         <v>278</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q55" s="6">
         <v>54</v>
@@ -5553,13 +5556,13 @@
         <v>278</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q56" s="6">
         <v>55</v>
@@ -5608,13 +5611,13 @@
         <v>278</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q57" s="6">
         <v>56</v>
@@ -5663,13 +5666,13 @@
         <v>278</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q58" s="6">
         <v>57</v>
@@ -5718,13 +5721,13 @@
         <v>278</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q59" s="6">
         <v>58</v>
@@ -5773,13 +5776,13 @@
         <v>278</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q60" s="6">
         <v>59</v>
@@ -5826,13 +5829,13 @@
         <v>278</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q61" s="6">
         <v>60</v>
@@ -5881,13 +5884,13 @@
         <v>278</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q62" s="6">
         <v>61</v>
@@ -5934,13 +5937,13 @@
         <v>278</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q63" s="6">
         <v>62</v>
@@ -5987,13 +5990,13 @@
         <v>278</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q64" s="6">
         <v>63</v>
@@ -6040,13 +6043,13 @@
         <v>293</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q65" s="6">
         <v>64</v>
@@ -6093,13 +6096,13 @@
         <v>278</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q66" s="6">
         <v>65</v>
@@ -6146,13 +6149,13 @@
         <v>278</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q67" s="6">
         <v>66</v>
@@ -6199,13 +6202,13 @@
         <v>293</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O68" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q68" s="6">
         <v>67</v>
@@ -6252,13 +6255,13 @@
         <v>293</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q69" s="6">
         <v>68</v>
@@ -6305,13 +6308,13 @@
         <v>293</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q70" s="6">
         <v>69</v>
@@ -6358,13 +6361,13 @@
         <v>293</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q71" s="6">
         <v>70</v>
@@ -6411,13 +6414,13 @@
         <v>293</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q72" s="6">
         <v>71</v>
@@ -6464,13 +6467,13 @@
         <v>293</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q73" s="6">
         <v>72</v>
@@ -6517,13 +6520,13 @@
         <v>293</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O74" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q74" s="6">
         <v>73</v>
@@ -6570,13 +6573,13 @@
         <v>293</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q75" s="6">
         <v>74</v>
@@ -6623,13 +6626,13 @@
         <v>293</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O76" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q76" s="6">
         <v>75</v>
@@ -6676,13 +6679,13 @@
         <v>293</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O77" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q77" s="6">
         <v>76</v>
@@ -6729,13 +6732,13 @@
         <v>293</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O78" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q78" s="6">
         <v>77</v>
@@ -6782,13 +6785,13 @@
         <v>293</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P79" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q79" s="6">
         <v>78</v>
@@ -6835,13 +6838,13 @@
         <v>293</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O80" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q80" s="6">
         <v>79</v>
@@ -6888,13 +6891,13 @@
         <v>293</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q81" s="6">
         <v>80</v>
@@ -6941,13 +6944,13 @@
         <v>293</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q82" s="6">
         <v>81</v>
@@ -6994,13 +6997,13 @@
         <v>293</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q83" s="6">
         <v>82</v>
@@ -7047,13 +7050,13 @@
         <v>293</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O84" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q84" s="6">
         <v>83</v>
@@ -7100,13 +7103,13 @@
         <v>293</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O85" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q85" s="6">
         <v>84</v>
@@ -7153,13 +7156,13 @@
         <v>293</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O86" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q86" s="6">
         <v>85</v>
@@ -7206,13 +7209,13 @@
         <v>293</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O87" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q87" s="6">
         <v>86</v>
@@ -7256,13 +7259,13 @@
         <v>293</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O88" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q88" s="6">
         <v>87</v>
@@ -7311,10 +7314,10 @@
         <v>286</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O89" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P89" s="10"/>
       <c r="Q89" s="6">
@@ -7362,7 +7365,7 @@
         <v>278</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
@@ -7411,7 +7414,7 @@
         <v>278</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
@@ -7460,13 +7463,13 @@
         <v>278</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O92" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q92" s="6">
         <v>91</v>
@@ -7513,13 +7516,13 @@
         <v>278</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O93" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q93" s="6">
         <v>92</v>
@@ -7566,13 +7569,13 @@
         <v>278</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O94" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q94" s="6">
         <v>93</v>
@@ -7619,13 +7622,13 @@
         <v>278</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O95" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q95" s="6">
         <v>94</v>
@@ -7672,13 +7675,13 @@
         <v>278</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O96" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q96" s="6">
         <v>95</v>
@@ -7725,13 +7728,13 @@
         <v>278</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O97" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q97" s="6">
         <v>96</v>
@@ -7780,13 +7783,13 @@
         <v>278</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O98" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q98" s="6">
         <v>97</v>
@@ -7836,13 +7839,13 @@
         <v>278</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O99" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q99" s="6">
         <v>98</v>
@@ -7891,13 +7894,13 @@
         <v>278</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O100" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q100" s="6">
         <v>99</v>
@@ -7944,13 +7947,13 @@
         <v>278</v>
       </c>
       <c r="N101" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O101" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P101" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q101" s="6">
         <v>100</v>
@@ -7997,13 +8000,13 @@
         <v>278</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q102" s="6">
         <v>101</v>
@@ -8050,13 +8053,13 @@
         <v>278</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O103" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q103" s="6">
         <v>102</v>
@@ -8103,13 +8106,13 @@
         <v>278</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O104" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q104" s="6">
         <v>103</v>
@@ -8156,13 +8159,13 @@
         <v>278</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O105" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P105" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q105" s="6">
         <v>104</v>
@@ -8209,13 +8212,13 @@
         <v>278</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O106" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P106" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q106" s="6">
         <v>105</v>
@@ -8265,13 +8268,13 @@
         <v>278</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O107" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q107" s="6">
         <v>106</v>
@@ -8318,13 +8321,13 @@
         <v>278</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O108" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q108" s="6">
         <v>107</v>
@@ -8371,13 +8374,13 @@
         <v>278</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O109" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q109" s="6">
         <v>108</v>
@@ -8424,13 +8427,13 @@
         <v>278</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O110" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P110" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q110" s="6">
         <v>109</v>
@@ -8477,13 +8480,13 @@
         <v>278</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O111" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P111" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q111" s="6">
         <v>110</v>
@@ -8530,13 +8533,13 @@
         <v>278</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O112" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P112" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q112" s="6">
         <v>111</v>
@@ -8583,13 +8586,13 @@
         <v>278</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O113" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P113" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q113" s="6">
         <v>112</v>
@@ -8636,13 +8639,13 @@
         <v>278</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O114" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P114" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q114" s="6">
         <v>113</v>
@@ -8689,13 +8692,13 @@
         <v>278</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O115" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P115" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q115" s="6">
         <v>114</v>
@@ -8745,13 +8748,13 @@
         <v>278</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O116" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P116" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q116" s="6">
         <v>115</v>
@@ -8801,13 +8804,13 @@
         <v>278</v>
       </c>
       <c r="N117" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O117" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P117" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q117" s="6">
         <v>116</v>
@@ -8854,13 +8857,13 @@
         <v>278</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O118" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P118" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q118" s="6">
         <v>117</v>
@@ -8907,13 +8910,13 @@
         <v>278</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O119" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P119" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q119" s="6">
         <v>118</v>
@@ -8960,13 +8963,13 @@
         <v>278</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O120" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P120" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q120" s="6">
         <v>119</v>
@@ -9015,13 +9018,13 @@
         <v>293</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O121" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P121" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q121" s="6">
         <v>120</v>
@@ -9070,13 +9073,13 @@
         <v>286</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O122" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P122" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q122" s="6">
         <v>121</v>
@@ -9125,13 +9128,13 @@
         <v>286</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O123" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P123" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q123" s="6">
         <v>122</v>
@@ -9180,10 +9183,10 @@
         <v>278</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O124" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P124" s="10"/>
       <c r="Q124" s="6">
@@ -9233,10 +9236,10 @@
         <v>278</v>
       </c>
       <c r="N125" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O125" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P125" s="10"/>
       <c r="Q125" s="6">
@@ -9286,10 +9289,10 @@
         <v>278</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O126" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P126" s="10"/>
       <c r="Q126" s="6">
@@ -9339,10 +9342,10 @@
         <v>278</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O127" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P127" s="10"/>
       <c r="Q127" s="6">
@@ -9392,10 +9395,10 @@
         <v>278</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O128" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P128" s="10"/>
       <c r="Q128" s="6">
@@ -9445,10 +9448,10 @@
         <v>278</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O129" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P129" s="10"/>
       <c r="Q129" s="6">
@@ -9498,10 +9501,10 @@
         <v>278</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O130" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P130" s="10"/>
       <c r="Q130" s="6">
@@ -9551,10 +9554,10 @@
         <v>278</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O131" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P131" s="10"/>
       <c r="Q131" s="6">
@@ -9604,10 +9607,10 @@
         <v>278</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O132" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P132" s="10"/>
       <c r="Q132" s="6">
@@ -9657,10 +9660,10 @@
         <v>278</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O133" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P133" s="10"/>
       <c r="Q133" s="6">
@@ -9710,10 +9713,10 @@
         <v>278</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O134" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P134" s="10"/>
       <c r="Q134" s="6">
@@ -9763,10 +9766,10 @@
         <v>278</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O135" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P135" s="10"/>
       <c r="Q135" s="6">
@@ -9816,10 +9819,10 @@
         <v>278</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O136" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P136" s="10"/>
       <c r="Q136" s="6">
@@ -9869,10 +9872,10 @@
         <v>278</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O137" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P137" s="10"/>
       <c r="Q137" s="6">
@@ -9922,10 +9925,10 @@
         <v>278</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O138" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P138" s="10"/>
       <c r="Q138" s="6">
@@ -9976,10 +9979,10 @@
         <v>278</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O139" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P139" s="10"/>
       <c r="Q139" s="6">
@@ -10029,10 +10032,10 @@
         <v>278</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O140" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P140" s="10"/>
       <c r="Q140" s="6">
@@ -10082,10 +10085,10 @@
         <v>278</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O141" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P141" s="10"/>
       <c r="Q141" s="6">
@@ -10135,10 +10138,10 @@
         <v>278</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O142" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P142" s="10"/>
       <c r="Q142" s="6">
@@ -10188,10 +10191,10 @@
         <v>278</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O143" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P143" s="10"/>
       <c r="Q143" s="6">
@@ -10241,10 +10244,10 @@
         <v>278</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O144" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P144" s="10"/>
       <c r="Q144" s="6">
@@ -10294,10 +10297,10 @@
         <v>278</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O145" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P145" s="10"/>
       <c r="Q145" s="6">
@@ -10347,10 +10350,10 @@
         <v>278</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O146" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P146" s="10"/>
       <c r="Q146" s="6">
@@ -10400,10 +10403,10 @@
         <v>278</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O147" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P147" s="10"/>
       <c r="Q147" s="6">
@@ -10453,10 +10456,10 @@
         <v>278</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O148" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P148" s="10"/>
       <c r="Q148" s="6">
@@ -10506,10 +10509,10 @@
         <v>278</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O149" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P149" s="10"/>
       <c r="Q149" s="6">
@@ -10559,10 +10562,10 @@
         <v>278</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O150" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P150" s="10"/>
       <c r="Q150" s="6">
@@ -10612,10 +10615,10 @@
         <v>278</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O151" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P151" s="10"/>
       <c r="Q151" s="6">
@@ -10665,10 +10668,10 @@
         <v>278</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O152" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P152" s="10"/>
       <c r="Q152" s="6">
@@ -10718,10 +10721,10 @@
         <v>278</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O153" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P153" s="10"/>
       <c r="Q153" s="6">
@@ -10771,10 +10774,10 @@
         <v>278</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O154" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P154" s="10"/>
       <c r="Q154" s="6">
@@ -10824,10 +10827,10 @@
         <v>278</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O155" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P155" s="10"/>
       <c r="Q155" s="6">
@@ -10875,10 +10878,10 @@
         <v>293</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O156" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P156" s="10"/>
       <c r="Q156" s="6">
@@ -10926,10 +10929,10 @@
         <v>278</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O157" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P157" s="10"/>
       <c r="Q157" s="6">
@@ -10977,10 +10980,10 @@
         <v>278</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O158" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P158" s="10"/>
       <c r="Q158" s="6">
@@ -11028,10 +11031,10 @@
         <v>293</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O159" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P159" s="10"/>
       <c r="Q159" s="6">
@@ -11079,10 +11082,10 @@
         <v>278</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O160" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P160" s="10"/>
       <c r="Q160" s="6">
@@ -11130,10 +11133,10 @@
         <v>293</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O161" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P161" s="10"/>
       <c r="Q161" s="6">
@@ -11181,10 +11184,10 @@
         <v>293</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O162" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P162" s="10"/>
       <c r="Q162" s="6">
@@ -11232,10 +11235,10 @@
         <v>293</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O163" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P163" s="10"/>
       <c r="Q163" s="6">
@@ -11283,10 +11286,10 @@
         <v>286</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O164" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P164" s="10"/>
       <c r="Q164" s="6">
@@ -11334,10 +11337,10 @@
         <v>286</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O165" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P165" s="10"/>
       <c r="Q165" s="6">
@@ -11385,10 +11388,10 @@
         <v>286</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O166" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P166" s="10"/>
       <c r="Q166" s="6">
@@ -11438,13 +11441,13 @@
         <v>278</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O167" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P167" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q167" s="6">
         <v>166</v>
@@ -11455,7 +11458,7 @@
         <v>424</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C168" s="1">
         <v>2016</v>
@@ -11491,13 +11494,13 @@
         <v>278</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O168" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P168" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q168" s="6">
         <v>167</v>
@@ -11547,13 +11550,13 @@
         <v>278</v>
       </c>
       <c r="N169" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O169" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P169" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q169" s="6">
         <v>168</v>
@@ -11564,7 +11567,7 @@
         <v>424</v>
       </c>
       <c r="B170" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C170">
         <v>2015</v>
@@ -11600,13 +11603,13 @@
         <v>278</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O170" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P170" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q170" s="6">
         <v>169</v>
@@ -11655,13 +11658,13 @@
         <v>278</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O171" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P171" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q171" s="6">
         <v>170</v>
@@ -11672,7 +11675,7 @@
         <v>424</v>
       </c>
       <c r="B172" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C172" s="12">
         <v>2016</v>
@@ -11708,13 +11711,13 @@
         <v>278</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O172" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P172" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q172" s="6">
         <v>171</v>
@@ -11763,13 +11766,13 @@
         <v>278</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O173" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P173" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q173" s="6">
         <v>172</v>
@@ -11780,7 +11783,7 @@
         <v>424</v>
       </c>
       <c r="B174" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C174">
         <v>2015</v>
@@ -11816,13 +11819,13 @@
         <v>278</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O174" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P174" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q174" s="6">
         <v>173</v>
@@ -11871,13 +11874,13 @@
         <v>278</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O175" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P175" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q175" s="6">
         <v>174</v>
@@ -11888,7 +11891,7 @@
         <v>424</v>
       </c>
       <c r="B176" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C176">
         <v>2015</v>
@@ -11924,13 +11927,13 @@
         <v>278</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O176" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P176" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q176" s="6">
         <v>175</v>
@@ -11977,13 +11980,13 @@
         <v>278</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O177" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P177" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q177" s="6">
         <v>176</v>
@@ -11994,7 +11997,7 @@
         <v>424</v>
       </c>
       <c r="B178" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C178">
         <v>2016</v>
@@ -12030,13 +12033,13 @@
         <v>278</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O178" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P178" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q178" s="6">
         <v>177</v>
@@ -12085,13 +12088,13 @@
         <v>278</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O179" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P179" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q179" s="6">
         <v>178</v>
@@ -12140,13 +12143,13 @@
         <v>278</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O180" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P180" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q180" s="6">
         <v>179</v>
@@ -12195,13 +12198,13 @@
         <v>278</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O181" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P181" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q181" s="6">
         <v>180</v>
@@ -12250,10 +12253,10 @@
         <v>286</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O182" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P182" s="10"/>
       <c r="Q182" s="6">
@@ -12303,10 +12306,10 @@
         <v>278</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O183" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P183" s="10"/>
       <c r="Q183" s="6">
@@ -12356,10 +12359,10 @@
         <v>278</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O184" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P184" s="10"/>
       <c r="Q184" s="6">
@@ -12409,10 +12412,10 @@
         <v>286</v>
       </c>
       <c r="N185" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O185" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P185" s="10"/>
       <c r="Q185" s="6">
@@ -12462,10 +12465,10 @@
         <v>293</v>
       </c>
       <c r="N186" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O186" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P186" s="10"/>
       <c r="Q186" s="6">
@@ -12515,10 +12518,10 @@
         <v>278</v>
       </c>
       <c r="N187" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O187" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P187" s="10"/>
       <c r="Q187" s="6">
@@ -12568,10 +12571,10 @@
         <v>278</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O188" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P188" s="10"/>
       <c r="Q188" s="6">
@@ -12621,10 +12624,10 @@
         <v>286</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O189" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P189" s="10"/>
       <c r="Q189" s="6">
@@ -12674,10 +12677,10 @@
         <v>278</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O190" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P190" s="10"/>
       <c r="Q190" s="6">
@@ -12727,10 +12730,10 @@
         <v>278</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O191" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P191" s="10"/>
       <c r="Q191" s="6">
@@ -12780,10 +12783,10 @@
         <v>278</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O192" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P192" s="10"/>
       <c r="Q192" s="6">
@@ -12831,10 +12834,10 @@
         <v>278</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O193" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P193" s="10"/>
       <c r="Q193" s="6">
@@ -12882,10 +12885,10 @@
         <v>278</v>
       </c>
       <c r="N194" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O194" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P194" s="10"/>
       <c r="Q194" s="6">
@@ -12930,10 +12933,10 @@
         <v>278</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O195" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P195" s="10"/>
       <c r="Q195" s="6">
@@ -12981,10 +12984,10 @@
         <v>278</v>
       </c>
       <c r="N196" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O196" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P196" s="10"/>
       <c r="Q196" s="6">
@@ -13032,10 +13035,10 @@
         <v>278</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O197" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P197" s="10"/>
       <c r="Q197" s="6">
@@ -13083,10 +13086,10 @@
         <v>293</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O198" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P198" s="10"/>
       <c r="Q198" s="6">
@@ -13136,10 +13139,10 @@
         <v>278</v>
       </c>
       <c r="N199" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O199" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P199" s="10"/>
       <c r="Q199" s="6">
@@ -13189,10 +13192,10 @@
         <v>278</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O200" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P200" s="10"/>
       <c r="Q200" s="6">
@@ -13242,10 +13245,10 @@
         <v>278</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O201" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P201" s="10"/>
       <c r="Q201" s="6">
@@ -13295,10 +13298,10 @@
         <v>278</v>
       </c>
       <c r="N202" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O202" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P202" s="10"/>
       <c r="Q202" s="6">
@@ -13348,10 +13351,10 @@
         <v>278</v>
       </c>
       <c r="N203" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O203" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P203" s="10"/>
       <c r="Q203" s="6">
@@ -13401,10 +13404,10 @@
         <v>278</v>
       </c>
       <c r="N204" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O204" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P204" s="10"/>
       <c r="Q204" s="6">
@@ -13455,10 +13458,10 @@
         <v>278</v>
       </c>
       <c r="N205" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O205" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P205" s="10"/>
       <c r="Q205" s="6">
@@ -13508,10 +13511,10 @@
         <v>278</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O206" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P206" s="10"/>
       <c r="Q206" s="6">
@@ -13561,10 +13564,10 @@
         <v>278</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O207" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P207" s="10"/>
       <c r="Q207" s="6">
@@ -13614,10 +13617,10 @@
         <v>278</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O208" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P208" s="10"/>
       <c r="Q208" s="6">
@@ -13667,10 +13670,10 @@
         <v>278</v>
       </c>
       <c r="N209" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O209" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P209" s="10"/>
       <c r="Q209" s="6">
@@ -13720,10 +13723,10 @@
         <v>278</v>
       </c>
       <c r="N210" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O210" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P210" s="10"/>
       <c r="Q210" s="6">
@@ -13773,10 +13776,10 @@
         <v>278</v>
       </c>
       <c r="N211" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O211" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P211" s="10"/>
       <c r="Q211" s="6">
@@ -13826,10 +13829,10 @@
         <v>278</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O212" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P212" s="10"/>
       <c r="Q212" s="6">
@@ -13879,10 +13882,10 @@
         <v>278</v>
       </c>
       <c r="N213" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O213" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P213" s="10"/>
       <c r="Q213" s="6">
@@ -13930,10 +13933,10 @@
         <v>278</v>
       </c>
       <c r="N214" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O214" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P214" s="10"/>
       <c r="Q214" s="6">
@@ -13983,10 +13986,10 @@
         <v>278</v>
       </c>
       <c r="N215" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O215" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P215" s="10"/>
       <c r="Q215" s="6">
@@ -14036,10 +14039,10 @@
         <v>278</v>
       </c>
       <c r="N216" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O216" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P216" s="10"/>
       <c r="Q216" s="6">
@@ -14089,10 +14092,10 @@
         <v>278</v>
       </c>
       <c r="N217" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O217" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P217" s="10"/>
       <c r="Q217" s="6">
@@ -14142,10 +14145,10 @@
         <v>278</v>
       </c>
       <c r="N218" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O218" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P218" s="10"/>
       <c r="Q218" s="6">
@@ -14195,10 +14198,10 @@
         <v>278</v>
       </c>
       <c r="N219" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O219" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P219" s="10"/>
       <c r="Q219" s="6">
@@ -14248,10 +14251,10 @@
         <v>278</v>
       </c>
       <c r="N220" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O220" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P220" s="10"/>
       <c r="Q220" s="6">
@@ -14301,10 +14304,10 @@
         <v>278</v>
       </c>
       <c r="N221" s="6" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O221" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P221" s="10"/>
       <c r="Q221" s="6">
@@ -14354,10 +14357,10 @@
         <v>278</v>
       </c>
       <c r="N222" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O222" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P222" s="10"/>
       <c r="Q222" s="6">
@@ -14407,10 +14410,10 @@
         <v>278</v>
       </c>
       <c r="N223" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O223" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P223" s="10"/>
       <c r="Q223" s="6">
@@ -14458,10 +14461,10 @@
         <v>278</v>
       </c>
       <c r="N224" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O224" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P224" s="10"/>
       <c r="Q224" s="6">
@@ -14509,10 +14512,10 @@
         <v>278</v>
       </c>
       <c r="N225" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O225" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P225" s="10"/>
       <c r="Q225" s="6">
@@ -14560,10 +14563,10 @@
         <v>278</v>
       </c>
       <c r="N226" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O226" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P226" s="10"/>
       <c r="Q226" s="6">
@@ -14613,10 +14616,10 @@
         <v>278</v>
       </c>
       <c r="N227" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O227" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P227" s="10"/>
       <c r="Q227" s="6">
@@ -14666,10 +14669,10 @@
         <v>278</v>
       </c>
       <c r="N228" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O228" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P228" s="10"/>
       <c r="Q228" s="6">
@@ -14719,10 +14722,10 @@
         <v>278</v>
       </c>
       <c r="N229" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O229" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P229" s="10"/>
       <c r="Q229" s="6">
@@ -14772,10 +14775,10 @@
         <v>278</v>
       </c>
       <c r="N230" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O230" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P230" s="10"/>
       <c r="Q230" s="6">
@@ -14825,10 +14828,10 @@
         <v>278</v>
       </c>
       <c r="N231" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O231" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P231" s="10"/>
       <c r="Q231" s="6">
@@ -14876,10 +14879,10 @@
         <v>278</v>
       </c>
       <c r="N232" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O232" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P232" s="10"/>
       <c r="Q232" s="6">
@@ -14927,13 +14930,13 @@
         <v>278</v>
       </c>
       <c r="N233" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O233" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P233" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q233" s="6">
         <v>232</v>
@@ -14980,13 +14983,13 @@
         <v>278</v>
       </c>
       <c r="N234" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O234" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P234" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q234" s="6">
         <v>233</v>
@@ -14997,7 +15000,7 @@
         <v>258</v>
       </c>
       <c r="B235" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C235" s="1">
         <v>2016</v>
@@ -15033,13 +15036,13 @@
         <v>278</v>
       </c>
       <c r="N235" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O235" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P235" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q235" s="6">
         <v>234</v>
@@ -15086,13 +15089,13 @@
         <v>278</v>
       </c>
       <c r="N236" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O236" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P236" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q236" s="6">
         <v>235</v>
@@ -15141,7 +15144,7 @@
         <v>286</v>
       </c>
       <c r="N237" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O237" s="14"/>
       <c r="P237" s="14"/>
@@ -15190,7 +15193,7 @@
         <v>278</v>
       </c>
       <c r="N238" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O238" s="14"/>
       <c r="P238" s="14"/>
@@ -15239,7 +15242,7 @@
         <v>278</v>
       </c>
       <c r="N239" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O239" s="14"/>
       <c r="P239" s="14"/>
@@ -15290,7 +15293,7 @@
         <v>286</v>
       </c>
       <c r="N240" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O240" s="14"/>
       <c r="P240" s="14"/>
@@ -15339,7 +15342,7 @@
         <v>278</v>
       </c>
       <c r="N241" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O241" s="14"/>
       <c r="P241" s="14"/>
@@ -15388,7 +15391,7 @@
         <v>278</v>
       </c>
       <c r="N242" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O242" s="14"/>
       <c r="P242" s="14"/>
@@ -15437,7 +15440,7 @@
         <v>278</v>
       </c>
       <c r="N243" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O243" s="14"/>
       <c r="P243" s="14"/>
@@ -15488,7 +15491,7 @@
         <v>286</v>
       </c>
       <c r="N244" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O244" s="14"/>
       <c r="P244" s="14"/>
@@ -15537,7 +15540,7 @@
         <v>278</v>
       </c>
       <c r="N245" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O245" s="14"/>
       <c r="P245" s="14"/>
@@ -15586,7 +15589,7 @@
         <v>278</v>
       </c>
       <c r="N246" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O246" s="14"/>
       <c r="P246" s="14"/>
@@ -15635,7 +15638,7 @@
         <v>278</v>
       </c>
       <c r="N247" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O247" s="14"/>
       <c r="P247" s="14"/>
@@ -15684,7 +15687,7 @@
         <v>278</v>
       </c>
       <c r="N248" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O248" s="14"/>
       <c r="P248" s="14"/>
@@ -15733,7 +15736,7 @@
         <v>278</v>
       </c>
       <c r="N249" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O249" s="14"/>
       <c r="P249" s="14"/>
@@ -15784,7 +15787,7 @@
         <v>286</v>
       </c>
       <c r="N250" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O250" s="14"/>
       <c r="P250" s="14"/>
@@ -15833,7 +15836,7 @@
         <v>278</v>
       </c>
       <c r="N251" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O251" s="14"/>
       <c r="P251" s="14"/>
@@ -15882,7 +15885,7 @@
         <v>278</v>
       </c>
       <c r="N252" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O252" s="14"/>
       <c r="P252" s="14"/>
@@ -15931,7 +15934,7 @@
         <v>278</v>
       </c>
       <c r="N253" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O253" s="14"/>
       <c r="P253" s="14"/>
@@ -15982,13 +15985,13 @@
         <v>278</v>
       </c>
       <c r="N254" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O254" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P254" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q254" s="6">
         <v>253</v>
@@ -16035,13 +16038,13 @@
         <v>278</v>
       </c>
       <c r="N255" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O255" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P255" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q255" s="6">
         <v>254</v>
@@ -16088,13 +16091,13 @@
         <v>278</v>
       </c>
       <c r="N256" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O256" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P256" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q256" s="6">
         <v>255</v>
@@ -16143,13 +16146,13 @@
         <v>278</v>
       </c>
       <c r="N257" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O257" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P257" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q257" s="6">
         <v>256</v>
@@ -16196,13 +16199,13 @@
         <v>278</v>
       </c>
       <c r="N258" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O258" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P258" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q258" s="6">
         <v>257</v>
@@ -16249,13 +16252,13 @@
         <v>278</v>
       </c>
       <c r="N259" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O259" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P259" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q259" s="6">
         <v>258</v>
@@ -16304,13 +16307,13 @@
         <v>278</v>
       </c>
       <c r="N260" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O260" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P260" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q260" s="6">
         <v>259</v>
@@ -16359,13 +16362,13 @@
         <v>278</v>
       </c>
       <c r="N261" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O261" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P261" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q261" s="6">
         <v>260</v>
@@ -16414,13 +16417,13 @@
         <v>278</v>
       </c>
       <c r="N262" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O262" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P262" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q262" s="6">
         <v>261</v>
@@ -16467,13 +16470,13 @@
         <v>278</v>
       </c>
       <c r="N263" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O263" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P263" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q263" s="6">
         <v>262</v>
@@ -16520,13 +16523,13 @@
         <v>278</v>
       </c>
       <c r="N264" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O264" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P264" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q264" s="6">
         <v>263</v>
@@ -16573,13 +16576,13 @@
         <v>278</v>
       </c>
       <c r="N265" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O265" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P265" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q265" s="6">
         <v>264</v>
@@ -16628,13 +16631,13 @@
         <v>278</v>
       </c>
       <c r="N266" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O266" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P266" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q266" s="6">
         <v>265</v>
@@ -16683,13 +16686,13 @@
         <v>278</v>
       </c>
       <c r="N267" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O267" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P267" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q267" s="6">
         <v>266</v>
@@ -16738,13 +16741,13 @@
         <v>278</v>
       </c>
       <c r="N268" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O268" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P268" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q268" s="6">
         <v>267</v>
@@ -16791,13 +16794,13 @@
         <v>278</v>
       </c>
       <c r="N269" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O269" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P269" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q269" s="6">
         <v>268</v>
@@ -16844,13 +16847,13 @@
         <v>278</v>
       </c>
       <c r="N270" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O270" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P270" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q270" s="6">
         <v>269</v>
@@ -16899,13 +16902,13 @@
         <v>278</v>
       </c>
       <c r="N271" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O271" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P271" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q271" s="6">
         <v>270</v>
@@ -16954,13 +16957,13 @@
         <v>278</v>
       </c>
       <c r="N272" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O272" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P272" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q272" s="6">
         <v>271</v>
@@ -17007,13 +17010,13 @@
         <v>278</v>
       </c>
       <c r="N273" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O273" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P273" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q273" s="6">
         <v>272</v>
@@ -17060,13 +17063,13 @@
         <v>278</v>
       </c>
       <c r="N274" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O274" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P274" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q274" s="6">
         <v>273</v>
@@ -17115,13 +17118,13 @@
         <v>278</v>
       </c>
       <c r="N275" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O275" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P275" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q275" s="6">
         <v>274</v>
@@ -17170,13 +17173,13 @@
         <v>278</v>
       </c>
       <c r="N276" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O276" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P276" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q276" s="6">
         <v>275</v>
@@ -17225,13 +17228,13 @@
         <v>278</v>
       </c>
       <c r="N277" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O277" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P277" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q277" s="6">
         <v>276</v>
@@ -17280,13 +17283,13 @@
         <v>278</v>
       </c>
       <c r="N278" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O278" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P278" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q278" s="6">
         <v>277</v>
@@ -17333,13 +17336,13 @@
         <v>278</v>
       </c>
       <c r="N279" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O279" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P279" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q279" s="6">
         <v>278</v>
@@ -17386,13 +17389,13 @@
         <v>278</v>
       </c>
       <c r="N280" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O280" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P280" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q280" s="6">
         <v>279</v>
@@ -17439,13 +17442,13 @@
         <v>278</v>
       </c>
       <c r="N281" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O281" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P281" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q281" s="6">
         <v>280</v>
@@ -17492,13 +17495,13 @@
         <v>278</v>
       </c>
       <c r="N282" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O282" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P282" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q282" s="6">
         <v>281</v>
@@ -17545,13 +17548,13 @@
         <v>278</v>
       </c>
       <c r="N283" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O283" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P283" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q283" s="6">
         <v>282</v>
@@ -17600,13 +17603,13 @@
         <v>278</v>
       </c>
       <c r="N284" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O284" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P284" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q284" s="6">
         <v>283</v>
@@ -17655,13 +17658,13 @@
         <v>278</v>
       </c>
       <c r="N285" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O285" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P285" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q285" s="6">
         <v>284</v>
@@ -17710,13 +17713,13 @@
         <v>278</v>
       </c>
       <c r="N286" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O286" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P286" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q286" s="6">
         <v>285</v>
@@ -17765,13 +17768,13 @@
         <v>278</v>
       </c>
       <c r="N287" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O287" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P287" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q287" s="6">
         <v>286</v>
@@ -17820,13 +17823,13 @@
         <v>278</v>
       </c>
       <c r="N288" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O288" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P288" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q288" s="6">
         <v>287</v>
@@ -17873,13 +17876,13 @@
         <v>278</v>
       </c>
       <c r="N289" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O289" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P289" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q289" s="6">
         <v>288</v>
@@ -17926,13 +17929,13 @@
         <v>278</v>
       </c>
       <c r="N290" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O290" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P290" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q290" s="6">
         <v>289</v>
@@ -17979,13 +17982,13 @@
         <v>278</v>
       </c>
       <c r="N291" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O291" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P291" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q291" s="6">
         <v>290</v>
@@ -18032,13 +18035,13 @@
         <v>278</v>
       </c>
       <c r="N292" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O292" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P292" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q292" s="6">
         <v>291</v>
@@ -18085,13 +18088,13 @@
         <v>278</v>
       </c>
       <c r="N293" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O293" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P293" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q293" s="6">
         <v>292</v>
@@ -18140,13 +18143,13 @@
         <v>278</v>
       </c>
       <c r="N294" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O294" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P294" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q294" s="6">
         <v>293</v>
@@ -18195,13 +18198,13 @@
         <v>278</v>
       </c>
       <c r="N295" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O295" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P295" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q295" s="6">
         <v>294</v>
@@ -18250,13 +18253,13 @@
         <v>278</v>
       </c>
       <c r="N296" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O296" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P296" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q296" s="6">
         <v>295</v>
@@ -18305,13 +18308,13 @@
         <v>278</v>
       </c>
       <c r="N297" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O297" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P297" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q297" s="6">
         <v>296</v>
@@ -18360,13 +18363,13 @@
         <v>278</v>
       </c>
       <c r="N298" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O298" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P298" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q298" s="6">
         <v>297</v>
@@ -18413,13 +18416,13 @@
         <v>278</v>
       </c>
       <c r="N299" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O299" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P299" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q299" s="6">
         <v>298</v>
@@ -18466,13 +18469,13 @@
         <v>278</v>
       </c>
       <c r="N300" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O300" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P300" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q300" s="6">
         <v>299</v>
@@ -18519,13 +18522,13 @@
         <v>278</v>
       </c>
       <c r="N301" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O301" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P301" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q301" s="6">
         <v>300</v>
@@ -18574,13 +18577,13 @@
         <v>278</v>
       </c>
       <c r="N302" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O302" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P302" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q302" s="6">
         <v>301</v>
@@ -18629,13 +18632,13 @@
         <v>278</v>
       </c>
       <c r="N303" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O303" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P303" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q303" s="6">
         <v>302</v>
@@ -18682,13 +18685,13 @@
         <v>278</v>
       </c>
       <c r="N304" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O304" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P304" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q304" s="6">
         <v>303</v>
@@ -18737,13 +18740,13 @@
         <v>278</v>
       </c>
       <c r="N305" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O305" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P305" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q305" s="6">
         <v>304</v>
@@ -18790,13 +18793,13 @@
         <v>278</v>
       </c>
       <c r="N306" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O306" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P306" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q306" s="6">
         <v>305</v>
@@ -18843,13 +18846,13 @@
         <v>278</v>
       </c>
       <c r="N307" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O307" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P307" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q307" s="6">
         <v>306</v>
@@ -18896,13 +18899,13 @@
         <v>278</v>
       </c>
       <c r="N308" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O308" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P308" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q308" s="6">
         <v>307</v>
@@ -18949,13 +18952,13 @@
         <v>278</v>
       </c>
       <c r="N309" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O309" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P309" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q309" s="6">
         <v>308</v>
@@ -19002,13 +19005,13 @@
         <v>278</v>
       </c>
       <c r="N310" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O310" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P310" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q310" s="6">
         <v>309</v>
@@ -19055,13 +19058,13 @@
         <v>278</v>
       </c>
       <c r="N311" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O311" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P311" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q311" s="6">
         <v>310</v>
@@ -19108,13 +19111,13 @@
         <v>278</v>
       </c>
       <c r="N312" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O312" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P312" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q312" s="6">
         <v>311</v>
@@ -19161,13 +19164,13 @@
         <v>278</v>
       </c>
       <c r="N313" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O313" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P313" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q313" s="6">
         <v>312</v>
@@ -19214,13 +19217,13 @@
         <v>278</v>
       </c>
       <c r="N314" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O314" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P314" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q314" s="6">
         <v>313</v>
@@ -19267,13 +19270,13 @@
         <v>439</v>
       </c>
       <c r="N315" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O315" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P315" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q315" s="6">
         <v>314</v>
@@ -19320,13 +19323,13 @@
         <v>439</v>
       </c>
       <c r="N316" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O316" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P316" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q316" s="6">
         <v>315</v>
@@ -19373,10 +19376,10 @@
         <v>278</v>
       </c>
       <c r="N317" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O317" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P317" s="10"/>
       <c r="Q317" s="6">
@@ -19424,10 +19427,10 @@
         <v>278</v>
       </c>
       <c r="N318" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O318" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P318" s="10"/>
       <c r="Q318" s="6">
@@ -19473,10 +19476,10 @@
         <v>278</v>
       </c>
       <c r="N319" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O319" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P319" s="10"/>
       <c r="Q319" s="6">
@@ -19524,10 +19527,10 @@
         <v>278</v>
       </c>
       <c r="N320" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O320" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P320" s="10"/>
       <c r="Q320" s="6">
@@ -19575,13 +19578,13 @@
         <v>278</v>
       </c>
       <c r="N321" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O321" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P321" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q321" s="6">
         <v>320</v>
@@ -19592,7 +19595,7 @@
         <v>213</v>
       </c>
       <c r="B322" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322">
@@ -19626,13 +19629,13 @@
         <v>278</v>
       </c>
       <c r="N322" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O322" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P322" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q322" s="6">
         <v>321</v>
@@ -19643,7 +19646,7 @@
         <v>213</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323">
@@ -19677,13 +19680,13 @@
         <v>278</v>
       </c>
       <c r="N323" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O323" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P323" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q323" s="6">
         <v>322</v>
@@ -19694,7 +19697,7 @@
         <v>213</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C324" s="10"/>
       <c r="D324">
@@ -19728,13 +19731,13 @@
         <v>278</v>
       </c>
       <c r="N324" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O324" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P324" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q324" s="6">
         <v>323</v>
@@ -19779,10 +19782,10 @@
         <v>439</v>
       </c>
       <c r="N325" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O325" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P325" s="10"/>
       <c r="Q325" s="7">
@@ -19828,13 +19831,13 @@
         <v>439</v>
       </c>
       <c r="N326" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O326" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P326" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q326" s="7">
         <v>325</v>
@@ -19877,13 +19880,13 @@
         <v>278</v>
       </c>
       <c r="N327" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O327" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P327" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q327" s="7">
         <v>326</v>
@@ -19930,13 +19933,13 @@
         <v>439</v>
       </c>
       <c r="N328" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O328" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P328" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q328" s="7">
         <v>327</v>
@@ -19983,13 +19986,13 @@
         <v>439</v>
       </c>
       <c r="N329" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O329" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P329" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q329" s="7">
         <v>328</v>
@@ -20036,13 +20039,13 @@
         <v>439</v>
       </c>
       <c r="N330" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O330" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P330" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q330" s="7">
         <v>329</v>
@@ -20089,13 +20092,13 @@
         <v>439</v>
       </c>
       <c r="N331" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O331" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P331" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q331" s="7">
         <v>330</v>
@@ -20140,13 +20143,13 @@
         <v>439</v>
       </c>
       <c r="N332" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O332" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P332" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q332" s="7">
         <v>331</v>
@@ -20191,13 +20194,13 @@
         <v>439</v>
       </c>
       <c r="N333" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O333" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P333" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q333" s="7">
         <v>332</v>
@@ -20242,13 +20245,13 @@
         <v>439</v>
       </c>
       <c r="N334" s="12" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O334" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P334" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q334" s="7">
         <v>333</v>
@@ -20293,13 +20296,13 @@
         <v>439</v>
       </c>
       <c r="N335" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O335" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P335" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q335" s="7">
         <v>334</v>
@@ -20344,13 +20347,13 @@
         <v>439</v>
       </c>
       <c r="N336" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O336" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P336" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q336" s="7">
         <v>335</v>
@@ -20395,13 +20398,13 @@
         <v>439</v>
       </c>
       <c r="N337" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O337" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P337" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q337" s="7">
         <v>336</v>
@@ -20448,13 +20451,13 @@
         <v>439</v>
       </c>
       <c r="N338" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O338" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P338" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q338" s="7">
         <v>337</v>
@@ -20499,13 +20502,13 @@
         <v>439</v>
       </c>
       <c r="N339" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O339" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P339" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q339" s="7">
         <v>338</v>
@@ -20550,13 +20553,13 @@
         <v>439</v>
       </c>
       <c r="N340" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O340" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P340" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q340" s="7">
         <v>339</v>
@@ -20601,13 +20604,13 @@
         <v>439</v>
       </c>
       <c r="N341" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O341" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P341" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q341" s="7">
         <v>340</v>
@@ -20652,13 +20655,13 @@
         <v>439</v>
       </c>
       <c r="N342" s="12" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O342" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P342" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q342" s="7">
         <v>341</v>
@@ -20703,13 +20706,13 @@
         <v>439</v>
       </c>
       <c r="N343" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O343" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P343" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q343" s="7">
         <v>342</v>
@@ -20754,13 +20757,13 @@
         <v>439</v>
       </c>
       <c r="N344" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O344" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P344" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q344" s="7">
         <v>343</v>
@@ -20805,13 +20808,13 @@
         <v>439</v>
       </c>
       <c r="N345" s="12" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O345" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P345" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q345" s="7">
         <v>344</v>
@@ -20856,13 +20859,13 @@
         <v>439</v>
       </c>
       <c r="N346" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O346" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P346" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q346" s="7">
         <v>345</v>
@@ -20907,13 +20910,13 @@
         <v>439</v>
       </c>
       <c r="N347" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O347" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P347" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q347" s="7">
         <v>346</v>
@@ -20958,13 +20961,13 @@
         <v>439</v>
       </c>
       <c r="N348" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O348" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P348" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q348" s="7">
         <v>347</v>
@@ -21009,13 +21012,13 @@
         <v>439</v>
       </c>
       <c r="N349" s="12" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O349" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P349" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q349" s="7">
         <v>348</v>
@@ -21060,13 +21063,13 @@
         <v>439</v>
       </c>
       <c r="N350" s="12" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O350" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P350" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q350" s="7">
         <v>349</v>
@@ -21111,13 +21114,13 @@
         <v>439</v>
       </c>
       <c r="N351" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O351" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P351" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q351" s="7">
         <v>350</v>
@@ -21162,13 +21165,13 @@
         <v>439</v>
       </c>
       <c r="N352" s="12" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O352" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P352" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q352" s="7">
         <v>351</v>
@@ -21213,13 +21216,13 @@
         <v>439</v>
       </c>
       <c r="N353" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O353" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P353" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q353" s="7">
         <v>352</v>
@@ -21264,13 +21267,13 @@
         <v>439</v>
       </c>
       <c r="N354" s="12" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O354" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P354" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q354" s="7">
         <v>353</v>
@@ -21317,13 +21320,13 @@
         <v>439</v>
       </c>
       <c r="N355" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O355" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P355" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q355" s="7">
         <v>354</v>
@@ -21370,13 +21373,13 @@
         <v>439</v>
       </c>
       <c r="N356" s="12" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O356" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P356" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q356" s="7">
         <v>355</v>
@@ -21423,13 +21426,13 @@
         <v>439</v>
       </c>
       <c r="N357" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O357" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P357" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q357" s="7">
         <v>356</v>
@@ -21476,13 +21479,13 @@
         <v>439</v>
       </c>
       <c r="N358" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O358" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P358" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q358" s="7">
         <v>357</v>
@@ -21529,13 +21532,13 @@
         <v>439</v>
       </c>
       <c r="N359" s="12" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O359" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P359" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q359" s="7">
         <v>358</v>
@@ -21582,13 +21585,13 @@
         <v>439</v>
       </c>
       <c r="N360" s="12" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O360" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P360" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q360" s="7">
         <v>359</v>
@@ -21635,13 +21638,13 @@
         <v>439</v>
       </c>
       <c r="N361" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O361" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P361" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q361" s="7">
         <v>360</v>
@@ -21688,13 +21691,13 @@
         <v>439</v>
       </c>
       <c r="N362" s="12" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O362" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P362" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q362" s="7">
         <v>361</v>
@@ -21741,13 +21744,13 @@
         <v>439</v>
       </c>
       <c r="N363" s="12" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O363" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P363" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q363" s="7">
         <v>362</v>
@@ -21794,10 +21797,10 @@
         <v>439</v>
       </c>
       <c r="N364" s="12" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O364" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P364" s="10"/>
       <c r="Q364" s="7">
@@ -21809,7 +21812,7 @@
         <v>100</v>
       </c>
       <c r="B365" t="s">
-        <v>547</v>
+        <v>662</v>
       </c>
       <c r="C365">
         <v>2017</v>
@@ -21845,10 +21848,10 @@
         <v>278</v>
       </c>
       <c r="N365" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O365" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P365" s="10"/>
       <c r="Q365" s="7">
@@ -21860,7 +21863,7 @@
         <v>100</v>
       </c>
       <c r="B366" t="s">
-        <v>548</v>
+        <v>663</v>
       </c>
       <c r="C366">
         <v>2017</v>
@@ -21896,10 +21899,10 @@
         <v>278</v>
       </c>
       <c r="N366" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O366" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P366" s="10"/>
       <c r="Q366" s="7">
@@ -21911,7 +21914,7 @@
         <v>100</v>
       </c>
       <c r="B367" t="s">
-        <v>549</v>
+        <v>664</v>
       </c>
       <c r="C367">
         <v>2017</v>
@@ -21947,10 +21950,10 @@
         <v>278</v>
       </c>
       <c r="N367" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O367" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P367" s="10"/>
       <c r="Q367" s="7">
@@ -21962,7 +21965,7 @@
         <v>100</v>
       </c>
       <c r="B368" t="s">
-        <v>550</v>
+        <v>665</v>
       </c>
       <c r="C368">
         <v>2017</v>
@@ -21998,10 +22001,10 @@
         <v>278</v>
       </c>
       <c r="N368" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O368" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P368" s="10"/>
       <c r="Q368" s="7">
@@ -22013,7 +22016,7 @@
         <v>100</v>
       </c>
       <c r="B369" t="s">
-        <v>551</v>
+        <v>666</v>
       </c>
       <c r="C369">
         <v>2017</v>
@@ -22049,10 +22052,10 @@
         <v>278</v>
       </c>
       <c r="N369" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O369" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P369" s="10"/>
       <c r="Q369" s="7">
@@ -22064,7 +22067,7 @@
         <v>100</v>
       </c>
       <c r="B370" t="s">
-        <v>553</v>
+        <v>667</v>
       </c>
       <c r="C370">
         <v>2017</v>
@@ -22100,10 +22103,10 @@
         <v>278</v>
       </c>
       <c r="N370" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O370" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P370" s="10"/>
       <c r="Q370" s="7">
@@ -22115,7 +22118,7 @@
         <v>100</v>
       </c>
       <c r="B371" t="s">
-        <v>552</v>
+        <v>668</v>
       </c>
       <c r="C371">
         <v>2017</v>
@@ -22151,10 +22154,10 @@
         <v>278</v>
       </c>
       <c r="N371" s="12" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O371" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P371" s="10"/>
       <c r="Q371" s="7">
@@ -22166,7 +22169,7 @@
         <v>191</v>
       </c>
       <c r="B372" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C372">
         <v>2017</v>
@@ -22202,10 +22205,10 @@
         <v>278</v>
       </c>
       <c r="N372" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O372" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P372" s="10"/>
       <c r="Q372" s="7">
@@ -22217,7 +22220,7 @@
         <v>191</v>
       </c>
       <c r="B373" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C373">
         <v>2017</v>
@@ -22253,10 +22256,10 @@
         <v>278</v>
       </c>
       <c r="N373" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O373" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P373" s="10"/>
       <c r="Q373" s="7">
@@ -22268,7 +22271,7 @@
         <v>191</v>
       </c>
       <c r="B374" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C374">
         <v>2017</v>
@@ -22304,10 +22307,10 @@
         <v>278</v>
       </c>
       <c r="N374" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O374" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P374" s="10"/>
       <c r="Q374" s="7">
@@ -22319,7 +22322,7 @@
         <v>191</v>
       </c>
       <c r="B375" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C375">
         <v>2017</v>
@@ -22355,10 +22358,10 @@
         <v>278</v>
       </c>
       <c r="N375" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O375" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P375" s="10"/>
       <c r="Q375" s="7">
@@ -22370,7 +22373,7 @@
         <v>191</v>
       </c>
       <c r="B376" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376">
@@ -22389,7 +22392,7 @@
         <v>2.8</v>
       </c>
       <c r="I376" s="4" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="J376" s="4" t="s">
         <v>180</v>
@@ -22404,10 +22407,10 @@
         <v>293</v>
       </c>
       <c r="N376" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O376" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P376" s="10"/>
       <c r="Q376" s="7">
@@ -22419,7 +22422,7 @@
         <v>191</v>
       </c>
       <c r="B377" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C377">
         <v>2017</v>
@@ -22455,10 +22458,10 @@
         <v>278</v>
       </c>
       <c r="N377" s="12" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O377" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P377" s="10"/>
       <c r="Q377" s="7">
@@ -22470,7 +22473,7 @@
         <v>191</v>
       </c>
       <c r="B378" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C378">
         <v>2017</v>
@@ -22506,10 +22509,10 @@
         <v>278</v>
       </c>
       <c r="N378" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O378" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P378" s="10"/>
       <c r="Q378" s="7">
@@ -22521,7 +22524,7 @@
         <v>132</v>
       </c>
       <c r="B379" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C379">
         <v>2017</v>
@@ -22542,7 +22545,7 @@
         <v>2.9</v>
       </c>
       <c r="I379" s="4" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="J379" s="4" t="s">
         <v>180</v>
@@ -22557,13 +22560,13 @@
         <v>439</v>
       </c>
       <c r="N379" s="12" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O379" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P379" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q379" s="7">
         <v>378</v>
@@ -22574,7 +22577,7 @@
         <v>7</v>
       </c>
       <c r="B380" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C380">
         <v>2017</v>
@@ -22610,13 +22613,13 @@
         <v>293</v>
       </c>
       <c r="N380" s="12" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O380" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P380" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q380" s="7">
         <v>379</v>
@@ -22663,13 +22666,13 @@
         <v>278</v>
       </c>
       <c r="N381" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O381" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P381" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q381" s="7">
         <v>380</v>
@@ -22716,13 +22719,13 @@
         <v>293</v>
       </c>
       <c r="N382" s="12" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="O382" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P382" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q382" s="7">
         <v>381</v>
@@ -22769,13 +22772,13 @@
         <v>278</v>
       </c>
       <c r="N383" s="12" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O383" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P383" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q383" s="7">
         <v>382</v>
@@ -22822,13 +22825,13 @@
         <v>278</v>
       </c>
       <c r="N384" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O384" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P384" s="12" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q384" s="7">
         <v>383</v>
@@ -22839,7 +22842,7 @@
         <v>182</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C385" s="7">
         <v>2017</v>
@@ -22875,10 +22878,10 @@
         <v>278</v>
       </c>
       <c r="N385" s="12" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O385" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P385" s="10"/>
       <c r="Q385" s="7">
@@ -22890,7 +22893,7 @@
         <v>132</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C386" s="7">
         <v>2017</v>
@@ -22926,13 +22929,13 @@
         <v>278</v>
       </c>
       <c r="N386" s="12" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O386" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P386" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q386" s="7">
         <v>385</v>
@@ -22943,7 +22946,7 @@
         <v>166</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C387" s="7">
         <v>2017</v>
@@ -22979,10 +22982,10 @@
         <v>278</v>
       </c>
       <c r="N387" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O387" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P387" s="10"/>
       <c r="Q387" s="7">
@@ -22994,7 +22997,7 @@
         <v>166</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C388" s="7">
         <v>2017</v>
@@ -23030,10 +23033,10 @@
         <v>278</v>
       </c>
       <c r="N388" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O388" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P388" s="10"/>
       <c r="Q388" s="7">
@@ -23045,7 +23048,7 @@
         <v>166</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C389" s="7">
         <v>2017</v>
@@ -23081,10 +23084,10 @@
         <v>278</v>
       </c>
       <c r="N389" s="12" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O389" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P389" s="10"/>
       <c r="Q389" s="7">
@@ -23096,7 +23099,7 @@
         <v>258</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C390" s="7">
         <v>2017</v>
@@ -23130,13 +23133,13 @@
         <v>278</v>
       </c>
       <c r="N390" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O390" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P390" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q390" s="7">
         <v>389</v>
@@ -23147,7 +23150,7 @@
         <v>258</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C391" s="7">
         <v>2017</v>
@@ -23168,7 +23171,7 @@
         <v>2</v>
       </c>
       <c r="I391" s="9" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="J391" s="9" t="s">
         <v>179</v>
@@ -23183,13 +23186,13 @@
         <v>286</v>
       </c>
       <c r="N391" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O391" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P391" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q391" s="7">
         <v>390</v>
@@ -23200,7 +23203,7 @@
         <v>370</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C392" s="7">
         <v>2017</v>
@@ -23221,7 +23224,7 @@
         <v>2.8</v>
       </c>
       <c r="I392" s="9" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="J392" s="9" t="s">
         <v>179</v>
@@ -23233,16 +23236,16 @@
         <v>0</v>
       </c>
       <c r="M392" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N392" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O392" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P392" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q392" s="7">
         <v>391</v>
@@ -23253,7 +23256,7 @@
         <v>370</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C393" s="7">
         <v>2017</v>
@@ -23274,7 +23277,7 @@
         <v>4</v>
       </c>
       <c r="I393" s="9" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="J393" s="9" t="s">
         <v>179</v>
@@ -23286,16 +23289,16 @@
         <v>0</v>
       </c>
       <c r="M393" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N393" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O393" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P393" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q393" s="7">
         <v>392</v>
@@ -23306,7 +23309,7 @@
         <v>370</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C394" s="7">
         <v>2017</v>
@@ -23327,7 +23330,7 @@
         <v>4</v>
       </c>
       <c r="I394" s="9" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="J394" s="9" t="s">
         <v>180</v>
@@ -23339,16 +23342,16 @@
         <v>0</v>
       </c>
       <c r="M394" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N394" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O394" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P394" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q394" s="7">
         <v>393</v>
@@ -23359,7 +23362,7 @@
         <v>370</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C395" s="7">
         <v>2017</v>
@@ -23384,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="M395" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N395" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O395" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P395" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q395" s="7">
         <v>394</v>
@@ -23401,10 +23404,10 @@
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C396" s="7">
         <v>2016</v>
@@ -23437,10 +23440,10 @@
         <v>0</v>
       </c>
       <c r="M396" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N396" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O396" s="10"/>
       <c r="P396" s="10"/>
@@ -23450,10 +23453,10 @@
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C397" s="7">
         <v>2016</v>
@@ -23486,10 +23489,10 @@
         <v>0</v>
       </c>
       <c r="M397" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N397" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O397" s="10"/>
       <c r="P397" s="10"/>
@@ -23499,10 +23502,10 @@
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B398" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C398" s="10"/>
       <c r="D398" s="12">
@@ -23538,13 +23541,13 @@
         <v>278</v>
       </c>
       <c r="N398" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O398" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P398" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="Q398">
         <v>397</v>
@@ -23552,10 +23555,10 @@
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B399" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C399" s="10"/>
       <c r="D399" s="12">
@@ -23587,13 +23590,13 @@
         <v>278</v>
       </c>
       <c r="N399" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O399" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P399" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="Q399">
         <v>398</v>
@@ -23604,7 +23607,7 @@
         <v>59</v>
       </c>
       <c r="B400" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C400">
         <v>2017</v>
@@ -23640,10 +23643,10 @@
         <v>278</v>
       </c>
       <c r="N400" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O400" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P400" s="10"/>
       <c r="Q400">
@@ -23655,7 +23658,7 @@
         <v>59</v>
       </c>
       <c r="B401" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C401">
         <v>2017</v>
@@ -23676,7 +23679,7 @@
         <v>4.5</v>
       </c>
       <c r="I401" s="9" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="J401" s="9" t="s">
         <v>180</v>
@@ -23691,10 +23694,10 @@
         <v>278</v>
       </c>
       <c r="N401" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="O401" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P401" s="10"/>
       <c r="Q401">
@@ -23706,7 +23709,7 @@
         <v>59</v>
       </c>
       <c r="B402" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C402">
         <v>2017</v>
@@ -23727,7 +23730,7 @@
         <v>5.6</v>
       </c>
       <c r="I402" s="9" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="J402" s="9" t="s">
         <v>180</v>
@@ -23742,10 +23745,10 @@
         <v>278</v>
       </c>
       <c r="N402" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O402" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P402" s="10"/>
       <c r="Q402">
@@ -23757,7 +23760,7 @@
         <v>166</v>
       </c>
       <c r="B403" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C403">
         <v>2017</v>
@@ -23793,10 +23796,10 @@
         <v>278</v>
       </c>
       <c r="N403" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O403" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P403" s="10"/>
       <c r="Q403">
@@ -23808,7 +23811,7 @@
         <v>182</v>
       </c>
       <c r="B404" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C404">
         <v>2017</v>
@@ -23844,10 +23847,10 @@
         <v>278</v>
       </c>
       <c r="N404" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O404" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P404" s="10"/>
       <c r="Q404">
@@ -23859,7 +23862,7 @@
         <v>182</v>
       </c>
       <c r="B405" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C405">
         <v>2017</v>
@@ -23880,7 +23883,7 @@
         <v>6.3</v>
       </c>
       <c r="I405" s="9" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="J405" s="9" t="s">
         <v>180</v>
@@ -23895,13 +23898,13 @@
         <v>293</v>
       </c>
       <c r="N405" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O405" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P405" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q405">
         <v>404</v>
@@ -23909,10 +23912,10 @@
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B406" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C406">
         <v>2017</v>
@@ -23948,7 +23951,7 @@
         <v>278</v>
       </c>
       <c r="N406" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O406" s="10"/>
       <c r="P406" s="10"/>
@@ -23961,7 +23964,7 @@
         <v>132</v>
       </c>
       <c r="B407" s="12" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C407" s="12">
         <v>2017</v>
@@ -23997,13 +24000,13 @@
         <v>278</v>
       </c>
       <c r="N407" s="12" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O407" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P407" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q407" s="12">
         <v>406</v>
@@ -24014,7 +24017,7 @@
         <v>132</v>
       </c>
       <c r="B408" s="12" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C408" s="12">
         <v>2017</v>
@@ -24050,13 +24053,13 @@
         <v>278</v>
       </c>
       <c r="N408" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O408" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P408" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q408" s="12">
         <v>407</v>
@@ -24067,7 +24070,7 @@
         <v>132</v>
       </c>
       <c r="B409" s="12" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C409" s="12">
         <v>2017</v>
@@ -24103,13 +24106,13 @@
         <v>278</v>
       </c>
       <c r="N409" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O409" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P409" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q409" s="12">
         <v>408</v>
@@ -24120,7 +24123,7 @@
         <v>132</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C410" s="12">
         <v>2017</v>
@@ -24156,13 +24159,13 @@
         <v>278</v>
       </c>
       <c r="N410" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O410" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P410" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q410" s="12">
         <v>409</v>
@@ -24173,7 +24176,7 @@
         <v>132</v>
       </c>
       <c r="B411" s="12" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C411" s="12">
         <v>2017</v>
@@ -24209,13 +24212,13 @@
         <v>278</v>
       </c>
       <c r="N411" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O411" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P411" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q411" s="12">
         <v>410</v>
@@ -24226,7 +24229,7 @@
         <v>132</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C412" s="12">
         <v>2017</v>
@@ -24262,13 +24265,13 @@
         <v>278</v>
       </c>
       <c r="N412" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O412" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P412" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q412" s="12">
         <v>411</v>
@@ -24279,7 +24282,7 @@
         <v>132</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C413" s="12">
         <v>2017</v>
@@ -24315,13 +24318,13 @@
         <v>278</v>
       </c>
       <c r="N413" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O413" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P413" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q413" s="12">
         <v>412</v>
@@ -24332,7 +24335,7 @@
         <v>132</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C414" s="12">
         <v>2017</v>
@@ -24368,13 +24371,13 @@
         <v>278</v>
       </c>
       <c r="N414" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O414" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P414" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q414" s="12">
         <v>413</v>
@@ -24385,7 +24388,7 @@
         <v>132</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C415" s="12">
         <v>2017</v>
@@ -24421,13 +24424,13 @@
         <v>278</v>
       </c>
       <c r="N415" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O415" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P415" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q415" s="12">
         <v>414</v>
@@ -24438,7 +24441,7 @@
         <v>370</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C416" s="12">
         <v>2017</v>
@@ -24471,13 +24474,13 @@
         <v>0</v>
       </c>
       <c r="M416" s="12" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N416" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O416" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P416" s="10"/>
       <c r="Q416" s="12">
@@ -24489,7 +24492,7 @@
         <v>370</v>
       </c>
       <c r="B417" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C417">
         <v>2017</v>
@@ -24510,7 +24513,7 @@
         <v>2</v>
       </c>
       <c r="I417" s="9" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J417" s="9" t="s">
         <v>179</v>
@@ -24522,13 +24525,13 @@
         <v>0</v>
       </c>
       <c r="M417" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N417" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O417" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P417" s="10"/>
       <c r="Q417">
@@ -24540,7 +24543,7 @@
         <v>132</v>
       </c>
       <c r="B418" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C418">
         <v>2017</v>
@@ -24576,13 +24579,13 @@
         <v>278</v>
       </c>
       <c r="N418" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O418" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P418" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q418">
         <v>417</v>
@@ -24590,10 +24593,10 @@
     </row>
     <row r="419" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B419" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C419" s="10">
         <v>2014</v>
@@ -24627,10 +24630,10 @@
         <v>286</v>
       </c>
       <c r="N419" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O419" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P419" s="10"/>
       <c r="Q419">
@@ -24639,10 +24642,10 @@
     </row>
     <row r="420" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B420" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C420" s="10">
         <v>2014</v>
@@ -24676,7 +24679,7 @@
         <v>286</v>
       </c>
       <c r="O420" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P420" s="10"/>
       <c r="Q420" s="12">
@@ -24685,10 +24688,10 @@
     </row>
     <row r="421" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="12" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B421" s="12" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C421" s="12">
         <v>2017</v>
@@ -24720,7 +24723,7 @@
         <v>286</v>
       </c>
       <c r="O421" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P421" s="10"/>
       <c r="Q421" s="12">
@@ -24729,10 +24732,10 @@
     </row>
     <row r="422" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B422" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C422" s="10">
         <v>2014</v>
@@ -24766,7 +24769,7 @@
         <v>286</v>
       </c>
       <c r="O422" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P422" s="10"/>
       <c r="Q422" s="12">
@@ -24775,10 +24778,10 @@
     </row>
     <row r="423" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B423" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C423" s="10">
         <v>2014</v>
@@ -24812,7 +24815,7 @@
         <v>286</v>
       </c>
       <c r="O423" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P423" s="10"/>
       <c r="Q423" s="12">
@@ -24821,10 +24824,10 @@
     </row>
     <row r="424" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B424" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C424" s="10">
         <v>2014</v>
@@ -24858,7 +24861,7 @@
         <v>286</v>
       </c>
       <c r="O424" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P424" s="10"/>
       <c r="Q424" s="12">
@@ -24867,10 +24870,10 @@
     </row>
     <row r="425" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
+        <v>642</v>
+      </c>
+      <c r="B425" t="s">
         <v>649</v>
-      </c>
-      <c r="B425" t="s">
-        <v>656</v>
       </c>
       <c r="C425">
         <v>2015</v>
@@ -24904,7 +24907,7 @@
         <v>286</v>
       </c>
       <c r="O425" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P425" s="10"/>
       <c r="Q425">
@@ -24922,10 +24925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -25218,7 +25221,7 @@
         <v>42833</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25226,7 +25229,7 @@
         <v>42833</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25234,7 +25237,7 @@
         <v>42874</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25242,7 +25245,7 @@
         <v>42876</v>
       </c>
       <c r="B40" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25250,7 +25253,7 @@
         <v>42878</v>
       </c>
       <c r="B41" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25258,7 +25261,7 @@
         <v>42878</v>
       </c>
       <c r="B42" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25266,7 +25269,7 @@
         <v>42879</v>
       </c>
       <c r="B43" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25274,7 +25277,7 @@
         <v>42884</v>
       </c>
       <c r="B44" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25282,7 +25285,7 @@
         <v>42887</v>
       </c>
       <c r="B45" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25290,7 +25293,7 @@
         <v>42887</v>
       </c>
       <c r="B46" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25298,7 +25301,7 @@
         <v>42891</v>
       </c>
       <c r="B47" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25306,7 +25309,7 @@
         <v>42901</v>
       </c>
       <c r="B48" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25314,7 +25317,7 @@
         <v>42908</v>
       </c>
       <c r="B49" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25322,7 +25325,7 @@
         <v>42909</v>
       </c>
       <c r="B50" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25330,7 +25333,7 @@
         <v>42910</v>
       </c>
       <c r="B51" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25338,7 +25341,7 @@
         <v>42913</v>
       </c>
       <c r="B52" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25346,7 +25349,7 @@
         <v>42914</v>
       </c>
       <c r="B53" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25354,7 +25357,7 @@
         <v>42948</v>
       </c>
       <c r="B54" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25362,7 +25365,15 @@
         <v>42952</v>
       </c>
       <c r="B55" t="s">
-        <v>668</v>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="13">
+        <v>42952</v>
+      </c>
+      <c r="B56" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="669">
   <si>
     <t>Manufacture</t>
   </si>
@@ -1668,6 +1668,27 @@
     <t>50-100mm T2 Cine</t>
   </si>
   <si>
+    <t>85mm T1.5 FF</t>
+  </si>
+  <si>
+    <t>14mm T2 FF</t>
+  </si>
+  <si>
+    <t>20mm T1.5 FF</t>
+  </si>
+  <si>
+    <t>24mm T1.5 FF</t>
+  </si>
+  <si>
+    <t>35mm T1.5 FF</t>
+  </si>
+  <si>
+    <t>135mm T2 FF</t>
+  </si>
+  <si>
+    <t>50mm T1.5 FF</t>
+  </si>
+  <si>
     <t>AT-X 16-28mm T3</t>
   </si>
   <si>
@@ -2011,30 +2032,6 @@
   </si>
   <si>
     <t>Removed slashes for old T#'s</t>
-  </si>
-  <si>
-    <t>Cine 85mm T1.5 FF</t>
-  </si>
-  <si>
-    <t>Cine 14mm T2 FF</t>
-  </si>
-  <si>
-    <t>Cine 20mm T1.5 FF</t>
-  </si>
-  <si>
-    <t>Cine 24mm T1.5 FF</t>
-  </si>
-  <si>
-    <t>Cine 35mm T1.5 FF</t>
-  </si>
-  <si>
-    <t>Cine 50mm T1.5 FF</t>
-  </si>
-  <si>
-    <t>Cine 135mm T2 FF</t>
-  </si>
-  <si>
-    <t>Added 'Cine' to modelnames for Sigma primes</t>
   </si>
 </sst>
 </file>
@@ -2471,8 +2468,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="B364" sqref="B364"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2533,16 +2530,16 @@
         <v>277</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -2588,13 +2585,13 @@
         <v>278</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q2" s="6">
         <v>1</v>
@@ -2643,13 +2640,13 @@
         <v>278</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q3" s="6">
         <v>2</v>
@@ -2698,13 +2695,13 @@
         <v>278</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q4" s="6">
         <v>3</v>
@@ -2753,13 +2750,13 @@
         <v>278</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q5" s="6">
         <v>4</v>
@@ -2808,13 +2805,13 @@
         <v>278</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q6" s="6">
         <v>5</v>
@@ -2863,13 +2860,13 @@
         <v>278</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q7" s="6">
         <v>6</v>
@@ -2918,13 +2915,13 @@
         <v>278</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q8" s="6">
         <v>7</v>
@@ -2973,13 +2970,13 @@
         <v>278</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q9" s="6">
         <v>8</v>
@@ -3028,13 +3025,13 @@
         <v>278</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q10" s="6">
         <v>9</v>
@@ -3083,13 +3080,13 @@
         <v>278</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q11" s="6">
         <v>10</v>
@@ -3138,13 +3135,13 @@
         <v>278</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q12" s="6">
         <v>11</v>
@@ -3193,13 +3190,13 @@
         <v>278</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q13" s="6">
         <v>12</v>
@@ -3248,13 +3245,13 @@
         <v>278</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q14" s="6">
         <v>13</v>
@@ -3303,13 +3300,13 @@
         <v>278</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q15" s="6">
         <v>14</v>
@@ -3358,13 +3355,13 @@
         <v>278</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q16" s="6">
         <v>15</v>
@@ -3413,13 +3410,13 @@
         <v>278</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q17" s="6">
         <v>16</v>
@@ -3468,13 +3465,13 @@
         <v>278</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q18" s="6">
         <v>17</v>
@@ -3523,13 +3520,13 @@
         <v>278</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q19" s="6">
         <v>18</v>
@@ -3578,13 +3575,13 @@
         <v>278</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q20" s="6">
         <v>19</v>
@@ -3633,13 +3630,13 @@
         <v>278</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q21" s="6">
         <v>20</v>
@@ -3688,13 +3685,13 @@
         <v>278</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q22" s="6">
         <v>21</v>
@@ -3743,13 +3740,13 @@
         <v>278</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q23" s="6">
         <v>22</v>
@@ -3798,13 +3795,13 @@
         <v>278</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q24" s="6">
         <v>23</v>
@@ -3853,13 +3850,13 @@
         <v>278</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q25" s="6">
         <v>24</v>
@@ -3908,13 +3905,13 @@
         <v>278</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q26" s="6">
         <v>25</v>
@@ -3963,13 +3960,13 @@
         <v>278</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q27" s="6">
         <v>26</v>
@@ -4018,13 +4015,13 @@
         <v>278</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q28" s="6">
         <v>27</v>
@@ -4073,13 +4070,13 @@
         <v>278</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q29" s="6">
         <v>28</v>
@@ -4128,13 +4125,13 @@
         <v>278</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q30" s="6">
         <v>29</v>
@@ -4183,13 +4180,13 @@
         <v>278</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q31" s="6">
         <v>30</v>
@@ -4238,13 +4235,13 @@
         <v>278</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q32" s="6">
         <v>31</v>
@@ -4293,13 +4290,13 @@
         <v>278</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q33" s="6">
         <v>32</v>
@@ -4348,13 +4345,13 @@
         <v>278</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q34" s="6">
         <v>33</v>
@@ -4403,13 +4400,13 @@
         <v>278</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q35" s="6">
         <v>34</v>
@@ -4458,13 +4455,13 @@
         <v>278</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q36" s="6">
         <v>35</v>
@@ -4513,13 +4510,13 @@
         <v>278</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q37" s="6">
         <v>36</v>
@@ -4568,13 +4565,13 @@
         <v>278</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q38" s="6">
         <v>37</v>
@@ -4623,13 +4620,13 @@
         <v>278</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q39" s="6">
         <v>38</v>
@@ -4678,13 +4675,13 @@
         <v>278</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q40" s="6">
         <v>39</v>
@@ -4733,13 +4730,13 @@
         <v>278</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q41" s="6">
         <v>40</v>
@@ -4788,13 +4785,13 @@
         <v>278</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q42" s="6">
         <v>41</v>
@@ -4843,13 +4840,13 @@
         <v>278</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q43" s="6">
         <v>42</v>
@@ -4896,13 +4893,13 @@
         <v>278</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q44" s="6">
         <v>43</v>
@@ -4951,13 +4948,13 @@
         <v>278</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q45" s="6">
         <v>44</v>
@@ -5006,13 +5003,13 @@
         <v>278</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q46" s="6">
         <v>45</v>
@@ -5061,13 +5058,13 @@
         <v>278</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q47" s="6">
         <v>46</v>
@@ -5116,13 +5113,13 @@
         <v>278</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q48" s="6">
         <v>47</v>
@@ -5171,13 +5168,13 @@
         <v>278</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q49" s="6">
         <v>48</v>
@@ -5226,13 +5223,13 @@
         <v>278</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q50" s="6">
         <v>49</v>
@@ -5281,13 +5278,13 @@
         <v>278</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q51" s="6">
         <v>50</v>
@@ -5336,13 +5333,13 @@
         <v>278</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q52" s="6">
         <v>51</v>
@@ -5391,13 +5388,13 @@
         <v>278</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q53" s="6">
         <v>52</v>
@@ -5446,13 +5443,13 @@
         <v>278</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q54" s="6">
         <v>53</v>
@@ -5501,13 +5498,13 @@
         <v>278</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q55" s="6">
         <v>54</v>
@@ -5556,13 +5553,13 @@
         <v>278</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q56" s="6">
         <v>55</v>
@@ -5611,13 +5608,13 @@
         <v>278</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q57" s="6">
         <v>56</v>
@@ -5666,13 +5663,13 @@
         <v>278</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q58" s="6">
         <v>57</v>
@@ -5721,13 +5718,13 @@
         <v>278</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q59" s="6">
         <v>58</v>
@@ -5776,13 +5773,13 @@
         <v>278</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q60" s="6">
         <v>59</v>
@@ -5829,13 +5826,13 @@
         <v>278</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q61" s="6">
         <v>60</v>
@@ -5884,13 +5881,13 @@
         <v>278</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q62" s="6">
         <v>61</v>
@@ -5937,13 +5934,13 @@
         <v>278</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q63" s="6">
         <v>62</v>
@@ -5990,13 +5987,13 @@
         <v>278</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q64" s="6">
         <v>63</v>
@@ -6043,13 +6040,13 @@
         <v>293</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q65" s="6">
         <v>64</v>
@@ -6096,13 +6093,13 @@
         <v>278</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q66" s="6">
         <v>65</v>
@@ -6149,13 +6146,13 @@
         <v>278</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q67" s="6">
         <v>66</v>
@@ -6202,13 +6199,13 @@
         <v>293</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O68" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q68" s="6">
         <v>67</v>
@@ -6255,13 +6252,13 @@
         <v>293</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q69" s="6">
         <v>68</v>
@@ -6308,13 +6305,13 @@
         <v>293</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q70" s="6">
         <v>69</v>
@@ -6361,13 +6358,13 @@
         <v>293</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q71" s="6">
         <v>70</v>
@@ -6414,13 +6411,13 @@
         <v>293</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q72" s="6">
         <v>71</v>
@@ -6467,13 +6464,13 @@
         <v>293</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q73" s="6">
         <v>72</v>
@@ -6520,13 +6517,13 @@
         <v>293</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O74" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q74" s="6">
         <v>73</v>
@@ -6573,13 +6570,13 @@
         <v>293</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q75" s="6">
         <v>74</v>
@@ -6626,13 +6623,13 @@
         <v>293</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O76" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q76" s="6">
         <v>75</v>
@@ -6679,13 +6676,13 @@
         <v>293</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O77" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q77" s="6">
         <v>76</v>
@@ -6732,13 +6729,13 @@
         <v>293</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O78" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q78" s="6">
         <v>77</v>
@@ -6785,13 +6782,13 @@
         <v>293</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P79" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q79" s="6">
         <v>78</v>
@@ -6838,13 +6835,13 @@
         <v>293</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O80" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q80" s="6">
         <v>79</v>
@@ -6891,13 +6888,13 @@
         <v>293</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q81" s="6">
         <v>80</v>
@@ -6944,13 +6941,13 @@
         <v>293</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q82" s="6">
         <v>81</v>
@@ -6997,13 +6994,13 @@
         <v>293</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q83" s="6">
         <v>82</v>
@@ -7050,13 +7047,13 @@
         <v>293</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O84" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q84" s="6">
         <v>83</v>
@@ -7103,13 +7100,13 @@
         <v>293</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O85" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q85" s="6">
         <v>84</v>
@@ -7156,13 +7153,13 @@
         <v>293</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O86" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q86" s="6">
         <v>85</v>
@@ -7209,13 +7206,13 @@
         <v>293</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O87" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q87" s="6">
         <v>86</v>
@@ -7259,13 +7256,13 @@
         <v>293</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O88" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q88" s="6">
         <v>87</v>
@@ -7314,10 +7311,10 @@
         <v>286</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O89" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P89" s="10"/>
       <c r="Q89" s="6">
@@ -7365,7 +7362,7 @@
         <v>278</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
@@ -7414,7 +7411,7 @@
         <v>278</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
@@ -7463,13 +7460,13 @@
         <v>278</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O92" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q92" s="6">
         <v>91</v>
@@ -7516,13 +7513,13 @@
         <v>278</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O93" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q93" s="6">
         <v>92</v>
@@ -7569,13 +7566,13 @@
         <v>278</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O94" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q94" s="6">
         <v>93</v>
@@ -7622,13 +7619,13 @@
         <v>278</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O95" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q95" s="6">
         <v>94</v>
@@ -7675,13 +7672,13 @@
         <v>278</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O96" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q96" s="6">
         <v>95</v>
@@ -7728,13 +7725,13 @@
         <v>278</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O97" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q97" s="6">
         <v>96</v>
@@ -7783,13 +7780,13 @@
         <v>278</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O98" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q98" s="6">
         <v>97</v>
@@ -7839,13 +7836,13 @@
         <v>278</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O99" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q99" s="6">
         <v>98</v>
@@ -7894,13 +7891,13 @@
         <v>278</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O100" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q100" s="6">
         <v>99</v>
@@ -7947,13 +7944,13 @@
         <v>278</v>
       </c>
       <c r="N101" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O101" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P101" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q101" s="6">
         <v>100</v>
@@ -8000,13 +7997,13 @@
         <v>278</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q102" s="6">
         <v>101</v>
@@ -8053,13 +8050,13 @@
         <v>278</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O103" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q103" s="6">
         <v>102</v>
@@ -8106,13 +8103,13 @@
         <v>278</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O104" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q104" s="6">
         <v>103</v>
@@ -8159,13 +8156,13 @@
         <v>278</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O105" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P105" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q105" s="6">
         <v>104</v>
@@ -8212,13 +8209,13 @@
         <v>278</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O106" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P106" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q106" s="6">
         <v>105</v>
@@ -8268,13 +8265,13 @@
         <v>278</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O107" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q107" s="6">
         <v>106</v>
@@ -8321,13 +8318,13 @@
         <v>278</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O108" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q108" s="6">
         <v>107</v>
@@ -8374,13 +8371,13 @@
         <v>278</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O109" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q109" s="6">
         <v>108</v>
@@ -8427,13 +8424,13 @@
         <v>278</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O110" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P110" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q110" s="6">
         <v>109</v>
@@ -8480,13 +8477,13 @@
         <v>278</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O111" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P111" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q111" s="6">
         <v>110</v>
@@ -8533,13 +8530,13 @@
         <v>278</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O112" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P112" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q112" s="6">
         <v>111</v>
@@ -8586,13 +8583,13 @@
         <v>278</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O113" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P113" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q113" s="6">
         <v>112</v>
@@ -8639,13 +8636,13 @@
         <v>278</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O114" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P114" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q114" s="6">
         <v>113</v>
@@ -8692,13 +8689,13 @@
         <v>278</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O115" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P115" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q115" s="6">
         <v>114</v>
@@ -8748,13 +8745,13 @@
         <v>278</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O116" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P116" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q116" s="6">
         <v>115</v>
@@ -8804,13 +8801,13 @@
         <v>278</v>
       </c>
       <c r="N117" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O117" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P117" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q117" s="6">
         <v>116</v>
@@ -8857,13 +8854,13 @@
         <v>278</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O118" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P118" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q118" s="6">
         <v>117</v>
@@ -8910,13 +8907,13 @@
         <v>278</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O119" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P119" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q119" s="6">
         <v>118</v>
@@ -8963,13 +8960,13 @@
         <v>278</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O120" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P120" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q120" s="6">
         <v>119</v>
@@ -9018,13 +9015,13 @@
         <v>293</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O121" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P121" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q121" s="6">
         <v>120</v>
@@ -9073,13 +9070,13 @@
         <v>286</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O122" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P122" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q122" s="6">
         <v>121</v>
@@ -9128,13 +9125,13 @@
         <v>286</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O123" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P123" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q123" s="6">
         <v>122</v>
@@ -9183,10 +9180,10 @@
         <v>278</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O124" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P124" s="10"/>
       <c r="Q124" s="6">
@@ -9236,10 +9233,10 @@
         <v>278</v>
       </c>
       <c r="N125" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O125" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P125" s="10"/>
       <c r="Q125" s="6">
@@ -9289,10 +9286,10 @@
         <v>278</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="O126" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P126" s="10"/>
       <c r="Q126" s="6">
@@ -9342,10 +9339,10 @@
         <v>278</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O127" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P127" s="10"/>
       <c r="Q127" s="6">
@@ -9395,10 +9392,10 @@
         <v>278</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O128" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P128" s="10"/>
       <c r="Q128" s="6">
@@ -9448,10 +9445,10 @@
         <v>278</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O129" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P129" s="10"/>
       <c r="Q129" s="6">
@@ -9501,10 +9498,10 @@
         <v>278</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="O130" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P130" s="10"/>
       <c r="Q130" s="6">
@@ -9554,10 +9551,10 @@
         <v>278</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O131" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P131" s="10"/>
       <c r="Q131" s="6">
@@ -9607,10 +9604,10 @@
         <v>278</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O132" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P132" s="10"/>
       <c r="Q132" s="6">
@@ -9660,10 +9657,10 @@
         <v>278</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O133" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P133" s="10"/>
       <c r="Q133" s="6">
@@ -9713,10 +9710,10 @@
         <v>278</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O134" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P134" s="10"/>
       <c r="Q134" s="6">
@@ -9766,10 +9763,10 @@
         <v>278</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O135" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P135" s="10"/>
       <c r="Q135" s="6">
@@ -9819,10 +9816,10 @@
         <v>278</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O136" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P136" s="10"/>
       <c r="Q136" s="6">
@@ -9872,10 +9869,10 @@
         <v>278</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="O137" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P137" s="10"/>
       <c r="Q137" s="6">
@@ -9925,10 +9922,10 @@
         <v>278</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O138" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P138" s="10"/>
       <c r="Q138" s="6">
@@ -9979,10 +9976,10 @@
         <v>278</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O139" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P139" s="10"/>
       <c r="Q139" s="6">
@@ -10032,10 +10029,10 @@
         <v>278</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O140" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P140" s="10"/>
       <c r="Q140" s="6">
@@ -10085,10 +10082,10 @@
         <v>278</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O141" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P141" s="10"/>
       <c r="Q141" s="6">
@@ -10138,10 +10135,10 @@
         <v>278</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O142" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P142" s="10"/>
       <c r="Q142" s="6">
@@ -10191,10 +10188,10 @@
         <v>278</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O143" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P143" s="10"/>
       <c r="Q143" s="6">
@@ -10244,10 +10241,10 @@
         <v>278</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O144" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P144" s="10"/>
       <c r="Q144" s="6">
@@ -10297,10 +10294,10 @@
         <v>278</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O145" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P145" s="10"/>
       <c r="Q145" s="6">
@@ -10350,10 +10347,10 @@
         <v>278</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O146" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P146" s="10"/>
       <c r="Q146" s="6">
@@ -10403,10 +10400,10 @@
         <v>278</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O147" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P147" s="10"/>
       <c r="Q147" s="6">
@@ -10456,10 +10453,10 @@
         <v>278</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O148" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P148" s="10"/>
       <c r="Q148" s="6">
@@ -10509,10 +10506,10 @@
         <v>278</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O149" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P149" s="10"/>
       <c r="Q149" s="6">
@@ -10562,10 +10559,10 @@
         <v>278</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O150" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P150" s="10"/>
       <c r="Q150" s="6">
@@ -10615,10 +10612,10 @@
         <v>278</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O151" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P151" s="10"/>
       <c r="Q151" s="6">
@@ -10668,10 +10665,10 @@
         <v>278</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O152" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P152" s="10"/>
       <c r="Q152" s="6">
@@ -10721,10 +10718,10 @@
         <v>278</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O153" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P153" s="10"/>
       <c r="Q153" s="6">
@@ -10774,10 +10771,10 @@
         <v>278</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O154" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P154" s="10"/>
       <c r="Q154" s="6">
@@ -10827,10 +10824,10 @@
         <v>278</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O155" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P155" s="10"/>
       <c r="Q155" s="6">
@@ -10878,10 +10875,10 @@
         <v>293</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O156" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P156" s="10"/>
       <c r="Q156" s="6">
@@ -10929,10 +10926,10 @@
         <v>278</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="O157" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P157" s="10"/>
       <c r="Q157" s="6">
@@ -10980,10 +10977,10 @@
         <v>278</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O158" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P158" s="10"/>
       <c r="Q158" s="6">
@@ -11031,10 +11028,10 @@
         <v>293</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O159" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P159" s="10"/>
       <c r="Q159" s="6">
@@ -11082,10 +11079,10 @@
         <v>278</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O160" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P160" s="10"/>
       <c r="Q160" s="6">
@@ -11133,10 +11130,10 @@
         <v>293</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O161" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P161" s="10"/>
       <c r="Q161" s="6">
@@ -11184,10 +11181,10 @@
         <v>293</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O162" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P162" s="10"/>
       <c r="Q162" s="6">
@@ -11235,10 +11232,10 @@
         <v>293</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O163" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P163" s="10"/>
       <c r="Q163" s="6">
@@ -11286,10 +11283,10 @@
         <v>286</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O164" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P164" s="10"/>
       <c r="Q164" s="6">
@@ -11337,10 +11334,10 @@
         <v>286</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O165" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P165" s="10"/>
       <c r="Q165" s="6">
@@ -11388,10 +11385,10 @@
         <v>286</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O166" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P166" s="10"/>
       <c r="Q166" s="6">
@@ -11441,13 +11438,13 @@
         <v>278</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O167" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P167" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q167" s="6">
         <v>166</v>
@@ -11458,7 +11455,7 @@
         <v>424</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C168" s="1">
         <v>2016</v>
@@ -11494,13 +11491,13 @@
         <v>278</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O168" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P168" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q168" s="6">
         <v>167</v>
@@ -11550,13 +11547,13 @@
         <v>278</v>
       </c>
       <c r="N169" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O169" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P169" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q169" s="6">
         <v>168</v>
@@ -11567,7 +11564,7 @@
         <v>424</v>
       </c>
       <c r="B170" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="C170">
         <v>2015</v>
@@ -11603,13 +11600,13 @@
         <v>278</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O170" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P170" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q170" s="6">
         <v>169</v>
@@ -11658,13 +11655,13 @@
         <v>278</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O171" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P171" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q171" s="6">
         <v>170</v>
@@ -11675,7 +11672,7 @@
         <v>424</v>
       </c>
       <c r="B172" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C172" s="12">
         <v>2016</v>
@@ -11711,13 +11708,13 @@
         <v>278</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O172" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P172" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q172" s="6">
         <v>171</v>
@@ -11766,13 +11763,13 @@
         <v>278</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O173" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P173" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q173" s="6">
         <v>172</v>
@@ -11783,7 +11780,7 @@
         <v>424</v>
       </c>
       <c r="B174" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="C174">
         <v>2015</v>
@@ -11819,13 +11816,13 @@
         <v>278</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O174" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P174" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q174" s="6">
         <v>173</v>
@@ -11874,13 +11871,13 @@
         <v>278</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O175" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P175" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q175" s="6">
         <v>174</v>
@@ -11891,7 +11888,7 @@
         <v>424</v>
       </c>
       <c r="B176" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C176">
         <v>2015</v>
@@ -11927,13 +11924,13 @@
         <v>278</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O176" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P176" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q176" s="6">
         <v>175</v>
@@ -11980,13 +11977,13 @@
         <v>278</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O177" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P177" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q177" s="6">
         <v>176</v>
@@ -11997,7 +11994,7 @@
         <v>424</v>
       </c>
       <c r="B178" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="C178">
         <v>2016</v>
@@ -12033,13 +12030,13 @@
         <v>278</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O178" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P178" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q178" s="6">
         <v>177</v>
@@ -12088,13 +12085,13 @@
         <v>278</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="O179" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P179" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q179" s="6">
         <v>178</v>
@@ -12143,13 +12140,13 @@
         <v>278</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="O180" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P180" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q180" s="6">
         <v>179</v>
@@ -12198,13 +12195,13 @@
         <v>278</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="O181" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P181" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q181" s="6">
         <v>180</v>
@@ -12253,10 +12250,10 @@
         <v>286</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O182" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P182" s="10"/>
       <c r="Q182" s="6">
@@ -12306,10 +12303,10 @@
         <v>278</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O183" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P183" s="10"/>
       <c r="Q183" s="6">
@@ -12359,10 +12356,10 @@
         <v>278</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O184" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P184" s="10"/>
       <c r="Q184" s="6">
@@ -12412,10 +12409,10 @@
         <v>286</v>
       </c>
       <c r="N185" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O185" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P185" s="10"/>
       <c r="Q185" s="6">
@@ -12465,10 +12462,10 @@
         <v>293</v>
       </c>
       <c r="N186" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O186" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P186" s="10"/>
       <c r="Q186" s="6">
@@ -12518,10 +12515,10 @@
         <v>278</v>
       </c>
       <c r="N187" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O187" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P187" s="10"/>
       <c r="Q187" s="6">
@@ -12571,10 +12568,10 @@
         <v>278</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O188" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P188" s="10"/>
       <c r="Q188" s="6">
@@ -12624,10 +12621,10 @@
         <v>286</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O189" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P189" s="10"/>
       <c r="Q189" s="6">
@@ -12677,10 +12674,10 @@
         <v>278</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O190" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P190" s="10"/>
       <c r="Q190" s="6">
@@ -12730,10 +12727,10 @@
         <v>278</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O191" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P191" s="10"/>
       <c r="Q191" s="6">
@@ -12783,10 +12780,10 @@
         <v>278</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O192" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P192" s="10"/>
       <c r="Q192" s="6">
@@ -12834,10 +12831,10 @@
         <v>278</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O193" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P193" s="10"/>
       <c r="Q193" s="6">
@@ -12885,10 +12882,10 @@
         <v>278</v>
       </c>
       <c r="N194" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O194" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P194" s="10"/>
       <c r="Q194" s="6">
@@ -12933,10 +12930,10 @@
         <v>278</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O195" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P195" s="10"/>
       <c r="Q195" s="6">
@@ -12984,10 +12981,10 @@
         <v>278</v>
       </c>
       <c r="N196" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O196" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P196" s="10"/>
       <c r="Q196" s="6">
@@ -13035,10 +13032,10 @@
         <v>278</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O197" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P197" s="10"/>
       <c r="Q197" s="6">
@@ -13086,10 +13083,10 @@
         <v>293</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O198" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P198" s="10"/>
       <c r="Q198" s="6">
@@ -13139,10 +13136,10 @@
         <v>278</v>
       </c>
       <c r="N199" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O199" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P199" s="10"/>
       <c r="Q199" s="6">
@@ -13192,10 +13189,10 @@
         <v>278</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O200" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P200" s="10"/>
       <c r="Q200" s="6">
@@ -13245,10 +13242,10 @@
         <v>278</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O201" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P201" s="10"/>
       <c r="Q201" s="6">
@@ -13298,10 +13295,10 @@
         <v>278</v>
       </c>
       <c r="N202" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O202" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P202" s="10"/>
       <c r="Q202" s="6">
@@ -13351,10 +13348,10 @@
         <v>278</v>
       </c>
       <c r="N203" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O203" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P203" s="10"/>
       <c r="Q203" s="6">
@@ -13404,10 +13401,10 @@
         <v>278</v>
       </c>
       <c r="N204" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O204" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P204" s="10"/>
       <c r="Q204" s="6">
@@ -13458,10 +13455,10 @@
         <v>278</v>
       </c>
       <c r="N205" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O205" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P205" s="10"/>
       <c r="Q205" s="6">
@@ -13511,10 +13508,10 @@
         <v>278</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O206" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P206" s="10"/>
       <c r="Q206" s="6">
@@ -13564,10 +13561,10 @@
         <v>278</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O207" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P207" s="10"/>
       <c r="Q207" s="6">
@@ -13617,10 +13614,10 @@
         <v>278</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O208" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P208" s="10"/>
       <c r="Q208" s="6">
@@ -13670,10 +13667,10 @@
         <v>278</v>
       </c>
       <c r="N209" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O209" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P209" s="10"/>
       <c r="Q209" s="6">
@@ -13723,10 +13720,10 @@
         <v>278</v>
       </c>
       <c r="N210" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O210" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P210" s="10"/>
       <c r="Q210" s="6">
@@ -13776,10 +13773,10 @@
         <v>278</v>
       </c>
       <c r="N211" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O211" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P211" s="10"/>
       <c r="Q211" s="6">
@@ -13829,10 +13826,10 @@
         <v>278</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O212" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P212" s="10"/>
       <c r="Q212" s="6">
@@ -13882,10 +13879,10 @@
         <v>278</v>
       </c>
       <c r="N213" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O213" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P213" s="10"/>
       <c r="Q213" s="6">
@@ -13933,10 +13930,10 @@
         <v>278</v>
       </c>
       <c r="N214" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O214" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P214" s="10"/>
       <c r="Q214" s="6">
@@ -13986,10 +13983,10 @@
         <v>278</v>
       </c>
       <c r="N215" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O215" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P215" s="10"/>
       <c r="Q215" s="6">
@@ -14039,10 +14036,10 @@
         <v>278</v>
       </c>
       <c r="N216" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O216" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P216" s="10"/>
       <c r="Q216" s="6">
@@ -14092,10 +14089,10 @@
         <v>278</v>
       </c>
       <c r="N217" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O217" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P217" s="10"/>
       <c r="Q217" s="6">
@@ -14145,10 +14142,10 @@
         <v>278</v>
       </c>
       <c r="N218" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O218" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P218" s="10"/>
       <c r="Q218" s="6">
@@ -14198,10 +14195,10 @@
         <v>278</v>
       </c>
       <c r="N219" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O219" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P219" s="10"/>
       <c r="Q219" s="6">
@@ -14251,10 +14248,10 @@
         <v>278</v>
       </c>
       <c r="N220" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O220" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P220" s="10"/>
       <c r="Q220" s="6">
@@ -14304,10 +14301,10 @@
         <v>278</v>
       </c>
       <c r="N221" s="6" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O221" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P221" s="10"/>
       <c r="Q221" s="6">
@@ -14357,10 +14354,10 @@
         <v>278</v>
       </c>
       <c r="N222" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O222" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P222" s="10"/>
       <c r="Q222" s="6">
@@ -14410,10 +14407,10 @@
         <v>278</v>
       </c>
       <c r="N223" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O223" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P223" s="10"/>
       <c r="Q223" s="6">
@@ -14461,10 +14458,10 @@
         <v>278</v>
       </c>
       <c r="N224" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O224" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P224" s="10"/>
       <c r="Q224" s="6">
@@ -14512,10 +14509,10 @@
         <v>278</v>
       </c>
       <c r="N225" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O225" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P225" s="10"/>
       <c r="Q225" s="6">
@@ -14563,10 +14560,10 @@
         <v>278</v>
       </c>
       <c r="N226" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O226" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P226" s="10"/>
       <c r="Q226" s="6">
@@ -14616,10 +14613,10 @@
         <v>278</v>
       </c>
       <c r="N227" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O227" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P227" s="10"/>
       <c r="Q227" s="6">
@@ -14669,10 +14666,10 @@
         <v>278</v>
       </c>
       <c r="N228" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O228" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P228" s="10"/>
       <c r="Q228" s="6">
@@ -14722,10 +14719,10 @@
         <v>278</v>
       </c>
       <c r="N229" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O229" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P229" s="10"/>
       <c r="Q229" s="6">
@@ -14775,10 +14772,10 @@
         <v>278</v>
       </c>
       <c r="N230" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O230" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P230" s="10"/>
       <c r="Q230" s="6">
@@ -14828,10 +14825,10 @@
         <v>278</v>
       </c>
       <c r="N231" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O231" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P231" s="10"/>
       <c r="Q231" s="6">
@@ -14879,10 +14876,10 @@
         <v>278</v>
       </c>
       <c r="N232" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O232" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P232" s="10"/>
       <c r="Q232" s="6">
@@ -14930,13 +14927,13 @@
         <v>278</v>
       </c>
       <c r="N233" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O233" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P233" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q233" s="6">
         <v>232</v>
@@ -14983,13 +14980,13 @@
         <v>278</v>
       </c>
       <c r="N234" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O234" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P234" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q234" s="6">
         <v>233</v>
@@ -15000,7 +14997,7 @@
         <v>258</v>
       </c>
       <c r="B235" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C235" s="1">
         <v>2016</v>
@@ -15036,13 +15033,13 @@
         <v>278</v>
       </c>
       <c r="N235" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O235" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P235" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q235" s="6">
         <v>234</v>
@@ -15089,13 +15086,13 @@
         <v>278</v>
       </c>
       <c r="N236" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O236" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P236" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q236" s="6">
         <v>235</v>
@@ -15144,7 +15141,7 @@
         <v>286</v>
       </c>
       <c r="N237" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O237" s="14"/>
       <c r="P237" s="14"/>
@@ -15193,7 +15190,7 @@
         <v>278</v>
       </c>
       <c r="N238" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O238" s="14"/>
       <c r="P238" s="14"/>
@@ -15242,7 +15239,7 @@
         <v>278</v>
       </c>
       <c r="N239" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O239" s="14"/>
       <c r="P239" s="14"/>
@@ -15293,7 +15290,7 @@
         <v>286</v>
       </c>
       <c r="N240" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O240" s="14"/>
       <c r="P240" s="14"/>
@@ -15342,7 +15339,7 @@
         <v>278</v>
       </c>
       <c r="N241" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O241" s="14"/>
       <c r="P241" s="14"/>
@@ -15391,7 +15388,7 @@
         <v>278</v>
       </c>
       <c r="N242" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O242" s="14"/>
       <c r="P242" s="14"/>
@@ -15440,7 +15437,7 @@
         <v>278</v>
       </c>
       <c r="N243" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O243" s="14"/>
       <c r="P243" s="14"/>
@@ -15491,7 +15488,7 @@
         <v>286</v>
       </c>
       <c r="N244" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O244" s="14"/>
       <c r="P244" s="14"/>
@@ -15540,7 +15537,7 @@
         <v>278</v>
       </c>
       <c r="N245" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O245" s="14"/>
       <c r="P245" s="14"/>
@@ -15589,7 +15586,7 @@
         <v>278</v>
       </c>
       <c r="N246" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O246" s="14"/>
       <c r="P246" s="14"/>
@@ -15638,7 +15635,7 @@
         <v>278</v>
       </c>
       <c r="N247" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O247" s="14"/>
       <c r="P247" s="14"/>
@@ -15687,7 +15684,7 @@
         <v>278</v>
       </c>
       <c r="N248" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O248" s="14"/>
       <c r="P248" s="14"/>
@@ -15736,7 +15733,7 @@
         <v>278</v>
       </c>
       <c r="N249" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O249" s="14"/>
       <c r="P249" s="14"/>
@@ -15787,7 +15784,7 @@
         <v>286</v>
       </c>
       <c r="N250" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O250" s="14"/>
       <c r="P250" s="14"/>
@@ -15836,7 +15833,7 @@
         <v>278</v>
       </c>
       <c r="N251" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O251" s="14"/>
       <c r="P251" s="14"/>
@@ -15885,7 +15882,7 @@
         <v>278</v>
       </c>
       <c r="N252" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O252" s="14"/>
       <c r="P252" s="14"/>
@@ -15934,7 +15931,7 @@
         <v>278</v>
       </c>
       <c r="N253" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O253" s="14"/>
       <c r="P253" s="14"/>
@@ -15985,13 +15982,13 @@
         <v>278</v>
       </c>
       <c r="N254" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O254" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P254" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q254" s="6">
         <v>253</v>
@@ -16038,13 +16035,13 @@
         <v>278</v>
       </c>
       <c r="N255" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O255" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P255" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q255" s="6">
         <v>254</v>
@@ -16091,13 +16088,13 @@
         <v>278</v>
       </c>
       <c r="N256" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O256" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P256" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q256" s="6">
         <v>255</v>
@@ -16146,13 +16143,13 @@
         <v>278</v>
       </c>
       <c r="N257" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O257" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P257" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q257" s="6">
         <v>256</v>
@@ -16199,13 +16196,13 @@
         <v>278</v>
       </c>
       <c r="N258" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O258" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P258" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q258" s="6">
         <v>257</v>
@@ -16252,13 +16249,13 @@
         <v>278</v>
       </c>
       <c r="N259" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O259" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P259" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q259" s="6">
         <v>258</v>
@@ -16307,13 +16304,13 @@
         <v>278</v>
       </c>
       <c r="N260" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O260" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P260" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q260" s="6">
         <v>259</v>
@@ -16362,13 +16359,13 @@
         <v>278</v>
       </c>
       <c r="N261" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O261" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P261" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q261" s="6">
         <v>260</v>
@@ -16417,13 +16414,13 @@
         <v>278</v>
       </c>
       <c r="N262" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O262" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P262" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q262" s="6">
         <v>261</v>
@@ -16470,13 +16467,13 @@
         <v>278</v>
       </c>
       <c r="N263" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O263" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P263" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q263" s="6">
         <v>262</v>
@@ -16523,13 +16520,13 @@
         <v>278</v>
       </c>
       <c r="N264" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O264" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P264" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q264" s="6">
         <v>263</v>
@@ -16576,13 +16573,13 @@
         <v>278</v>
       </c>
       <c r="N265" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O265" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P265" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q265" s="6">
         <v>264</v>
@@ -16631,13 +16628,13 @@
         <v>278</v>
       </c>
       <c r="N266" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O266" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P266" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q266" s="6">
         <v>265</v>
@@ -16686,13 +16683,13 @@
         <v>278</v>
       </c>
       <c r="N267" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O267" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P267" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q267" s="6">
         <v>266</v>
@@ -16741,13 +16738,13 @@
         <v>278</v>
       </c>
       <c r="N268" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O268" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P268" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q268" s="6">
         <v>267</v>
@@ -16794,13 +16791,13 @@
         <v>278</v>
       </c>
       <c r="N269" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O269" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P269" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q269" s="6">
         <v>268</v>
@@ -16847,13 +16844,13 @@
         <v>278</v>
       </c>
       <c r="N270" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O270" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P270" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q270" s="6">
         <v>269</v>
@@ -16902,13 +16899,13 @@
         <v>278</v>
       </c>
       <c r="N271" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O271" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P271" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q271" s="6">
         <v>270</v>
@@ -16957,13 +16954,13 @@
         <v>278</v>
       </c>
       <c r="N272" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O272" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P272" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q272" s="6">
         <v>271</v>
@@ -17010,13 +17007,13 @@
         <v>278</v>
       </c>
       <c r="N273" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O273" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P273" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q273" s="6">
         <v>272</v>
@@ -17063,13 +17060,13 @@
         <v>278</v>
       </c>
       <c r="N274" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O274" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P274" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q274" s="6">
         <v>273</v>
@@ -17118,13 +17115,13 @@
         <v>278</v>
       </c>
       <c r="N275" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O275" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P275" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q275" s="6">
         <v>274</v>
@@ -17173,13 +17170,13 @@
         <v>278</v>
       </c>
       <c r="N276" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O276" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P276" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q276" s="6">
         <v>275</v>
@@ -17228,13 +17225,13 @@
         <v>278</v>
       </c>
       <c r="N277" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O277" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P277" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q277" s="6">
         <v>276</v>
@@ -17283,13 +17280,13 @@
         <v>278</v>
       </c>
       <c r="N278" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O278" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P278" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q278" s="6">
         <v>277</v>
@@ -17336,13 +17333,13 @@
         <v>278</v>
       </c>
       <c r="N279" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O279" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P279" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q279" s="6">
         <v>278</v>
@@ -17389,13 +17386,13 @@
         <v>278</v>
       </c>
       <c r="N280" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O280" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P280" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q280" s="6">
         <v>279</v>
@@ -17442,13 +17439,13 @@
         <v>278</v>
       </c>
       <c r="N281" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O281" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P281" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q281" s="6">
         <v>280</v>
@@ -17495,13 +17492,13 @@
         <v>278</v>
       </c>
       <c r="N282" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O282" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P282" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q282" s="6">
         <v>281</v>
@@ -17548,13 +17545,13 @@
         <v>278</v>
       </c>
       <c r="N283" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O283" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P283" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q283" s="6">
         <v>282</v>
@@ -17603,13 +17600,13 @@
         <v>278</v>
       </c>
       <c r="N284" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O284" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P284" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q284" s="6">
         <v>283</v>
@@ -17658,13 +17655,13 @@
         <v>278</v>
       </c>
       <c r="N285" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O285" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P285" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q285" s="6">
         <v>284</v>
@@ -17713,13 +17710,13 @@
         <v>278</v>
       </c>
       <c r="N286" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O286" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P286" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q286" s="6">
         <v>285</v>
@@ -17768,13 +17765,13 @@
         <v>278</v>
       </c>
       <c r="N287" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O287" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P287" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q287" s="6">
         <v>286</v>
@@ -17823,13 +17820,13 @@
         <v>278</v>
       </c>
       <c r="N288" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O288" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P288" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q288" s="6">
         <v>287</v>
@@ -17876,13 +17873,13 @@
         <v>278</v>
       </c>
       <c r="N289" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O289" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P289" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q289" s="6">
         <v>288</v>
@@ -17929,13 +17926,13 @@
         <v>278</v>
       </c>
       <c r="N290" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O290" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P290" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q290" s="6">
         <v>289</v>
@@ -17982,13 +17979,13 @@
         <v>278</v>
       </c>
       <c r="N291" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O291" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P291" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q291" s="6">
         <v>290</v>
@@ -18035,13 +18032,13 @@
         <v>278</v>
       </c>
       <c r="N292" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O292" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P292" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q292" s="6">
         <v>291</v>
@@ -18088,13 +18085,13 @@
         <v>278</v>
       </c>
       <c r="N293" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O293" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P293" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q293" s="6">
         <v>292</v>
@@ -18143,13 +18140,13 @@
         <v>278</v>
       </c>
       <c r="N294" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O294" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P294" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q294" s="6">
         <v>293</v>
@@ -18198,13 +18195,13 @@
         <v>278</v>
       </c>
       <c r="N295" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O295" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P295" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q295" s="6">
         <v>294</v>
@@ -18253,13 +18250,13 @@
         <v>278</v>
       </c>
       <c r="N296" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O296" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P296" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q296" s="6">
         <v>295</v>
@@ -18308,13 +18305,13 @@
         <v>278</v>
       </c>
       <c r="N297" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O297" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P297" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q297" s="6">
         <v>296</v>
@@ -18363,13 +18360,13 @@
         <v>278</v>
       </c>
       <c r="N298" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O298" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P298" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q298" s="6">
         <v>297</v>
@@ -18416,13 +18413,13 @@
         <v>278</v>
       </c>
       <c r="N299" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O299" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P299" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q299" s="6">
         <v>298</v>
@@ -18469,13 +18466,13 @@
         <v>278</v>
       </c>
       <c r="N300" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O300" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P300" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q300" s="6">
         <v>299</v>
@@ -18522,13 +18519,13 @@
         <v>278</v>
       </c>
       <c r="N301" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O301" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P301" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q301" s="6">
         <v>300</v>
@@ -18577,13 +18574,13 @@
         <v>278</v>
       </c>
       <c r="N302" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O302" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P302" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q302" s="6">
         <v>301</v>
@@ -18632,13 +18629,13 @@
         <v>278</v>
       </c>
       <c r="N303" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O303" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P303" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q303" s="6">
         <v>302</v>
@@ -18685,13 +18682,13 @@
         <v>278</v>
       </c>
       <c r="N304" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O304" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P304" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q304" s="6">
         <v>303</v>
@@ -18740,13 +18737,13 @@
         <v>278</v>
       </c>
       <c r="N305" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O305" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P305" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q305" s="6">
         <v>304</v>
@@ -18793,13 +18790,13 @@
         <v>278</v>
       </c>
       <c r="N306" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O306" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P306" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q306" s="6">
         <v>305</v>
@@ -18846,13 +18843,13 @@
         <v>278</v>
       </c>
       <c r="N307" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O307" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P307" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q307" s="6">
         <v>306</v>
@@ -18899,13 +18896,13 @@
         <v>278</v>
       </c>
       <c r="N308" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O308" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P308" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q308" s="6">
         <v>307</v>
@@ -18952,13 +18949,13 @@
         <v>278</v>
       </c>
       <c r="N309" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O309" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P309" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q309" s="6">
         <v>308</v>
@@ -19005,13 +19002,13 @@
         <v>278</v>
       </c>
       <c r="N310" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O310" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P310" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q310" s="6">
         <v>309</v>
@@ -19058,13 +19055,13 @@
         <v>278</v>
       </c>
       <c r="N311" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O311" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P311" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q311" s="6">
         <v>310</v>
@@ -19111,13 +19108,13 @@
         <v>278</v>
       </c>
       <c r="N312" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O312" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P312" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q312" s="6">
         <v>311</v>
@@ -19164,13 +19161,13 @@
         <v>278</v>
       </c>
       <c r="N313" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O313" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P313" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q313" s="6">
         <v>312</v>
@@ -19217,13 +19214,13 @@
         <v>278</v>
       </c>
       <c r="N314" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O314" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P314" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q314" s="6">
         <v>313</v>
@@ -19270,13 +19267,13 @@
         <v>439</v>
       </c>
       <c r="N315" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O315" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P315" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q315" s="6">
         <v>314</v>
@@ -19323,13 +19320,13 @@
         <v>439</v>
       </c>
       <c r="N316" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O316" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P316" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q316" s="6">
         <v>315</v>
@@ -19376,10 +19373,10 @@
         <v>278</v>
       </c>
       <c r="N317" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O317" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P317" s="10"/>
       <c r="Q317" s="6">
@@ -19427,10 +19424,10 @@
         <v>278</v>
       </c>
       <c r="N318" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O318" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P318" s="10"/>
       <c r="Q318" s="6">
@@ -19476,10 +19473,10 @@
         <v>278</v>
       </c>
       <c r="N319" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O319" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P319" s="10"/>
       <c r="Q319" s="6">
@@ -19527,10 +19524,10 @@
         <v>278</v>
       </c>
       <c r="N320" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O320" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P320" s="10"/>
       <c r="Q320" s="6">
@@ -19578,13 +19575,13 @@
         <v>278</v>
       </c>
       <c r="N321" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O321" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P321" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q321" s="6">
         <v>320</v>
@@ -19595,7 +19592,7 @@
         <v>213</v>
       </c>
       <c r="B322" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322">
@@ -19629,13 +19626,13 @@
         <v>278</v>
       </c>
       <c r="N322" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O322" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P322" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q322" s="6">
         <v>321</v>
@@ -19646,7 +19643,7 @@
         <v>213</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323">
@@ -19680,13 +19677,13 @@
         <v>278</v>
       </c>
       <c r="N323" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O323" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P323" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q323" s="6">
         <v>322</v>
@@ -19697,7 +19694,7 @@
         <v>213</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C324" s="10"/>
       <c r="D324">
@@ -19731,13 +19728,13 @@
         <v>278</v>
       </c>
       <c r="N324" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O324" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P324" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q324" s="6">
         <v>323</v>
@@ -19782,10 +19779,10 @@
         <v>439</v>
       </c>
       <c r="N325" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O325" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P325" s="10"/>
       <c r="Q325" s="7">
@@ -19831,13 +19828,13 @@
         <v>439</v>
       </c>
       <c r="N326" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O326" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P326" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q326" s="7">
         <v>325</v>
@@ -19880,13 +19877,13 @@
         <v>278</v>
       </c>
       <c r="N327" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O327" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P327" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q327" s="7">
         <v>326</v>
@@ -19933,13 +19930,13 @@
         <v>439</v>
       </c>
       <c r="N328" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O328" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P328" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q328" s="7">
         <v>327</v>
@@ -19986,13 +19983,13 @@
         <v>439</v>
       </c>
       <c r="N329" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O329" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P329" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q329" s="7">
         <v>328</v>
@@ -20039,13 +20036,13 @@
         <v>439</v>
       </c>
       <c r="N330" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O330" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P330" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q330" s="7">
         <v>329</v>
@@ -20092,13 +20089,13 @@
         <v>439</v>
       </c>
       <c r="N331" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O331" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P331" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q331" s="7">
         <v>330</v>
@@ -20143,13 +20140,13 @@
         <v>439</v>
       </c>
       <c r="N332" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O332" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P332" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q332" s="7">
         <v>331</v>
@@ -20194,13 +20191,13 @@
         <v>439</v>
       </c>
       <c r="N333" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O333" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P333" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q333" s="7">
         <v>332</v>
@@ -20245,13 +20242,13 @@
         <v>439</v>
       </c>
       <c r="N334" s="12" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O334" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P334" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q334" s="7">
         <v>333</v>
@@ -20296,13 +20293,13 @@
         <v>439</v>
       </c>
       <c r="N335" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O335" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P335" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q335" s="7">
         <v>334</v>
@@ -20347,13 +20344,13 @@
         <v>439</v>
       </c>
       <c r="N336" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O336" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P336" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q336" s="7">
         <v>335</v>
@@ -20398,13 +20395,13 @@
         <v>439</v>
       </c>
       <c r="N337" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O337" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P337" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q337" s="7">
         <v>336</v>
@@ -20451,13 +20448,13 @@
         <v>439</v>
       </c>
       <c r="N338" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O338" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P338" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q338" s="7">
         <v>337</v>
@@ -20502,13 +20499,13 @@
         <v>439</v>
       </c>
       <c r="N339" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O339" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P339" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q339" s="7">
         <v>338</v>
@@ -20553,13 +20550,13 @@
         <v>439</v>
       </c>
       <c r="N340" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O340" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P340" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q340" s="7">
         <v>339</v>
@@ -20604,13 +20601,13 @@
         <v>439</v>
       </c>
       <c r="N341" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O341" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P341" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q341" s="7">
         <v>340</v>
@@ -20655,13 +20652,13 @@
         <v>439</v>
       </c>
       <c r="N342" s="12" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O342" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P342" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q342" s="7">
         <v>341</v>
@@ -20706,13 +20703,13 @@
         <v>439</v>
       </c>
       <c r="N343" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O343" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P343" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q343" s="7">
         <v>342</v>
@@ -20757,13 +20754,13 @@
         <v>439</v>
       </c>
       <c r="N344" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O344" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P344" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q344" s="7">
         <v>343</v>
@@ -20808,13 +20805,13 @@
         <v>439</v>
       </c>
       <c r="N345" s="12" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O345" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P345" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q345" s="7">
         <v>344</v>
@@ -20859,13 +20856,13 @@
         <v>439</v>
       </c>
       <c r="N346" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O346" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P346" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q346" s="7">
         <v>345</v>
@@ -20910,13 +20907,13 @@
         <v>439</v>
       </c>
       <c r="N347" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O347" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P347" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q347" s="7">
         <v>346</v>
@@ -20961,13 +20958,13 @@
         <v>439</v>
       </c>
       <c r="N348" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O348" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P348" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q348" s="7">
         <v>347</v>
@@ -21012,13 +21009,13 @@
         <v>439</v>
       </c>
       <c r="N349" s="12" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O349" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P349" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q349" s="7">
         <v>348</v>
@@ -21063,13 +21060,13 @@
         <v>439</v>
       </c>
       <c r="N350" s="12" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O350" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P350" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q350" s="7">
         <v>349</v>
@@ -21114,13 +21111,13 @@
         <v>439</v>
       </c>
       <c r="N351" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O351" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P351" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q351" s="7">
         <v>350</v>
@@ -21165,13 +21162,13 @@
         <v>439</v>
       </c>
       <c r="N352" s="12" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O352" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P352" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q352" s="7">
         <v>351</v>
@@ -21216,13 +21213,13 @@
         <v>439</v>
       </c>
       <c r="N353" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O353" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P353" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q353" s="7">
         <v>352</v>
@@ -21267,13 +21264,13 @@
         <v>439</v>
       </c>
       <c r="N354" s="12" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O354" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P354" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q354" s="7">
         <v>353</v>
@@ -21320,13 +21317,13 @@
         <v>439</v>
       </c>
       <c r="N355" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O355" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P355" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q355" s="7">
         <v>354</v>
@@ -21373,13 +21370,13 @@
         <v>439</v>
       </c>
       <c r="N356" s="12" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O356" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P356" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q356" s="7">
         <v>355</v>
@@ -21426,13 +21423,13 @@
         <v>439</v>
       </c>
       <c r="N357" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O357" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P357" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q357" s="7">
         <v>356</v>
@@ -21479,13 +21476,13 @@
         <v>439</v>
       </c>
       <c r="N358" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O358" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P358" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q358" s="7">
         <v>357</v>
@@ -21532,13 +21529,13 @@
         <v>439</v>
       </c>
       <c r="N359" s="12" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O359" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P359" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q359" s="7">
         <v>358</v>
@@ -21585,13 +21582,13 @@
         <v>439</v>
       </c>
       <c r="N360" s="12" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O360" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P360" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q360" s="7">
         <v>359</v>
@@ -21638,13 +21635,13 @@
         <v>439</v>
       </c>
       <c r="N361" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O361" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P361" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q361" s="7">
         <v>360</v>
@@ -21691,13 +21688,13 @@
         <v>439</v>
       </c>
       <c r="N362" s="12" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O362" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P362" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q362" s="7">
         <v>361</v>
@@ -21744,13 +21741,13 @@
         <v>439</v>
       </c>
       <c r="N363" s="12" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O363" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P363" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q363" s="7">
         <v>362</v>
@@ -21797,10 +21794,10 @@
         <v>439</v>
       </c>
       <c r="N364" s="12" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O364" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P364" s="10"/>
       <c r="Q364" s="7">
@@ -21812,7 +21809,7 @@
         <v>100</v>
       </c>
       <c r="B365" t="s">
-        <v>662</v>
+        <v>547</v>
       </c>
       <c r="C365">
         <v>2017</v>
@@ -21848,10 +21845,10 @@
         <v>278</v>
       </c>
       <c r="N365" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O365" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P365" s="10"/>
       <c r="Q365" s="7">
@@ -21863,7 +21860,7 @@
         <v>100</v>
       </c>
       <c r="B366" t="s">
-        <v>663</v>
+        <v>548</v>
       </c>
       <c r="C366">
         <v>2017</v>
@@ -21899,10 +21896,10 @@
         <v>278</v>
       </c>
       <c r="N366" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O366" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P366" s="10"/>
       <c r="Q366" s="7">
@@ -21914,7 +21911,7 @@
         <v>100</v>
       </c>
       <c r="B367" t="s">
-        <v>664</v>
+        <v>549</v>
       </c>
       <c r="C367">
         <v>2017</v>
@@ -21950,10 +21947,10 @@
         <v>278</v>
       </c>
       <c r="N367" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O367" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P367" s="10"/>
       <c r="Q367" s="7">
@@ -21965,7 +21962,7 @@
         <v>100</v>
       </c>
       <c r="B368" t="s">
-        <v>665</v>
+        <v>550</v>
       </c>
       <c r="C368">
         <v>2017</v>
@@ -22001,10 +21998,10 @@
         <v>278</v>
       </c>
       <c r="N368" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O368" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P368" s="10"/>
       <c r="Q368" s="7">
@@ -22016,7 +22013,7 @@
         <v>100</v>
       </c>
       <c r="B369" t="s">
-        <v>666</v>
+        <v>551</v>
       </c>
       <c r="C369">
         <v>2017</v>
@@ -22052,10 +22049,10 @@
         <v>278</v>
       </c>
       <c r="N369" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O369" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P369" s="10"/>
       <c r="Q369" s="7">
@@ -22067,7 +22064,7 @@
         <v>100</v>
       </c>
       <c r="B370" t="s">
-        <v>667</v>
+        <v>553</v>
       </c>
       <c r="C370">
         <v>2017</v>
@@ -22103,10 +22100,10 @@
         <v>278</v>
       </c>
       <c r="N370" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O370" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P370" s="10"/>
       <c r="Q370" s="7">
@@ -22118,7 +22115,7 @@
         <v>100</v>
       </c>
       <c r="B371" t="s">
-        <v>668</v>
+        <v>552</v>
       </c>
       <c r="C371">
         <v>2017</v>
@@ -22154,10 +22151,10 @@
         <v>278</v>
       </c>
       <c r="N371" s="12" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O371" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P371" s="10"/>
       <c r="Q371" s="7">
@@ -22169,7 +22166,7 @@
         <v>191</v>
       </c>
       <c r="B372" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C372">
         <v>2017</v>
@@ -22205,10 +22202,10 @@
         <v>278</v>
       </c>
       <c r="N372" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O372" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P372" s="10"/>
       <c r="Q372" s="7">
@@ -22220,7 +22217,7 @@
         <v>191</v>
       </c>
       <c r="B373" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C373">
         <v>2017</v>
@@ -22256,10 +22253,10 @@
         <v>278</v>
       </c>
       <c r="N373" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O373" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P373" s="10"/>
       <c r="Q373" s="7">
@@ -22271,7 +22268,7 @@
         <v>191</v>
       </c>
       <c r="B374" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C374">
         <v>2017</v>
@@ -22307,10 +22304,10 @@
         <v>278</v>
       </c>
       <c r="N374" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O374" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P374" s="10"/>
       <c r="Q374" s="7">
@@ -22322,7 +22319,7 @@
         <v>191</v>
       </c>
       <c r="B375" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="C375">
         <v>2017</v>
@@ -22358,10 +22355,10 @@
         <v>278</v>
       </c>
       <c r="N375" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O375" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P375" s="10"/>
       <c r="Q375" s="7">
@@ -22373,7 +22370,7 @@
         <v>191</v>
       </c>
       <c r="B376" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376">
@@ -22392,7 +22389,7 @@
         <v>2.8</v>
       </c>
       <c r="I376" s="4" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="J376" s="4" t="s">
         <v>180</v>
@@ -22407,10 +22404,10 @@
         <v>293</v>
       </c>
       <c r="N376" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O376" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P376" s="10"/>
       <c r="Q376" s="7">
@@ -22422,7 +22419,7 @@
         <v>191</v>
       </c>
       <c r="B377" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C377">
         <v>2017</v>
@@ -22458,10 +22455,10 @@
         <v>278</v>
       </c>
       <c r="N377" s="12" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O377" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P377" s="10"/>
       <c r="Q377" s="7">
@@ -22473,7 +22470,7 @@
         <v>191</v>
       </c>
       <c r="B378" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C378">
         <v>2017</v>
@@ -22509,10 +22506,10 @@
         <v>278</v>
       </c>
       <c r="N378" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O378" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P378" s="10"/>
       <c r="Q378" s="7">
@@ -22524,7 +22521,7 @@
         <v>132</v>
       </c>
       <c r="B379" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C379">
         <v>2017</v>
@@ -22545,7 +22542,7 @@
         <v>2.9</v>
       </c>
       <c r="I379" s="4" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="J379" s="4" t="s">
         <v>180</v>
@@ -22560,13 +22557,13 @@
         <v>439</v>
       </c>
       <c r="N379" s="12" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O379" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P379" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q379" s="7">
         <v>378</v>
@@ -22577,7 +22574,7 @@
         <v>7</v>
       </c>
       <c r="B380" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C380">
         <v>2017</v>
@@ -22613,13 +22610,13 @@
         <v>293</v>
       </c>
       <c r="N380" s="12" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O380" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P380" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q380" s="7">
         <v>379</v>
@@ -22666,13 +22663,13 @@
         <v>278</v>
       </c>
       <c r="N381" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O381" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P381" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q381" s="7">
         <v>380</v>
@@ -22719,13 +22716,13 @@
         <v>293</v>
       </c>
       <c r="N382" s="12" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="O382" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P382" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q382" s="7">
         <v>381</v>
@@ -22772,13 +22769,13 @@
         <v>278</v>
       </c>
       <c r="N383" s="12" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O383" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P383" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q383" s="7">
         <v>382</v>
@@ -22825,13 +22822,13 @@
         <v>278</v>
       </c>
       <c r="N384" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O384" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P384" s="12" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q384" s="7">
         <v>383</v>
@@ -22842,7 +22839,7 @@
         <v>182</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C385" s="7">
         <v>2017</v>
@@ -22878,10 +22875,10 @@
         <v>278</v>
       </c>
       <c r="N385" s="12" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O385" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P385" s="10"/>
       <c r="Q385" s="7">
@@ -22893,7 +22890,7 @@
         <v>132</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C386" s="7">
         <v>2017</v>
@@ -22929,13 +22926,13 @@
         <v>278</v>
       </c>
       <c r="N386" s="12" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O386" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P386" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q386" s="7">
         <v>385</v>
@@ -22946,7 +22943,7 @@
         <v>166</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C387" s="7">
         <v>2017</v>
@@ -22982,10 +22979,10 @@
         <v>278</v>
       </c>
       <c r="N387" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O387" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P387" s="10"/>
       <c r="Q387" s="7">
@@ -22997,7 +22994,7 @@
         <v>166</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C388" s="7">
         <v>2017</v>
@@ -23033,10 +23030,10 @@
         <v>278</v>
       </c>
       <c r="N388" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O388" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P388" s="10"/>
       <c r="Q388" s="7">
@@ -23048,7 +23045,7 @@
         <v>166</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="C389" s="7">
         <v>2017</v>
@@ -23084,10 +23081,10 @@
         <v>278</v>
       </c>
       <c r="N389" s="12" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O389" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P389" s="10"/>
       <c r="Q389" s="7">
@@ -23099,7 +23096,7 @@
         <v>258</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C390" s="7">
         <v>2017</v>
@@ -23133,13 +23130,13 @@
         <v>278</v>
       </c>
       <c r="N390" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O390" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P390" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q390" s="7">
         <v>389</v>
@@ -23150,7 +23147,7 @@
         <v>258</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C391" s="7">
         <v>2017</v>
@@ -23171,7 +23168,7 @@
         <v>2</v>
       </c>
       <c r="I391" s="9" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="J391" s="9" t="s">
         <v>179</v>
@@ -23186,13 +23183,13 @@
         <v>286</v>
       </c>
       <c r="N391" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O391" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P391" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q391" s="7">
         <v>390</v>
@@ -23203,7 +23200,7 @@
         <v>370</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C392" s="7">
         <v>2017</v>
@@ -23224,7 +23221,7 @@
         <v>2.8</v>
       </c>
       <c r="I392" s="9" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="J392" s="9" t="s">
         <v>179</v>
@@ -23236,16 +23233,16 @@
         <v>0</v>
       </c>
       <c r="M392" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="N392" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O392" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P392" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q392" s="7">
         <v>391</v>
@@ -23256,7 +23253,7 @@
         <v>370</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C393" s="7">
         <v>2017</v>
@@ -23277,7 +23274,7 @@
         <v>4</v>
       </c>
       <c r="I393" s="9" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="J393" s="9" t="s">
         <v>179</v>
@@ -23289,16 +23286,16 @@
         <v>0</v>
       </c>
       <c r="M393" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="N393" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O393" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P393" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q393" s="7">
         <v>392</v>
@@ -23309,7 +23306,7 @@
         <v>370</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C394" s="7">
         <v>2017</v>
@@ -23330,7 +23327,7 @@
         <v>4</v>
       </c>
       <c r="I394" s="9" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="J394" s="9" t="s">
         <v>180</v>
@@ -23342,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="M394" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="N394" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O394" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P394" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q394" s="7">
         <v>393</v>
@@ -23362,7 +23359,7 @@
         <v>370</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C395" s="7">
         <v>2017</v>
@@ -23387,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="M395" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="N395" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O395" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P395" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q395" s="7">
         <v>394</v>
@@ -23404,10 +23401,10 @@
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C396" s="7">
         <v>2016</v>
@@ -23440,10 +23437,10 @@
         <v>0</v>
       </c>
       <c r="M396" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="N396" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O396" s="10"/>
       <c r="P396" s="10"/>
@@ -23453,10 +23450,10 @@
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C397" s="7">
         <v>2016</v>
@@ -23489,10 +23486,10 @@
         <v>0</v>
       </c>
       <c r="M397" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="N397" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O397" s="10"/>
       <c r="P397" s="10"/>
@@ -23502,10 +23499,10 @@
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B398" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C398" s="10"/>
       <c r="D398" s="12">
@@ -23541,13 +23538,13 @@
         <v>278</v>
       </c>
       <c r="N398" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O398" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P398" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="Q398">
         <v>397</v>
@@ -23555,10 +23552,10 @@
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B399" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C399" s="10"/>
       <c r="D399" s="12">
@@ -23590,13 +23587,13 @@
         <v>278</v>
       </c>
       <c r="N399" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O399" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P399" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="Q399">
         <v>398</v>
@@ -23607,7 +23604,7 @@
         <v>59</v>
       </c>
       <c r="B400" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="C400">
         <v>2017</v>
@@ -23643,10 +23640,10 @@
         <v>278</v>
       </c>
       <c r="N400" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O400" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P400" s="10"/>
       <c r="Q400">
@@ -23658,7 +23655,7 @@
         <v>59</v>
       </c>
       <c r="B401" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C401">
         <v>2017</v>
@@ -23679,7 +23676,7 @@
         <v>4.5</v>
       </c>
       <c r="I401" s="9" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="J401" s="9" t="s">
         <v>180</v>
@@ -23694,10 +23691,10 @@
         <v>278</v>
       </c>
       <c r="N401" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="O401" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P401" s="10"/>
       <c r="Q401">
@@ -23709,7 +23706,7 @@
         <v>59</v>
       </c>
       <c r="B402" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C402">
         <v>2017</v>
@@ -23730,7 +23727,7 @@
         <v>5.6</v>
       </c>
       <c r="I402" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="J402" s="9" t="s">
         <v>180</v>
@@ -23745,10 +23742,10 @@
         <v>278</v>
       </c>
       <c r="N402" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O402" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P402" s="10"/>
       <c r="Q402">
@@ -23760,7 +23757,7 @@
         <v>166</v>
       </c>
       <c r="B403" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C403">
         <v>2017</v>
@@ -23796,10 +23793,10 @@
         <v>278</v>
       </c>
       <c r="N403" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O403" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P403" s="10"/>
       <c r="Q403">
@@ -23811,7 +23808,7 @@
         <v>182</v>
       </c>
       <c r="B404" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C404">
         <v>2017</v>
@@ -23847,10 +23844,10 @@
         <v>278</v>
       </c>
       <c r="N404" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O404" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P404" s="10"/>
       <c r="Q404">
@@ -23862,7 +23859,7 @@
         <v>182</v>
       </c>
       <c r="B405" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C405">
         <v>2017</v>
@@ -23883,7 +23880,7 @@
         <v>6.3</v>
       </c>
       <c r="I405" s="9" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="J405" s="9" t="s">
         <v>180</v>
@@ -23898,13 +23895,13 @@
         <v>293</v>
       </c>
       <c r="N405" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="O405" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P405" s="12" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q405">
         <v>404</v>
@@ -23912,10 +23909,10 @@
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B406" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C406">
         <v>2017</v>
@@ -23951,7 +23948,7 @@
         <v>278</v>
       </c>
       <c r="N406" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O406" s="10"/>
       <c r="P406" s="10"/>
@@ -23964,7 +23961,7 @@
         <v>132</v>
       </c>
       <c r="B407" s="12" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C407" s="12">
         <v>2017</v>
@@ -24000,13 +23997,13 @@
         <v>278</v>
       </c>
       <c r="N407" s="12" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="O407" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P407" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q407" s="12">
         <v>406</v>
@@ -24017,7 +24014,7 @@
         <v>132</v>
       </c>
       <c r="B408" s="12" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C408" s="12">
         <v>2017</v>
@@ -24053,13 +24050,13 @@
         <v>278</v>
       </c>
       <c r="N408" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O408" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P408" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q408" s="12">
         <v>407</v>
@@ -24070,7 +24067,7 @@
         <v>132</v>
       </c>
       <c r="B409" s="12" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C409" s="12">
         <v>2017</v>
@@ -24106,13 +24103,13 @@
         <v>278</v>
       </c>
       <c r="N409" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O409" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P409" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q409" s="12">
         <v>408</v>
@@ -24123,7 +24120,7 @@
         <v>132</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C410" s="12">
         <v>2017</v>
@@ -24159,13 +24156,13 @@
         <v>278</v>
       </c>
       <c r="N410" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O410" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P410" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q410" s="12">
         <v>409</v>
@@ -24176,7 +24173,7 @@
         <v>132</v>
       </c>
       <c r="B411" s="12" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="C411" s="12">
         <v>2017</v>
@@ -24212,13 +24209,13 @@
         <v>278</v>
       </c>
       <c r="N411" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O411" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P411" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q411" s="12">
         <v>410</v>
@@ -24229,7 +24226,7 @@
         <v>132</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C412" s="12">
         <v>2017</v>
@@ -24265,13 +24262,13 @@
         <v>278</v>
       </c>
       <c r="N412" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O412" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P412" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q412" s="12">
         <v>411</v>
@@ -24282,7 +24279,7 @@
         <v>132</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C413" s="12">
         <v>2017</v>
@@ -24318,13 +24315,13 @@
         <v>278</v>
       </c>
       <c r="N413" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O413" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P413" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q413" s="12">
         <v>412</v>
@@ -24335,7 +24332,7 @@
         <v>132</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C414" s="12">
         <v>2017</v>
@@ -24371,13 +24368,13 @@
         <v>278</v>
       </c>
       <c r="N414" s="12" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="O414" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P414" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q414" s="12">
         <v>413</v>
@@ -24388,7 +24385,7 @@
         <v>132</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C415" s="12">
         <v>2017</v>
@@ -24424,13 +24421,13 @@
         <v>278</v>
       </c>
       <c r="N415" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O415" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P415" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q415" s="12">
         <v>414</v>
@@ -24441,7 +24438,7 @@
         <v>370</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C416" s="12">
         <v>2017</v>
@@ -24474,13 +24471,13 @@
         <v>0</v>
       </c>
       <c r="M416" s="12" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="N416" s="12" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="O416" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P416" s="10"/>
       <c r="Q416" s="12">
@@ -24492,7 +24489,7 @@
         <v>370</v>
       </c>
       <c r="B417" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C417">
         <v>2017</v>
@@ -24513,7 +24510,7 @@
         <v>2</v>
       </c>
       <c r="I417" s="9" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="J417" s="9" t="s">
         <v>179</v>
@@ -24525,13 +24522,13 @@
         <v>0</v>
       </c>
       <c r="M417" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="N417" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O417" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P417" s="10"/>
       <c r="Q417">
@@ -24543,7 +24540,7 @@
         <v>132</v>
       </c>
       <c r="B418" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="C418">
         <v>2017</v>
@@ -24579,13 +24576,13 @@
         <v>278</v>
       </c>
       <c r="N418" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O418" s="12" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P418" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q418">
         <v>417</v>
@@ -24593,10 +24590,10 @@
     </row>
     <row r="419" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B419" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C419" s="10">
         <v>2014</v>
@@ -24630,10 +24627,10 @@
         <v>286</v>
       </c>
       <c r="N419" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O419" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P419" s="10"/>
       <c r="Q419">
@@ -24642,10 +24639,10 @@
     </row>
     <row r="420" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B420" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C420" s="10">
         <v>2014</v>
@@ -24679,7 +24676,7 @@
         <v>286</v>
       </c>
       <c r="O420" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P420" s="10"/>
       <c r="Q420" s="12">
@@ -24688,10 +24685,10 @@
     </row>
     <row r="421" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="12" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B421" s="12" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C421" s="12">
         <v>2017</v>
@@ -24723,7 +24720,7 @@
         <v>286</v>
       </c>
       <c r="O421" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P421" s="10"/>
       <c r="Q421" s="12">
@@ -24732,10 +24729,10 @@
     </row>
     <row r="422" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B422" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C422" s="10">
         <v>2014</v>
@@ -24769,7 +24766,7 @@
         <v>286</v>
       </c>
       <c r="O422" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P422" s="10"/>
       <c r="Q422" s="12">
@@ -24778,10 +24775,10 @@
     </row>
     <row r="423" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B423" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C423" s="10">
         <v>2014</v>
@@ -24815,7 +24812,7 @@
         <v>286</v>
       </c>
       <c r="O423" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P423" s="10"/>
       <c r="Q423" s="12">
@@ -24824,10 +24821,10 @@
     </row>
     <row r="424" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B424" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C424" s="10">
         <v>2014</v>
@@ -24861,7 +24858,7 @@
         <v>286</v>
       </c>
       <c r="O424" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P424" s="10"/>
       <c r="Q424" s="12">
@@ -24870,10 +24867,10 @@
     </row>
     <row r="425" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B425" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C425">
         <v>2015</v>
@@ -24907,7 +24904,7 @@
         <v>286</v>
       </c>
       <c r="O425" s="12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P425" s="10"/>
       <c r="Q425">
@@ -24925,10 +24922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -25221,7 +25218,7 @@
         <v>42833</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25229,7 +25226,7 @@
         <v>42833</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25237,7 +25234,7 @@
         <v>42874</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25245,7 +25242,7 @@
         <v>42876</v>
       </c>
       <c r="B40" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25253,7 +25250,7 @@
         <v>42878</v>
       </c>
       <c r="B41" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25261,7 +25258,7 @@
         <v>42878</v>
       </c>
       <c r="B42" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25269,7 +25266,7 @@
         <v>42879</v>
       </c>
       <c r="B43" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25277,7 +25274,7 @@
         <v>42884</v>
       </c>
       <c r="B44" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25285,7 +25282,7 @@
         <v>42887</v>
       </c>
       <c r="B45" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25293,7 +25290,7 @@
         <v>42887</v>
       </c>
       <c r="B46" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25301,7 +25298,7 @@
         <v>42891</v>
       </c>
       <c r="B47" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25309,7 +25306,7 @@
         <v>42901</v>
       </c>
       <c r="B48" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25317,7 +25314,7 @@
         <v>42908</v>
       </c>
       <c r="B49" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25325,7 +25322,7 @@
         <v>42909</v>
       </c>
       <c r="B50" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25333,7 +25330,7 @@
         <v>42910</v>
       </c>
       <c r="B51" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25341,7 +25338,7 @@
         <v>42913</v>
       </c>
       <c r="B52" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25349,7 +25346,7 @@
         <v>42914</v>
       </c>
       <c r="B53" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25357,7 +25354,7 @@
         <v>42948</v>
       </c>
       <c r="B54" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -25365,15 +25362,7 @@
         <v>42952</v>
       </c>
       <c r="B55" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="13">
-        <v>42952</v>
-      </c>
-      <c r="B56" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\BATOL\BigAssTableOfLenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="673">
   <si>
     <t>Manufacture</t>
   </si>
@@ -2001,6 +2001,21 @@
     <t>Veydra lenses, Tamron 24-70 G2 metadata</t>
   </si>
   <si>
+    <t>New lenses from Canon</t>
+  </si>
+  <si>
+    <t>85mm f/1.4L IS USM</t>
+  </si>
+  <si>
+    <t>TS-E 50mm f/2.8L Macro</t>
+  </si>
+  <si>
+    <t>TS-E 90mm f/2.8L Macro</t>
+  </si>
+  <si>
+    <t>TS-E 135mm f/4L Macro</t>
+  </si>
+  <si>
     <t>Xeen 14mm T3.1</t>
   </si>
   <si>
@@ -2029,9 +2044,6 @@
   </si>
   <si>
     <t>Xenon FF 75mm T2.1</t>
-  </si>
-  <si>
-    <t>Removed slashes for old T#'s</t>
   </si>
 </sst>
 </file>
@@ -2140,8 +2152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q425" totalsRowShown="0">
-  <autoFilter ref="A1:Q425"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q429" totalsRowShown="0">
+  <autoFilter ref="A1:Q429"/>
   <sortState ref="A2:Q403">
     <sortCondition ref="Q1:Q403"/>
   </sortState>
@@ -2466,30 +2478,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q425"/>
+  <dimension ref="A1:Q429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="J367" sqref="J367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1015625" customWidth="1"/>
-    <col min="2" max="2" width="37.89453125" customWidth="1"/>
-    <col min="3" max="3" width="5.41796875" customWidth="1"/>
-    <col min="4" max="4" width="6.41796875" customWidth="1"/>
-    <col min="5" max="5" width="8.20703125" customWidth="1"/>
-    <col min="7" max="7" width="8.68359375" customWidth="1"/>
-    <col min="8" max="8" width="12.41796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1015625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.89453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.20703125" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.68359375" customWidth="1"/>
-    <col min="15" max="16" width="8.89453125" style="12"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2554,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2597,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2652,7 +2664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2762,7 +2774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2927,7 +2939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3092,7 +3104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3202,7 +3214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3312,7 +3324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3367,7 +3379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3422,7 +3434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3532,7 +3544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3587,7 +3599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3642,7 +3654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3697,7 +3709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3752,7 +3764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3862,7 +3874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3972,7 +3984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -4082,7 +4094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -4137,7 +4149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -4192,7 +4204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -4247,7 +4259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -4302,7 +4314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4412,7 +4424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4522,7 +4534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4577,7 +4589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4632,7 +4644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4687,7 +4699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4742,7 +4754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4797,7 +4809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4852,7 +4864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4905,7 +4917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4960,7 +4972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -5015,7 +5027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -5070,7 +5082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5180,7 +5192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5235,7 +5247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5290,7 +5302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -5345,7 +5357,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5400,7 +5412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -5455,7 +5467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5510,7 +5522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -5565,7 +5577,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5620,7 +5632,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5675,7 +5687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5730,7 +5742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5785,7 +5797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5838,7 +5850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5893,7 +5905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5946,7 +5958,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5999,7 +6011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -6052,7 +6064,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -6105,7 +6117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -6158,7 +6170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>370</v>
       </c>
@@ -6211,7 +6223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>370</v>
       </c>
@@ -6264,7 +6276,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>370</v>
       </c>
@@ -6317,7 +6329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>370</v>
       </c>
@@ -6370,7 +6382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>370</v>
       </c>
@@ -6423,7 +6435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>370</v>
       </c>
@@ -6476,7 +6488,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>370</v>
       </c>
@@ -6529,7 +6541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>370</v>
       </c>
@@ -6582,7 +6594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>370</v>
       </c>
@@ -6635,7 +6647,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>370</v>
       </c>
@@ -6688,7 +6700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>370</v>
       </c>
@@ -6741,7 +6753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>370</v>
       </c>
@@ -6794,7 +6806,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>370</v>
       </c>
@@ -6847,7 +6859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>370</v>
       </c>
@@ -6900,7 +6912,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>370</v>
       </c>
@@ -6953,7 +6965,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>370</v>
       </c>
@@ -7006,7 +7018,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>370</v>
       </c>
@@ -7059,7 +7071,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>370</v>
       </c>
@@ -7112,7 +7124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>370</v>
       </c>
@@ -7165,7 +7177,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>370</v>
       </c>
@@ -7218,7 +7230,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>370</v>
       </c>
@@ -7268,7 +7280,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>287</v>
       </c>
@@ -7321,7 +7333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>421</v>
       </c>
@@ -7370,7 +7382,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>421</v>
       </c>
@@ -7419,7 +7431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>227</v>
       </c>
@@ -7472,7 +7484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>227</v>
       </c>
@@ -7525,7 +7537,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>227</v>
       </c>
@@ -7578,7 +7590,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>227</v>
       </c>
@@ -7631,7 +7643,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>227</v>
       </c>
@@ -7684,7 +7696,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>227</v>
       </c>
@@ -7737,7 +7749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>227</v>
       </c>
@@ -7792,7 +7804,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>227</v>
       </c>
@@ -7848,7 +7860,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>227</v>
       </c>
@@ -7903,7 +7915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>227</v>
       </c>
@@ -7956,7 +7968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>227</v>
       </c>
@@ -8009,7 +8021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>227</v>
       </c>
@@ -8062,7 +8074,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -8115,7 +8127,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>227</v>
       </c>
@@ -8168,7 +8180,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>227</v>
       </c>
@@ -8221,7 +8233,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>227</v>
       </c>
@@ -8277,7 +8289,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>227</v>
       </c>
@@ -8330,7 +8342,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>227</v>
       </c>
@@ -8383,7 +8395,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>227</v>
       </c>
@@ -8436,7 +8448,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>227</v>
       </c>
@@ -8489,7 +8501,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>227</v>
       </c>
@@ -8542,7 +8554,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>227</v>
       </c>
@@ -8595,7 +8607,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -8648,7 +8660,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -8701,7 +8713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>227</v>
       </c>
@@ -8757,7 +8769,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>227</v>
       </c>
@@ -8813,7 +8825,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -8866,7 +8878,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -8919,7 +8931,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>227</v>
       </c>
@@ -8972,7 +8984,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>289</v>
       </c>
@@ -9027,7 +9039,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>289</v>
       </c>
@@ -9082,7 +9094,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>289</v>
       </c>
@@ -9137,7 +9149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -9190,7 +9202,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -9243,7 +9255,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -9296,7 +9308,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -9349,7 +9361,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -9402,7 +9414,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -9455,7 +9467,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -9508,7 +9520,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -9561,7 +9573,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -9614,7 +9626,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -9667,7 +9679,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -9720,7 +9732,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -9773,7 +9785,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -9826,7 +9838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -9879,7 +9891,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -9932,7 +9944,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -9986,7 +9998,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -10039,7 +10051,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -10092,7 +10104,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -10145,7 +10157,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -10198,7 +10210,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -10251,7 +10263,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -10304,7 +10316,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -10357,7 +10369,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -10410,7 +10422,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -10463,7 +10475,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -10516,7 +10528,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -10569,7 +10581,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -10622,7 +10634,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -10675,7 +10687,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -10728,7 +10740,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -10781,7 +10793,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -10834,7 +10846,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -10885,7 +10897,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -10936,7 +10948,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -10987,7 +10999,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -11038,7 +11050,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -11089,7 +11101,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>363</v>
       </c>
@@ -11140,7 +11152,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>363</v>
       </c>
@@ -11191,7 +11203,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>363</v>
       </c>
@@ -11242,7 +11254,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>430</v>
       </c>
@@ -11293,7 +11305,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>430</v>
       </c>
@@ -11344,7 +11356,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>430</v>
       </c>
@@ -11395,7 +11407,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>424</v>
       </c>
@@ -11450,12 +11462,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C168" s="1">
         <v>2016</v>
@@ -11503,7 +11515,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>424</v>
       </c>
@@ -11559,12 +11571,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>424</v>
       </c>
       <c r="B170" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C170">
         <v>2015</v>
@@ -11612,7 +11624,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>424</v>
       </c>
@@ -11667,12 +11679,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>424</v>
       </c>
       <c r="B172" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C172" s="12">
         <v>2016</v>
@@ -11720,7 +11732,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>424</v>
       </c>
@@ -11775,12 +11787,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
         <v>424</v>
       </c>
       <c r="B174" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C174">
         <v>2015</v>
@@ -11828,7 +11840,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>424</v>
       </c>
@@ -11883,12 +11895,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>424</v>
       </c>
       <c r="B176" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C176">
         <v>2015</v>
@@ -11936,7 +11948,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>424</v>
       </c>
@@ -11989,12 +12001,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
         <v>424</v>
       </c>
       <c r="B178" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C178">
         <v>2016</v>
@@ -12042,7 +12054,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>213</v>
       </c>
@@ -12097,7 +12109,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>213</v>
       </c>
@@ -12152,7 +12164,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>213</v>
       </c>
@@ -12207,7 +12219,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>100</v>
       </c>
@@ -12260,7 +12272,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>100</v>
       </c>
@@ -12313,7 +12325,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>100</v>
       </c>
@@ -12366,7 +12378,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>100</v>
       </c>
@@ -12419,7 +12431,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>100</v>
       </c>
@@ -12472,7 +12484,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>100</v>
       </c>
@@ -12525,7 +12537,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -12578,7 +12590,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>100</v>
       </c>
@@ -12631,7 +12643,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>100</v>
       </c>
@@ -12684,7 +12696,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>100</v>
       </c>
@@ -12737,7 +12749,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>100</v>
       </c>
@@ -12790,7 +12802,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>100</v>
       </c>
@@ -12841,7 +12853,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>100</v>
       </c>
@@ -12892,7 +12904,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>100</v>
       </c>
@@ -12940,7 +12952,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>100</v>
       </c>
@@ -12991,7 +13003,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>100</v>
       </c>
@@ -13042,7 +13054,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>100</v>
       </c>
@@ -13093,7 +13105,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>166</v>
       </c>
@@ -13146,7 +13158,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>166</v>
       </c>
@@ -13199,7 +13211,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>166</v>
       </c>
@@ -13252,7 +13264,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>166</v>
       </c>
@@ -13305,7 +13317,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>166</v>
       </c>
@@ -13358,7 +13370,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>166</v>
       </c>
@@ -13411,7 +13423,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>166</v>
       </c>
@@ -13465,7 +13477,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>166</v>
       </c>
@@ -13518,7 +13530,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>166</v>
       </c>
@@ -13571,7 +13583,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>166</v>
       </c>
@@ -13624,7 +13636,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>166</v>
       </c>
@@ -13677,7 +13689,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>166</v>
       </c>
@@ -13730,7 +13742,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>166</v>
       </c>
@@ -13783,7 +13795,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>166</v>
       </c>
@@ -13836,7 +13848,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>166</v>
       </c>
@@ -13889,7 +13901,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>166</v>
       </c>
@@ -13940,7 +13952,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>182</v>
       </c>
@@ -13993,7 +14005,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>182</v>
       </c>
@@ -14046,7 +14058,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>182</v>
       </c>
@@ -14099,7 +14111,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>182</v>
       </c>
@@ -14152,7 +14164,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>182</v>
       </c>
@@ -14205,7 +14217,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>182</v>
       </c>
@@ -14258,7 +14270,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>182</v>
       </c>
@@ -14311,7 +14323,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>182</v>
       </c>
@@ -14364,7 +14376,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>182</v>
       </c>
@@ -14417,7 +14429,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>182</v>
       </c>
@@ -14468,7 +14480,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>182</v>
       </c>
@@ -14519,7 +14531,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>182</v>
       </c>
@@ -14570,7 +14582,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>191</v>
       </c>
@@ -14623,7 +14635,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>191</v>
       </c>
@@ -14676,7 +14688,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>191</v>
       </c>
@@ -14729,7 +14741,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>191</v>
       </c>
@@ -14782,7 +14794,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>191</v>
       </c>
@@ -14835,7 +14847,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>191</v>
       </c>
@@ -14886,7 +14898,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -14939,7 +14951,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>258</v>
       </c>
@@ -14992,12 +15004,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B235" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C235" s="1">
         <v>2016</v>
@@ -15045,7 +15057,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>258</v>
       </c>
@@ -15098,7 +15110,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>215</v>
       </c>
@@ -15149,7 +15161,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>215</v>
       </c>
@@ -15198,7 +15210,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>215</v>
       </c>
@@ -15247,7 +15259,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>215</v>
       </c>
@@ -15298,7 +15310,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>215</v>
       </c>
@@ -15347,7 +15359,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>215</v>
       </c>
@@ -15396,7 +15408,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>215</v>
       </c>
@@ -15445,7 +15457,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>215</v>
       </c>
@@ -15496,7 +15508,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>215</v>
       </c>
@@ -15545,7 +15557,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>215</v>
       </c>
@@ -15594,7 +15606,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>215</v>
       </c>
@@ -15643,7 +15655,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>215</v>
       </c>
@@ -15692,7 +15704,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>215</v>
       </c>
@@ -15741,7 +15753,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>215</v>
       </c>
@@ -15792,7 +15804,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>215</v>
       </c>
@@ -15841,7 +15853,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>215</v>
       </c>
@@ -15890,7 +15902,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>215</v>
       </c>
@@ -15939,7 +15951,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>132</v>
       </c>
@@ -15994,7 +16006,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>132</v>
       </c>
@@ -16047,7 +16059,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>132</v>
       </c>
@@ -16100,7 +16112,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>132</v>
       </c>
@@ -16155,7 +16167,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>132</v>
       </c>
@@ -16208,7 +16220,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>132</v>
       </c>
@@ -16261,7 +16273,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>132</v>
       </c>
@@ -16316,7 +16328,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>132</v>
       </c>
@@ -16371,7 +16383,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>132</v>
       </c>
@@ -16426,7 +16438,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>132</v>
       </c>
@@ -16479,7 +16491,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>132</v>
       </c>
@@ -16532,7 +16544,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>132</v>
       </c>
@@ -16585,7 +16597,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>132</v>
       </c>
@@ -16640,7 +16652,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>132</v>
       </c>
@@ -16695,7 +16707,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>132</v>
       </c>
@@ -16750,7 +16762,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>132</v>
       </c>
@@ -16803,7 +16815,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>132</v>
       </c>
@@ -16856,7 +16868,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>132</v>
       </c>
@@ -16911,7 +16923,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>132</v>
       </c>
@@ -16966,7 +16978,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>132</v>
       </c>
@@ -17019,7 +17031,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>132</v>
       </c>
@@ -17072,7 +17084,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>132</v>
       </c>
@@ -17127,7 +17139,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>132</v>
       </c>
@@ -17182,7 +17194,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>132</v>
       </c>
@@ -17237,7 +17249,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>132</v>
       </c>
@@ -17292,7 +17304,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>132</v>
       </c>
@@ -17345,7 +17357,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>132</v>
       </c>
@@ -17398,7 +17410,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>132</v>
       </c>
@@ -17451,7 +17463,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>132</v>
       </c>
@@ -17504,7 +17516,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>132</v>
       </c>
@@ -17557,7 +17569,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>132</v>
       </c>
@@ -17612,7 +17624,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>132</v>
       </c>
@@ -17667,7 +17679,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>132</v>
       </c>
@@ -17722,7 +17734,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>132</v>
       </c>
@@ -17777,7 +17789,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>132</v>
       </c>
@@ -17832,7 +17844,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>132</v>
       </c>
@@ -17885,7 +17897,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>132</v>
       </c>
@@ -17938,7 +17950,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>132</v>
       </c>
@@ -17991,7 +18003,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>132</v>
       </c>
@@ -18044,7 +18056,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>132</v>
       </c>
@@ -18097,7 +18109,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>132</v>
       </c>
@@ -18152,7 +18164,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>132</v>
       </c>
@@ -18207,7 +18219,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>132</v>
       </c>
@@ -18262,7 +18274,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>132</v>
       </c>
@@ -18317,7 +18329,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>132</v>
       </c>
@@ -18372,7 +18384,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>132</v>
       </c>
@@ -18425,7 +18437,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>132</v>
       </c>
@@ -18478,7 +18490,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>132</v>
       </c>
@@ -18531,7 +18543,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>132</v>
       </c>
@@ -18586,7 +18598,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>132</v>
       </c>
@@ -18641,7 +18653,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>132</v>
       </c>
@@ -18694,7 +18706,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>132</v>
       </c>
@@ -18749,7 +18761,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>132</v>
       </c>
@@ -18802,7 +18814,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>132</v>
       </c>
@@ -18855,7 +18867,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>132</v>
       </c>
@@ -18908,7 +18920,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>132</v>
       </c>
@@ -18961,7 +18973,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>132</v>
       </c>
@@ -19014,7 +19026,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>132</v>
       </c>
@@ -19067,7 +19079,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>132</v>
       </c>
@@ -19120,7 +19132,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>132</v>
       </c>
@@ -19173,7 +19185,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>132</v>
       </c>
@@ -19226,7 +19238,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>370</v>
       </c>
@@ -19279,7 +19291,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>370</v>
       </c>
@@ -19332,7 +19344,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>100</v>
       </c>
@@ -19383,7 +19395,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>100</v>
       </c>
@@ -19434,7 +19446,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>100</v>
       </c>
@@ -19483,7 +19495,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>100</v>
       </c>
@@ -19534,7 +19546,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -19587,12 +19599,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>213</v>
       </c>
       <c r="B322" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322">
@@ -19638,12 +19650,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>213</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323">
@@ -19689,12 +19701,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>213</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C324" s="10"/>
       <c r="D324">
@@ -19740,7 +19752,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>100</v>
       </c>
@@ -19789,7 +19801,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>191</v>
       </c>
@@ -19840,7 +19852,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -19889,7 +19901,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -19942,7 +19954,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -19995,7 +20007,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -20048,7 +20060,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -20101,7 +20113,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>213</v>
       </c>
@@ -20152,7 +20164,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>213</v>
       </c>
@@ -20203,7 +20215,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>213</v>
       </c>
@@ -20254,7 +20266,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>213</v>
       </c>
@@ -20305,7 +20317,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>213</v>
       </c>
@@ -20356,7 +20368,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>213</v>
       </c>
@@ -20407,7 +20419,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>494</v>
       </c>
@@ -20460,7 +20472,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>494</v>
       </c>
@@ -20511,7 +20523,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>494</v>
       </c>
@@ -20562,7 +20574,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>494</v>
       </c>
@@ -20613,7 +20625,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>494</v>
       </c>
@@ -20664,7 +20676,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>494</v>
       </c>
@@ -20715,7 +20727,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>494</v>
       </c>
@@ -20766,7 +20778,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>494</v>
       </c>
@@ -20817,7 +20829,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>494</v>
       </c>
@@ -20868,7 +20880,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>494</v>
       </c>
@@ -20919,7 +20931,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>494</v>
       </c>
@@ -20970,7 +20982,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>494</v>
       </c>
@@ -21021,7 +21033,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>494</v>
       </c>
@@ -21072,7 +21084,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>494</v>
       </c>
@@ -21123,7 +21135,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>494</v>
       </c>
@@ -21174,7 +21186,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>494</v>
       </c>
@@ -21225,7 +21237,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>494</v>
       </c>
@@ -21276,7 +21288,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>370</v>
       </c>
@@ -21329,7 +21341,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>370</v>
       </c>
@@ -21382,7 +21394,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>370</v>
       </c>
@@ -21435,7 +21447,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>370</v>
       </c>
@@ -21488,7 +21500,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>370</v>
       </c>
@@ -21541,7 +21553,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>370</v>
       </c>
@@ -21594,7 +21606,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>370</v>
       </c>
@@ -21647,7 +21659,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>370</v>
       </c>
@@ -21700,7 +21712,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>370</v>
       </c>
@@ -21753,7 +21765,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>100</v>
       </c>
@@ -21799,12 +21811,14 @@
       <c r="O364" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="P364" s="10"/>
+      <c r="P364" s="12" t="s">
+        <v>616</v>
+      </c>
       <c r="Q364" s="7">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>100</v>
       </c>
@@ -21850,12 +21864,14 @@
       <c r="O365" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="P365" s="10"/>
+      <c r="P365" s="12" t="s">
+        <v>616</v>
+      </c>
       <c r="Q365" s="7">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>100</v>
       </c>
@@ -21901,12 +21917,14 @@
       <c r="O366" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="P366" s="10"/>
+      <c r="P366" s="12" t="s">
+        <v>616</v>
+      </c>
       <c r="Q366" s="7">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>100</v>
       </c>
@@ -21952,12 +21970,14 @@
       <c r="O367" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="P367" s="10"/>
+      <c r="P367" s="12" t="s">
+        <v>616</v>
+      </c>
       <c r="Q367" s="7">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>100</v>
       </c>
@@ -22003,12 +22023,14 @@
       <c r="O368" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="P368" s="10"/>
+      <c r="P368" s="12" t="s">
+        <v>616</v>
+      </c>
       <c r="Q368" s="7">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>100</v>
       </c>
@@ -22054,12 +22076,14 @@
       <c r="O369" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="P369" s="10"/>
+      <c r="P369" s="12" t="s">
+        <v>616</v>
+      </c>
       <c r="Q369" s="7">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>100</v>
       </c>
@@ -22105,12 +22129,14 @@
       <c r="O370" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="P370" s="10"/>
+      <c r="P370" s="12" t="s">
+        <v>616</v>
+      </c>
       <c r="Q370" s="7">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>100</v>
       </c>
@@ -22156,12 +22182,14 @@
       <c r="O371" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="P371" s="10"/>
+      <c r="P371" s="12" t="s">
+        <v>616</v>
+      </c>
       <c r="Q371" s="7">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>191</v>
       </c>
@@ -22212,7 +22240,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>191</v>
       </c>
@@ -22263,7 +22291,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>191</v>
       </c>
@@ -22314,7 +22342,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>191</v>
       </c>
@@ -22365,7 +22393,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>191</v>
       </c>
@@ -22414,7 +22442,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>191</v>
       </c>
@@ -22465,7 +22493,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>191</v>
       </c>
@@ -22516,7 +22544,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>132</v>
       </c>
@@ -22569,7 +22597,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -22622,7 +22650,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>424</v>
       </c>
@@ -22675,7 +22703,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>424</v>
       </c>
@@ -22728,7 +22756,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>424</v>
       </c>
@@ -22781,7 +22809,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>424</v>
       </c>
@@ -22834,7 +22862,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
         <v>182</v>
       </c>
@@ -22885,7 +22913,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
         <v>132</v>
       </c>
@@ -22938,7 +22966,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
         <v>166</v>
       </c>
@@ -22989,7 +23017,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
         <v>166</v>
       </c>
@@ -23040,7 +23068,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
         <v>166</v>
       </c>
@@ -23091,7 +23119,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
         <v>258</v>
       </c>
@@ -23142,7 +23170,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
         <v>258</v>
       </c>
@@ -23195,7 +23223,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
         <v>370</v>
       </c>
@@ -23248,7 +23276,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
         <v>370</v>
       </c>
@@ -23301,7 +23329,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
         <v>370</v>
       </c>
@@ -23354,7 +23382,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
         <v>370</v>
       </c>
@@ -23399,7 +23427,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="7" t="s">
         <v>593</v>
       </c>
@@ -23448,7 +23476,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
         <v>593</v>
       </c>
@@ -23497,7 +23525,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>604</v>
       </c>
@@ -23550,7 +23578,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>604</v>
       </c>
@@ -23599,7 +23627,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>59</v>
       </c>
@@ -23650,7 +23678,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>59</v>
       </c>
@@ -23701,7 +23729,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>59</v>
       </c>
@@ -23752,7 +23780,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>166</v>
       </c>
@@ -23803,7 +23831,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>182</v>
       </c>
@@ -23854,7 +23882,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>182</v>
       </c>
@@ -23907,7 +23935,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>632</v>
       </c>
@@ -23956,7 +23984,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="12" t="s">
         <v>132</v>
       </c>
@@ -24009,7 +24037,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="12" t="s">
         <v>132</v>
       </c>
@@ -24062,7 +24090,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="12" t="s">
         <v>132</v>
       </c>
@@ -24115,7 +24143,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A410" s="12" t="s">
         <v>132</v>
       </c>
@@ -24168,7 +24196,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A411" s="12" t="s">
         <v>132</v>
       </c>
@@ -24221,7 +24249,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A412" s="12" t="s">
         <v>132</v>
       </c>
@@ -24274,7 +24302,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A413" s="12" t="s">
         <v>132</v>
       </c>
@@ -24327,7 +24355,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A414" s="12" t="s">
         <v>132</v>
       </c>
@@ -24380,7 +24408,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A415" s="12" t="s">
         <v>132</v>
       </c>
@@ -24433,7 +24461,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A416" s="12" t="s">
         <v>370</v>
       </c>
@@ -24484,7 +24512,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>370</v>
       </c>
@@ -24535,7 +24563,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>132</v>
       </c>
@@ -24588,7 +24616,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>649</v>
       </c>
@@ -24637,7 +24665,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>649</v>
       </c>
@@ -24675,6 +24703,9 @@
       <c r="M420" t="s">
         <v>286</v>
       </c>
+      <c r="N420" t="s">
+        <v>570</v>
+      </c>
       <c r="O420" s="12" t="s">
         <v>618</v>
       </c>
@@ -24683,7 +24714,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="12" t="s">
         <v>649</v>
       </c>
@@ -24719,6 +24750,9 @@
       <c r="M421" s="12" t="s">
         <v>286</v>
       </c>
+      <c r="N421" s="12" t="s">
+        <v>571</v>
+      </c>
       <c r="O421" s="12" t="s">
         <v>618</v>
       </c>
@@ -24727,7 +24761,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>649</v>
       </c>
@@ -24765,6 +24799,9 @@
       <c r="M422" t="s">
         <v>286</v>
       </c>
+      <c r="N422" t="s">
+        <v>571</v>
+      </c>
       <c r="O422" s="12" t="s">
         <v>618</v>
       </c>
@@ -24773,7 +24810,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>649</v>
       </c>
@@ -24811,6 +24848,9 @@
       <c r="M423" t="s">
         <v>286</v>
       </c>
+      <c r="N423" t="s">
+        <v>573</v>
+      </c>
       <c r="O423" s="12" t="s">
         <v>618</v>
       </c>
@@ -24819,7 +24859,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>649</v>
       </c>
@@ -24857,6 +24897,9 @@
       <c r="M424" t="s">
         <v>286</v>
       </c>
+      <c r="N424" t="s">
+        <v>574</v>
+      </c>
       <c r="O424" s="12" t="s">
         <v>618</v>
       </c>
@@ -24865,7 +24908,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>649</v>
       </c>
@@ -24903,12 +24946,227 @@
       <c r="M425" t="s">
         <v>286</v>
       </c>
+      <c r="N425" t="s">
+        <v>577</v>
+      </c>
       <c r="O425" s="12" t="s">
         <v>618</v>
       </c>
       <c r="P425" s="10"/>
       <c r="Q425">
         <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>7</v>
+      </c>
+      <c r="B426" t="s">
+        <v>659</v>
+      </c>
+      <c r="C426">
+        <v>2017</v>
+      </c>
+      <c r="D426">
+        <v>1599</v>
+      </c>
+      <c r="E426">
+        <v>950</v>
+      </c>
+      <c r="F426">
+        <v>105.4</v>
+      </c>
+      <c r="G426" s="8">
+        <v>88.6</v>
+      </c>
+      <c r="H426" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I426" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J426" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K426">
+        <v>1</v>
+      </c>
+      <c r="L426">
+        <v>0</v>
+      </c>
+      <c r="M426" t="s">
+        <v>278</v>
+      </c>
+      <c r="N426" t="s">
+        <v>573</v>
+      </c>
+      <c r="O426" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="P426" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427" t="s">
+        <v>660</v>
+      </c>
+      <c r="C427">
+        <v>2017</v>
+      </c>
+      <c r="D427">
+        <v>2199</v>
+      </c>
+      <c r="E427">
+        <v>945</v>
+      </c>
+      <c r="F427">
+        <v>114.9</v>
+      </c>
+      <c r="G427" s="8">
+        <v>86.9</v>
+      </c>
+      <c r="H427" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I427" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J427" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+      <c r="L427">
+        <v>0</v>
+      </c>
+      <c r="M427" t="s">
+        <v>278</v>
+      </c>
+      <c r="N427" t="s">
+        <v>569</v>
+      </c>
+      <c r="O427" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="P427" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>7</v>
+      </c>
+      <c r="B428" t="s">
+        <v>661</v>
+      </c>
+      <c r="C428">
+        <v>2017</v>
+      </c>
+      <c r="D428">
+        <v>2199</v>
+      </c>
+      <c r="E428">
+        <v>915</v>
+      </c>
+      <c r="F428">
+        <v>116.5</v>
+      </c>
+      <c r="G428" s="8">
+        <v>86.9</v>
+      </c>
+      <c r="H428" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I428" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J428" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+      <c r="L428">
+        <v>0</v>
+      </c>
+      <c r="M428" t="s">
+        <v>278</v>
+      </c>
+      <c r="N428" t="s">
+        <v>569</v>
+      </c>
+      <c r="O428" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="P428" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>7</v>
+      </c>
+      <c r="B429" t="s">
+        <v>662</v>
+      </c>
+      <c r="C429">
+        <v>2017</v>
+      </c>
+      <c r="D429">
+        <v>2199</v>
+      </c>
+      <c r="E429">
+        <v>1100</v>
+      </c>
+      <c r="F429">
+        <v>139.1</v>
+      </c>
+      <c r="G429" s="8">
+        <v>88.5</v>
+      </c>
+      <c r="H429" s="1">
+        <v>4</v>
+      </c>
+      <c r="I429" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J429" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+      <c r="M429" t="s">
+        <v>278</v>
+      </c>
+      <c r="N429" t="s">
+        <v>569</v>
+      </c>
+      <c r="O429" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="P429" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q429">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -24925,20 +25183,20 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>42361</v>
       </c>
@@ -24946,7 +25204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>42369</v>
       </c>
@@ -24954,7 +25212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>42371</v>
       </c>
@@ -24962,7 +25220,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>42372</v>
       </c>
@@ -24970,7 +25228,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>42373</v>
       </c>
@@ -24978,7 +25236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>42382</v>
       </c>
@@ -24986,7 +25244,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42385</v>
       </c>
@@ -24994,7 +25252,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42387</v>
       </c>
@@ -25002,7 +25260,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>42388</v>
       </c>
@@ -25010,7 +25268,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>42390</v>
       </c>
@@ -25018,7 +25276,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>42391</v>
       </c>
@@ -25026,7 +25284,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>42400</v>
       </c>
@@ -25034,7 +25292,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>42414</v>
       </c>
@@ -25042,7 +25300,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>42432</v>
       </c>
@@ -25053,7 +25311,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>42435</v>
       </c>
@@ -25061,7 +25319,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>42436</v>
       </c>
@@ -25069,7 +25327,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>42441</v>
       </c>
@@ -25077,7 +25335,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>42445</v>
       </c>
@@ -25085,7 +25343,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>42453</v>
       </c>
@@ -25093,7 +25351,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>42456</v>
       </c>
@@ -25101,7 +25359,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>42457</v>
       </c>
@@ -25109,7 +25367,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>42458</v>
       </c>
@@ -25117,7 +25375,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>42464</v>
       </c>
@@ -25125,7 +25383,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>42510</v>
       </c>
@@ -25133,7 +25391,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>42515</v>
       </c>
@@ -25141,7 +25399,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>42560</v>
       </c>
@@ -25149,7 +25407,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>42565</v>
       </c>
@@ -25157,7 +25415,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>42576</v>
       </c>
@@ -25165,7 +25423,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>42590</v>
       </c>
@@ -25173,7 +25431,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>42593</v>
       </c>
@@ -25181,7 +25439,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>42598</v>
       </c>
@@ -25189,7 +25447,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>42665</v>
       </c>
@@ -25197,7 +25455,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>42788</v>
       </c>
@@ -25205,7 +25463,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>42831</v>
       </c>
@@ -25213,7 +25471,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>42833</v>
       </c>
@@ -25221,7 +25479,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>42833</v>
       </c>
@@ -25229,7 +25487,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>42874</v>
       </c>
@@ -25237,7 +25495,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>42876</v>
       </c>
@@ -25245,7 +25503,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>42878</v>
       </c>
@@ -25253,7 +25511,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>42878</v>
       </c>
@@ -25261,7 +25519,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>42879</v>
       </c>
@@ -25269,7 +25527,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>42884</v>
       </c>
@@ -25277,7 +25535,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>42887</v>
       </c>
@@ -25285,7 +25543,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>42887</v>
       </c>
@@ -25293,7 +25551,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>42891</v>
       </c>
@@ -25301,7 +25559,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>42901</v>
       </c>
@@ -25309,7 +25567,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>42908</v>
       </c>
@@ -25317,7 +25575,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>42909</v>
       </c>
@@ -25325,7 +25583,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>42910</v>
       </c>
@@ -25333,7 +25591,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>42913</v>
       </c>
@@ -25341,7 +25599,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>42914</v>
       </c>
@@ -25349,7 +25607,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>42948</v>
       </c>
@@ -25357,12 +25615,12 @@
         <v>657</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
-        <v>42952</v>
+        <v>42977</v>
       </c>
       <c r="B55" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>

--- a/BigAssTableOfLenses.xlsx
+++ b/BigAssTableOfLenses.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\BATOL\BigAssTableOfLenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbruggeman/Documents/MTFWServer/BigAssTableOfLenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16820"/>
   </bookViews>
   <sheets>
     <sheet name="LensTable" sheetId="1" r:id="rId1"/>
     <sheet name="Changelog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="672">
   <si>
     <t>Manufacture</t>
   </si>
@@ -2032,12 +2038,21 @@
   </si>
   <si>
     <t>Removed slashes for old T#'s</t>
+  </si>
+  <si>
+    <t>Added Sigma 150mm APO Macro</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>150mm F2.8 EX DG OS HSM APO Macro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2140,8 +2155,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q425" totalsRowShown="0">
-  <autoFilter ref="A1:Q425"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q426" totalsRowShown="0">
+  <autoFilter ref="A1:Q426"/>
   <sortState ref="A2:Q403">
     <sortCondition ref="Q1:Q403"/>
   </sortState>
@@ -2465,31 +2480,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q425"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:Q426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="C427" sqref="C427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1015625" customWidth="1"/>
-    <col min="2" max="2" width="37.89453125" customWidth="1"/>
-    <col min="3" max="3" width="5.41796875" customWidth="1"/>
-    <col min="4" max="4" width="6.41796875" customWidth="1"/>
-    <col min="5" max="5" width="8.20703125" customWidth="1"/>
-    <col min="7" max="7" width="8.68359375" customWidth="1"/>
-    <col min="8" max="8" width="12.41796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1015625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.89453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.20703125" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.68359375" customWidth="1"/>
-    <col min="15" max="16" width="8.89453125" style="12"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2557,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2597,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2652,7 +2667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2707,7 +2722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2762,7 +2777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2817,7 +2832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2872,7 +2887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2927,7 +2942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +2997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3037,7 +3052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3092,7 +3107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3147,7 +3162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3202,7 +3217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3257,7 +3272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3312,7 +3327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3367,7 +3382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3422,7 +3437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +3492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3532,7 +3547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3587,7 +3602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3642,7 +3657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3697,7 +3712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3752,7 +3767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3807,7 +3822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3862,7 +3877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3917,7 +3932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3972,7 +3987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -4027,7 +4042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -4082,7 +4097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -4137,7 +4152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -4192,7 +4207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -4247,7 +4262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -4302,7 +4317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -4357,7 +4372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4412,7 +4427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4467,7 +4482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4522,7 +4537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4577,7 +4592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4632,7 +4647,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4687,7 +4702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4742,7 +4757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4797,7 +4812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4852,7 +4867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4905,7 +4920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4960,7 +4975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -5015,7 +5030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -5070,7 +5085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5125,7 +5140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5180,7 +5195,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5235,7 +5250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5290,7 +5305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -5345,7 +5360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5400,7 +5415,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -5455,7 +5470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5510,7 +5525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -5565,7 +5580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5620,7 +5635,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5675,7 +5690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5730,7 +5745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5785,7 +5800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5838,7 +5853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5893,7 +5908,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5946,7 +5961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5999,7 +6014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -6052,7 +6067,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -6105,7 +6120,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -6158,7 +6173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>370</v>
       </c>
@@ -6211,7 +6226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>370</v>
       </c>
@@ -6264,7 +6279,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>370</v>
       </c>
@@ -6317,7 +6332,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>370</v>
       </c>
@@ -6370,7 +6385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>370</v>
       </c>
@@ -6423,7 +6438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>370</v>
       </c>
@@ -6476,7 +6491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>370</v>
       </c>
@@ -6529,7 +6544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>370</v>
       </c>
@@ -6582,7 +6597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>370</v>
       </c>
@@ -6635,7 +6650,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>370</v>
       </c>
@@ -6688,7 +6703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>370</v>
       </c>
@@ -6741,7 +6756,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>370</v>
       </c>
@@ -6794,7 +6809,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>370</v>
       </c>
@@ -6847,7 +6862,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>370</v>
       </c>
@@ -6900,7 +6915,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>370</v>
       </c>
@@ -6953,7 +6968,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>370</v>
       </c>
@@ -7006,7 +7021,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>370</v>
       </c>
@@ -7059,7 +7074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>370</v>
       </c>
@@ -7112,7 +7127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>370</v>
       </c>
@@ -7165,7 +7180,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>370</v>
       </c>
@@ -7218,7 +7233,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>370</v>
       </c>
@@ -7268,7 +7283,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>287</v>
       </c>
@@ -7321,7 +7336,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>421</v>
       </c>
@@ -7370,7 +7385,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>421</v>
       </c>
@@ -7419,7 +7434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>227</v>
       </c>
@@ -7472,7 +7487,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>227</v>
       </c>
@@ -7525,7 +7540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>227</v>
       </c>
@@ -7578,7 +7593,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>227</v>
       </c>
@@ -7631,7 +7646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>227</v>
       </c>
@@ -7684,7 +7699,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>227</v>
       </c>
@@ -7737,7 +7752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>227</v>
       </c>
@@ -7792,7 +7807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>227</v>
       </c>
@@ -7848,7 +7863,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>227</v>
       </c>
@@ -7903,7 +7918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>227</v>
       </c>
@@ -7956,7 +7971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>227</v>
       </c>
@@ -8009,7 +8024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>227</v>
       </c>
@@ -8062,7 +8077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -8115,7 +8130,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>227</v>
       </c>
@@ -8168,7 +8183,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>227</v>
       </c>
@@ -8221,7 +8236,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>227</v>
       </c>
@@ -8277,7 +8292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>227</v>
       </c>
@@ -8330,7 +8345,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>227</v>
       </c>
@@ -8383,7 +8398,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>227</v>
       </c>
@@ -8436,7 +8451,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>227</v>
       </c>
@@ -8489,7 +8504,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>227</v>
       </c>
@@ -8542,7 +8557,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>227</v>
       </c>
@@ -8595,7 +8610,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -8648,7 +8663,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -8701,7 +8716,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>227</v>
       </c>
@@ -8757,7 +8772,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>227</v>
       </c>
@@ -8813,7 +8828,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -8866,7 +8881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -8919,7 +8934,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>227</v>
       </c>
@@ -8972,7 +8987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>289</v>
       </c>
@@ -9027,7 +9042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>289</v>
       </c>
@@ -9082,7 +9097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>289</v>
       </c>
@@ -9137,7 +9152,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -9190,7 +9205,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -9243,7 +9258,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -9296,7 +9311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -9349,7 +9364,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -9402,7 +9417,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -9455,7 +9470,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -9508,7 +9523,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -9561,7 +9576,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -9614,7 +9629,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -9667,7 +9682,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -9720,7 +9735,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -9773,7 +9788,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -9826,7 +9841,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -9879,7 +9894,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -9932,7 +9947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -9986,7 +10001,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -10039,7 +10054,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -10092,7 +10107,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -10145,7 +10160,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -10198,7 +10213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -10251,7 +10266,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>59</v>
       </c>
@@ -10304,7 +10319,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>59</v>
       </c>
@@ -10357,7 +10372,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>59</v>
       </c>
@@ -10410,7 +10425,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -10463,7 +10478,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>59</v>
       </c>
@@ -10516,7 +10531,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -10569,7 +10584,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>59</v>
       </c>
@@ -10622,7 +10637,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -10675,7 +10690,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -10728,7 +10743,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -10781,7 +10796,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -10834,7 +10849,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -10885,7 +10900,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -10936,7 +10951,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -10987,7 +11002,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -11038,7 +11053,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -11089,7 +11104,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>363</v>
       </c>
@@ -11140,7 +11155,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>363</v>
       </c>
@@ -11191,7 +11206,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>363</v>
       </c>
@@ -11242,7 +11257,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>430</v>
       </c>
@@ -11293,7 +11308,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>430</v>
       </c>
@@ -11344,7 +11359,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>430</v>
       </c>
@@ -11395,7 +11410,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>424</v>
       </c>
@@ -11450,7 +11465,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>424</v>
       </c>
@@ -11503,7 +11518,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>424</v>
       </c>
@@ -11559,7 +11574,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>424</v>
       </c>
@@ -11612,7 +11627,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>424</v>
       </c>
@@ -11667,7 +11682,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
         <v>424</v>
       </c>
@@ -11720,7 +11735,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
         <v>424</v>
       </c>
@@ -11775,7 +11790,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
         <v>424</v>
       </c>
@@ -11828,7 +11843,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
         <v>424</v>
       </c>
@@ -11883,7 +11898,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
         <v>424</v>
       </c>
@@ -11936,7 +11951,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>424</v>
       </c>
@@ -11989,7 +12004,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
         <v>424</v>
       </c>
@@ -12042,7 +12057,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>213</v>
       </c>
@@ -12097,7 +12112,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>213</v>
       </c>
@@ -12152,7 +12167,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>213</v>
       </c>
@@ -12207,7 +12222,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>100</v>
       </c>
@@ -12260,7 +12275,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>100</v>
       </c>
@@ -12313,7 +12328,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>100</v>
       </c>
@@ -12366,7 +12381,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>100</v>
       </c>
@@ -12419,7 +12434,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>100</v>
       </c>
@@ -12472,7 +12487,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>100</v>
       </c>
@@ -12525,7 +12540,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -12578,7 +12593,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>100</v>
       </c>
@@ -12631,7 +12646,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>100</v>
       </c>
@@ -12684,7 +12699,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>100</v>
       </c>
@@ -12737,7 +12752,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>100</v>
       </c>
@@ -12790,7 +12805,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>100</v>
       </c>
@@ -12841,7 +12856,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>100</v>
       </c>
@@ -12892,7 +12907,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>100</v>
       </c>
@@ -12940,7 +12955,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>100</v>
       </c>
@@ -12991,7 +13006,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>100</v>
       </c>
@@ -13042,7 +13057,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>100</v>
       </c>
@@ -13093,7 +13108,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>166</v>
       </c>
@@ -13146,7 +13161,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>166</v>
       </c>
@@ -13199,7 +13214,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>166</v>
       </c>
@@ -13252,7 +13267,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>166</v>
       </c>
@@ -13305,7 +13320,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>166</v>
       </c>
@@ -13358,7 +13373,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>166</v>
       </c>
@@ -13411,7 +13426,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>166</v>
       </c>
@@ -13465,7 +13480,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>166</v>
       </c>
@@ -13518,7 +13533,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>166</v>
       </c>
@@ -13571,7 +13586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>166</v>
       </c>
@@ -13624,7 +13639,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>166</v>
       </c>
@@ -13677,7 +13692,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>166</v>
       </c>
@@ -13730,7 +13745,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>166</v>
       </c>
@@ -13783,7 +13798,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>166</v>
       </c>
@@ -13836,7 +13851,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>166</v>
       </c>
@@ -13889,7 +13904,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>166</v>
       </c>
@@ -13940,7 +13955,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>182</v>
       </c>
@@ -13993,7 +14008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>182</v>
       </c>
@@ -14046,7 +14061,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>182</v>
       </c>
@@ -14099,7 +14114,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>182</v>
       </c>
@@ -14152,7 +14167,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>182</v>
       </c>
@@ -14205,7 +14220,7 @@
         <v>218</v>
       </c>
     </row>
-   